--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19405,7 +19405,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E583" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F583" s="1" t="n">
         <x:v>4</x:v>
@@ -19420,7 +19420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J583" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:10">
@@ -19440,7 +19440,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F584" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G584" s="1" t="n">
         <x:v>9</x:v>
@@ -19452,7 +19452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J584" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:10">
@@ -19469,10 +19469,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E585" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F585" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G585" s="1" t="n">
         <x:v>14</x:v>
@@ -19484,7 +19484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J585" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -19792,7 +19792,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F595" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G595" s="1" t="n">
         <x:v>23</x:v>
@@ -19804,7 +19804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19827,7 +19827,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G596" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H596" s="1" t="n">
         <x:v>9</x:v>
@@ -19836,7 +19836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -19856,10 +19856,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F597" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G597" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H597" s="1" t="n">
         <x:v>11</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -20115,10 +20115,10 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H605" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I605" s="0" t="n">
         <x:v>0</x:v>
@@ -20147,10 +20147,10 @@
         <x:v>491</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I606" s="0" t="n">
         <x:v>0</x:v>
@@ -28621,7 +28621,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
         <x:v>556</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1896</x:v>
+        <x:v>1897</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28685,7 +28685,7 @@
         <x:v>344</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>995</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
         <x:v>1353</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4298</x:v>
+        <x:v>4299</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -61459,7 +61459,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G1897" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H1897" s="1" t="n">
         <x:v>14</x:v>
@@ -61468,7 +61468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1897" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="1898" spans="1:10">
@@ -61491,7 +61491,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G1898" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H1898" s="1" t="n">
         <x:v>21</x:v>
@@ -61500,7 +61500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1898" s="0" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="1899" spans="1:10">
@@ -64336,7 +64336,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F1987" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1987" s="1" t="n">
         <x:v>37</x:v>
@@ -64348,7 +64348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1987" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="1988" spans="1:10">
@@ -64400,7 +64400,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F1989" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G1989" s="1" t="n">
         <x:v>109</x:v>
@@ -64412,7 +64412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1989" s="0" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="1990" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2672,10 +2672,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
         <x:v>65</x:v>
@@ -2684,7 +2684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>618</x:v>
+        <x:v>620</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2704,10 +2704,10 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>124</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1186</x:v>
+        <x:v>1188</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -19635,7 +19635,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="G590" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H590" s="1" t="n">
         <x:v>27</x:v>
@@ -19644,7 +19644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J590" s="0" t="n">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:10">
@@ -19667,7 +19667,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H591" s="1" t="n">
         <x:v>30</x:v>
@@ -19676,7 +19676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>356</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -19824,7 +19824,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F596" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G596" s="1" t="n">
         <x:v>30</x:v>
@@ -19836,7 +19836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -19856,7 +19856,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F597" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G597" s="1" t="n">
         <x:v>53</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -20083,7 +20083,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
         <x:v>73</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20109,7 +20109,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E605" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
         <x:v>308</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>906</x:v>
+        <x:v>905</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20141,13 +20141,13 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E606" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
         <x:v>491</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>173</x:v>
@@ -28016,7 +28016,7 @@
         <x:v>493</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>906</x:v>
+        <x:v>907</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>689</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2330</x:v>
+        <x:v>2331</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>681</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1211</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>914</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3102</x:v>
+        <x:v>3103</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -29034,7 +29034,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D884" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
         <x:v>95</x:v>
@@ -29052,7 +29052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29066,7 +29066,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D885" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
         <x:v>111</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29136,7 +29136,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
         <x:v>59</x:v>
@@ -29148,7 +29148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29168,7 +29168,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F888" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
         <x:v>59</x:v>
@@ -29180,7 +29180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -46256,7 +46256,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1422" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1422" s="1" t="n">
         <x:v>0</x:v>
@@ -46268,7 +46268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1422" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1423" spans="1:10">
@@ -46288,7 +46288,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1423" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1423" s="1" t="n">
         <x:v>0</x:v>
@@ -46300,7 +46300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1423" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1424" spans="1:10">
@@ -47472,7 +47472,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1460" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1460" s="1" t="n">
         <x:v>0</x:v>
@@ -47484,7 +47484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1460" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1461" spans="1:10">
@@ -47504,7 +47504,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1461" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1461" s="1" t="n">
         <x:v>0</x:v>
@@ -47516,7 +47516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1461" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1462" spans="1:10">
@@ -51565,7 +51565,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1588" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1588" s="1" t="n">
         <x:v>10</x:v>
@@ -51580,7 +51580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1588" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="1589" spans="1:10">
@@ -51597,7 +51597,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1589" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1589" s="1" t="n">
         <x:v>13</x:v>
@@ -51612,7 +51612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1589" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="1590" spans="1:10">
@@ -57235,7 +57235,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G1765" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1765" s="1" t="n">
         <x:v>2</x:v>
@@ -57244,7 +57244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1765" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="1766" spans="1:10">
@@ -57299,7 +57299,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="G1767" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H1767" s="1" t="n">
         <x:v>15</x:v>
@@ -57308,7 +57308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1767" s="0" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="1768" spans="1:10">
@@ -58131,7 +58131,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="G1793" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H1793" s="1" t="n">
         <x:v>72</x:v>
@@ -58140,7 +58140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1793" s="0" t="n">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
     </x:row>
     <x:row r="1794" spans="1:10">
@@ -58195,7 +58195,7 @@
         <x:v>538</x:v>
       </x:c>
       <x:c r="G1795" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="H1795" s="1" t="n">
         <x:v>166</x:v>
@@ -58204,7 +58204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1795" s="0" t="n">
-        <x:v>1614</x:v>
+        <x:v>1615</x:v>
       </x:c>
     </x:row>
     <x:row r="1796" spans="1:10">
@@ -63990,13 +63990,13 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H1976" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I1976" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1976" s="0" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="1977" spans="1:10">
@@ -64022,13 +64022,13 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="H1977" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I1977" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1977" s="0" t="n">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="1978" spans="1:10">
@@ -64915,7 +64915,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G2005" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H2005" s="1" t="n">
         <x:v>17</x:v>
@@ -64924,7 +64924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2005" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="2006" spans="1:10">
@@ -64979,7 +64979,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="G2007" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H2007" s="1" t="n">
         <x:v>47</x:v>
@@ -64988,7 +64988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2007" s="0" t="n">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="2008" spans="1:10">
@@ -66038,13 +66038,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H2040" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I2040" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2040" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="2041" spans="1:10">
@@ -66070,13 +66070,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="H2041" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I2041" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2041" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="2042" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19792,7 +19792,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F595" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G595" s="1" t="n">
         <x:v>23</x:v>
@@ -19804,7 +19804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19856,7 +19856,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F597" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G597" s="1" t="n">
         <x:v>53</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -20109,10 +20109,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E605" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
         <x:v>233</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>905</x:v>
+        <x:v>907</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20141,10 +20141,10 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E606" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
         <x:v>461</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1628</x:v>
+        <x:v>1630</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -34227,7 +34227,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G1046" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H1046" s="1" t="n">
         <x:v>19</x:v>
@@ -34236,7 +34236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1046" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="1047" spans="1:10">
@@ -34259,7 +34259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="n">
         <x:v>27</x:v>
@@ -34268,7 +34268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1047" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="1048" spans="1:10">
@@ -34643,7 +34643,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1059" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1059" s="1" t="n">
         <x:v>0</x:v>
@@ -34652,7 +34652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1059" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1060" spans="1:10">
@@ -34707,7 +34707,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1061" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1061" s="1" t="n">
         <x:v>0</x:v>
@@ -34716,7 +34716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1061" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1062" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19600,7 +19600,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F589" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G589" s="1" t="n">
         <x:v>26</x:v>
@@ -19612,7 +19612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J589" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:10">
@@ -19664,7 +19664,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F591" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
         <x:v>111</x:v>
@@ -19676,7 +19676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -20688,7 +20688,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F623" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G623" s="1" t="n">
         <x:v>23</x:v>
@@ -20700,7 +20700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J623" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="624" spans="1:10">
@@ -20720,7 +20720,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F624" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G624" s="1" t="n">
         <x:v>25</x:v>
@@ -20732,7 +20732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J624" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="625" spans="1:10">
@@ -27603,7 +27603,7 @@
         <x:v>294</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
         <x:v>97</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>934</x:v>
+        <x:v>935</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27667,7 +27667,7 @@
         <x:v>1242</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1146</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>509</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3914</x:v>
+        <x:v>3915</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -29002,7 +29002,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D883" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
         <x:v>16</x:v>
@@ -29020,7 +29020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29034,7 +29034,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D884" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
         <x:v>95</x:v>
@@ -29052,7 +29052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>359</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29066,7 +29066,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D885" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
         <x:v>111</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>429</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29139,7 +29139,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
         <x:v>43</x:v>
@@ -29148,7 +29148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29171,7 +29171,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
         <x:v>44</x:v>
@@ -29180,7 +29180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -29331,7 +29331,7 @@
         <x:v>279</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
         <x:v>43</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>916</x:v>
+        <x:v>917</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29363,7 +29363,7 @@
         <x:v>321</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
         <x:v>43</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1019</x:v>
+        <x:v>1020</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -34643,7 +34643,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G1059" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1059" s="1" t="n">
         <x:v>0</x:v>
@@ -34652,7 +34652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1059" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1060" spans="1:10">
@@ -34707,7 +34707,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1061" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H1061" s="1" t="n">
         <x:v>0</x:v>
@@ -34716,7 +34716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1061" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="1062" spans="1:10">
@@ -64947,7 +64947,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G2006" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H2006" s="1" t="n">
         <x:v>30</x:v>
@@ -64956,7 +64956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2006" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="2007" spans="1:10">
@@ -64979,7 +64979,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="G2007" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H2007" s="1" t="n">
         <x:v>47</x:v>
@@ -64988,7 +64988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2007" s="0" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="2008" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2189,7 +2189,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
         <x:v>14</x:v>
@@ -2204,7 +2204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:10">
@@ -2221,7 +2221,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>22</x:v>
@@ -2236,7 +2236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
@@ -11146,7 +11146,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D325" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E325" s="1" t="n">
         <x:v>27</x:v>
@@ -11164,7 +11164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J325" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:10">
@@ -11178,7 +11178,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D326" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E326" s="1" t="n">
         <x:v>34</x:v>
@@ -11196,7 +11196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J326" s="0" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:10">
@@ -19411,7 +19411,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G583" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H583" s="1" t="n">
         <x:v>2</x:v>
@@ -19420,7 +19420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J583" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:10">
@@ -19475,7 +19475,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G585" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H585" s="1" t="n">
         <x:v>7</x:v>
@@ -19484,7 +19484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J585" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -19507,7 +19507,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G586" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H586" s="1" t="n">
         <x:v>3</x:v>
@@ -19516,7 +19516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J586" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="587" spans="1:10">
@@ -19571,7 +19571,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G588" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H588" s="1" t="n">
         <x:v>11</x:v>
@@ -19580,7 +19580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J588" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:10">
@@ -19798,13 +19798,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H595" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I595" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19862,13 +19862,13 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H597" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I597" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -20083,7 +20083,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
         <x:v>73</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>723</x:v>
+        <x:v>726</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20147,7 +20147,7 @@
         <x:v>492</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>461</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>173</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1630</x:v>
+        <x:v>1633</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -20170,7 +20170,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D607" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E607" s="1" t="n">
         <x:v>1</x:v>
@@ -20188,7 +20188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J607" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="608" spans="1:10">
@@ -20234,7 +20234,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D609" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E609" s="1" t="n">
         <x:v>7</x:v>
@@ -20252,7 +20252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J609" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="610" spans="1:10">
@@ -27594,25 +27594,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D839" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I839" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>935</x:v>
+        <x:v>940</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27629,10 +27629,10 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>948</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>931</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>2980</x:v>
+        <x:v>2983</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27658,25 +27658,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1242</x:v>
+        <x:v>1245</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1147</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3915</x:v>
+        <x:v>3923</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27699,7 +27699,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G842" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H842" s="1" t="n">
         <x:v>4</x:v>
@@ -27708,7 +27708,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J842" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="843" spans="1:10">
@@ -27728,19 +27728,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F843" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G843" s="1" t="n">
         <x:v>112</x:v>
       </x:c>
       <x:c r="H843" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I843" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J843" s="0" t="n">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="844" spans="1:10">
@@ -27760,19 +27760,19 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F844" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G844" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H844" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I844" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J844" s="0" t="n">
-        <x:v>416</x:v>
+        <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="845" spans="1:10">
@@ -27981,7 +27981,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
         <x:v>305</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>772</x:v>
+        <x:v>771</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,10 +28016,10 @@
         <x:v>493</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>907</x:v>
+        <x:v>908</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2331</x:v>
+        <x:v>2333</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,13 +28045,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1212</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>914</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3103</x:v>
+        <x:v>3104</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28237,7 +28237,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E859" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
         <x:v>67</x:v>
@@ -28252,7 +28252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28275,7 +28275,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
         <x:v>38</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28301,13 +28301,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>193</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
         <x:v>50</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>607</x:v>
+        <x:v>609</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28621,10 +28621,10 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>497</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1897</x:v>
+        <x:v>1902</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28656,19 +28656,19 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>797</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>635</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2402</x:v>
+        <x:v>2404</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28685,22 +28685,22 @@
         <x:v>344</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>996</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1353</x:v>
+        <x:v>1358</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1132</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4299</x:v>
+        <x:v>4306</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29040,7 +29040,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
         <x:v>44</x:v>
@@ -29052,7 +29052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29072,7 +29072,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
         <x:v>51</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29130,7 +29130,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
         <x:v>44</x:v>
@@ -29148,7 +29148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29162,7 +29162,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
         <x:v>46</x:v>
@@ -29180,7 +29180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -29322,10 +29322,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D893" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
         <x:v>279</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>917</x:v>
+        <x:v>920</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29354,10 +29354,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
         <x:v>321</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1020</x:v>
+        <x:v>1023</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -57104,7 +57104,7 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="F1761" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="G1761" s="1" t="n">
         <x:v>436</x:v>
@@ -57116,7 +57116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1761" s="0" t="n">
-        <x:v>1350</x:v>
+        <x:v>1349</x:v>
       </x:c>
     </x:row>
     <x:row r="1762" spans="1:10">
@@ -57136,7 +57136,7 @@
         <x:v>315</x:v>
       </x:c>
       <x:c r="F1762" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="G1762" s="1" t="n">
         <x:v>553</x:v>
@@ -57148,7 +57148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1762" s="0" t="n">
-        <x:v>1742</x:v>
+        <x:v>1741</x:v>
       </x:c>
     </x:row>
     <x:row r="1763" spans="1:10">
@@ -65651,7 +65651,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G2028" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H2028" s="1" t="n">
         <x:v>12</x:v>
@@ -65660,7 +65660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2028" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="2029" spans="1:10">
@@ -65683,7 +65683,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="G2029" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H2029" s="1" t="n">
         <x:v>18</x:v>
@@ -65692,7 +65692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2029" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="2030" spans="1:10">
@@ -70320,7 +70320,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="F2174" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="G2174" s="1" t="n">
         <x:v>191</x:v>
@@ -70332,7 +70332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2174" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="2175" spans="1:10">
@@ -70355,7 +70355,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="G2175" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H2175" s="1" t="n">
         <x:v>78</x:v>
@@ -70364,7 +70364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2175" s="0" t="n">
-        <x:v>796</x:v>
+        <x:v>797</x:v>
       </x:c>
     </x:row>
     <x:row r="2176" spans="1:10">
@@ -70384,10 +70384,10 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="F2176" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="G2176" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="H2176" s="1" t="n">
         <x:v>211</x:v>
@@ -70396,7 +70396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2176" s="0" t="n">
-        <x:v>1572</x:v>
+        <x:v>1574</x:v>
       </x:c>
     </x:row>
     <x:row r="2177" spans="1:10">
@@ -71318,13 +71318,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2205" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2205" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2205" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2206" spans="1:10">
@@ -71350,13 +71350,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2206" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2206" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2206" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2207" spans="1:10">
@@ -73206,13 +73206,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H2264" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I2264" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2264" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="2265" spans="1:10">
@@ -73238,13 +73238,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H2265" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I2265" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2265" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="2266" spans="1:10">
@@ -76784,7 +76784,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F2376" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G2376" s="1" t="n">
         <x:v>10</x:v>
@@ -76796,7 +76796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2376" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="2377" spans="1:10">
@@ -76848,7 +76848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2378" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G2378" s="1" t="n">
         <x:v>20</x:v>
@@ -76860,7 +76860,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2378" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="2379" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -13328,7 +13328,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F393" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G393" s="1" t="n">
         <x:v>40</x:v>
@@ -13340,7 +13340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J393" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="394" spans="1:10">
@@ -13360,7 +13360,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F394" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G394" s="1" t="n">
         <x:v>55</x:v>
@@ -13372,7 +13372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J394" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="395" spans="1:10">
@@ -19254,13 +19254,13 @@
         <x:v>272</x:v>
       </x:c>
       <x:c r="H578" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I578" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J578" s="0" t="n">
-        <x:v>785</x:v>
+        <x:v>786</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:10">
@@ -19286,13 +19286,13 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="H579" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I579" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J579" s="0" t="n">
-        <x:v>1080</x:v>
+        <x:v>1081</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:10">
@@ -19437,7 +19437,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E584" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F584" s="1" t="n">
         <x:v>9</x:v>
@@ -19452,7 +19452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J584" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:10">
@@ -19469,7 +19469,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E585" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F585" s="1" t="n">
         <x:v>13</x:v>
@@ -19484,7 +19484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J585" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -20080,10 +20080,10 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="F604" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
         <x:v>73</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>726</x:v>
+        <x:v>728</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20112,7 +20112,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
         <x:v>233</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>907</x:v>
+        <x:v>908</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20144,10 +20144,10 @@
         <x:v>333</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>173</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1633</x:v>
+        <x:v>1636</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27597,7 +27597,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
         <x:v>295</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>940</x:v>
+        <x:v>941</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27632,10 +27632,10 @@
         <x:v>519</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>950</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
-        <x:v>931</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
         <x:v>412</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>2983</x:v>
+        <x:v>2985</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,13 +27661,13 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1245</x:v>
+        <x:v>1246</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>510</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3923</x:v>
+        <x:v>3926</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27699,7 +27699,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G842" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H842" s="1" t="n">
         <x:v>4</x:v>
@@ -27708,7 +27708,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J842" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="843" spans="1:10">
@@ -27728,7 +27728,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F843" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G843" s="1" t="n">
         <x:v>112</x:v>
@@ -27740,7 +27740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J843" s="0" t="n">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="844" spans="1:10">
@@ -27760,10 +27760,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F844" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G844" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H844" s="1" t="n">
         <x:v>42</x:v>
@@ -27772,7 +27772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J844" s="0" t="n">
-        <x:v>419</x:v>
+        <x:v>421</x:v>
       </x:c>
     </x:row>
     <x:row r="845" spans="1:10">
@@ -27824,7 +27824,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F846" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G846" s="1" t="n">
         <x:v>27</x:v>
@@ -27836,7 +27836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J846" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="847" spans="1:10">
@@ -27856,7 +27856,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F847" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G847" s="1" t="n">
         <x:v>40</x:v>
@@ -27868,7 +27868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J847" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="848" spans="1:10">
@@ -27984,10 +27984,10 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>771</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28019,7 +28019,7 @@
         <x:v>908</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2333</x:v>
+        <x:v>2334</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,10 +28048,10 @@
         <x:v>680</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1213</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3104</x:v>
+        <x:v>3107</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28621,10 +28621,10 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>497</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1902</x:v>
+        <x:v>1905</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28656,7 +28656,7 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>798</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>635</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2404</x:v>
+        <x:v>2407</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28685,10 +28685,10 @@
         <x:v>344</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>997</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1358</x:v>
+        <x:v>1362</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1132</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4306</x:v>
+        <x:v>4312</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29005,7 +29005,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>16</x:v>
@@ -29020,7 +29020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29069,7 +29069,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
         <x:v>116</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29139,7 +29139,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
         <x:v>43</x:v>
@@ -29148,7 +29148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29171,7 +29171,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
         <x:v>44</x:v>
@@ -29180,7 +29180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -57107,7 +57107,7 @@
         <x:v>438</x:v>
       </x:c>
       <x:c r="G1761" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="H1761" s="1" t="n">
         <x:v>173</x:v>
@@ -57116,7 +57116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1761" s="0" t="n">
-        <x:v>1349</x:v>
+        <x:v>1350</x:v>
       </x:c>
     </x:row>
     <x:row r="1762" spans="1:10">
@@ -57139,7 +57139,7 @@
         <x:v>560</x:v>
       </x:c>
       <x:c r="G1762" s="1" t="n">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="H1762" s="1" t="n">
         <x:v>203</x:v>
@@ -57148,7 +57148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1762" s="0" t="n">
-        <x:v>1741</x:v>
+        <x:v>1742</x:v>
       </x:c>
     </x:row>
     <x:row r="1763" spans="1:10">
@@ -66602,7 +66602,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2058" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2058" s="1" t="n">
         <x:v>0</x:v>
@@ -66620,7 +66620,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2058" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2059" spans="1:10">
@@ -66634,7 +66634,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2059" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2059" s="1" t="n">
         <x:v>1</x:v>
@@ -66652,7 +66652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2059" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2060" spans="1:10">
@@ -67891,7 +67891,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G2098" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H2098" s="1" t="n">
         <x:v>22</x:v>
@@ -67900,7 +67900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2098" s="0" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="2099" spans="1:10">
@@ -67955,7 +67955,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="G2100" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H2100" s="1" t="n">
         <x:v>102</x:v>
@@ -67964,7 +67964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2100" s="0" t="n">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
     </x:row>
     <x:row r="2101" spans="1:10">
@@ -68301,7 +68301,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E2111" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F2111" s="1" t="n">
         <x:v>90</x:v>
@@ -68316,7 +68316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2111" s="0" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="2112" spans="1:10">
@@ -68333,7 +68333,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E2112" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F2112" s="1" t="n">
         <x:v>128</x:v>
@@ -68348,7 +68348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2112" s="0" t="n">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="2113" spans="1:10">
@@ -68371,7 +68371,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G2113" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H2113" s="1" t="n">
         <x:v>2</x:v>
@@ -68380,7 +68380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2113" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2114" spans="1:10">
@@ -68403,7 +68403,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G2114" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H2114" s="1" t="n">
         <x:v>3</x:v>
@@ -68412,7 +68412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2114" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="2115" spans="1:10">
@@ -68435,7 +68435,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G2115" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H2115" s="1" t="n">
         <x:v>5</x:v>
@@ -68444,7 +68444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2115" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="2116" spans="1:10">
@@ -68659,7 +68659,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="G2122" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H2122" s="1" t="n">
         <x:v>44</x:v>
@@ -68668,7 +68668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2122" s="0" t="n">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="2123" spans="1:10">
@@ -68691,7 +68691,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="G2123" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="H2123" s="1" t="n">
         <x:v>82</x:v>
@@ -68700,7 +68700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2123" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="2124" spans="1:10">
@@ -76819,7 +76819,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G2377" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H2377" s="1" t="n">
         <x:v>8</x:v>
@@ -76828,7 +76828,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2377" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="2378" spans="1:10">
@@ -76851,7 +76851,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G2378" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H2378" s="1" t="n">
         <x:v>13</x:v>
@@ -76860,7 +76860,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2378" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="2379" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2163,7 +2163,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
         <x:v>2</x:v>
@@ -2172,7 +2172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10">
@@ -2227,7 +2227,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
         <x:v>4</x:v>
@@ -2236,7 +2236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
@@ -2294,13 +2294,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>395</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2326,13 +2326,13 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>566</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -19632,7 +19632,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F590" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G590" s="1" t="n">
         <x:v>85</x:v>
@@ -19644,7 +19644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J590" s="0" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:10">
@@ -19664,7 +19664,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F591" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
         <x:v>111</x:v>
@@ -19676,7 +19676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -20083,7 +20083,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
         <x:v>73</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>728</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20147,7 +20147,7 @@
         <x:v>494</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>173</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1636</x:v>
+        <x:v>1633</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -31411,7 +31411,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G958" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H958" s="1" t="n">
         <x:v>2</x:v>
@@ -31420,7 +31420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J958" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="959" spans="1:10">
@@ -31475,7 +31475,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G960" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H960" s="1" t="n">
         <x:v>15</x:v>
@@ -31484,7 +31484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J960" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="961" spans="1:10">
@@ -63981,7 +63981,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E1976" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F1976" s="1" t="n">
         <x:v>71</x:v>
@@ -63996,7 +63996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1976" s="0" t="n">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="1977" spans="1:10">
@@ -64013,7 +64013,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E1977" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F1977" s="1" t="n">
         <x:v>96</x:v>
@@ -64028,7 +64028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1977" s="0" t="n">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="1978" spans="1:10">
@@ -64947,7 +64947,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G2006" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H2006" s="1" t="n">
         <x:v>30</x:v>
@@ -64956,7 +64956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2006" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="2007" spans="1:10">
@@ -64979,7 +64979,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="G2007" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H2007" s="1" t="n">
         <x:v>47</x:v>
@@ -64988,7 +64988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2007" s="0" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="2008" spans="1:10">
@@ -65622,13 +65622,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2027" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I2027" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2027" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="2028" spans="1:10">
@@ -65686,13 +65686,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="H2029" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I2029" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2029" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="2030" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8147,7 +8147,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G231" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H231" s="1" t="n">
         <x:v>4</x:v>
@@ -8156,7 +8156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J231" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:10">
@@ -8211,7 +8211,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G233" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H233" s="1" t="n">
         <x:v>13</x:v>
@@ -8220,7 +8220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J233" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:10">
@@ -18864,10 +18864,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F566" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G566" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H566" s="1" t="n">
         <x:v>1</x:v>
@@ -18876,7 +18876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J566" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="567" spans="1:10">
@@ -18896,10 +18896,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F567" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G567" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H567" s="1" t="n">
         <x:v>1</x:v>
@@ -18908,7 +18908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J567" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="568" spans="1:10">
@@ -21843,7 +21843,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G659" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H659" s="1" t="n">
         <x:v>10</x:v>
@@ -21852,7 +21852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J659" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="660" spans="1:10">
@@ -21875,7 +21875,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G660" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H660" s="1" t="n">
         <x:v>13</x:v>
@@ -21884,7 +21884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J660" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="661" spans="1:10">
@@ -27635,7 +27635,7 @@
         <x:v>951</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
         <x:v>412</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>2985</x:v>
+        <x:v>2986</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27667,7 +27667,7 @@
         <x:v>1246</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>510</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3926</x:v>
+        <x:v>3927</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -34573,7 +34573,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E1057" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="n">
         <x:v>24</x:v>
@@ -34588,7 +34588,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1057" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="1058" spans="1:10">
@@ -34605,7 +34605,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E1058" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F1058" s="1" t="n">
         <x:v>40</x:v>
@@ -34620,7 +34620,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1058" s="0" t="n">
-        <x:v>157</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="1059" spans="1:10">
@@ -50000,7 +50000,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1539" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1539" s="1" t="n">
         <x:v>4</x:v>
@@ -50012,7 +50012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1539" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1540" spans="1:10">
@@ -50064,7 +50064,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1541" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1541" s="1" t="n">
         <x:v>18</x:v>
@@ -50076,7 +50076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1541" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="1542" spans="1:10">
@@ -50666,25 +50666,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1560" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E1560" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F1560" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G1560" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H1560" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I1560" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1560" s="0" t="n">
-        <x:v>297</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="1561" spans="1:10">
@@ -50698,16 +50698,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1561" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E1561" s="1" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="F1561" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G1561" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H1561" s="1" t="n">
         <x:v>38</x:v>
@@ -50716,7 +50716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1561" s="0" t="n">
-        <x:v>364</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="1562" spans="1:10">
@@ -50730,25 +50730,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1562" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E1562" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F1562" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G1562" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H1562" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I1562" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1562" s="0" t="n">
-        <x:v>661</x:v>
+        <x:v>670</x:v>
       </x:c>
     </x:row>
     <x:row r="1563" spans="1:10">
@@ -64365,7 +64365,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E1988" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F1988" s="1" t="n">
         <x:v>56</x:v>
@@ -64380,7 +64380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1988" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="1989" spans="1:10">
@@ -64397,7 +64397,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E1989" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F1989" s="1" t="n">
         <x:v>86</x:v>
@@ -64412,7 +64412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1989" s="0" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="1990" spans="1:10">
@@ -66288,7 +66288,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F2048" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G2048" s="1" t="n">
         <x:v>20</x:v>
@@ -66300,7 +66300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2048" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="2049" spans="1:10">
@@ -66320,7 +66320,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F2049" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G2049" s="1" t="n">
         <x:v>32</x:v>
@@ -66332,7 +66332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2049" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="2050" spans="1:10">
@@ -67917,7 +67917,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E2099" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F2099" s="1" t="n">
         <x:v>157</x:v>
@@ -67932,7 +67932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2099" s="0" t="n">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="2100" spans="1:10">
@@ -67949,7 +67949,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E2100" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F2100" s="1" t="n">
         <x:v>219</x:v>
@@ -67964,7 +67964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2100" s="0" t="n">
-        <x:v>721</x:v>
+        <x:v>720</x:v>
       </x:c>
     </x:row>
     <x:row r="2101" spans="1:10">
@@ -68621,7 +68621,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E2121" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F2121" s="1" t="n">
         <x:v>105</x:v>
@@ -68636,7 +68636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2121" s="0" t="n">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="2122" spans="1:10">
@@ -68685,7 +68685,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E2123" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F2123" s="1" t="n">
         <x:v>252</x:v>
@@ -68700,7 +68700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2123" s="0" t="n">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
     </x:row>
     <x:row r="2124" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -7638,13 +7638,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="H215" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I215" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J215" s="0" t="n">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:10">
@@ -7670,13 +7670,13 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="H216" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I216" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J216" s="0" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:10">
@@ -19827,7 +19827,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G596" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H596" s="1" t="n">
         <x:v>9</x:v>
@@ -19836,7 +19836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -19859,7 +19859,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="G597" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H597" s="1" t="n">
         <x:v>12</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -20086,13 +20086,13 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I604" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>725</x:v>
+        <x:v>727</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20150,13 +20150,13 @@
         <x:v>462</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I606" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1633</x:v>
+        <x:v>1635</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -20694,13 +20694,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H623" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I623" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J623" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="624" spans="1:10">
@@ -20726,13 +20726,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H624" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I624" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J624" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="625" spans="1:10">
@@ -26221,7 +26221,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E796" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F796" s="1" t="n">
         <x:v>13</x:v>
@@ -26236,7 +26236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J796" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="797" spans="1:10">
@@ -26253,7 +26253,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E797" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F797" s="1" t="n">
         <x:v>19</x:v>
@@ -26268,7 +26268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J797" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="798" spans="1:10">
@@ -51952,7 +51952,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1600" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1600" s="1" t="n">
         <x:v>5</x:v>
@@ -51964,7 +51964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1600" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1601" spans="1:10">
@@ -51984,7 +51984,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1601" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1601" s="1" t="n">
         <x:v>7</x:v>
@@ -51996,7 +51996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1601" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1602" spans="1:10">
@@ -68307,7 +68307,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="G2111" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H2111" s="1" t="n">
         <x:v>30</x:v>
@@ -68316,7 +68316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2111" s="0" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="2112" spans="1:10">
@@ -68339,7 +68339,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="G2112" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H2112" s="1" t="n">
         <x:v>41</x:v>
@@ -68348,7 +68348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2112" s="0" t="n">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
     </x:row>
     <x:row r="2113" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -25450,7 +25450,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D772" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E772" s="1" t="n">
         <x:v>2</x:v>
@@ -25468,7 +25468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J772" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="773" spans="1:10">
@@ -25482,7 +25482,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D773" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E773" s="1" t="n">
         <x:v>2</x:v>
@@ -25500,7 +25500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J773" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="774" spans="1:10">
@@ -27638,13 +27638,13 @@
         <x:v>933</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>2986</x:v>
+        <x:v>2987</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27670,13 +27670,13 @@
         <x:v>1150</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3927</x:v>
+        <x:v>3928</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27920,10 +27920,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F849" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G849" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H849" s="1" t="n">
         <x:v>24</x:v>
@@ -27932,7 +27932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J849" s="0" t="n">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="850" spans="1:10">
@@ -27952,10 +27952,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F850" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G850" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
         <x:v>25</x:v>
@@ -27964,7 +27964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J850" s="0" t="n">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
@@ -27984,7 +27984,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>226</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>773</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>680</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1214</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>917</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3107</x:v>
+        <x:v>3106</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28627,7 +28627,7 @@
         <x:v>561</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
         <x:v>177</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1905</x:v>
+        <x:v>1906</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28662,13 +28662,13 @@
         <x:v>635</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2407</x:v>
+        <x:v>2408</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28691,16 +28691,16 @@
         <x:v>1362</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1132</x:v>
+        <x:v>1133</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4312</x:v>
+        <x:v>4314</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -63955,7 +63955,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G1975" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H1975" s="1" t="n">
         <x:v>12</x:v>
@@ -63964,7 +63964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1975" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="1976" spans="1:10">
@@ -63981,7 +63981,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E1976" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F1976" s="1" t="n">
         <x:v>71</x:v>
@@ -63996,7 +63996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1976" s="0" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="1977" spans="1:10">
@@ -64013,13 +64013,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E1977" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F1977" s="1" t="n">
         <x:v>96</x:v>
       </x:c>
       <x:c r="G1977" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H1977" s="1" t="n">
         <x:v>53</x:v>
@@ -70006,13 +70006,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H2164" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I2164" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2164" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="2165" spans="1:10">
@@ -70038,13 +70038,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="H2165" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I2165" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2165" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="2166" spans="1:10">
@@ -76490,7 +76490,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2367" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2367" s="1" t="n">
         <x:v>2</x:v>
@@ -76508,7 +76508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2367" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2368" spans="1:10">
@@ -76522,7 +76522,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2368" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E2368" s="1" t="n">
         <x:v>2</x:v>
@@ -76540,7 +76540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2368" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2369" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2259,7 +2259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
         <x:v>26</x:v>
@@ -2268,7 +2268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2291,7 +2291,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
         <x:v>48</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>394</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2323,7 +2323,7 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
         <x:v>74</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>565</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -19792,7 +19792,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F595" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G595" s="1" t="n">
         <x:v>23</x:v>
@@ -19804,7 +19804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19827,7 +19827,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G596" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H596" s="1" t="n">
         <x:v>9</x:v>
@@ -19836,7 +19836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -19856,10 +19856,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F597" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G597" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H597" s="1" t="n">
         <x:v>12</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -20115,7 +20115,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H605" s="1" t="n">
         <x:v>100</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>908</x:v>
+        <x:v>909</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20147,7 +20147,7 @@
         <x:v>494</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>175</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1635</x:v>
+        <x:v>1636</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -26611,7 +26611,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G808" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H808" s="1" t="n">
         <x:v>1</x:v>
@@ -26620,7 +26620,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J808" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="809" spans="1:10">
@@ -26643,7 +26643,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G809" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H809" s="1" t="n">
         <x:v>16</x:v>
@@ -26652,7 +26652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J809" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="810" spans="1:10">
@@ -27600,7 +27600,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
         <x:v>217</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>941</x:v>
+        <x:v>942</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27632,19 +27632,19 @@
         <x:v>519</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>951</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>933</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>2987</x:v>
+        <x:v>2992</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27664,19 +27664,19 @@
         <x:v>716</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1246</x:v>
+        <x:v>1250</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1150</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3928</x:v>
+        <x:v>3934</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27920,10 +27920,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F849" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G849" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H849" s="1" t="n">
         <x:v>24</x:v>
@@ -27932,7 +27932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J849" s="0" t="n">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="850" spans="1:10">
@@ -27952,10 +27952,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F850" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G850" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
         <x:v>25</x:v>
@@ -27964,7 +27964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J850" s="0" t="n">
-        <x:v>437</x:v>
+        <x:v>439</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
@@ -28013,7 +28013,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
         <x:v>908</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2334</x:v>
+        <x:v>2336</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,7 +28045,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>680</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
         <x:v>1213</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3106</x:v>
+        <x:v>3108</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28246,13 +28246,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I859" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28310,13 +28310,13 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28621,13 +28621,13 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
         <x:v>561</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
         <x:v>177</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1906</x:v>
+        <x:v>1908</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28650,25 +28650,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D872" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E872" s="1" t="n">
         <x:v>514</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>801</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2408</x:v>
+        <x:v>2412</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28682,25 +28682,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>999</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1362</x:v>
+        <x:v>1363</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1133</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4314</x:v>
+        <x:v>4320</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29011,7 +29011,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G883" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H883" s="1" t="n">
         <x:v>4</x:v>
@@ -29020,7 +29020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29075,7 +29075,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H885" s="1" t="n">
         <x:v>17</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29334,13 +29334,13 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I893" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>920</x:v>
+        <x:v>921</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29366,13 +29366,13 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I894" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1023</x:v>
+        <x:v>1024</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -40042,7 +40042,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1228" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1228" s="1" t="n">
         <x:v>3</x:v>
@@ -40060,7 +40060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1228" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1229" spans="1:10">
@@ -40074,7 +40074,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1229" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1229" s="1" t="n">
         <x:v>3</x:v>
@@ -40092,7 +40092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1229" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1230" spans="1:10">
@@ -40493,7 +40493,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1242" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1242" s="1" t="n">
         <x:v>0</x:v>
@@ -40508,7 +40508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1242" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="1243" spans="1:10">
@@ -40525,7 +40525,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1243" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1243" s="1" t="n">
         <x:v>1</x:v>
@@ -40540,7 +40540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1243" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="1244" spans="1:10">
@@ -63987,7 +63987,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G1976" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1976" s="1" t="n">
         <x:v>41</x:v>
@@ -63996,7 +63996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1976" s="0" t="n">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="1977" spans="1:10">
@@ -64019,7 +64019,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="G1977" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H1977" s="1" t="n">
         <x:v>53</x:v>
@@ -64028,7 +64028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1977" s="0" t="n">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="1978" spans="1:10">
@@ -64371,7 +64371,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G1988" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H1988" s="1" t="n">
         <x:v>24</x:v>
@@ -64380,7 +64380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1988" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="1989" spans="1:10">
@@ -64403,7 +64403,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="G1989" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H1989" s="1" t="n">
         <x:v>29</x:v>
@@ -64412,7 +64412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1989" s="0" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="1990" spans="1:10">
@@ -67914,7 +67914,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2099" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E2099" s="1" t="n">
         <x:v>81</x:v>
@@ -67932,7 +67932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2099" s="0" t="n">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="2100" spans="1:10">
@@ -67946,7 +67946,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2100" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E2100" s="1" t="n">
         <x:v>117</x:v>
@@ -67964,7 +67964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2100" s="0" t="n">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
     </x:row>
     <x:row r="2101" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19312,7 +19312,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F580" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G580" s="1" t="n">
         <x:v>6</x:v>
@@ -19324,7 +19324,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J580" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="581" spans="1:10">
@@ -19376,7 +19376,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F582" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G582" s="1" t="n">
         <x:v>29</x:v>
@@ -19388,7 +19388,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J582" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:10">
@@ -19821,13 +19821,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E596" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F596" s="1" t="n">
         <x:v>46</x:v>
       </x:c>
       <x:c r="G596" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H596" s="1" t="n">
         <x:v>9</x:v>
@@ -19836,7 +19836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -19853,13 +19853,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E597" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F597" s="1" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="G597" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H597" s="1" t="n">
         <x:v>12</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -28624,7 +28624,7 @@
         <x:v>488</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>497</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1908</x:v>
+        <x:v>1909</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28656,7 +28656,7 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>802</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>636</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2412</x:v>
+        <x:v>2413</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28688,7 +28688,7 @@
         <x:v>1002</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1363</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1133</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4320</x:v>
+        <x:v>4322</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2995,7 +2995,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G70" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H70" s="1" t="n">
         <x:v>0</x:v>
@@ -3004,7 +3004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10">
@@ -3027,7 +3027,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G71" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H71" s="1" t="n">
         <x:v>0</x:v>
@@ -3036,7 +3036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10">
@@ -27984,7 +27984,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>226</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,7 +28016,7 @@
         <x:v>495</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>908</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>691</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2336</x:v>
+        <x:v>2337</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>682</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1213</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>917</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3108</x:v>
+        <x:v>3110</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -55827,7 +55827,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G1721" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1721" s="1" t="n">
         <x:v>11</x:v>
@@ -55836,7 +55836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1721" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="1722" spans="1:10">
@@ -55859,7 +55859,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G1722" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H1722" s="1" t="n">
         <x:v>17</x:v>
@@ -55868,7 +55868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1722" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="1723" spans="1:10">
@@ -78291,7 +78291,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="G2423" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H2423" s="1" t="n">
         <x:v>39</x:v>
@@ -78300,7 +78300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2423" s="0" t="n">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="2424" spans="1:10">
@@ -78355,7 +78355,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="G2425" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="H2425" s="1" t="n">
         <x:v>88</x:v>
@@ -78364,7 +78364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2425" s="0" t="n">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
     </x:row>
     <x:row r="2426" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1875,7 +1875,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
         <x:v>13</x:v>
@@ -1884,7 +1884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1939,7 +1939,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>74</x:v>
@@ -1948,7 +1948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2384,7 +2384,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>41</x:v>
@@ -2396,7 +2396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -2416,7 +2416,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>68</x:v>
@@ -2428,7 +2428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
@@ -23027,7 +23027,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G696" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H696" s="1" t="n">
         <x:v>0</x:v>
@@ -23036,7 +23036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J696" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="697" spans="1:10">
@@ -23059,7 +23059,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G697" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H697" s="1" t="n">
         <x:v>0</x:v>
@@ -23068,7 +23068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J697" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="698" spans="1:10">
@@ -26224,7 +26224,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F796" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G796" s="1" t="n">
         <x:v>23</x:v>
@@ -26236,7 +26236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J796" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="797" spans="1:10">
@@ -26256,7 +26256,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F797" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G797" s="1" t="n">
         <x:v>34</x:v>
@@ -26268,7 +26268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J797" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="798" spans="1:10">
@@ -27632,19 +27632,19 @@
         <x:v>519</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>954</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>933</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>2992</x:v>
+        <x:v>2994</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27664,19 +27664,19 @@
         <x:v>716</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1250</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1150</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3934</x:v>
+        <x:v>3936</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28016,10 +28016,10 @@
         <x:v>495</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>909</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>691</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2337</x:v>
+        <x:v>2338</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,10 +28048,10 @@
         <x:v>682</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1215</x:v>
+        <x:v>1217</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3110</x:v>
+        <x:v>3111</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -31984,7 +31984,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F976" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G976" s="1" t="n">
         <x:v>3</x:v>
@@ -31996,7 +31996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J976" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="977" spans="1:10">
@@ -32048,7 +32048,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F978" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G978" s="1" t="n">
         <x:v>13</x:v>
@@ -32060,7 +32060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J978" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="979" spans="1:10">
@@ -62326,13 +62326,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H1924" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1924" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1924" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1925" spans="1:10">
@@ -62358,13 +62358,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H1925" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1925" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1925" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1926" spans="1:10">
@@ -67920,10 +67920,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F2099" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G2099" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H2099" s="1" t="n">
         <x:v>80</x:v>
@@ -67932,7 +67932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2099" s="0" t="n">
-        <x:v>527</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="2100" spans="1:10">
@@ -67952,10 +67952,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F2100" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G2100" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H2100" s="1" t="n">
         <x:v>102</x:v>
@@ -67964,7 +67964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2100" s="0" t="n">
-        <x:v>721</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="2101" spans="1:10">
@@ -67987,7 +67987,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G2101" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2101" s="1" t="n">
         <x:v>5</x:v>
@@ -67996,7 +67996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2101" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2102" spans="1:10">
@@ -68019,7 +68019,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G2102" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H2102" s="1" t="n">
         <x:v>2</x:v>
@@ -68028,7 +68028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2102" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="2103" spans="1:10">
@@ -68051,7 +68051,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G2103" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H2103" s="1" t="n">
         <x:v>7</x:v>
@@ -68060,7 +68060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2103" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="2104" spans="1:10">
@@ -69014,13 +69014,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H2133" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2133" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2133" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2134" spans="1:10">
@@ -69046,13 +69046,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2134" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2134" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2134" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2135" spans="1:10">
@@ -69456,7 +69456,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F2147" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G2147" s="1" t="n">
         <x:v>168</x:v>
@@ -69468,7 +69468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2147" s="0" t="n">
-        <x:v>530</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="2148" spans="1:10">
@@ -69488,7 +69488,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="F2148" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G2148" s="1" t="n">
         <x:v>220</x:v>
@@ -69500,7 +69500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2148" s="0" t="n">
-        <x:v>760</x:v>
+        <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="2149" spans="1:10">
@@ -74707,7 +74707,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G2311" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2311" s="1" t="n">
         <x:v>11</x:v>
@@ -74716,7 +74716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2311" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="2312" spans="1:10">
@@ -74739,7 +74739,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G2312" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H2312" s="1" t="n">
         <x:v>12</x:v>
@@ -74748,7 +74748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2312" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="2313" spans="1:10">
@@ -77386,7 +77386,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2395" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E2395" s="1" t="n">
         <x:v>19</x:v>
@@ -77404,7 +77404,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2395" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="2396" spans="1:10">
@@ -77450,7 +77450,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2397" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E2397" s="1" t="n">
         <x:v>62</x:v>
@@ -77468,7 +77468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2397" s="0" t="n">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
     </x:row>
     <x:row r="2398" spans="1:10">
@@ -78006,13 +78006,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="H2414" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I2414" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2414" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="2415" spans="1:10">
@@ -78038,13 +78038,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H2415" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I2415" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2415" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="2416" spans="1:10">
@@ -78294,13 +78294,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="H2423" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I2423" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2423" s="0" t="n">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="2424" spans="1:10">
@@ -78358,13 +78358,13 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="H2425" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I2425" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2425" s="0" t="n">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="2426" spans="1:10">
@@ -78384,7 +78384,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2426" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2426" s="1" t="n">
         <x:v>1</x:v>
@@ -78396,7 +78396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2426" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2427" spans="1:10">
@@ -78448,7 +78448,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F2428" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2428" s="1" t="n">
         <x:v>4</x:v>
@@ -78460,7 +78460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2428" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2429" spans="1:10">
@@ -78698,10 +78698,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2436" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2436" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F2436" s="1" t="n">
         <x:v>2</x:v>
@@ -78716,7 +78716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2436" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2437" spans="1:10">
@@ -78730,10 +78730,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2437" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2437" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2437" s="1" t="n">
         <x:v>6</x:v>
@@ -78748,7 +78748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2437" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2438" spans="1:10">
@@ -78954,7 +78954,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2444" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2444" s="1" t="n">
         <x:v>1</x:v>
@@ -78972,7 +78972,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2444" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2445" spans="1:10">
@@ -78989,7 +78989,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2445" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F2445" s="1" t="n">
         <x:v>14</x:v>
@@ -79004,7 +79004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2445" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="2446" spans="1:10">
@@ -79018,10 +79018,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2446" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E2446" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F2446" s="1" t="n">
         <x:v>16</x:v>
@@ -79036,7 +79036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2446" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="2447" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -27629,7 +27629,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>955</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>2994</x:v>
+        <x:v>2995</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,7 +27661,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
         <x:v>1251</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3936</x:v>
+        <x:v>3937</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28016,7 +28016,7 @@
         <x:v>495</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>911</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>690</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2338</x:v>
+        <x:v>2339</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>682</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1217</x:v>
+        <x:v>1218</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>916</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3111</x:v>
+        <x:v>3112</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -29040,7 +29040,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
         <x:v>44</x:v>
@@ -29052,7 +29052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29072,7 +29072,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
         <x:v>52</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29334,13 +29334,13 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I893" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>921</x:v>
+        <x:v>922</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29366,13 +29366,13 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I894" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1024</x:v>
+        <x:v>1025</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -42890,7 +42890,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1317" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1317" s="1" t="n">
         <x:v>2</x:v>
@@ -42908,7 +42908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1317" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1318" spans="1:10">
@@ -42922,7 +42922,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1318" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1318" s="1" t="n">
         <x:v>2</x:v>
@@ -42940,7 +42940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1318" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="1319" spans="1:10">
@@ -58166,13 +58166,13 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="H1794" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I1794" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1794" s="0" t="n">
-        <x:v>836</x:v>
+        <x:v>837</x:v>
       </x:c>
     </x:row>
     <x:row r="1795" spans="1:10">
@@ -58198,13 +58198,13 @@
         <x:v>463</x:v>
       </x:c>
       <x:c r="H1795" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I1795" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1795" s="0" t="n">
-        <x:v>1615</x:v>
+        <x:v>1616</x:v>
       </x:c>
     </x:row>
     <x:row r="1796" spans="1:10">
@@ -66000,7 +66000,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F2039" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2039" s="1" t="n">
         <x:v>11</x:v>
@@ -66012,7 +66012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2039" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2040" spans="1:10">
@@ -66035,7 +66035,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G2040" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H2040" s="1" t="n">
         <x:v>21</x:v>
@@ -66044,7 +66044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2040" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="2041" spans="1:10">
@@ -66064,10 +66064,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F2041" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G2041" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H2041" s="1" t="n">
         <x:v>33</x:v>
@@ -66076,7 +66076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2041" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="2042" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -28019,7 +28019,7 @@
         <x:v>912</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>690</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2339</x:v>
+        <x:v>2338</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1218</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>916</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3112</x:v>
+        <x:v>3111</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19411,7 +19411,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G583" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H583" s="1" t="n">
         <x:v>2</x:v>
@@ -19420,7 +19420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J583" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:10">
@@ -19475,7 +19475,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G585" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H585" s="1" t="n">
         <x:v>7</x:v>
@@ -19484,7 +19484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J585" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -50128,10 +50128,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1543" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1543" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1543" s="1" t="n">
         <x:v>5</x:v>
@@ -50140,7 +50140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1543" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="1544" spans="1:10">
@@ -50160,10 +50160,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1544" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1544" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1544" s="1" t="n">
         <x:v>6</x:v>
@@ -50172,7 +50172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1544" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="1545" spans="1:10">
@@ -72266,7 +72266,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2235" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2235" s="1" t="n">
         <x:v>2</x:v>
@@ -72284,7 +72284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2235" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2236" spans="1:10">
@@ -72298,7 +72298,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2236" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2236" s="1" t="n">
         <x:v>2</x:v>
@@ -72316,7 +72316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2236" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2237" spans="1:10">
@@ -72330,7 +72330,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2237" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2237" s="1" t="n">
         <x:v>2</x:v>
@@ -72348,7 +72348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2237" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2238" spans="1:10">
@@ -72362,7 +72362,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2238" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2238" s="1" t="n">
         <x:v>2</x:v>
@@ -72380,7 +72380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2238" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2239" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1165,7 +1165,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>6</x:v>
@@ -1174,13 +1174,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
@@ -1229,7 +1229,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>10</x:v>
@@ -1238,13 +1238,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10">
@@ -2288,7 +2288,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>137</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>393</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2320,7 +2320,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>204</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>563</x:v>
+        <x:v>562</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -9968,7 +9968,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F288" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G288" s="1" t="n">
         <x:v>45</x:v>
@@ -9980,7 +9980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J288" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:10">
@@ -10000,7 +10000,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F289" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G289" s="1" t="n">
         <x:v>60</x:v>
@@ -10012,7 +10012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J289" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:10">
@@ -19248,7 +19248,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F578" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G578" s="1" t="n">
         <x:v>272</x:v>
@@ -19260,7 +19260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J578" s="0" t="n">
-        <x:v>786</x:v>
+        <x:v>787</x:v>
       </x:c>
     </x:row>
     <x:row r="579" spans="1:10">
@@ -19280,7 +19280,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="F579" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="G579" s="1" t="n">
         <x:v>349</x:v>
@@ -19292,7 +19292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J579" s="0" t="n">
-        <x:v>1081</x:v>
+        <x:v>1082</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:10">
@@ -19821,7 +19821,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E596" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F596" s="1" t="n">
         <x:v>46</x:v>
@@ -19836,7 +19836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -19853,7 +19853,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E597" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F597" s="1" t="n">
         <x:v>78</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -20115,7 +20115,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="H605" s="1" t="n">
         <x:v>100</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>909</x:v>
+        <x:v>910</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20147,7 +20147,7 @@
         <x:v>494</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>175</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1636</x:v>
+        <x:v>1637</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -20499,7 +20499,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G617" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H617" s="1" t="n">
         <x:v>4</x:v>
@@ -20508,7 +20508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J617" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:10">
@@ -20531,7 +20531,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G618" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H618" s="1" t="n">
         <x:v>4</x:v>
@@ -20540,7 +20540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J618" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="619" spans="1:10">
@@ -20691,7 +20691,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G623" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H623" s="1" t="n">
         <x:v>8</x:v>
@@ -20700,7 +20700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J623" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="624" spans="1:10">
@@ -20723,7 +20723,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G624" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H624" s="1" t="n">
         <x:v>9</x:v>
@@ -20732,7 +20732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J624" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="625" spans="1:10">
@@ -24301,13 +24301,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E736" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F736" s="1" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="G736" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H736" s="1" t="n">
         <x:v>21</x:v>
@@ -24316,7 +24316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J736" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="737" spans="1:10">
@@ -24333,13 +24333,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E737" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F737" s="1" t="n">
         <x:v>47</x:v>
       </x:c>
       <x:c r="G737" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H737" s="1" t="n">
         <x:v>31</x:v>
@@ -24348,7 +24348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J737" s="0" t="n">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="738" spans="1:10">
@@ -25139,7 +25139,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G762" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H762" s="1" t="n">
         <x:v>12</x:v>
@@ -25148,7 +25148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J762" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="763" spans="1:10">
@@ -25171,7 +25171,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G763" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H763" s="1" t="n">
         <x:v>17</x:v>
@@ -25180,7 +25180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J763" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="764" spans="1:10">
@@ -27600,7 +27600,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
         <x:v>217</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>942</x:v>
+        <x:v>943</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27632,10 +27632,10 @@
         <x:v>520</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
         <x:v>416</x:v>
@@ -27664,10 +27664,10 @@
         <x:v>717</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>514</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3937</x:v>
+        <x:v>3938</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28013,7 +28013,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>495</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
         <x:v>912</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2338</x:v>
+        <x:v>2337</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,7 +28045,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
         <x:v>1218</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3111</x:v>
+        <x:v>3110</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28237,7 +28237,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E859" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
         <x:v>67</x:v>
@@ -28252,7 +28252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28301,7 +28301,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>193</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>610</x:v>
+        <x:v>609</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28624,7 +28624,7 @@
         <x:v>488</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>497</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1909</x:v>
+        <x:v>1911</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28656,7 +28656,7 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>803</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>636</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2413</x:v>
+        <x:v>2414</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28688,7 +28688,7 @@
         <x:v>1002</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1365</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1133</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4322</x:v>
+        <x:v>4325</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29226,7 +29226,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
         <x:v>95</x:v>
@@ -29244,7 +29244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J890" s="0" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
     </x:row>
     <x:row r="891" spans="1:10">
@@ -29258,7 +29258,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D891" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E891" s="1" t="n">
         <x:v>129</x:v>
@@ -29276,7 +29276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J891" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
     </x:row>
     <x:row r="892" spans="1:10">
@@ -33834,7 +33834,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1034" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1034" s="1" t="n">
         <x:v>3</x:v>
@@ -33852,7 +33852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1034" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1035" spans="1:10">
@@ -33898,7 +33898,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1036" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E1036" s="1" t="n">
         <x:v>18</x:v>
@@ -33916,7 +33916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1036" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="1037" spans="1:10">
@@ -42794,7 +42794,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1314" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E1314" s="1" t="n">
         <x:v>27</x:v>
@@ -42812,7 +42812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1314" s="0" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="1315" spans="1:10">
@@ -42826,7 +42826,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1315" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E1315" s="1" t="n">
         <x:v>42</x:v>
@@ -42844,7 +42844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1315" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="1316" spans="1:10">
@@ -67920,7 +67920,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F2099" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G2099" s="1" t="n">
         <x:v>172</x:v>
@@ -67932,7 +67932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2099" s="0" t="n">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="2100" spans="1:10">
@@ -67952,7 +67952,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F2100" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G2100" s="1" t="n">
         <x:v>225</x:v>
@@ -67964,7 +67964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2100" s="0" t="n">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
     </x:row>
     <x:row r="2101" spans="1:10">
@@ -68304,7 +68304,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F2111" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G2111" s="1" t="n">
         <x:v>74</x:v>
@@ -68316,7 +68316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2111" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="2112" spans="1:10">
@@ -68336,7 +68336,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F2112" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G2112" s="1" t="n">
         <x:v>112</x:v>
@@ -68348,7 +68348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2112" s="0" t="n">
-        <x:v>381</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="2113" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9965,7 +9965,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E288" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F288" s="1" t="n">
         <x:v>37</x:v>
@@ -9980,7 +9980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J288" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:10">
@@ -9997,7 +9997,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E289" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F289" s="1" t="n">
         <x:v>45</x:v>
@@ -10012,7 +10012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J289" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:10">
@@ -15283,7 +15283,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G454" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H454" s="1" t="n">
         <x:v>27</x:v>
@@ -15292,7 +15292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J454" s="0" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="455" spans="1:10">
@@ -15315,7 +15315,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="G455" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H455" s="1" t="n">
         <x:v>45</x:v>
@@ -15324,7 +15324,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J455" s="0" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="456" spans="1:10">
@@ -20109,10 +20109,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E605" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
         <x:v>235</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>910</x:v>
+        <x:v>908</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20141,10 +20141,10 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E606" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
         <x:v>464</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1637</x:v>
+        <x:v>1635</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27629,7 +27629,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>956</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>2995</x:v>
+        <x:v>2997</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,7 +27661,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
         <x:v>1253</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3938</x:v>
+        <x:v>3940</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28237,7 +28237,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E859" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
         <x:v>67</x:v>
@@ -28252,7 +28252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28301,7 +28301,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>193</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -29290,7 +29290,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D892" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E892" s="1" t="n">
         <x:v>29</x:v>
@@ -29308,7 +29308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J892" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="893" spans="1:10">
@@ -29354,7 +29354,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
         <x:v>343</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1025</x:v>
+        <x:v>1024</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -57555,7 +57555,7 @@
         <x:v>285</x:v>
       </x:c>
       <x:c r="G1775" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H1775" s="1" t="n">
         <x:v>91</x:v>
@@ -57564,7 +57564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1775" s="0" t="n">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
     </x:row>
     <x:row r="1776" spans="1:10">
@@ -57587,7 +57587,7 @@
         <x:v>361</x:v>
       </x:c>
       <x:c r="G1776" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="H1776" s="1" t="n">
         <x:v>103</x:v>
@@ -57596,7 +57596,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1776" s="0" t="n">
-        <x:v>983</x:v>
+        <x:v>984</x:v>
       </x:c>
     </x:row>
     <x:row r="1777" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2294,13 +2294,13 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>392</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2326,13 +2326,13 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>562</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -3085,7 +3085,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E73" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F73" s="1" t="n">
         <x:v>16</x:v>
@@ -3100,7 +3100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10">
@@ -3117,7 +3117,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E74" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F74" s="1" t="n">
         <x:v>20</x:v>
@@ -3132,7 +3132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:10">
@@ -8144,7 +8144,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F231" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G231" s="1" t="n">
         <x:v>8</x:v>
@@ -8156,7 +8156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J231" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:10">
@@ -8208,7 +8208,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F233" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G233" s="1" t="n">
         <x:v>15</x:v>
@@ -8220,7 +8220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J233" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:10">
@@ -9933,13 +9933,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E287" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F287" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G287" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H287" s="1" t="n">
         <x:v>3</x:v>
@@ -9948,7 +9948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J287" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:10">
@@ -9968,7 +9968,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F288" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G288" s="1" t="n">
         <x:v>45</x:v>
@@ -9980,7 +9980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J288" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:10">
@@ -9997,13 +9997,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E289" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F289" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G289" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H289" s="1" t="n">
         <x:v>17</x:v>
@@ -10012,7 +10012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J289" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:10">
@@ -10896,7 +10896,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F317" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G317" s="1" t="n">
         <x:v>1</x:v>
@@ -10908,7 +10908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J317" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:10">
@@ -10928,7 +10928,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F318" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G318" s="1" t="n">
         <x:v>1</x:v>
@@ -10940,7 +10940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J318" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:10">
@@ -16266,7 +16266,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D485" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E485" s="1" t="n">
         <x:v>0</x:v>
@@ -16284,7 +16284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J485" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="486" spans="1:10">
@@ -16298,7 +16298,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D486" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E486" s="1" t="n">
         <x:v>0</x:v>
@@ -16316,7 +16316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J486" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="487" spans="1:10">
@@ -20499,7 +20499,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G617" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H617" s="1" t="n">
         <x:v>4</x:v>
@@ -20508,7 +20508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J617" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:10">
@@ -20531,7 +20531,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G618" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H618" s="1" t="n">
         <x:v>4</x:v>
@@ -20540,7 +20540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J618" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="619" spans="1:10">
@@ -27987,7 +27987,7 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28022,13 +28022,13 @@
         <x:v>689</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2337</x:v>
+        <x:v>2336</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28051,10 +28051,10 @@
         <x:v>1218</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I853" s="0" t="n">
         <x:v>0</x:v>
@@ -28630,13 +28630,13 @@
         <x:v>497</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="I871" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1911</x:v>
+        <x:v>1912</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28662,13 +28662,13 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2414</x:v>
+        <x:v>2416</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28694,13 +28694,13 @@
         <x:v>1133</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4325</x:v>
+        <x:v>4328</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29037,7 +29037,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
         <x:v>101</x:v>
@@ -29052,7 +29052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29069,7 +29069,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
         <x:v>117</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29322,13 +29322,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D893" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
         <x:v>314</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>175</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>922</x:v>
+        <x:v>924</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29354,13 +29354,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
         <x:v>343</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>194</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1024</x:v>
+        <x:v>1026</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -45293,7 +45293,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E1392" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F1392" s="1" t="n">
         <x:v>36</x:v>
@@ -45308,7 +45308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1392" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="1393" spans="1:10">
@@ -45325,7 +45325,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E1393" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F1393" s="1" t="n">
         <x:v>48</x:v>
@@ -45340,7 +45340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1393" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="1394" spans="1:10">
@@ -49936,7 +49936,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F1537" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G1537" s="1" t="n">
         <x:v>122</x:v>
@@ -49948,7 +49948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1537" s="0" t="n">
-        <x:v>463</x:v>
+        <x:v>462</x:v>
       </x:c>
     </x:row>
     <x:row r="1538" spans="1:10">
@@ -49968,7 +49968,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="F1538" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G1538" s="1" t="n">
         <x:v>159</x:v>
@@ -49980,7 +49980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1538" s="0" t="n">
-        <x:v>650</x:v>
+        <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="1539" spans="1:10">
@@ -61450,7 +61450,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1897" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E1897" s="1" t="n">
         <x:v>18</x:v>
@@ -61468,7 +61468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1897" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="1898" spans="1:10">
@@ -61482,7 +61482,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1898" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E1898" s="1" t="n">
         <x:v>24</x:v>
@@ -61500,7 +61500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1898" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="1899" spans="1:10">
@@ -68653,10 +68653,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E2122" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F2122" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G2122" s="1" t="n">
         <x:v>147</x:v>
@@ -68685,10 +68685,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E2123" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F2123" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G2123" s="1" t="n">
         <x:v>258</x:v>
@@ -69421,7 +69421,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E2146" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F2146" s="1" t="n">
         <x:v>55</x:v>
@@ -69436,7 +69436,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2146" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="2147" spans="1:10">
@@ -69485,7 +69485,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E2148" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F2148" s="1" t="n">
         <x:v>204</x:v>
@@ -69500,7 +69500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2148" s="0" t="n">
-        <x:v>759</x:v>
+        <x:v>760</x:v>
       </x:c>
     </x:row>
     <x:row r="2149" spans="1:10">
@@ -70317,7 +70317,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E2174" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F2174" s="1" t="n">
         <x:v>256</x:v>
@@ -70332,7 +70332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2174" s="0" t="n">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
     </x:row>
     <x:row r="2175" spans="1:10">
@@ -70381,7 +70381,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E2176" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F2176" s="1" t="n">
         <x:v>471</x:v>
@@ -70396,7 +70396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2176" s="0" t="n">
-        <x:v>1574</x:v>
+        <x:v>1575</x:v>
       </x:c>
     </x:row>
     <x:row r="2177" spans="1:10">
@@ -71475,7 +71475,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G2210" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H2210" s="1" t="n">
         <x:v>1</x:v>
@@ -71484,7 +71484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2210" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2211" spans="1:10">
@@ -71539,7 +71539,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G2212" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H2212" s="1" t="n">
         <x:v>3</x:v>
@@ -71548,7 +71548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2212" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="2213" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8179,7 +8179,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G232" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H232" s="1" t="n">
         <x:v>9</x:v>
@@ -8188,7 +8188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J232" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:10">
@@ -8211,7 +8211,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G233" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H233" s="1" t="n">
         <x:v>13</x:v>
@@ -8220,7 +8220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J233" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:10">
@@ -19629,7 +19629,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E590" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F590" s="1" t="n">
         <x:v>87</x:v>
@@ -19644,7 +19644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J590" s="0" t="n">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:10">
@@ -19661,7 +19661,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E591" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F591" s="1" t="n">
         <x:v>120</x:v>
@@ -19676,7 +19676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -20077,7 +20077,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E604" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F604" s="1" t="n">
         <x:v>184</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>727</x:v>
+        <x:v>729</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20141,7 +20141,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E606" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
         <x:v>493</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1635</x:v>
+        <x:v>1637</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27629,7 +27629,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>956</x:v>
@@ -27638,13 +27638,13 @@
         <x:v>932</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>2997</x:v>
+        <x:v>2999</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,7 +27661,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
         <x:v>1253</x:v>
@@ -27670,13 +27670,13 @@
         <x:v>1149</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3940</x:v>
+        <x:v>3942</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27725,7 +27725,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E843" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F843" s="1" t="n">
         <x:v>103</x:v>
@@ -27740,7 +27740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J843" s="0" t="n">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="844" spans="1:10">
@@ -27757,7 +27757,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E844" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F844" s="1" t="n">
         <x:v>130</x:v>
@@ -27772,7 +27772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J844" s="0" t="n">
-        <x:v>421</x:v>
+        <x:v>423</x:v>
       </x:c>
     </x:row>
     <x:row r="845" spans="1:10">
@@ -27987,7 +27987,7 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28013,13 +28013,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>912</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>197</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2336</x:v>
+        <x:v>2339</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,13 +28045,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1218</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>916</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>232</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3110</x:v>
+        <x:v>3114</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28269,7 +28269,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E860" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
         <x:v>126</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28301,7 +28301,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>193</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28656,19 +28656,19 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>636</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2416</x:v>
+        <x:v>2418</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28688,19 +28688,19 @@
         <x:v>1002</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1368</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1133</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4328</x:v>
+        <x:v>4330</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -28714,7 +28714,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D874" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E874" s="1" t="n">
         <x:v>6</x:v>
@@ -28732,7 +28732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J874" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="875" spans="1:10">
@@ -28746,10 +28746,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D875" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E875" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F875" s="1" t="n">
         <x:v>43</x:v>
@@ -28764,7 +28764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J875" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="876" spans="1:10">
@@ -28778,10 +28778,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D876" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E876" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F876" s="1" t="n">
         <x:v>55</x:v>
@@ -28796,7 +28796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J876" s="0" t="n">
-        <x:v>255</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="877" spans="1:10">
@@ -29331,7 +29331,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
         <x:v>45</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>924</x:v>
+        <x:v>925</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29363,7 +29363,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
         <x:v>45</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1026</x:v>
+        <x:v>1027</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -50448,7 +50448,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1553" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G1553" s="1" t="n">
         <x:v>8</x:v>
@@ -50460,7 +50460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1553" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="1554" spans="1:10">
@@ -50512,7 +50512,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F1555" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1555" s="1" t="n">
         <x:v>26</x:v>
@@ -50524,7 +50524,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1555" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="1556" spans="1:10">
@@ -57264,7 +57264,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F1766" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G1766" s="1" t="n">
         <x:v>63</x:v>
@@ -57276,7 +57276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1766" s="0" t="n">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="1767" spans="1:10">
@@ -57296,7 +57296,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F1767" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G1767" s="1" t="n">
         <x:v>86</x:v>
@@ -57308,7 +57308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1767" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="1768" spans="1:10">
@@ -64944,7 +64944,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F2006" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G2006" s="1" t="n">
         <x:v>86</x:v>
@@ -64956,7 +64956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2006" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="2007" spans="1:10">
@@ -64976,7 +64976,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F2007" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G2007" s="1" t="n">
         <x:v>120</x:v>
@@ -64988,7 +64988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2007" s="0" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="2008" spans="1:10">
@@ -66259,7 +66259,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G2047" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H2047" s="1" t="n">
         <x:v>9</x:v>
@@ -66268,7 +66268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2047" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="2048" spans="1:10">
@@ -66323,7 +66323,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="G2049" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H2049" s="1" t="n">
         <x:v>16</x:v>
@@ -66332,7 +66332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2049" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="2050" spans="1:10">
@@ -67693,22 +67693,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2092" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2092" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2092" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2092" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2092" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2092" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2093" spans="1:10">
@@ -67728,7 +67728,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2093" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2093" s="1" t="n">
         <x:v>0</x:v>
@@ -67740,7 +67740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2093" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2094" spans="1:10">
@@ -67757,22 +67757,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2094" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2094" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2094" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2094" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2094" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2094" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2095" spans="1:10">
@@ -67923,7 +67923,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="G2099" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H2099" s="1" t="n">
         <x:v>80</x:v>
@@ -67932,7 +67932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2099" s="0" t="n">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
     </x:row>
     <x:row r="2100" spans="1:10">
@@ -67955,7 +67955,7 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="G2100" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H2100" s="1" t="n">
         <x:v>102</x:v>
@@ -67964,7 +67964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2100" s="0" t="n">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="2101" spans="1:10">
@@ -68653,10 +68653,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E2122" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F2122" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G2122" s="1" t="n">
         <x:v>147</x:v>
@@ -68668,7 +68668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2122" s="0" t="n">
-        <x:v>444</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="2123" spans="1:10">
@@ -68685,10 +68685,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E2123" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F2123" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G2123" s="1" t="n">
         <x:v>258</x:v>
@@ -68700,7 +68700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2123" s="0" t="n">
-        <x:v>778</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="2124" spans="1:10">
@@ -70349,7 +70349,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E2175" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F2175" s="1" t="n">
         <x:v>215</x:v>
@@ -70364,7 +70364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2175" s="0" t="n">
-        <x:v>797</x:v>
+        <x:v>804</x:v>
       </x:c>
     </x:row>
     <x:row r="2176" spans="1:10">
@@ -70381,7 +70381,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E2176" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F2176" s="1" t="n">
         <x:v>471</x:v>
@@ -70396,7 +70396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2176" s="0" t="n">
-        <x:v>1575</x:v>
+        <x:v>1582</x:v>
       </x:c>
     </x:row>
     <x:row r="2177" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -20080,7 +20080,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="F604" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
         <x:v>231</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20144,7 +20144,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
         <x:v>466</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1643</x:v>
+        <x:v>1644</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -22829,7 +22829,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E690" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F690" s="1" t="n">
         <x:v>1</x:v>
@@ -22844,7 +22844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J690" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="691" spans="1:10">
@@ -22861,7 +22861,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E691" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F691" s="1" t="n">
         <x:v>1</x:v>
@@ -22876,7 +22876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J691" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="692" spans="1:10">
@@ -27984,7 +27984,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>228</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,19 +28016,19 @@
         <x:v>495</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>912</x:v>
+        <x:v>913</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2341</x:v>
+        <x:v>2344</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,19 +28048,19 @@
         <x:v>681</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1219</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>920</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I853" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3116</x:v>
+        <x:v>3120</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28624,7 +28624,7 @@
         <x:v>490</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>498</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1921</x:v>
+        <x:v>1922</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28656,7 +28656,7 @@
         <x:v>519</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>638</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2429</x:v>
+        <x:v>2430</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28688,7 +28688,7 @@
         <x:v>1009</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1377</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1136</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4350</x:v>
+        <x:v>4352</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29034,7 +29034,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D884" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
         <x:v>96</x:v>
@@ -29052,7 +29052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29066,7 +29066,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D885" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
         <x:v>113</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29325,7 +29325,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
         <x:v>280</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>927</x:v>
+        <x:v>928</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29357,7 +29357,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
         <x:v>322</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1029</x:v>
+        <x:v>1030</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -58128,7 +58128,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="F1793" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G1793" s="1" t="n">
         <x:v>239</x:v>
@@ -58140,7 +58140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1793" s="0" t="n">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="1794" spans="1:10">
@@ -58192,7 +58192,7 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="F1795" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="G1795" s="1" t="n">
         <x:v>463</x:v>
@@ -58204,7 +58204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1795" s="0" t="n">
-        <x:v>1616</x:v>
+        <x:v>1617</x:v>
       </x:c>
     </x:row>
     <x:row r="1796" spans="1:10">
@@ -72112,7 +72112,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2230" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2230" s="1" t="n">
         <x:v>2</x:v>
@@ -72124,7 +72124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2230" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2231" spans="1:10">
@@ -72144,7 +72144,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2231" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2231" s="1" t="n">
         <x:v>2</x:v>
@@ -72156,7 +72156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2231" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2232" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -27632,7 +27632,7 @@
         <x:v>524</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>932</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3002</x:v>
+        <x:v>3003</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27664,7 +27664,7 @@
         <x:v>721</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1254</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1149</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3945</x:v>
+        <x:v>3946</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28630,13 +28630,13 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I871" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1922</x:v>
+        <x:v>1923</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28694,13 +28694,13 @@
         <x:v>1136</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4352</x:v>
+        <x:v>4353</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -28842,7 +28842,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D878" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E878" s="1" t="n">
         <x:v>3</x:v>
@@ -28860,7 +28860,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J878" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="879" spans="1:10">
@@ -28874,7 +28874,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D879" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E879" s="1" t="n">
         <x:v>3</x:v>
@@ -28892,7 +28892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J879" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="880" spans="1:10">
@@ -64051,7 +64051,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G1978" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1978" s="1" t="n">
         <x:v>41</x:v>
@@ -64060,7 +64060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1978" s="0" t="n">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="1979" spans="1:10">
@@ -64083,7 +64083,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="G1979" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H1979" s="1" t="n">
         <x:v>53</x:v>
@@ -64092,7 +64092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1979" s="0" t="n">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="1980" spans="1:10">
@@ -72118,13 +72118,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2230" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2230" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2230" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2231" spans="1:10">
@@ -72150,13 +72150,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2231" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2231" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2231" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2232" spans="1:10">
@@ -77616,7 +77616,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F2402" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2402" s="1" t="n">
         <x:v>18</x:v>
@@ -77628,7 +77628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2402" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="2403" spans="1:10">
@@ -77648,7 +77648,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2403" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2403" s="1" t="n">
         <x:v>19</x:v>
@@ -77660,7 +77660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2403" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="2404" spans="1:10">
@@ -78963,7 +78963,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G2444" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2444" s="1" t="n">
         <x:v>2</x:v>
@@ -78972,7 +78972,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2444" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2445" spans="1:10">
@@ -78995,7 +78995,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G2445" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H2445" s="1" t="n">
         <x:v>9</x:v>
@@ -79004,7 +79004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2445" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="2446" spans="1:10">
@@ -79027,7 +79027,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G2446" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H2446" s="1" t="n">
         <x:v>11</x:v>
@@ -79036,7 +79036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2446" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="2447" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -27987,7 +27987,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28019,7 +28019,7 @@
         <x:v>913</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>693</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>199</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2345</x:v>
+        <x:v>2348</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1221</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>921</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>234</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3121</x:v>
+        <x:v>3125</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28659,7 +28659,7 @@
         <x:v>809</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
         <x:v>304</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2430</x:v>
+        <x:v>2431</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28691,7 +28691,7 @@
         <x:v>1379</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1136</x:v>
+        <x:v>1137</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>484</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4353</x:v>
+        <x:v>4354</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -57331,7 +57331,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G1768" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1768" s="1" t="n">
         <x:v>2</x:v>
@@ -57340,7 +57340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1768" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1769" spans="1:10">
@@ -57395,7 +57395,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G1770" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1770" s="1" t="n">
         <x:v>6</x:v>
@@ -57404,7 +57404,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1770" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="1771" spans="1:10">
@@ -76688,7 +76688,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2373" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2373" s="1" t="n">
         <x:v>10</x:v>
@@ -76700,7 +76700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2373" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2374" spans="1:10">
@@ -76720,7 +76720,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F2374" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2374" s="1" t="n">
         <x:v>12</x:v>
@@ -76732,7 +76732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2374" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="2375" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8176,7 +8176,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F232" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G232" s="1" t="n">
         <x:v>8</x:v>
@@ -8188,7 +8188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J232" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:10">
@@ -8208,7 +8208,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F233" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G233" s="1" t="n">
         <x:v>16</x:v>
@@ -8220,7 +8220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J233" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:10">
@@ -28630,13 +28630,13 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I871" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1923</x:v>
+        <x:v>1924</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28694,13 +28694,13 @@
         <x:v>1137</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4354</x:v>
+        <x:v>4355</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -28016,7 +28016,7 @@
         <x:v>496</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>913</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>696</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2348</x:v>
+        <x:v>2347</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>682</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1221</x:v>
+        <x:v>1220</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>925</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3125</x:v>
+        <x:v>3124</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28624,10 +28624,10 @@
         <x:v>490</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>570</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
         <x:v>181</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1924</x:v>
+        <x:v>1927</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28688,10 +28688,10 @@
         <x:v>1009</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1379</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1137</x:v>
+        <x:v>1138</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>485</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4355</x:v>
+        <x:v>4358</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29005,7 +29005,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>16</x:v>
@@ -29020,7 +29020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29040,7 +29040,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
         <x:v>45</x:v>
@@ -29052,7 +29052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29069,10 +29069,10 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
         <x:v>53</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>434</x:v>
+        <x:v>436</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -50131,7 +50131,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1543" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1543" s="1" t="n">
         <x:v>5</x:v>
@@ -50140,7 +50140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1543" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1544" spans="1:10">
@@ -50163,7 +50163,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G1544" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1544" s="1" t="n">
         <x:v>6</x:v>
@@ -50172,7 +50172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1544" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="1545" spans="1:10">
@@ -64691,7 +64691,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G1998" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1998" s="1" t="n">
         <x:v>4</x:v>
@@ -64700,7 +64700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1998" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="1999" spans="1:10">
@@ -64723,7 +64723,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G1999" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H1999" s="1" t="n">
         <x:v>9</x:v>
@@ -64732,7 +64732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1999" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="2000" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1197,7 +1197,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>4</x:v>
@@ -1212,7 +1212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J14" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
@@ -1229,7 +1229,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>10</x:v>
@@ -1244,7 +1244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10">
@@ -14963,7 +14963,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G444" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H444" s="1" t="n">
         <x:v>6</x:v>
@@ -14972,7 +14972,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J444" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="445" spans="1:10">
@@ -14995,7 +14995,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G445" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H445" s="1" t="n">
         <x:v>8</x:v>
@@ -15004,7 +15004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J445" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="446" spans="1:10">
@@ -15696,7 +15696,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F467" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G467" s="1" t="n">
         <x:v>8</x:v>
@@ -15708,7 +15708,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J467" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="468" spans="1:10">
@@ -15728,7 +15728,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F468" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G468" s="1" t="n">
         <x:v>9</x:v>
@@ -15740,7 +15740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J468" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="469" spans="1:10">
@@ -17875,7 +17875,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G535" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H535" s="1" t="n">
         <x:v>26</x:v>
@@ -17884,7 +17884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J535" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="536" spans="1:10">
@@ -17907,7 +17907,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="G536" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H536" s="1" t="n">
         <x:v>33</x:v>
@@ -17916,7 +17916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J536" s="0" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="537" spans="1:10">
@@ -20083,7 +20083,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
         <x:v>75</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20147,7 +20147,7 @@
         <x:v>494</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>175</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1644</x:v>
+        <x:v>1645</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27597,13 +27597,13 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
         <x:v>297</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
         <x:v>98</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>943</x:v>
+        <x:v>946</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27629,22 +27629,22 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>932</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3003</x:v>
+        <x:v>3008</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,22 +27661,22 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>721</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1255</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3946</x:v>
+        <x:v>3954</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27731,7 +27731,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="G843" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H843" s="1" t="n">
         <x:v>38</x:v>
@@ -27740,7 +27740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J843" s="0" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="844" spans="1:10">
@@ -27763,7 +27763,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="G844" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H844" s="1" t="n">
         <x:v>42</x:v>
@@ -27772,7 +27772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J844" s="0" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="845" spans="1:10">
@@ -27885,7 +27885,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E848" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F848" s="1" t="n">
         <x:v>31</x:v>
@@ -27900,7 +27900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J848" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="849" spans="1:10">
@@ -27949,7 +27949,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E850" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F850" s="1" t="n">
         <x:v>147</x:v>
@@ -27964,7 +27964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J850" s="0" t="n">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
@@ -27981,10 +27981,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>229</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>777</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28013,10 +28013,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>912</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>696</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2347</x:v>
+        <x:v>2348</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,10 +28045,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1220</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>925</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3124</x:v>
+        <x:v>3123</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28240,7 +28240,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
         <x:v>62</x:v>
@@ -28252,7 +28252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28272,7 +28272,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
         <x:v>108</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28304,7 +28304,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
         <x:v>170</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>615</x:v>
+        <x:v>617</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28621,13 +28621,13 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>572</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
         <x:v>181</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1927</x:v>
+        <x:v>1932</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28656,19 +28656,19 @@
         <x:v>519</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2431</x:v>
+        <x:v>2440</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28685,22 +28685,22 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>1009</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1381</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1138</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4358</x:v>
+        <x:v>4372</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>177</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>928</x:v>
+        <x:v>930</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>196</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1030</x:v>
+        <x:v>1032</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -58134,13 +58134,13 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="H1793" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I1793" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1793" s="0" t="n">
-        <x:v>780</x:v>
+        <x:v>779</x:v>
       </x:c>
     </x:row>
     <x:row r="1794" spans="1:10">
@@ -58160,7 +58160,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="F1794" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="G1794" s="1" t="n">
         <x:v>224</x:v>
@@ -58172,7 +58172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1794" s="0" t="n">
-        <x:v>837</x:v>
+        <x:v>838</x:v>
       </x:c>
     </x:row>
     <x:row r="1795" spans="1:10">
@@ -58192,13 +58192,13 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="F1795" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="G1795" s="1" t="n">
         <x:v>463</x:v>
       </x:c>
       <x:c r="H1795" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I1795" s="0" t="n">
         <x:v>0</x:v>
@@ -61872,10 +61872,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1910" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1910" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H1910" s="1" t="n">
         <x:v>7</x:v>
@@ -61884,7 +61884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1910" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="1911" spans="1:10">
@@ -61904,10 +61904,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F1911" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G1911" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H1911" s="1" t="n">
         <x:v>8</x:v>
@@ -61916,7 +61916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1911" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="1912" spans="1:10">
@@ -67981,13 +67981,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E2101" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F2101" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G2101" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H2101" s="1" t="n">
         <x:v>80</x:v>
@@ -67996,7 +67996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2101" s="0" t="n">
-        <x:v>531</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="2102" spans="1:10">
@@ -68013,13 +68013,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E2102" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F2102" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G2102" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H2102" s="1" t="n">
         <x:v>102</x:v>
@@ -68028,7 +68028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2102" s="0" t="n">
-        <x:v>725</x:v>
+        <x:v>729</x:v>
       </x:c>
     </x:row>
     <x:row r="2103" spans="1:10">
@@ -68720,7 +68720,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F2124" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G2124" s="1" t="n">
         <x:v>147</x:v>
@@ -68732,7 +68732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2124" s="0" t="n">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
     </x:row>
     <x:row r="2125" spans="1:10">
@@ -68752,7 +68752,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="F2125" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="G2125" s="1" t="n">
         <x:v>258</x:v>
@@ -68764,7 +68764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2125" s="0" t="n">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
     </x:row>
     <x:row r="2126" spans="1:10">
@@ -69075,7 +69075,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2135" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H2135" s="1" t="n">
         <x:v>5</x:v>
@@ -69084,7 +69084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2135" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="2136" spans="1:10">
@@ -69107,7 +69107,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2136" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H2136" s="1" t="n">
         <x:v>5</x:v>
@@ -69116,7 +69116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2136" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2137" spans="1:10">
@@ -70387,7 +70387,7 @@
         <x:v>256</x:v>
       </x:c>
       <x:c r="G2176" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H2176" s="1" t="n">
         <x:v>133</x:v>
@@ -70396,7 +70396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2176" s="0" t="n">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="2177" spans="1:10">
@@ -70451,7 +70451,7 @@
         <x:v>471</x:v>
       </x:c>
       <x:c r="G2178" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="H2178" s="1" t="n">
         <x:v>211</x:v>
@@ -70460,7 +70460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2178" s="0" t="n">
-        <x:v>1587</x:v>
+        <x:v>1588</x:v>
       </x:c>
     </x:row>
     <x:row r="2179" spans="1:10">
@@ -70829,7 +70829,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E2190" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F2190" s="1" t="n">
         <x:v>11</x:v>
@@ -70844,7 +70844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2190" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="2191" spans="1:10">
@@ -70861,7 +70861,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E2191" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F2191" s="1" t="n">
         <x:v>11</x:v>
@@ -70876,7 +70876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2191" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="2192" spans="1:10">
@@ -77523,7 +77523,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G2399" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H2399" s="1" t="n">
         <x:v>61</x:v>
@@ -77532,7 +77532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2399" s="0" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="2400" spans="1:10">
@@ -77555,7 +77555,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="G2400" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H2400" s="1" t="n">
         <x:v>76</x:v>
@@ -77564,7 +77564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2400" s="0" t="n">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="2401" spans="1:10">
@@ -78899,7 +78899,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G2442" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H2442" s="1" t="n">
         <x:v>10</x:v>
@@ -78908,7 +78908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2442" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="2443" spans="1:10">
@@ -78931,7 +78931,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G2443" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H2443" s="1" t="n">
         <x:v>10</x:v>
@@ -78940,7 +78940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2443" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="2444" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -845,13 +845,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>4</x:v>
@@ -877,13 +877,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>4</x:v>
@@ -3184,7 +3184,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F76" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G76" s="1" t="n">
         <x:v>23</x:v>
@@ -3196,7 +3196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J76" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:10">
@@ -3216,7 +3216,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F77" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G77" s="1" t="n">
         <x:v>25</x:v>
@@ -3228,7 +3228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:10">
@@ -19629,7 +19629,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E590" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F590" s="1" t="n">
         <x:v>87</x:v>
@@ -19644,7 +19644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J590" s="0" t="n">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:10">
@@ -19661,7 +19661,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E591" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F591" s="1" t="n">
         <x:v>120</x:v>
@@ -19676,7 +19676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -25453,7 +25453,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E772" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F772" s="1" t="n">
         <x:v>3</x:v>
@@ -25468,7 +25468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J772" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="773" spans="1:10">
@@ -25485,7 +25485,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E773" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F773" s="1" t="n">
         <x:v>4</x:v>
@@ -25500,7 +25500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J773" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="774" spans="1:10">
@@ -27629,7 +27629,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>961</x:v>
@@ -27638,13 +27638,13 @@
         <x:v>932</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3008</x:v>
+        <x:v>3010</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,7 +27661,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
         <x:v>1258</x:v>
@@ -27670,13 +27670,13 @@
         <x:v>1151</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3954</x:v>
+        <x:v>3956</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27920,7 +27920,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F849" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G849" s="1" t="n">
         <x:v>92</x:v>
@@ -27932,7 +27932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J849" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="850" spans="1:10">
@@ -27952,7 +27952,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F850" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G850" s="1" t="n">
         <x:v>116</x:v>
@@ -27964,7 +27964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J850" s="0" t="n">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
@@ -27984,7 +27984,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>229</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>775</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28019,10 +28019,10 @@
         <x:v>914</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
@@ -28048,19 +28048,19 @@
         <x:v>680</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1221</x:v>
+        <x:v>1220</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>925</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I853" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3123</x:v>
+        <x:v>3122</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28662,13 +28662,13 @@
         <x:v>644</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2440</x:v>
+        <x:v>2441</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28694,13 +28694,13 @@
         <x:v>1145</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4372</x:v>
+        <x:v>4373</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29200,7 +29200,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F889" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G889" s="1" t="n">
         <x:v>38</x:v>
@@ -29212,7 +29212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J889" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="890" spans="1:10">
@@ -29264,7 +29264,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="F891" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G891" s="1" t="n">
         <x:v>171</x:v>
@@ -29276,7 +29276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J891" s="0" t="n">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
     </x:row>
     <x:row r="892" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -22195,7 +22195,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G670" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H670" s="1" t="n">
         <x:v>13</x:v>
@@ -22204,7 +22204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J670" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="671" spans="1:10">
@@ -22227,7 +22227,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G671" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H671" s="1" t="n">
         <x:v>17</x:v>
@@ -22236,7 +22236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J671" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="672" spans="1:10">
@@ -27600,7 +27600,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
         <x:v>219</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>946</x:v>
+        <x:v>944</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27629,10 +27629,10 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>962</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>932</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3010</x:v>
+        <x:v>3012</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,10 +27661,10 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1258</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1151</x:v>
@@ -28013,13 +28013,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>914</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2348</x:v>
+        <x:v>2351</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,13 +28045,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1220</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>926</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3122</x:v>
+        <x:v>3125</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -49933,7 +49933,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E1537" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F1537" s="1" t="n">
         <x:v>150</x:v>
@@ -49948,7 +49948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1537" s="0" t="n">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="1538" spans="1:10">
@@ -49965,7 +49965,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E1538" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F1538" s="1" t="n">
         <x:v>202</x:v>
@@ -49980,7 +49980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1538" s="0" t="n">
-        <x:v>648</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="1539" spans="1:10">
@@ -50285,22 +50285,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1548" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F1548" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1548" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H1548" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1548" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1548" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="1549" spans="1:10">
@@ -50317,22 +50317,22 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1549" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F1549" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G1549" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H1549" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I1549" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>368</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -50349,22 +50349,22 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1550" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F1550" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G1550" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="H1550" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I1550" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1550" s="0" t="n">
-        <x:v>487</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -65014,13 +65014,13 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="H2008" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I2008" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2008" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="2009" spans="1:10">
@@ -65046,13 +65046,13 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="H2009" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I2009" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2009" s="0" t="n">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="2010" spans="1:10">
@@ -70410,7 +70410,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2177" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E2177" s="1" t="n">
         <x:v>172</x:v>
@@ -70428,7 +70428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2177" s="0" t="n">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
     </x:row>
     <x:row r="2178" spans="1:10">
@@ -70442,7 +70442,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2178" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E2178" s="1" t="n">
         <x:v>312</x:v>
@@ -70460,7 +70460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2178" s="0" t="n">
-        <x:v>1588</x:v>
+        <x:v>1589</x:v>
       </x:c>
     </x:row>
     <x:row r="2179" spans="1:10">
@@ -79088,7 +79088,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F2448" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2448" s="1" t="n">
         <x:v>11</x:v>
@@ -79100,7 +79100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2448" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="2449" spans="1:10">
@@ -79120,7 +79120,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F2449" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2449" s="1" t="n">
         <x:v>12</x:v>
@@ -79132,7 +79132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2449" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="2450" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -27600,7 +27600,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
         <x:v>219</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>944</x:v>
+        <x:v>945</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27664,7 +27664,7 @@
         <x:v>725</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1151</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3956</x:v>
+        <x:v>3957</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -21526,13 +21526,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H649" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I649" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J649" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="650" spans="1:10">
@@ -21558,13 +21558,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H650" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I650" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J650" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="651" spans="1:10">
@@ -50285,13 +50285,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1548" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1548" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1548" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H1548" s="1" t="n">
         <x:v>7</x:v>
@@ -50300,7 +50300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1548" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="1549" spans="1:10">
@@ -50317,13 +50317,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1549" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F1549" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G1549" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H1549" s="1" t="n">
         <x:v>52</x:v>
@@ -50332,7 +50332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>345</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -50349,13 +50349,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1550" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F1550" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G1550" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H1550" s="1" t="n">
         <x:v>59</x:v>
@@ -50364,7 +50364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1550" s="0" t="n">
-        <x:v>458</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -50707,7 +50707,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="G1561" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H1561" s="1" t="n">
         <x:v>38</x:v>
@@ -50716,7 +50716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1561" s="0" t="n">
-        <x:v>368</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="1562" spans="1:10">
@@ -50739,7 +50739,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="G1562" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="H1562" s="1" t="n">
         <x:v>71</x:v>
@@ -50748,7 +50748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1562" s="0" t="n">
-        <x:v>670</x:v>
+        <x:v>669</x:v>
       </x:c>
     </x:row>
     <x:row r="1563" spans="1:10">
@@ -50797,7 +50797,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1564" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1564" s="1" t="n">
         <x:v>7</x:v>
@@ -50812,7 +50812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1564" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1565" spans="1:10">
@@ -50829,7 +50829,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1565" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1565" s="1" t="n">
         <x:v>8</x:v>
@@ -50844,7 +50844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1565" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1566" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8848,7 +8848,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F253" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G253" s="1" t="n">
         <x:v>10</x:v>
@@ -8860,7 +8860,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J253" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:10">
@@ -8880,7 +8880,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F254" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G254" s="1" t="n">
         <x:v>12</x:v>
@@ -8892,7 +8892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J254" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:10">
@@ -20112,7 +20112,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
         <x:v>235</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>912</x:v>
+        <x:v>911</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20144,7 +20144,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
         <x:v>467</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1645</x:v>
+        <x:v>1644</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27792,7 +27792,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F845" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G845" s="1" t="n">
         <x:v>13</x:v>
@@ -27804,7 +27804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J845" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="846" spans="1:10">
@@ -27824,10 +27824,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F846" s="1" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G846" s="1" t="n">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="G846" s="1" t="n">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="H846" s="1" t="n">
         <x:v>5</x:v>
@@ -27836,7 +27836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J846" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="847" spans="1:10">
@@ -27856,10 +27856,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F847" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G847" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H847" s="1" t="n">
         <x:v>5</x:v>
@@ -27868,7 +27868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J847" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="848" spans="1:10">
@@ -27981,10 +27981,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>229</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>774</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28013,13 +28013,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2351</x:v>
+        <x:v>2354</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,13 +28045,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1221</x:v>
+        <x:v>1223</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>927</x:v>
+        <x:v>928</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3125</x:v>
+        <x:v>3131</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28243,7 +28243,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
         <x:v>13</x:v>
@@ -28252,7 +28252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28275,7 +28275,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
         <x:v>38</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28307,7 +28307,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
         <x:v>51</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>617</x:v>
+        <x:v>619</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28618,7 +28618,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D871" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
         <x:v>491</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1932</x:v>
+        <x:v>1933</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28682,7 +28682,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
         <x:v>1010</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4373</x:v>
+        <x:v>4374</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -28752,7 +28752,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F875" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
         <x:v>29</x:v>
@@ -28764,7 +28764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J875" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="876" spans="1:10">
@@ -28784,7 +28784,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F876" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G876" s="1" t="n">
         <x:v>41</x:v>
@@ -28796,7 +28796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J876" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="877" spans="1:10">
@@ -51824,7 +51824,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1596" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1596" s="1" t="n">
         <x:v>7</x:v>
@@ -51836,7 +51836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1596" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="1597" spans="1:10">
@@ -51888,7 +51888,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F1598" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1598" s="1" t="n">
         <x:v>23</x:v>
@@ -51900,7 +51900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1598" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="1599" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -24307,7 +24307,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G736" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H736" s="1" t="n">
         <x:v>21</x:v>
@@ -24316,7 +24316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J736" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="737" spans="1:10">
@@ -24339,7 +24339,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="G737" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H737" s="1" t="n">
         <x:v>31</x:v>
@@ -24348,7 +24348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J737" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="738" spans="1:10">
@@ -27629,7 +27629,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>962</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3012</x:v>
+        <x:v>3013</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,7 +27661,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
         <x:v>1258</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3957</x:v>
+        <x:v>3958</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28019,7 +28019,7 @@
         <x:v>916</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2354</x:v>
+        <x:v>2355</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1223</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>928</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3131</x:v>
+        <x:v>3132</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28243,7 +28243,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
         <x:v>13</x:v>
@@ -28252,7 +28252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28307,7 +28307,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
         <x:v>51</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28659,7 +28659,7 @@
         <x:v>812</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
         <x:v>306</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2441</x:v>
+        <x:v>2442</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28691,7 +28691,7 @@
         <x:v>1386</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>487</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4374</x:v>
+        <x:v>4375</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -45680,7 +45680,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F1404" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G1404" s="1" t="n">
         <x:v>21</x:v>
@@ -45692,7 +45692,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1404" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="1405" spans="1:10">
@@ -45712,7 +45712,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F1405" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G1405" s="1" t="n">
         <x:v>33</x:v>
@@ -45724,7 +45724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1405" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="1406" spans="1:10">
@@ -58803,7 +58803,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="G1814" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H1814" s="1" t="n">
         <x:v>102</x:v>
@@ -58812,7 +58812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1814" s="0" t="n">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="1815" spans="1:10">
@@ -58835,7 +58835,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="G1815" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H1815" s="1" t="n">
         <x:v>105</x:v>
@@ -58844,7 +58844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1815" s="0" t="n">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
     </x:row>
     <x:row r="1816" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -20083,7 +20083,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H604" s="1" t="n">
         <x:v>75</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20147,7 +20147,7 @@
         <x:v>493</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>175</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1644</x:v>
+        <x:v>1645</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -28013,10 +28013,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>916</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>700</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2355</x:v>
+        <x:v>2357</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,10 +28045,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1223</x:v>
+        <x:v>1224</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>929</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3132</x:v>
+        <x:v>3134</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28618,7 +28618,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D871" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
         <x:v>491</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1933</x:v>
+        <x:v>1934</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28682,7 +28682,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
         <x:v>1010</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4375</x:v>
+        <x:v>4376</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -50285,13 +50285,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1548" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F1548" s="1" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G1548" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H1548" s="1" t="n">
         <x:v>7</x:v>
@@ -50300,7 +50300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1548" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="1549" spans="1:10">
@@ -50320,10 +50320,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F1549" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G1549" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H1549" s="1" t="n">
         <x:v>52</x:v>
@@ -50332,7 +50332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>339</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -50349,13 +50349,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1550" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F1550" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G1550" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H1550" s="1" t="n">
         <x:v>59</x:v>
@@ -50364,7 +50364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1550" s="0" t="n">
-        <x:v>449</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -57456,7 +57456,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F1772" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G1772" s="1" t="n">
         <x:v>52</x:v>
@@ -57468,7 +57468,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1772" s="0" t="n">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="1773" spans="1:10">
@@ -57488,7 +57488,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F1773" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G1773" s="1" t="n">
         <x:v>64</x:v>
@@ -57500,7 +57500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1773" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="1774" spans="1:10">
@@ -57741,7 +57741,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1781" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1781" s="1" t="n">
         <x:v>42</x:v>
@@ -57756,7 +57756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1781" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="1782" spans="1:10">
@@ -57773,7 +57773,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1782" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F1782" s="1" t="n">
         <x:v>73</x:v>
@@ -57788,7 +57788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1782" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="1783" spans="1:10">
@@ -80656,7 +80656,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2497" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2497" s="1" t="n">
         <x:v>2</x:v>
@@ -80668,7 +80668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2497" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2498" spans="1:10">
@@ -80688,7 +80688,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2498" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G2498" s="1" t="n">
         <x:v>4</x:v>
@@ -80700,7 +80700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2498" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2499" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -7920,7 +7920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F224" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G224" s="1" t="n">
         <x:v>7</x:v>
@@ -7932,7 +7932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J224" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:10">
@@ -7952,7 +7952,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F225" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G225" s="1" t="n">
         <x:v>8</x:v>
@@ -7964,7 +7964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J225" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:10">
@@ -27926,13 +27926,13 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="H849" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I849" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J849" s="0" t="n">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="850" spans="1:10">
@@ -27958,13 +27958,13 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I850" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J850" s="0" t="n">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
@@ -28022,13 +28022,13 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2357</x:v>
+        <x:v>2358</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28054,13 +28054,13 @@
         <x:v>929</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I853" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3134</x:v>
+        <x:v>3135</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -29139,7 +29139,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
         <x:v>43</x:v>
@@ -29148,7 +29148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29171,7 +29171,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
         <x:v>44</x:v>
@@ -29180,7 +29180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -51952,7 +51952,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1600" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1600" s="1" t="n">
         <x:v>5</x:v>
@@ -51964,7 +51964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1600" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1601" spans="1:10">
@@ -51984,7 +51984,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1601" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1601" s="1" t="n">
         <x:v>7</x:v>
@@ -51996,7 +51996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1601" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1602" spans="1:10">
@@ -68365,7 +68365,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E2113" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F2113" s="1" t="n">
         <x:v>89</x:v>
@@ -68380,7 +68380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2113" s="0" t="n">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="2114" spans="1:10">
@@ -68397,7 +68397,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E2114" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F2114" s="1" t="n">
         <x:v>127</x:v>
@@ -68412,7 +68412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2114" s="0" t="n">
-        <x:v>380</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="2115" spans="1:10">
@@ -77517,7 +77517,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E2399" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F2399" s="1" t="n">
         <x:v>93</x:v>
@@ -77532,7 +77532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2399" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="2400" spans="1:10">
@@ -77549,7 +77549,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E2400" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F2400" s="1" t="n">
         <x:v>117</x:v>
@@ -77564,7 +77564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2400" s="0" t="n">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="2401" spans="1:10">
@@ -78064,7 +78064,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F2416" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G2416" s="1" t="n">
         <x:v>17</x:v>
@@ -78076,7 +78076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2416" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="2417" spans="1:10">
@@ -78128,7 +78128,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F2418" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G2418" s="1" t="n">
         <x:v>58</x:v>
@@ -78140,7 +78140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2418" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="2419" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -20269,7 +20269,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E610" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F610" s="1" t="n">
         <x:v>0</x:v>
@@ -20284,7 +20284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J610" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="611" spans="1:10">
@@ -20333,7 +20333,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E612" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F612" s="1" t="n">
         <x:v>2</x:v>
@@ -20348,7 +20348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J612" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="613" spans="1:10">
@@ -27981,7 +27981,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
         <x:v>307</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>777</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,7 +28016,7 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>700</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2358</x:v>
+        <x:v>2357</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,10 +28045,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1224</x:v>
+        <x:v>1223</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>929</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3135</x:v>
+        <x:v>3133</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19411,7 +19411,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G583" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H583" s="1" t="n">
         <x:v>2</x:v>
@@ -19420,7 +19420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J583" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:10">
@@ -19475,7 +19475,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G585" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H585" s="1" t="n">
         <x:v>7</x:v>
@@ -19484,7 +19484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J585" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -20112,7 +20112,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
         <x:v>235</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>911</x:v>
+        <x:v>912</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20144,7 +20144,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
         <x:v>468</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1645</x:v>
+        <x:v>1646</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27987,7 +27987,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,7 +28016,7 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>916</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>700</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2357</x:v>
+        <x:v>2359</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,10 +28048,10 @@
         <x:v>684</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1223</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>929</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>234</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3133</x:v>
+        <x:v>3136</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2294,13 +2294,13 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2326,13 +2326,13 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -19792,7 +19792,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F595" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G595" s="1" t="n">
         <x:v>23</x:v>
@@ -19804,7 +19804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19856,7 +19856,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F597" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G597" s="1" t="n">
         <x:v>56</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -22163,7 +22163,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G669" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H669" s="1" t="n">
         <x:v>4</x:v>
@@ -22172,7 +22172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J669" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:10">
@@ -22227,7 +22227,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G671" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H671" s="1" t="n">
         <x:v>17</x:v>
@@ -22236,7 +22236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J671" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="672" spans="1:10">
@@ -27594,7 +27594,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D839" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
         <x:v>198</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>945</x:v>
+        <x:v>946</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27632,19 +27632,19 @@
         <x:v>528</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>962</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>932</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3013</x:v>
+        <x:v>3015</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27658,25 +27658,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
         <x:v>726</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1258</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1151</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3958</x:v>
+        <x:v>3961</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28019,7 +28019,7 @@
         <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>199</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2359</x:v>
+        <x:v>2360</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1225</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>234</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3136</x:v>
+        <x:v>3137</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28624,7 +28624,7 @@
         <x:v>491</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>501</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1934</x:v>
+        <x:v>1935</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28659,7 +28659,7 @@
         <x:v>812</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
         <x:v>306</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2442</x:v>
+        <x:v>2445</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28688,10 +28688,10 @@
         <x:v>1010</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1386</x:v>
+        <x:v>1387</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1146</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>487</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4376</x:v>
+        <x:v>4380</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29334,13 +29334,13 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I893" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>930</x:v>
+        <x:v>931</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29366,13 +29366,13 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I894" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1032</x:v>
+        <x:v>1033</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -50294,13 +50294,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="H1548" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1548" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1548" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="1549" spans="1:10">
@@ -50358,13 +50358,13 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="H1550" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I1550" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1550" s="0" t="n">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -51472,7 +51472,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F1585" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G1585" s="1" t="n">
         <x:v>45</x:v>
@@ -51484,7 +51484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1585" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="1586" spans="1:10">
@@ -51504,7 +51504,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F1586" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G1586" s="1" t="n">
         <x:v>51</x:v>
@@ -51516,7 +51516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1586" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="1587" spans="1:10">
@@ -62157,7 +62157,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1919" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1919" s="1" t="n">
         <x:v>13</x:v>
@@ -62172,7 +62172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1919" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="1920" spans="1:10">
@@ -62221,7 +62221,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E1921" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1921" s="1" t="n">
         <x:v>33</x:v>
@@ -62236,7 +62236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1921" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="1922" spans="1:10">
@@ -64973,7 +64973,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E2007" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F2007" s="1" t="n">
         <x:v>30</x:v>
@@ -64988,7 +64988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2007" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="2008" spans="1:10">
@@ -65037,7 +65037,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E2009" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F2009" s="1" t="n">
         <x:v>76</x:v>
@@ -65052,7 +65052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2009" s="0" t="n">
-        <x:v>307</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="2010" spans="1:10">
@@ -70064,7 +70064,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F2166" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G2166" s="1" t="n">
         <x:v>22</x:v>
@@ -70076,7 +70076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2166" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="2167" spans="1:10">
@@ -70096,7 +70096,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F2167" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G2167" s="1" t="n">
         <x:v>35</x:v>
@@ -70108,7 +70108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2167" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="2168" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -27606,13 +27606,13 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I839" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>946</x:v>
+        <x:v>945</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27638,13 +27638,13 @@
         <x:v>932</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3015</x:v>
+        <x:v>3016</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -28019,7 +28019,7 @@
         <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>199</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2360</x:v>
+        <x:v>2361</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1225</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>931</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>234</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3137</x:v>
+        <x:v>3138</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -29130,7 +29130,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
         <x:v>44</x:v>
@@ -29148,7 +29148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29162,7 +29162,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
         <x:v>46</x:v>
@@ -29180,7 +29180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>177</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>931</x:v>
+        <x:v>932</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>196</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1033</x:v>
+        <x:v>1034</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -71379,7 +71379,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2207" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2207" s="1" t="n">
         <x:v>2</x:v>
@@ -71388,7 +71388,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2207" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2208" spans="1:10">
@@ -71411,7 +71411,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2208" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2208" s="1" t="n">
         <x:v>3</x:v>
@@ -71420,7 +71420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2208" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2209" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19213,7 +19213,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E577" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F577" s="1" t="n">
         <x:v>95</x:v>
@@ -19228,7 +19228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J577" s="0" t="n">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="578" spans="1:10">
@@ -19277,7 +19277,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E579" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F579" s="1" t="n">
         <x:v>342</x:v>
@@ -19292,7 +19292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J579" s="0" t="n">
-        <x:v>1081</x:v>
+        <x:v>1082</x:v>
       </x:c>
     </x:row>
     <x:row r="580" spans="1:10">
@@ -28013,13 +28013,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
         <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>199</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2361</x:v>
+        <x:v>2363</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,13 +28045,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
         <x:v>1225</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>234</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3138</x:v>
+        <x:v>3140</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>177</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>196</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1034</x:v>
+        <x:v>1035</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -32362,7 +32362,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D988" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E988" s="1" t="n">
         <x:v>15</x:v>
@@ -32380,7 +32380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J988" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="989" spans="1:10">
@@ -32394,7 +32394,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D989" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E989" s="1" t="n">
         <x:v>19</x:v>
@@ -32412,7 +32412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J989" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="990" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2000,7 +2000,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>12</x:v>
@@ -2012,7 +2012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
@@ -2032,7 +2032,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>17</x:v>
@@ -2044,7 +2044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J40" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10">
@@ -2256,7 +2256,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>66</x:v>
@@ -2268,7 +2268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2291,16 +2291,16 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>395</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2320,19 +2320,19 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>564</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2678,13 +2678,13 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2710,13 +2710,13 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1188</x:v>
+        <x:v>1189</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -14608,7 +14608,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F433" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G433" s="1" t="n">
         <x:v>55</x:v>
@@ -14620,7 +14620,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J433" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="434" spans="1:10">
@@ -14640,7 +14640,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F434" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G434" s="1" t="n">
         <x:v>80</x:v>
@@ -14652,7 +14652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J434" s="0" t="n">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="435" spans="1:10">
@@ -14864,7 +14864,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F441" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G441" s="1" t="n">
         <x:v>20</x:v>
@@ -14876,7 +14876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J441" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="442" spans="1:10">
@@ -14896,7 +14896,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F442" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G442" s="1" t="n">
         <x:v>27</x:v>
@@ -14908,7 +14908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J442" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="443" spans="1:10">
@@ -17098,13 +17098,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D511" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E511" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F511" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G511" s="1" t="n">
         <x:v>9</x:v>
@@ -17130,13 +17130,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D512" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E512" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F512" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G512" s="1" t="n">
         <x:v>10</x:v>
@@ -19600,7 +19600,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F589" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G589" s="1" t="n">
         <x:v>26</x:v>
@@ -19612,7 +19612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J589" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:10">
@@ -19664,7 +19664,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F591" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
         <x:v>111</x:v>
@@ -19676,7 +19676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -27629,10 +27629,10 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>963</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>932</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3016</x:v>
+        <x:v>3018</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,10 +27661,10 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1259</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1151</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3961</x:v>
+        <x:v>3963</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28010,13 +28010,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D852" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>918</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>703</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2363</x:v>
+        <x:v>2365</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28042,13 +28042,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D853" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
         <x:v>685</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1225</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>933</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3140</x:v>
+        <x:v>3142</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -54861,7 +54861,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1691" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1691" s="1" t="n">
         <x:v>0</x:v>
@@ -54876,7 +54876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1691" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1692" spans="1:10">
@@ -54893,7 +54893,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1692" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1692" s="1" t="n">
         <x:v>0</x:v>
@@ -54908,7 +54908,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1692" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="1693" spans="1:10">
@@ -77482,7 +77482,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2398" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E2398" s="1" t="n">
         <x:v>19</x:v>
@@ -77500,7 +77500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2398" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="2399" spans="1:10">
@@ -77546,7 +77546,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2400" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E2400" s="1" t="n">
         <x:v>63</x:v>
@@ -77564,7 +77564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2400" s="0" t="n">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
     </x:row>
     <x:row r="2401" spans="1:10">
@@ -78419,7 +78419,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G2427" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H2427" s="1" t="n">
         <x:v>49</x:v>
@@ -78428,7 +78428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2427" s="0" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="2428" spans="1:10">
@@ -78451,7 +78451,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="G2428" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H2428" s="1" t="n">
         <x:v>89</x:v>
@@ -78460,7 +78460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2428" s="0" t="n">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
     </x:row>
     <x:row r="2429" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
         <x:v>6</x:v>
@@ -2364,7 +2364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
@@ -2384,19 +2384,19 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -2416,19 +2416,19 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
-        <x:v>251</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
@@ -2637,13 +2637,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
         <x:v>165</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
         <x:v>59</x:v>
@@ -2652,7 +2652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
-        <x:v>568</x:v>
+        <x:v>570</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
@@ -2669,13 +2669,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
         <x:v>66</x:v>
@@ -2684,7 +2684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>621</x:v>
+        <x:v>624</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2701,13 +2701,13 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>125</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1189</x:v>
+        <x:v>1194</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -2768,7 +2768,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>10</x:v>
@@ -2780,7 +2780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10">
@@ -2800,7 +2800,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F64" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G64" s="1" t="n">
         <x:v>12</x:v>
@@ -2812,7 +2812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J64" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10">
@@ -8173,7 +8173,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E232" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F232" s="1" t="n">
         <x:v>10</x:v>
@@ -8188,7 +8188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J232" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:10">
@@ -8205,7 +8205,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E233" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F233" s="1" t="n">
         <x:v>18</x:v>
@@ -8220,7 +8220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J233" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:10">
@@ -67949,7 +67949,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E2100" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F2100" s="1" t="n">
         <x:v>62</x:v>
@@ -67964,7 +67964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2100" s="0" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="2101" spans="1:10">
@@ -67984,10 +67984,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F2101" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G2101" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H2101" s="1" t="n">
         <x:v>80</x:v>
@@ -67996,7 +67996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2101" s="0" t="n">
-        <x:v>535</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="2102" spans="1:10">
@@ -68013,13 +68013,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E2102" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F2102" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G2102" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H2102" s="1" t="n">
         <x:v>102</x:v>
@@ -68028,7 +68028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2102" s="0" t="n">
-        <x:v>729</x:v>
+        <x:v>733</x:v>
       </x:c>
     </x:row>
     <x:row r="2103" spans="1:10">
@@ -68083,7 +68083,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G2104" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H2104" s="1" t="n">
         <x:v>2</x:v>
@@ -68092,7 +68092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2104" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="2105" spans="1:10">
@@ -68115,7 +68115,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G2105" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H2105" s="1" t="n">
         <x:v>7</x:v>
@@ -68124,7 +68124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2105" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="2106" spans="1:10">
@@ -68147,7 +68147,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G2106" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2106" s="1" t="n">
         <x:v>1</x:v>
@@ -68156,7 +68156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2106" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2107" spans="1:10">
@@ -68173,13 +68173,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2107" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2107" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G2107" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H2107" s="1" t="n">
         <x:v>0</x:v>
@@ -68188,7 +68188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2107" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2108" spans="1:10">
@@ -68205,13 +68205,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E2108" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F2108" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G2108" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H2108" s="1" t="n">
         <x:v>1</x:v>
@@ -68220,7 +68220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2108" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2109" spans="1:10">
@@ -68333,7 +68333,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2112" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F2112" s="1" t="n">
         <x:v>38</x:v>
@@ -68348,7 +68348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2112" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="2113" spans="1:10">
@@ -68362,13 +68362,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2113" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2113" s="1" t="n">
         <x:v>52</x:v>
       </x:c>
       <x:c r="F2113" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G2113" s="1" t="n">
         <x:v>74</x:v>
@@ -68380,7 +68380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2113" s="0" t="n">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="2114" spans="1:10">
@@ -68394,13 +68394,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2114" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E2114" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F2114" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G2114" s="1" t="n">
         <x:v>112</x:v>
@@ -68412,7 +68412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2114" s="0" t="n">
-        <x:v>379</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="2115" spans="1:10">
@@ -68688,10 +68688,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F2123" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G2123" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H2123" s="1" t="n">
         <x:v>38</x:v>
@@ -68700,7 +68700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2123" s="0" t="n">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="2124" spans="1:10">
@@ -68717,13 +68717,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E2124" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F2124" s="1" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="G2124" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H2124" s="1" t="n">
         <x:v>44</x:v>
@@ -68732,7 +68732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2124" s="0" t="n">
-        <x:v>448</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="2125" spans="1:10">
@@ -68749,13 +68749,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E2125" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F2125" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G2125" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H2125" s="1" t="n">
         <x:v>82</x:v>
@@ -68764,7 +68764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2125" s="0" t="n">
-        <x:v>782</x:v>
+        <x:v>786</x:v>
       </x:c>
     </x:row>
     <x:row r="2126" spans="1:10">
@@ -68819,7 +68819,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2127" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H2127" s="1" t="n">
         <x:v>1</x:v>
@@ -68828,7 +68828,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2127" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2128" spans="1:10">
@@ -68851,7 +68851,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G2128" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2128" s="1" t="n">
         <x:v>2</x:v>
@@ -68860,7 +68860,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2128" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2129" spans="1:10">
@@ -69075,16 +69075,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2135" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H2135" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I2135" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2135" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2136" spans="1:10">
@@ -69107,16 +69107,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2136" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2136" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I2136" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2136" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2137" spans="1:10">
@@ -69261,7 +69261,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2141" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2141" s="1" t="n">
         <x:v>15</x:v>
@@ -69276,7 +69276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2141" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="2142" spans="1:10">
@@ -69293,7 +69293,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2142" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2142" s="1" t="n">
         <x:v>16</x:v>
@@ -69308,7 +69308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2142" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2143" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2294,13 +2294,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2326,13 +2326,13 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>567</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2646,13 +2646,13 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
@@ -2672,10 +2672,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
         <x:v>66</x:v>
@@ -2684,7 +2684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>624</x:v>
+        <x:v>626</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2704,19 +2704,19 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1194</x:v>
+        <x:v>1197</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -7632,7 +7632,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F215" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G215" s="1" t="n">
         <x:v>80</x:v>
@@ -7644,7 +7644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J215" s="0" t="n">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:10">
@@ -7664,7 +7664,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="F216" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G216" s="1" t="n">
         <x:v>104</x:v>
@@ -7676,7 +7676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J216" s="0" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:10">
@@ -8426,7 +8426,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D240" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E240" s="1" t="n">
         <x:v>60</x:v>
@@ -8444,7 +8444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J240" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:10">
@@ -8458,7 +8458,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D241" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E241" s="1" t="n">
         <x:v>104</x:v>
@@ -8476,7 +8476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J241" s="0" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:10">
@@ -27594,16 +27594,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D839" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
         <x:v>198</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
         <x:v>97</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>945</x:v>
+        <x:v>948</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27629,7 +27629,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>964</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3018</x:v>
+        <x:v>3017</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27658,16 +27658,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>727</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1260</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1151</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>519</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3963</x:v>
+        <x:v>3965</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27920,10 +27920,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F849" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G849" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H849" s="1" t="n">
         <x:v>25</x:v>
@@ -27932,7 +27932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J849" s="0" t="n">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="850" spans="1:10">
@@ -27952,10 +27952,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F850" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G850" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
         <x:v>26</x:v>
@@ -27964,7 +27964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J850" s="0" t="n">
-        <x:v>445</x:v>
+        <x:v>447</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
@@ -27981,7 +27981,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
         <x:v>307</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>777</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,19 +28016,19 @@
         <x:v>499</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>919</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2365</x:v>
+        <x:v>2361</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,22 +28045,22 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1226</x:v>
+        <x:v>1224</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I853" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3142</x:v>
+        <x:v>3137</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28269,13 +28269,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E860" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
         <x:v>127</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
         <x:v>38</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28301,13 +28301,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>195</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
         <x:v>51</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>620</x:v>
+        <x:v>622</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>177</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>933</x:v>
+        <x:v>935</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>196</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1035</x:v>
+        <x:v>1037</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -64016,7 +64016,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1977" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G1977" s="1" t="n">
         <x:v>25</x:v>
@@ -64028,7 +64028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1977" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="1978" spans="1:10">
@@ -64080,7 +64080,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F1979" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G1979" s="1" t="n">
         <x:v>103</x:v>
@@ -64092,7 +64092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1979" s="0" t="n">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="1980" spans="1:10">
@@ -64240,7 +64240,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1984" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1984" s="1" t="n">
         <x:v>12</x:v>
@@ -64252,7 +64252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1984" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="1985" spans="1:10">
@@ -64272,7 +64272,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1985" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1985" s="1" t="n">
         <x:v>16</x:v>
@@ -64284,7 +64284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1985" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1986" spans="1:10">
@@ -66666,7 +66666,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2060" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2060" s="1" t="n">
         <x:v>0</x:v>
@@ -66684,7 +66684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2060" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="2061" spans="1:10">
@@ -66698,7 +66698,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2061" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2061" s="1" t="n">
         <x:v>1</x:v>
@@ -66716,7 +66716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2061" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2062" spans="1:10">
@@ -68147,7 +68147,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G2106" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2106" s="1" t="n">
         <x:v>1</x:v>
@@ -68156,7 +68156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2106" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="2107" spans="1:10">
@@ -68211,7 +68211,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G2108" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H2108" s="1" t="n">
         <x:v>1</x:v>
@@ -68220,7 +68220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2108" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="2109" spans="1:10">
@@ -69517,7 +69517,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E2149" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F2149" s="1" t="n">
         <x:v>148</x:v>
@@ -69532,7 +69532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2149" s="0" t="n">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="2150" spans="1:10">
@@ -69549,7 +69549,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E2150" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F2150" s="1" t="n">
         <x:v>203</x:v>
@@ -69564,7 +69564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2150" s="0" t="n">
-        <x:v>759</x:v>
+        <x:v>760</x:v>
       </x:c>
     </x:row>
     <x:row r="2151" spans="1:10">
@@ -69901,7 +69901,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2161" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F2161" s="1" t="n">
         <x:v>99</x:v>
@@ -69916,7 +69916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2161" s="0" t="n">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="2162" spans="1:10">
@@ -69933,7 +69933,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E2162" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F2162" s="1" t="n">
         <x:v>146</x:v>
@@ -69948,7 +69948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2162" s="0" t="n">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="2163" spans="1:10">
@@ -77526,13 +77526,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="H2399" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I2399" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2399" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="2400" spans="1:10">
@@ -77558,13 +77558,13 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="H2400" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I2400" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2400" s="0" t="n">
-        <x:v>474</x:v>
+        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="2401" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2771,7 +2771,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
         <x:v>1</x:v>
@@ -2780,7 +2780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10">
@@ -2803,7 +2803,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G64" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H64" s="1" t="n">
         <x:v>1</x:v>
@@ -2812,7 +2812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J64" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10">
@@ -3091,7 +3091,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G73" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H73" s="1" t="n">
         <x:v>6</x:v>
@@ -3100,7 +3100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10">
@@ -3123,7 +3123,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G74" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H74" s="1" t="n">
         <x:v>6</x:v>
@@ -3132,7 +3132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:10">
@@ -13994,7 +13994,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D414" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E414" s="1" t="n">
         <x:v>0</x:v>
@@ -14012,7 +14012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J414" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="415" spans="1:10">
@@ -14026,7 +14026,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D415" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E415" s="1" t="n">
         <x:v>0</x:v>
@@ -14044,7 +14044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J415" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="416" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -27792,7 +27792,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F845" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G845" s="1" t="n">
         <x:v>13</x:v>
@@ -27804,7 +27804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J845" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="846" spans="1:10">
@@ -27856,7 +27856,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F847" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G847" s="1" t="n">
         <x:v>42</x:v>
@@ -27868,7 +27868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J847" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="848" spans="1:10">
@@ -28013,13 +28013,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
         <x:v>917</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28045,13 +28045,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
         <x:v>1224</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -42794,7 +42794,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1314" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1314" s="1" t="n">
         <x:v>27</x:v>
@@ -42812,7 +42812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1314" s="0" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="1315" spans="1:10">
@@ -42826,7 +42826,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1315" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E1315" s="1" t="n">
         <x:v>42</x:v>
@@ -42844,7 +42844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1315" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="1316" spans="1:10">
@@ -78902,13 +78902,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H2442" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I2442" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2442" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2443" spans="1:10">
@@ -78934,13 +78934,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H2443" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I2443" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2443" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="2444" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2288,7 +2288,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>138</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>396</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2320,7 +2320,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>204</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>566</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -27629,7 +27629,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>964</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3017</x:v>
+        <x:v>3018</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,7 +27661,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
         <x:v>1261</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3965</x:v>
+        <x:v>3966</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27984,7 +27984,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>230</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,10 +28016,10 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2361</x:v>
+        <x:v>2363</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,10 +28048,10 @@
         <x:v>683</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1224</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3137</x:v>
+        <x:v>3140</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28246,13 +28246,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I859" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28310,13 +28310,13 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28621,10 +28621,10 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>501</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1935</x:v>
+        <x:v>1937</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28685,10 +28685,10 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1387</x:v>
+        <x:v>1388</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1149</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4380</x:v>
+        <x:v>4382</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29142,13 +29142,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I887" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29174,13 +29174,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I888" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -29325,7 +29325,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
         <x:v>286</x:v>
@@ -29334,13 +29334,13 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I893" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>935</x:v>
+        <x:v>937</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29357,7 +29357,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
         <x:v>328</x:v>
@@ -29366,13 +29366,13 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I894" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1037</x:v>
+        <x:v>1039</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -36659,7 +36659,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1122" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H1122" s="1" t="n">
         <x:v>10</x:v>
@@ -36668,7 +36668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1122" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="1123" spans="1:10">
@@ -36691,7 +36691,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G1123" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1123" s="1" t="n">
         <x:v>10</x:v>
@@ -36700,7 +36700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1123" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="1124" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -27635,7 +27635,7 @@
         <x:v>964</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
         <x:v>422</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3018</x:v>
+        <x:v>3019</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27667,7 +27667,7 @@
         <x:v>1261</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1153</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>519</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3966</x:v>
+        <x:v>3967</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28278,13 +28278,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I860" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28310,13 +28310,13 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28624,7 +28624,7 @@
         <x:v>492</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>501</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1937</x:v>
+        <x:v>1938</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28653,7 +28653,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E872" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
         <x:v>812</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2445</x:v>
+        <x:v>2446</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28685,10 +28685,10 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>1011</x:v>
+        <x:v>1012</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1388</x:v>
+        <x:v>1389</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1149</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4382</x:v>
+        <x:v>4384</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19530,7 +19530,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D587" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E587" s="1" t="n">
         <x:v>11</x:v>
@@ -19548,7 +19548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J587" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:10">
@@ -19562,7 +19562,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D588" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E588" s="1" t="n">
         <x:v>21</x:v>
@@ -19580,7 +19580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J588" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:10">
@@ -20080,7 +20080,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="F604" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
         <x:v>233</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20144,7 +20144,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
         <x:v>468</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1646</x:v>
+        <x:v>1647</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -28016,19 +28016,19 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>918</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>704</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2363</x:v>
+        <x:v>2361</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,19 +28048,19 @@
         <x:v>683</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1226</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>934</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I853" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3140</x:v>
+        <x:v>3138</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -36973,7 +36973,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1132" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1132" s="1" t="n">
         <x:v>10</x:v>
@@ -36988,7 +36988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1132" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="1133" spans="1:10">
@@ -37005,7 +37005,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1133" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1133" s="1" t="n">
         <x:v>15</x:v>
@@ -37020,7 +37020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1133" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="1134" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19350,13 +19350,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H581" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I581" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J581" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="582" spans="1:10">
@@ -19382,13 +19382,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H582" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I582" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J582" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:10">
@@ -19603,16 +19603,16 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G589" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H589" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I589" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J589" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:10">
@@ -19667,16 +19667,16 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H591" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I591" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -20118,13 +20118,13 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="H605" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I605" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>912</x:v>
+        <x:v>914</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20150,13 +20150,13 @@
         <x:v>468</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I606" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1647</x:v>
+        <x:v>1649</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>177</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>937</x:v>
+        <x:v>938</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>196</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1039</x:v>
+        <x:v>1040</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -50445,7 +50445,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1553" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1553" s="1" t="n">
         <x:v>13</x:v>
@@ -50460,7 +50460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1553" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="1554" spans="1:10">
@@ -50509,7 +50509,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1555" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F1555" s="1" t="n">
         <x:v>28</x:v>
@@ -50524,7 +50524,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1555" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="1556" spans="1:10">
@@ -66352,10 +66352,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F2050" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G2050" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H2050" s="1" t="n">
         <x:v>7</x:v>
@@ -66364,7 +66364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2050" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="2051" spans="1:10">
@@ -66384,10 +66384,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F2051" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G2051" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H2051" s="1" t="n">
         <x:v>16</x:v>
@@ -66396,7 +66396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2051" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="2052" spans="1:10">
@@ -71149,7 +71149,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E2200" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F2200" s="1" t="n">
         <x:v>8</x:v>
@@ -71164,7 +71164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2200" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2201" spans="1:10">
@@ -71213,7 +71213,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E2202" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F2202" s="1" t="n">
         <x:v>26</x:v>
@@ -71228,7 +71228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2202" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="2203" spans="1:10">
@@ -81366,13 +81366,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H2519" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I2519" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2519" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="2520" spans="1:10">
@@ -81398,13 +81398,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H2520" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I2520" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2520" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="2521" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8173,7 +8173,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E232" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F232" s="1" t="n">
         <x:v>10</x:v>
@@ -8188,7 +8188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J232" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:10">
@@ -8205,7 +8205,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E233" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F233" s="1" t="n">
         <x:v>18</x:v>
@@ -8220,7 +8220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J233" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:10">
@@ -27987,7 +27987,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>777</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28019,7 +28019,7 @@
         <x:v>917</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>704</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>197</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2361</x:v>
+        <x:v>2360</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1225</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>932</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>232</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3138</x:v>
+        <x:v>3136</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28237,7 +28237,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E859" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
         <x:v>68</x:v>
@@ -28252,7 +28252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28301,7 +28301,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>195</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -36947,7 +36947,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1131" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1131" s="1" t="n">
         <x:v>2</x:v>
@@ -36956,7 +36956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1131" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="1132" spans="1:10">
@@ -37011,7 +37011,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G1133" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H1133" s="1" t="n">
         <x:v>10</x:v>
@@ -37020,7 +37020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1133" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="1134" spans="1:10">
@@ -51562,10 +51562,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1588" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1588" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1588" s="1" t="n">
         <x:v>10</x:v>
@@ -51580,7 +51580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1588" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="1589" spans="1:10">
@@ -51594,10 +51594,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1589" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1589" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1589" s="1" t="n">
         <x:v>13</x:v>
@@ -51612,7 +51612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1589" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1590" spans="1:10">
@@ -52138,10 +52138,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1606" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1606" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F1606" s="1" t="n">
         <x:v>7</x:v>
@@ -52156,7 +52156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1606" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="1607" spans="1:10">
@@ -52170,10 +52170,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1607" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E1607" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F1607" s="1" t="n">
         <x:v>16</x:v>
@@ -52188,7 +52188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1607" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="1608" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -20077,7 +20077,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E604" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F604" s="1" t="n">
         <x:v>186</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20141,7 +20141,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E606" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
         <x:v>495</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1649</x:v>
+        <x:v>1650</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27987,7 +27987,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1225</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>232</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3136</x:v>
+        <x:v>3137</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28630,13 +28630,13 @@
         <x:v>501</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="I871" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1938</x:v>
+        <x:v>1940</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28694,13 +28694,13 @@
         <x:v>1149</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4384</x:v>
+        <x:v>4386</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19635,7 +19635,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G590" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H590" s="1" t="n">
         <x:v>27</x:v>
@@ -19644,7 +19644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J590" s="0" t="n">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:10">
@@ -19667,7 +19667,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H591" s="1" t="n">
         <x:v>31</x:v>
@@ -19676,7 +19676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -64243,7 +64243,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1984" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1984" s="1" t="n">
         <x:v>1</x:v>
@@ -64252,7 +64252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1984" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="1985" spans="1:10">
@@ -64275,7 +64275,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G1985" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1985" s="1" t="n">
         <x:v>1</x:v>
@@ -64284,7 +64284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1985" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="1986" spans="1:10">
@@ -68365,7 +68365,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E2113" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F2113" s="1" t="n">
         <x:v>90</x:v>
@@ -68380,7 +68380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2113" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="2114" spans="1:10">
@@ -68397,7 +68397,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E2114" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F2114" s="1" t="n">
         <x:v>128</x:v>
@@ -68412,7 +68412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2114" s="0" t="n">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="2115" spans="1:10">
@@ -70224,7 +70224,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2171" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2171" s="1" t="n">
         <x:v>0</x:v>
@@ -70236,7 +70236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2171" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2172" spans="1:10">
@@ -70256,7 +70256,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F2172" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2172" s="1" t="n">
         <x:v>0</x:v>
@@ -70268,7 +70268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2172" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2173" spans="1:10">
@@ -84176,7 +84176,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2607" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2607" s="1" t="n">
         <x:v>0</x:v>
@@ -84188,7 +84188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2607" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2608" spans="1:10">
@@ -84208,7 +84208,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2608" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2608" s="1" t="n">
         <x:v>1</x:v>
@@ -84220,7 +84220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2608" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2609" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1869,7 +1869,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
         <x:v>51</x:v>
@@ -1884,7 +1884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1901,22 +1901,22 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>181</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>573</x:v>
+        <x:v>569</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -1933,22 +1933,22 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>231</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>784</x:v>
+        <x:v>779</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2384,7 +2384,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>42</x:v>
@@ -2396,7 +2396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -2416,7 +2416,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>71</x:v>
@@ -2428,7 +2428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
@@ -2634,7 +2634,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>125</x:v>
@@ -2646,13 +2646,13 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
-        <x:v>571</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
@@ -2666,10 +2666,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
         <x:v>205</x:v>
@@ -2684,7 +2684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>626</x:v>
+        <x:v>624</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2698,10 +2698,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
         <x:v>370</x:v>
@@ -2710,13 +2710,13 @@
         <x:v>358</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1197</x:v>
+        <x:v>1191</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -19027,7 +19027,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G571" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H571" s="1" t="n">
         <x:v>1</x:v>
@@ -19036,7 +19036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J571" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="572" spans="1:10">
@@ -19059,7 +19059,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G572" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H572" s="1" t="n">
         <x:v>0</x:v>
@@ -19068,7 +19068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J572" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:10">
@@ -19091,7 +19091,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G573" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H573" s="1" t="n">
         <x:v>1</x:v>
@@ -19100,7 +19100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J573" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:10">
@@ -19798,13 +19798,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H595" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I595" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19862,13 +19862,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="H597" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I597" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -28016,7 +28016,7 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>703</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2360</x:v>
+        <x:v>2361</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>683</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1225</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>933</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3137</x:v>
+        <x:v>3138</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28246,13 +28246,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I859" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28269,7 +28269,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E860" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
         <x:v>127</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28301,7 +28301,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>195</x:v>
@@ -28310,13 +28310,13 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>625</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1898,16 +1898,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>67</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
         <x:v>59</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>569</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -1930,16 +1930,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>97</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>72</x:v>
@@ -1948,7 +1948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>779</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2634,7 +2634,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>125</x:v>
@@ -2646,13 +2646,13 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
-        <x:v>567</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
@@ -2698,7 +2698,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>225</x:v>
@@ -2710,13 +2710,13 @@
         <x:v>358</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1191</x:v>
+        <x:v>1190</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -2762,7 +2762,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>2</x:v>
@@ -2780,7 +2780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10">
@@ -2794,7 +2794,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>5</x:v>
@@ -2812,7 +2812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J64" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10">
@@ -14602,7 +14602,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D433" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E433" s="1" t="n">
         <x:v>22</x:v>
@@ -14620,7 +14620,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J433" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="434" spans="1:10">
@@ -14634,7 +14634,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D434" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E434" s="1" t="n">
         <x:v>33</x:v>
@@ -14652,7 +14652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J434" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="435" spans="1:10">
@@ -27638,13 +27638,13 @@
         <x:v>933</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3019</x:v>
+        <x:v>3020</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27670,13 +27670,13 @@
         <x:v>1153</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3967</x:v>
+        <x:v>3968</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27734,13 +27734,13 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="H843" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I843" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J843" s="0" t="n">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="844" spans="1:10">
@@ -27766,13 +27766,13 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="H844" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I844" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J844" s="0" t="n">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="845" spans="1:10">
@@ -27978,7 +27978,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D851" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
         <x:v>185</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28042,7 +28042,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D853" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
         <x:v>683</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3138</x:v>
+        <x:v>3139</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -50317,7 +50317,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1549" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F1549" s="1" t="n">
         <x:v>101</x:v>
@@ -50332,7 +50332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -50349,7 +50349,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1550" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F1550" s="1" t="n">
         <x:v>131</x:v>
@@ -50364,7 +50364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1550" s="0" t="n">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -51245,7 +51245,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E1578" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F1578" s="1" t="n">
         <x:v>16</x:v>
@@ -51260,7 +51260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1578" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="1579" spans="1:10">
@@ -51277,7 +51277,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E1579" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F1579" s="1" t="n">
         <x:v>16</x:v>
@@ -51292,7 +51292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1579" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="1580" spans="1:10">
@@ -64048,7 +64048,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F1978" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G1978" s="1" t="n">
         <x:v>78</x:v>
@@ -64060,7 +64060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1978" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="1979" spans="1:10">
@@ -64080,7 +64080,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F1979" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G1979" s="1" t="n">
         <x:v>103</x:v>
@@ -64092,7 +64092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1979" s="0" t="n">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="1980" spans="1:10">
@@ -65168,7 +65168,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F2013" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2013" s="1" t="n">
         <x:v>2</x:v>
@@ -65180,7 +65180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2013" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2014" spans="1:10">
@@ -65200,7 +65200,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F2014" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G2014" s="1" t="n">
         <x:v>2</x:v>
@@ -65212,7 +65212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2014" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2015" spans="1:10">
@@ -67949,7 +67949,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E2100" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F2100" s="1" t="n">
         <x:v>62</x:v>
@@ -67964,7 +67964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2100" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="2101" spans="1:10">
@@ -67981,7 +67981,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E2101" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F2101" s="1" t="n">
         <x:v>162</x:v>
@@ -67996,7 +67996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2101" s="0" t="n">
-        <x:v>538</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="2102" spans="1:10">
@@ -68083,7 +68083,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G2104" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H2104" s="1" t="n">
         <x:v>2</x:v>
@@ -68092,7 +68092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2104" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="2105" spans="1:10">
@@ -68115,7 +68115,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G2105" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H2105" s="1" t="n">
         <x:v>7</x:v>
@@ -68124,7 +68124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2105" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="2106" spans="1:10">
@@ -68688,7 +68688,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F2123" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G2123" s="1" t="n">
         <x:v>112</x:v>
@@ -68700,7 +68700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2123" s="0" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="2124" spans="1:10">
@@ -68720,7 +68720,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="F2124" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G2124" s="1" t="n">
         <x:v>148</x:v>
@@ -68732,7 +68732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2124" s="0" t="n">
-        <x:v>450</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="2125" spans="1:10">
@@ -68752,7 +68752,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F2125" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="G2125" s="1" t="n">
         <x:v>260</x:v>
@@ -68764,7 +68764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2125" s="0" t="n">
-        <x:v>786</x:v>
+        <x:v>789</x:v>
       </x:c>
     </x:row>
     <x:row r="2126" spans="1:10">
@@ -78093,7 +78093,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E2417" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F2417" s="1" t="n">
         <x:v>30</x:v>
@@ -78108,7 +78108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2417" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="2418" spans="1:10">
@@ -78125,7 +78125,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E2418" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F2418" s="1" t="n">
         <x:v>57</x:v>
@@ -78140,7 +78140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2418" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="2419" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1866,7 +1866,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>30</x:v>
@@ -1875,7 +1875,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
         <x:v>13</x:v>
@@ -1884,7 +1884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1904,19 +1904,19 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>180</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>566</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -1930,25 +1930,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>97</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2262,13 +2262,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2326,13 +2326,13 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>565</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2643,7 +2643,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
         <x:v>60</x:v>
@@ -2652,7 +2652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
-        <x:v>566</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
@@ -2672,10 +2672,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
         <x:v>66</x:v>
@@ -2704,10 +2704,10 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>126</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1190</x:v>
+        <x:v>1188</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -19440,7 +19440,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F584" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G584" s="1" t="n">
         <x:v>9</x:v>
@@ -19452,7 +19452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J584" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:10">
@@ -19472,7 +19472,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F585" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G585" s="1" t="n">
         <x:v>17</x:v>
@@ -19484,7 +19484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J585" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -19818,7 +19818,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D596" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E596" s="1" t="n">
         <x:v>26</x:v>
@@ -19836,7 +19836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J596" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -19850,7 +19850,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D597" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E597" s="1" t="n">
         <x:v>36</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -22160,7 +22160,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F669" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G669" s="1" t="n">
         <x:v>10</x:v>
@@ -22172,7 +22172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J669" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:10">
@@ -22224,7 +22224,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F671" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G671" s="1" t="n">
         <x:v>38</x:v>
@@ -22236,7 +22236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J671" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="672" spans="1:10">
@@ -28013,13 +28013,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
         <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>197</x:v>
@@ -28045,13 +28045,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
         <x:v>1226</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>232</x:v>
@@ -29331,7 +29331,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H893" s="1" t="n">
         <x:v>47</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>938</x:v>
+        <x:v>939</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29363,7 +29363,7 @@
         <x:v>329</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H894" s="1" t="n">
         <x:v>47</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1040</x:v>
+        <x:v>1041</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -36714,10 +36714,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1124" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1124" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1124" s="1" t="n">
         <x:v>0</x:v>
@@ -36732,7 +36732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1124" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1125" spans="1:10">
@@ -36746,10 +36746,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1125" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E1125" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F1125" s="1" t="n">
         <x:v>0</x:v>
@@ -36764,7 +36764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1125" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1126" spans="1:10">
@@ -50227,7 +50227,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G1546" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H1546" s="1" t="n">
         <x:v>6</x:v>
@@ -50236,7 +50236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1546" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="1547" spans="1:10">
@@ -50259,7 +50259,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G1547" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H1547" s="1" t="n">
         <x:v>9</x:v>
@@ -50268,7 +50268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1547" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="1548" spans="1:10">
@@ -50320,7 +50320,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F1549" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G1549" s="1" t="n">
         <x:v>100</x:v>
@@ -50332,7 +50332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -50352,7 +50352,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F1550" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G1550" s="1" t="n">
         <x:v>146</x:v>
@@ -50364,7 +50364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1550" s="0" t="n">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -65005,7 +65005,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E2008" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F2008" s="1" t="n">
         <x:v>46</x:v>
@@ -65020,7 +65020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2008" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="2009" spans="1:10">
@@ -65037,7 +65037,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E2009" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F2009" s="1" t="n">
         <x:v>76</x:v>
@@ -65052,7 +65052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2009" s="0" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="2010" spans="1:10">
@@ -67981,13 +67981,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E2101" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F2101" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G2101" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H2101" s="1" t="n">
         <x:v>80</x:v>
@@ -67996,7 +67996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2101" s="0" t="n">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
     </x:row>
     <x:row r="2102" spans="1:10">
@@ -68013,13 +68013,13 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E2102" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F2102" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G2102" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H2102" s="1" t="n">
         <x:v>102</x:v>
@@ -68028,7 +68028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2102" s="0" t="n">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
     </x:row>
     <x:row r="2103" spans="1:10">
@@ -68726,13 +68726,13 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="H2124" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I2124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2124" s="0" t="n">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
     </x:row>
     <x:row r="2125" spans="1:10">
@@ -68758,13 +68758,13 @@
         <x:v>260</x:v>
       </x:c>
       <x:c r="H2125" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I2125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2125" s="0" t="n">
-        <x:v>789</x:v>
+        <x:v>790</x:v>
       </x:c>
     </x:row>
     <x:row r="2126" spans="1:10">
@@ -76694,13 +76694,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2373" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2373" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2373" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2374" spans="1:10">
@@ -76726,13 +76726,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2374" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2374" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2374" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="2375" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1872,7 +1872,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>49</x:v>
@@ -1884,7 +1884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1936,7 +1936,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>229</x:v>
@@ -1948,7 +1948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>772</x:v>
+        <x:v>771</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2256,7 +2256,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>66</x:v>
@@ -2268,7 +2268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2288,7 +2288,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>138</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>395</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2320,7 +2320,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>204</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>564</x:v>
+        <x:v>562</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2675,7 +2675,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
         <x:v>66</x:v>
@@ -2684,7 +2684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2707,7 +2707,7 @@
         <x:v>369</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>126</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1188</x:v>
+        <x:v>1189</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -19408,7 +19408,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F583" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G583" s="1" t="n">
         <x:v>8</x:v>
@@ -19420,7 +19420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J583" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="584" spans="1:10">
@@ -19472,7 +19472,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F585" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G585" s="1" t="n">
         <x:v>17</x:v>
@@ -19484,7 +19484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J585" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -20662,13 +20662,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H622" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I622" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J622" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="623" spans="1:10">
@@ -20726,13 +20726,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H624" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I624" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J624" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="625" spans="1:10">
@@ -28269,7 +28269,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E860" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
         <x:v>127</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28301,7 +28301,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>195</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>178</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>939</x:v>
+        <x:v>940</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>197</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1041</x:v>
+        <x:v>1042</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -50480,7 +50480,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1554" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1554" s="1" t="n">
         <x:v>18</x:v>
@@ -50492,7 +50492,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1554" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="1555" spans="1:10">
@@ -50512,7 +50512,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F1555" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G1555" s="1" t="n">
         <x:v>26</x:v>
@@ -50524,7 +50524,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1555" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="1556" spans="1:10">
@@ -72106,7 +72106,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2230" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2230" s="1" t="n">
         <x:v>4</x:v>
@@ -72124,7 +72124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2230" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2231" spans="1:10">
@@ -72138,7 +72138,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2231" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2231" s="1" t="n">
         <x:v>4</x:v>
@@ -72156,7 +72156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2231" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="2232" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -976,7 +976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>0</x:v>
@@ -988,7 +988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
@@ -1040,7 +1040,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1</x:v>
@@ -1052,7 +1052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
@@ -2387,7 +2387,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
         <x:v>20</x:v>
@@ -2396,7 +2396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -2419,7 +2419,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
         <x:v>26</x:v>
@@ -2428,7 +2428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
@@ -27984,7 +27984,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>230</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>682</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1226</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>934</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3139</x:v>
+        <x:v>3140</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28246,13 +28246,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I859" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J859" s="0" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
@@ -28310,13 +28310,13 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28650,7 +28650,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D872" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E872" s="1" t="n">
         <x:v>520</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2446</x:v>
+        <x:v>2447</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28682,7 +28682,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
         <x:v>1012</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4386</x:v>
+        <x:v>4387</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29005,7 +29005,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>16</x:v>
@@ -29020,7 +29020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29069,7 +29069,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
         <x:v>118</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -49936,7 +49936,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F1537" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G1537" s="1" t="n">
         <x:v>122</x:v>
@@ -49948,7 +49948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1537" s="0" t="n">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
     </x:row>
     <x:row r="1538" spans="1:10">
@@ -49968,7 +49968,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="F1538" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G1538" s="1" t="n">
         <x:v>159</x:v>
@@ -49980,7 +49980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1538" s="0" t="n">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="1539" spans="1:10">
@@ -76694,13 +76694,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2373" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I2373" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2373" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2374" spans="1:10">
@@ -76726,13 +76726,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2374" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2374" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2374" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="2375" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1866,7 +1866,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>30</x:v>
@@ -1884,7 +1884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1904,7 +1904,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>180</x:v>
@@ -1916,7 +1916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>564</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -1930,13 +1930,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>97</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>229</x:v>
@@ -1948,7 +1948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2381,7 +2381,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
         <x:v>62</x:v>
@@ -2396,7 +2396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -2413,7 +2413,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
         <x:v>98</x:v>
@@ -2428,7 +2428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
@@ -2634,13 +2634,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>125</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>161</x:v>
@@ -2675,7 +2675,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
         <x:v>66</x:v>
@@ -2684,7 +2684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>625</x:v>
+        <x:v>624</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2698,16 +2698,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>225</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>126</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1189</x:v>
+        <x:v>1188</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -77526,13 +77526,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="H2399" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I2399" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2399" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="2400" spans="1:10">
@@ -77558,13 +77558,13 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="H2400" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I2400" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2400" s="0" t="n">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
     </x:row>
     <x:row r="2401" spans="1:10">
@@ -77901,7 +77901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E2411" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F2411" s="1" t="n">
         <x:v>108</x:v>
@@ -77916,7 +77916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2411" s="0" t="n">
-        <x:v>313</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="2412" spans="1:10">
@@ -77933,7 +77933,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E2412" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F2412" s="1" t="n">
         <x:v>145</x:v>
@@ -77948,7 +77948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2412" s="0" t="n">
-        <x:v>443</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="2413" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2672,7 +2672,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>196</x:v>
@@ -2684,7 +2684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2704,7 +2704,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>357</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1188</x:v>
+        <x:v>1189</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -3184,7 +3184,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F76" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G76" s="1" t="n">
         <x:v>23</x:v>
@@ -3196,7 +3196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J76" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:10">
@@ -3216,7 +3216,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F77" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G77" s="1" t="n">
         <x:v>25</x:v>
@@ -3228,7 +3228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:10">
@@ -28016,7 +28016,7 @@
         <x:v>497</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>918</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>704</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2361</x:v>
+        <x:v>2362</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>682</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1227</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>934</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3140</x:v>
+        <x:v>3141</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -29133,7 +29133,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
         <x:v>57</x:v>
@@ -29148,7 +29148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29165,7 +29165,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F888" s="1" t="n">
         <x:v>58</x:v>
@@ -29180,7 +29180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -51062,13 +51062,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H1572" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1572" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1572" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1573" spans="1:10">
@@ -51094,13 +51094,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H1573" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1573" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1573" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="1574" spans="1:10">
@@ -64138,7 +64138,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1981" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1981" s="1" t="n">
         <x:v>7</x:v>
@@ -64156,7 +64156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1981" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="1982" spans="1:10">
@@ -64170,7 +64170,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1982" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1982" s="1" t="n">
         <x:v>9</x:v>
@@ -64188,7 +64188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1982" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="1983" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2285,13 +2285,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
         <x:v>143</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
         <x:v>51</x:v>
@@ -2317,13 +2317,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
         <x:v>191</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
         <x:v>76</x:v>
@@ -19798,13 +19798,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H595" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I595" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19862,13 +19862,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="H597" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I597" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -20118,13 +20118,13 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="H605" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I605" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>914</x:v>
+        <x:v>915</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20150,13 +20150,13 @@
         <x:v>468</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="I606" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1650</x:v>
+        <x:v>1651</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27603,7 +27603,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H839" s="1" t="n">
         <x:v>97</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>948</x:v>
+        <x:v>949</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27667,7 +27667,7 @@
         <x:v>1261</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1153</x:v>
+        <x:v>1154</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>520</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3968</x:v>
+        <x:v>3969</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27981,7 +27981,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
         <x:v>309</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,7 +28016,7 @@
         <x:v>497</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>919</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>704</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2362</x:v>
+        <x:v>2361</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,10 +28045,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1228</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>934</x:v>
@@ -28659,7 +28659,7 @@
         <x:v>812</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
         <x:v>306</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2447</x:v>
+        <x:v>2449</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28691,7 +28691,7 @@
         <x:v>1389</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>489</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4387</x:v>
+        <x:v>4389</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -64013,7 +64013,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E1977" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1977" s="1" t="n">
         <x:v>24</x:v>
@@ -64028,7 +64028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1977" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="1978" spans="1:10">
@@ -64077,7 +64077,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E1979" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F1979" s="1" t="n">
         <x:v>94</x:v>
@@ -64092,7 +64092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1979" s="0" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="1980" spans="1:10">
@@ -64211,7 +64211,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1983" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H1983" s="1" t="n">
         <x:v>0</x:v>
@@ -64220,7 +64220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1983" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="1984" spans="1:10">
@@ -64275,7 +64275,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G1985" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H1985" s="1" t="n">
         <x:v>1</x:v>
@@ -64284,7 +64284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1985" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="1986" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1872,7 +1872,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>49</x:v>
@@ -1884,7 +1884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1936,7 +1936,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>229</x:v>
@@ -1948,7 +1948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -19539,7 +19539,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G587" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H587" s="1" t="n">
         <x:v>8</x:v>
@@ -19548,7 +19548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J587" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:10">
@@ -19571,7 +19571,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G588" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H588" s="1" t="n">
         <x:v>11</x:v>
@@ -19580,7 +19580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J588" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:10">
@@ -28019,7 +28019,7 @@
         <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>704</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>197</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2361</x:v>
+        <x:v>2360</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1228</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>232</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3142</x:v>
+        <x:v>3141</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28621,7 +28621,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
         <x:v>577</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1940</x:v>
+        <x:v>1941</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28653,22 +28653,22 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E872" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>812</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="I872" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2449</x:v>
+        <x:v>2451</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28685,22 +28685,22 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>1012</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1389</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1151</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="I873" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4389</x:v>
+        <x:v>4392</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -64083,7 +64083,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="G1979" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H1979" s="1" t="n">
         <x:v>41</x:v>
@@ -64092,7 +64092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1979" s="0" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="1980" spans="1:10">
@@ -64115,7 +64115,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="G1980" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H1980" s="1" t="n">
         <x:v>53</x:v>
@@ -64124,7 +64124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1980" s="0" t="n">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="1981" spans="1:10">
@@ -70070,13 +70070,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2166" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2166" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2166" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2167" spans="1:10">
@@ -70134,13 +70134,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="H2168" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I2168" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2168" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="2169" spans="1:10">
@@ -77840,7 +77840,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F2409" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2409" s="1" t="n">
         <x:v>29</x:v>
@@ -77852,7 +77852,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2409" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="2410" spans="1:10">
@@ -77872,7 +77872,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F2410" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2410" s="1" t="n">
         <x:v>32</x:v>
@@ -77884,7 +77884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2410" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="2411" spans="1:10">
@@ -77936,7 +77936,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F2412" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G2412" s="1" t="n">
         <x:v>83</x:v>
@@ -77948,7 +77948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2412" s="0" t="n">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="2413" spans="1:10">
@@ -77968,7 +77968,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F2413" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G2413" s="1" t="n">
         <x:v>127</x:v>
@@ -77980,7 +77980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2413" s="0" t="n">
-        <x:v>446</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="2414" spans="1:10">
@@ -78445,7 +78445,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E2428" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F2428" s="1" t="n">
         <x:v>71</x:v>
@@ -78460,7 +78460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2428" s="0" t="n">
-        <x:v>306</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="2429" spans="1:10">
@@ -78477,7 +78477,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E2429" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F2429" s="1" t="n">
         <x:v>153</x:v>
@@ -78492,7 +78492,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2429" s="0" t="n">
-        <x:v>601</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="2430" spans="1:10">
@@ -79021,7 +79021,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E2446" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2446" s="1" t="n">
         <x:v>15</x:v>
@@ -79036,7 +79036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2446" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="2447" spans="1:10">
@@ -79053,7 +79053,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E2447" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F2447" s="1" t="n">
         <x:v>22</x:v>
@@ -79068,7 +79068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2447" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="2448" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1872,7 +1872,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>49</x:v>
@@ -1884,7 +1884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1936,7 +1936,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>229</x:v>
@@ -1948,7 +1948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2387,7 +2387,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
         <x:v>20</x:v>
@@ -2396,7 +2396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -2419,7 +2419,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
         <x:v>26</x:v>
@@ -2428,7 +2428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
@@ -2643,7 +2643,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
         <x:v>60</x:v>
@@ -2652,7 +2652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
@@ -2707,7 +2707,7 @@
         <x:v>371</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>126</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1189</x:v>
+        <x:v>1190</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -19533,7 +19533,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E587" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F587" s="1" t="n">
         <x:v>18</x:v>
@@ -19548,7 +19548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J587" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:10">
@@ -19565,7 +19565,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E588" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F588" s="1" t="n">
         <x:v>22</x:v>
@@ -19580,7 +19580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J588" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:10">
@@ -20112,7 +20112,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
         <x:v>235</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>916</x:v>
+        <x:v>917</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20144,7 +20144,7 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
         <x:v>468</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1653</x:v>
+        <x:v>1654</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -24467,7 +24467,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G741" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H741" s="1" t="n">
         <x:v>1</x:v>
@@ -24476,7 +24476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J741" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="742" spans="1:10">
@@ -24499,7 +24499,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G742" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H742" s="1" t="n">
         <x:v>1</x:v>
@@ -24508,7 +24508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J742" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="743" spans="1:10">
@@ -27629,10 +27629,10 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>933</x:v>
@@ -27661,10 +27661,10 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>727</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1154</x:v>
@@ -28016,7 +28016,7 @@
         <x:v>497</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>918</x:v>
+        <x:v>917</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>703</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2360</x:v>
+        <x:v>2359</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>683</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1228</x:v>
+        <x:v>1227</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>933</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3141</x:v>
+        <x:v>3140</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -57744,7 +57744,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F1781" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G1781" s="1" t="n">
         <x:v>20</x:v>
@@ -57756,7 +57756,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1781" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="1782" spans="1:10">
@@ -57808,7 +57808,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F1783" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G1783" s="1" t="n">
         <x:v>74</x:v>
@@ -57820,7 +57820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1783" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="1784" spans="1:10">
@@ -65014,13 +65014,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H2008" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I2008" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2008" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="2009" spans="1:10">
@@ -65078,13 +65078,13 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="H2010" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I2010" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2010" s="0" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="2011" spans="1:10">
@@ -65520,7 +65520,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2024" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2024" s="1" t="n">
         <x:v>7</x:v>
@@ -65532,7 +65532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2024" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="2025" spans="1:10">
@@ -65552,7 +65552,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2025" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2025" s="1" t="n">
         <x:v>10</x:v>
@@ -65564,7 +65564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2025" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="2026" spans="1:10">
@@ -66384,7 +66384,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F2051" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G2051" s="1" t="n">
         <x:v>21</x:v>
@@ -66396,7 +66396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2051" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="2052" spans="1:10">
@@ -66416,7 +66416,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F2052" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G2052" s="1" t="n">
         <x:v>32</x:v>
@@ -66428,7 +66428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2052" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="2053" spans="1:10">
@@ -77811,7 +77811,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G2408" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2408" s="1" t="n">
         <x:v>1</x:v>
@@ -77820,7 +77820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2408" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2409" spans="1:10">
@@ -77875,7 +77875,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G2410" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H2410" s="1" t="n">
         <x:v>6</x:v>
@@ -77884,7 +77884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2410" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="2411" spans="1:10">
@@ -78995,7 +78995,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G2445" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H2445" s="1" t="n">
         <x:v>2</x:v>
@@ -79004,7 +79004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2445" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="2446" spans="1:10">
@@ -79059,7 +79059,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G2447" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H2447" s="1" t="n">
         <x:v>11</x:v>
@@ -79068,7 +79068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2447" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="2448" spans="1:10">
@@ -79123,7 +79123,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G2449" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2449" s="1" t="n">
         <x:v>7</x:v>
@@ -79132,7 +79132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2449" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="2450" spans="1:10">
@@ -79155,7 +79155,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G2450" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H2450" s="1" t="n">
         <x:v>7</x:v>
@@ -79164,7 +79164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2450" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="2451" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1878,13 +1878,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1942,13 +1942,13 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2352,7 +2352,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>29</x:v>
@@ -2364,7 +2364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
@@ -2416,7 +2416,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>73</x:v>
@@ -2428,7 +2428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
@@ -27635,7 +27635,7 @@
         <x:v>966</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
         <x:v>423</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3021</x:v>
+        <x:v>3022</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27667,7 +27667,7 @@
         <x:v>1263</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1154</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>520</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3970</x:v>
+        <x:v>3971</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28656,7 +28656,7 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>649</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2451</x:v>
+        <x:v>2452</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28688,7 +28688,7 @@
         <x:v>1014</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1390</x:v>
+        <x:v>1391</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1150</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4392</x:v>
+        <x:v>4393</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29130,7 +29130,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D887" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
         <x:v>45</x:v>
@@ -29148,7 +29148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29162,7 +29162,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D888" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E888" s="1" t="n">
         <x:v>47</x:v>
@@ -29180,7 +29180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -49930,16 +49930,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1537" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E1537" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F1537" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G1537" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H1537" s="1" t="n">
         <x:v>17</x:v>
@@ -49948,7 +49948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1537" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="1538" spans="1:10">
@@ -49962,25 +49962,25 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1538" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E1538" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F1538" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G1538" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H1538" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I1538" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1538" s="0" t="n">
-        <x:v>461</x:v>
+        <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="1539" spans="1:10">
@@ -49994,25 +49994,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1539" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E1539" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F1539" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G1539" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H1539" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I1539" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1539" s="0" t="n">
-        <x:v>648</x:v>
+        <x:v>663</x:v>
       </x:c>
     </x:row>
     <x:row r="1540" spans="1:10">
@@ -50067,7 +50067,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G1541" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1541" s="1" t="n">
         <x:v>6</x:v>
@@ -50076,7 +50076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1541" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="1542" spans="1:10">
@@ -50099,7 +50099,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G1542" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1542" s="1" t="n">
         <x:v>7</x:v>
@@ -50108,7 +50108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1542" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="1543" spans="1:10">
@@ -50163,7 +50163,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1544" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1544" s="1" t="n">
         <x:v>5</x:v>
@@ -50172,7 +50172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1544" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1545" spans="1:10">
@@ -50195,7 +50195,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G1545" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H1545" s="1" t="n">
         <x:v>6</x:v>
@@ -50204,7 +50204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1545" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="1546" spans="1:10">
@@ -50221,10 +50221,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1546" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1546" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1546" s="1" t="n">
         <x:v>4</x:v>
@@ -50236,7 +50236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1546" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="1547" spans="1:10">
@@ -50259,7 +50259,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G1547" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H1547" s="1" t="n">
         <x:v>6</x:v>
@@ -50268,7 +50268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1547" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="1548" spans="1:10">
@@ -50285,13 +50285,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E1548" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1548" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1548" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H1548" s="1" t="n">
         <x:v>9</x:v>
@@ -50300,7 +50300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1548" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="1549" spans="1:10">
@@ -50323,7 +50323,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G1549" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H1549" s="1" t="n">
         <x:v>8</x:v>
@@ -50332,7 +50332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1549" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="1550" spans="1:10">
@@ -50352,19 +50352,19 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F1550" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G1550" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H1550" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I1550" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1550" s="0" t="n">
-        <x:v>338</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="1551" spans="1:10">
@@ -50384,19 +50384,19 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F1551" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G1551" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H1551" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I1551" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1551" s="0" t="n">
-        <x:v>447</x:v>
+        <x:v>456</x:v>
       </x:c>
     </x:row>
     <x:row r="1552" spans="1:10">
@@ -50509,7 +50509,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1555" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1555" s="1" t="n">
         <x:v>16</x:v>
@@ -50518,7 +50518,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H1555" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1555" s="0" t="n">
         <x:v>0</x:v>
@@ -50541,7 +50541,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1556" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1556" s="1" t="n">
         <x:v>29</x:v>
@@ -50550,7 +50550,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H1556" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I1556" s="0" t="n">
         <x:v>0</x:v>
@@ -50707,7 +50707,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="G1561" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H1561" s="1" t="n">
         <x:v>33</x:v>
@@ -50716,7 +50716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1561" s="0" t="n">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="1562" spans="1:10">
@@ -50733,7 +50733,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E1562" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F1562" s="1" t="n">
         <x:v>107</x:v>
@@ -50748,7 +50748,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1562" s="0" t="n">
-        <x:v>367</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="1563" spans="1:10">
@@ -50765,13 +50765,13 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E1563" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F1563" s="1" t="n">
         <x:v>191</x:v>
       </x:c>
       <x:c r="G1563" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="H1563" s="1" t="n">
         <x:v>71</x:v>
@@ -50780,7 +50780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1563" s="0" t="n">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
     </x:row>
     <x:row r="1564" spans="1:10">
@@ -50832,7 +50832,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1565" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G1565" s="1" t="n">
         <x:v>4</x:v>
@@ -50844,7 +50844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1565" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="1566" spans="1:10">
@@ -50864,7 +50864,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1566" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1566" s="1" t="n">
         <x:v>6</x:v>
@@ -50876,7 +50876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1566" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="1567" spans="1:10">
@@ -51085,13 +51085,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1573" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1573" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G1573" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1573" s="1" t="n">
         <x:v>6</x:v>
@@ -51100,7 +51100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1573" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1574" spans="1:10">
@@ -51117,13 +51117,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1574" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1574" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1574" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1574" s="1" t="n">
         <x:v>7</x:v>
@@ -51132,7 +51132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1574" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="1575" spans="1:10">
@@ -51181,7 +51181,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1576" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1576" s="1" t="n">
         <x:v>10</x:v>
@@ -51196,7 +51196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1576" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="1577" spans="1:10">
@@ -51213,7 +51213,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1577" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1577" s="1" t="n">
         <x:v>12</x:v>
@@ -51228,7 +51228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1577" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1578" spans="1:10">
@@ -51251,7 +51251,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G1578" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H1578" s="1" t="n">
         <x:v>0</x:v>
@@ -51260,7 +51260,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1578" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="1579" spans="1:10">
@@ -51315,7 +51315,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G1580" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1580" s="1" t="n">
         <x:v>7</x:v>
@@ -51324,7 +51324,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1580" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="1581" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1910,13 +1910,13 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -1942,13 +1942,13 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2154,7 +2154,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>3</x:v>
@@ -2172,7 +2172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10">
@@ -2218,7 +2218,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>17</x:v>
@@ -2236,7 +2236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
@@ -2675,7 +2675,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
         <x:v>66</x:v>
@@ -2684,7 +2684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2707,7 +2707,7 @@
         <x:v>371</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
         <x:v>126</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1190</x:v>
+        <x:v>1191</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -20112,7 +20112,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
         <x:v>235</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>917</x:v>
+        <x:v>918</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20144,7 +20144,7 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
         <x:v>468</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1654</x:v>
+        <x:v>1655</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27626,7 +27626,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D840" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
         <x:v>528</x:v>
@@ -27638,13 +27638,13 @@
         <x:v>934</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="I840" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3022</x:v>
+        <x:v>3024</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27658,7 +27658,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
         <x:v>726</x:v>
@@ -27670,13 +27670,13 @@
         <x:v>1155</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="I841" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3971</x:v>
+        <x:v>3973</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -28016,10 +28016,10 @@
         <x:v>497</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>918</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>197</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2359</x:v>
+        <x:v>2361</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,10 +28048,10 @@
         <x:v>683</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1227</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>232</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3140</x:v>
+        <x:v>3142</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28659,7 +28659,7 @@
         <x:v>814</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
         <x:v>307</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2452</x:v>
+        <x:v>2450</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28691,7 +28691,7 @@
         <x:v>1391</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>490</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4393</x:v>
+        <x:v>4391</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>178</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>940</x:v>
+        <x:v>941</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>197</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1043</x:v>
+        <x:v>1044</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -77558,13 +77558,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="H2400" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I2400" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2400" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="2401" spans="1:10">
@@ -77590,13 +77590,13 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="H2401" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I2401" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2401" s="0" t="n">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
     </x:row>
     <x:row r="2402" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -54352,7 +54352,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1675" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1675" s="1" t="n">
         <x:v>22</x:v>
@@ -54364,7 +54364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1675" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="1676" spans="1:10">
@@ -54384,7 +54384,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1676" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1676" s="1" t="n">
         <x:v>33</x:v>
@@ -54396,7 +54396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1676" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="1677" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -19635,7 +19635,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G590" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H590" s="1" t="n">
         <x:v>27</x:v>
@@ -19644,7 +19644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J590" s="0" t="n">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="591" spans="1:10">
@@ -19667,7 +19667,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H591" s="1" t="n">
         <x:v>31</x:v>
@@ -19676,7 +19676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -19795,7 +19795,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G595" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H595" s="1" t="n">
         <x:v>6</x:v>
@@ -19804,7 +19804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -19859,7 +19859,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="G597" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H597" s="1" t="n">
         <x:v>15</x:v>
@@ -19868,7 +19868,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J597" s="0" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -20080,7 +20080,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="F604" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
         <x:v>233</x:v>
@@ -20092,7 +20092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20115,7 +20115,7 @@
         <x:v>312</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="H605" s="1" t="n">
         <x:v>103</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>918</x:v>
+        <x:v>919</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20144,10 +20144,10 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="H606" s="1" t="n">
         <x:v>178</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1655</x:v>
+        <x:v>1657</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -20490,7 +20490,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D617" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E617" s="1" t="n">
         <x:v>9</x:v>
@@ -20508,7 +20508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J617" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:10">
@@ -20522,7 +20522,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D618" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E618" s="1" t="n">
         <x:v>9</x:v>
@@ -20540,7 +20540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J618" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="619" spans="1:10">
@@ -28010,7 +28010,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D852" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
         <x:v>497</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2361</x:v>
+        <x:v>2362</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28042,7 +28042,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D853" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
         <x:v>683</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3142</x:v>
+        <x:v>3143</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28656,10 +28656,10 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>814</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
         <x:v>307</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2450</x:v>
+        <x:v>2452</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28688,10 +28688,10 @@
         <x:v>1014</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1391</x:v>
+        <x:v>1392</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>490</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4391</x:v>
+        <x:v>4393</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1872,19 +1872,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>49</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1904,19 +1904,19 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>180</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>567</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
@@ -1936,19 +1936,19 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>229</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2288,7 +2288,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>139</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2320,7 +2320,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>205</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2672,7 +2672,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>197</x:v>
@@ -2684,7 +2684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2704,7 +2704,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>359</x:v>
@@ -2716,7 +2716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1191</x:v>
+        <x:v>1192</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -19600,7 +19600,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F589" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G589" s="1" t="n">
         <x:v>27</x:v>
@@ -19612,7 +19612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J589" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="590" spans="1:10">
@@ -19664,7 +19664,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F591" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G591" s="1" t="n">
         <x:v>114</x:v>
@@ -19676,7 +19676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J591" s="0" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="592" spans="1:10">
@@ -27888,7 +27888,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F848" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G848" s="1" t="n">
         <x:v>24</x:v>
@@ -27900,7 +27900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J848" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="849" spans="1:10">
@@ -27920,7 +27920,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F849" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G849" s="1" t="n">
         <x:v>93</x:v>
@@ -27932,7 +27932,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J849" s="0" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="850" spans="1:10">
@@ -27952,7 +27952,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F850" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G850" s="1" t="n">
         <x:v>117</x:v>
@@ -27964,7 +27964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J850" s="0" t="n">
-        <x:v>447</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
@@ -27984,7 +27984,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>230</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28013,13 +28013,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>918</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>197</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2362</x:v>
+        <x:v>2367</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,13 +28045,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1228</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>232</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3143</x:v>
+        <x:v>3149</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28275,7 +28275,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H860" s="1" t="n">
         <x:v>39</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28307,7 +28307,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
         <x:v>55</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28624,7 +28624,7 @@
         <x:v>493</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>501</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1941</x:v>
+        <x:v>1942</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28659,7 +28659,7 @@
         <x:v>815</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
         <x:v>307</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2452</x:v>
+        <x:v>2453</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28688,10 +28688,10 @@
         <x:v>1014</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1392</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>490</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4393</x:v>
+        <x:v>4395</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -28746,7 +28746,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D875" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E875" s="1" t="n">
         <x:v>36</x:v>
@@ -28764,7 +28764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J875" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="876" spans="1:10">
@@ -28778,7 +28778,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D876" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E876" s="1" t="n">
         <x:v>42</x:v>
@@ -28796,7 +28796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J876" s="0" t="n">
-        <x:v>259</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="877" spans="1:10">
@@ -29226,7 +29226,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
         <x:v>95</x:v>
@@ -29235,7 +29235,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="G890" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H890" s="1" t="n">
         <x:v>24</x:v>
@@ -29244,7 +29244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J890" s="0" t="n">
-        <x:v>518</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="891" spans="1:10">
@@ -29258,7 +29258,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D891" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E891" s="1" t="n">
         <x:v>129</x:v>
@@ -29267,7 +29267,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="G891" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H891" s="1" t="n">
         <x:v>30</x:v>
@@ -29276,7 +29276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J891" s="0" t="n">
-        <x:v>702</x:v>
+        <x:v>706</x:v>
       </x:c>
     </x:row>
     <x:row r="892" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2291,7 +2291,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
         <x:v>51</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>395</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2323,7 +2323,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
         <x:v>76</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>563</x:v>
+        <x:v>562</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -27594,7 +27594,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D839" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
         <x:v>198</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>949</x:v>
+        <x:v>950</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27658,7 +27658,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
         <x:v>726</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3973</x:v>
+        <x:v>3974</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -57584,7 +57584,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="F1776" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="G1776" s="1" t="n">
         <x:v>260</x:v>
@@ -57596,7 +57596,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1776" s="0" t="n">
-        <x:v>788</x:v>
+        <x:v>789</x:v>
       </x:c>
     </x:row>
     <x:row r="1777" spans="1:10">
@@ -57616,7 +57616,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="F1777" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="G1777" s="1" t="n">
         <x:v>327</x:v>
@@ -57628,7 +57628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1777" s="0" t="n">
-        <x:v>984</x:v>
+        <x:v>985</x:v>
       </x:c>
     </x:row>
     <x:row r="1778" spans="1:10">
@@ -68400,7 +68400,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F2114" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G2114" s="1" t="n">
         <x:v>74</x:v>
@@ -68412,7 +68412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2114" s="0" t="n">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="2115" spans="1:10">
@@ -68432,7 +68432,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F2115" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G2115" s="1" t="n">
         <x:v>112</x:v>
@@ -68444,7 +68444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2115" s="0" t="n">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
     </x:row>
     <x:row r="2116" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1878,13 +1878,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
@@ -1942,13 +1942,13 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -2259,7 +2259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
         <x:v>25</x:v>
@@ -2268,7 +2268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2285,13 +2285,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
         <x:v>51</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>394</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2317,13 +2317,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
         <x:v>76</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>562</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -27987,7 +27987,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1232</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>232</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3149</x:v>
+        <x:v>3150</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2285,10 +2285,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>137</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>391</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2317,10 +2317,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>202</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>558</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2995,7 +2995,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G70" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H70" s="1" t="n">
         <x:v>0</x:v>
@@ -3004,7 +3004,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10">
@@ -3027,7 +3027,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G71" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H71" s="1" t="n">
         <x:v>0</x:v>
@@ -3036,7 +3036,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10">
@@ -8173,7 +8173,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E232" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F232" s="1" t="n">
         <x:v>10</x:v>
@@ -8188,7 +8188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J232" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:10">
@@ -8205,7 +8205,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E233" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F233" s="1" t="n">
         <x:v>18</x:v>
@@ -8220,7 +8220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J233" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:10">
@@ -19530,7 +19530,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D587" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E587" s="1" t="n">
         <x:v>16</x:v>
@@ -19539,7 +19539,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G587" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H587" s="1" t="n">
         <x:v>8</x:v>
@@ -19548,7 +19548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J587" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="588" spans="1:10">
@@ -19562,7 +19562,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D588" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E588" s="1" t="n">
         <x:v>26</x:v>
@@ -19571,7 +19571,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G588" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H588" s="1" t="n">
         <x:v>11</x:v>
@@ -19580,7 +19580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J588" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="589" spans="1:10">
@@ -24467,7 +24467,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G741" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H741" s="1" t="n">
         <x:v>1</x:v>
@@ -24476,7 +24476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J741" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="742" spans="1:10">
@@ -24499,7 +24499,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G742" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H742" s="1" t="n">
         <x:v>1</x:v>
@@ -24508,7 +24508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J742" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="743" spans="1:10">
@@ -27597,7 +27597,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E839" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
         <x:v>297</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>950</x:v>
+        <x:v>951</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27632,7 +27632,7 @@
         <x:v>528</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>966</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>934</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3024</x:v>
+        <x:v>3023</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,10 +27661,10 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1263</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1155</x:v>
@@ -27984,10 +27984,10 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -28013,22 +28013,22 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>921</x:v>
+        <x:v>922</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I852" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2367</x:v>
+        <x:v>2371</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,22 +28045,22 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
         <x:v>1232</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>936</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I853" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3150</x:v>
+        <x:v>3154</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -29005,7 +29005,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>16</x:v>
@@ -29020,7 +29020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29040,7 +29040,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
         <x:v>45</x:v>
@@ -29052,7 +29052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>364</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29069,10 +29069,10 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
         <x:v>53</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>437</x:v>
+        <x:v>435</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>178</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>941</x:v>
+        <x:v>942</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>197</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1044</x:v>
+        <x:v>1045</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -42771,7 +42771,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G1313" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H1313" s="1" t="n">
         <x:v>22</x:v>
@@ -42780,7 +42780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1313" s="0" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="1314" spans="1:10">
@@ -42803,7 +42803,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G1314" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H1314" s="1" t="n">
         <x:v>25</x:v>
@@ -42812,7 +42812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1314" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="1315" spans="1:10">
@@ -51088,7 +51088,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1573" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1573" s="1" t="n">
         <x:v>13</x:v>
@@ -51100,7 +51100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1573" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1574" spans="1:10">
@@ -51120,7 +51120,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1574" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G1574" s="1" t="n">
         <x:v>14</x:v>
@@ -51132,7 +51132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1574" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="1575" spans="1:10">
@@ -62416,7 +62416,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1927" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1927" s="1" t="n">
         <x:v>6</x:v>
@@ -62428,7 +62428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1927" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1928" spans="1:10">
@@ -62448,7 +62448,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1928" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G1928" s="1" t="n">
         <x:v>6</x:v>
@@ -62460,7 +62460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1928" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="1929" spans="1:10">
@@ -68723,7 +68723,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="G2124" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H2124" s="1" t="n">
         <x:v>38</x:v>
@@ -68732,7 +68732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2124" s="0" t="n">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="2125" spans="1:10">
@@ -68755,7 +68755,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="G2125" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H2125" s="1" t="n">
         <x:v>45</x:v>
@@ -68764,7 +68764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2125" s="0" t="n">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
     </x:row>
     <x:row r="2126" spans="1:10">
@@ -68787,7 +68787,7 @@
         <x:v>260</x:v>
       </x:c>
       <x:c r="G2126" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="H2126" s="1" t="n">
         <x:v>83</x:v>
@@ -68796,7 +68796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2126" s="0" t="n">
-        <x:v>790</x:v>
+        <x:v>792</x:v>
       </x:c>
     </x:row>
     <x:row r="2127" spans="1:10">
@@ -69107,7 +69107,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2136" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2136" s="1" t="n">
         <x:v>6</x:v>
@@ -69116,7 +69116,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2136" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2137" spans="1:10">
@@ -69139,7 +69139,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G2137" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2137" s="1" t="n">
         <x:v>6</x:v>
@@ -69148,7 +69148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2137" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2138" spans="1:10">
@@ -69904,7 +69904,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F2161" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G2161" s="1" t="n">
         <x:v>35</x:v>
@@ -69916,7 +69916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2161" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="2162" spans="1:10">
@@ -69968,7 +69968,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F2163" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G2163" s="1" t="n">
         <x:v>149</x:v>
@@ -69980,7 +69980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2163" s="0" t="n">
-        <x:v>477</x:v>
+        <x:v>476</x:v>
       </x:c>
     </x:row>
     <x:row r="2164" spans="1:10">
@@ -70093,7 +70093,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2167" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F2167" s="1" t="n">
         <x:v>37</x:v>
@@ -70108,7 +70108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2167" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="2168" spans="1:10">
@@ -70125,7 +70125,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2168" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F2168" s="1" t="n">
         <x:v>55</x:v>
@@ -70140,7 +70140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2168" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="2169" spans="1:10">
@@ -76912,7 +76912,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F2380" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G2380" s="1" t="n">
         <x:v>10</x:v>
@@ -76924,7 +76924,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2380" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="2381" spans="1:10">
@@ -76976,7 +76976,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2382" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2382" s="1" t="n">
         <x:v>21</x:v>
@@ -76988,7 +76988,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2382" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="2383" spans="1:10">
@@ -79120,7 +79120,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F2449" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2449" s="1" t="n">
         <x:v>10</x:v>
@@ -79132,7 +79132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2449" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="2450" spans="1:10">
@@ -79152,7 +79152,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F2450" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2450" s="1" t="n">
         <x:v>11</x:v>
@@ -79164,7 +79164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2450" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="2451" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2922,7 +2922,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D68" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E68" s="1" t="n">
         <x:v>11</x:v>
@@ -2940,7 +2940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10">
@@ -2954,7 +2954,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D69" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="1" t="n">
         <x:v>13</x:v>
@@ -2972,7 +2972,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10">
@@ -27629,10 +27629,10 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>967</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
         <x:v>934</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3023</x:v>
+        <x:v>3026</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,10 +27661,10 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1155</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3974</x:v>
+        <x:v>3977</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27984,10 +27984,10 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>783</x:v>
+        <x:v>785</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,10 +28016,10 @@
         <x:v>499</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>922</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2371</x:v>
+        <x:v>2373</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,10 +28048,10 @@
         <x:v>685</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1232</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>938</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3154</x:v>
+        <x:v>3158</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28656,10 +28656,10 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="H872" s="1" t="n">
         <x:v>307</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2453</x:v>
+        <x:v>2455</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28688,10 +28688,10 @@
         <x:v>1014</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1393</x:v>
+        <x:v>1394</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="H873" s="1" t="n">
         <x:v>490</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4395</x:v>
+        <x:v>4397</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>178</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>942</x:v>
+        <x:v>943</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>197</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1045</x:v>
+        <x:v>1046</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -69933,7 +69933,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2162" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F2162" s="1" t="n">
         <x:v>99</x:v>
@@ -69948,7 +69948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2162" s="0" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="2163" spans="1:10">
@@ -69965,7 +69965,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E2163" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F2163" s="1" t="n">
         <x:v>145</x:v>
@@ -69980,7 +69980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2163" s="0" t="n">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="2164" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -28016,7 +28016,7 @@
         <x:v>499</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>923</x:v>
+        <x:v>924</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>707</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2373</x:v>
+        <x:v>2374</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28048,7 +28048,7 @@
         <x:v>685</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1234</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>940</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3158</x:v>
+        <x:v>3159</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28272,7 +28272,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
         <x:v>111</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28304,7 +28304,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
         <x:v>175</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28618,7 +28618,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D871" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
         <x:v>493</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1942</x:v>
+        <x:v>1944</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28682,7 +28682,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
         <x:v>1014</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4397</x:v>
+        <x:v>4399</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>178</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>943</x:v>
+        <x:v>944</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>197</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1046</x:v>
+        <x:v>1047</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -64083,7 +64083,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="G1979" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H1979" s="1" t="n">
         <x:v>41</x:v>
@@ -64092,7 +64092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1979" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="1980" spans="1:10">
@@ -64115,7 +64115,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="G1980" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H1980" s="1" t="n">
         <x:v>53</x:v>
@@ -64124,7 +64124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1980" s="0" t="n">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="1981" spans="1:10">
@@ -74794,7 +74794,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2314" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2314" s="1" t="n">
         <x:v>0</x:v>
@@ -74812,7 +74812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2314" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="2315" spans="1:10">
@@ -74826,7 +74826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2315" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E2315" s="1" t="n">
         <x:v>3</x:v>
@@ -74844,7 +74844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2315" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="2316" spans="1:10">
@@ -74858,7 +74858,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2316" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2316" s="1" t="n">
         <x:v>3</x:v>
@@ -74876,7 +74876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2316" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="2317" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2291,7 +2291,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
         <x:v>51</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2323,7 +2323,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
         <x:v>76</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -8755,7 +8755,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G250" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H250" s="1" t="n">
         <x:v>6</x:v>
@@ -8764,7 +8764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J250" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:10">
@@ -8787,7 +8787,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G251" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H251" s="1" t="n">
         <x:v>6</x:v>
@@ -8796,7 +8796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J251" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:10">
@@ -19338,7 +19338,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D581" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E581" s="1" t="n">
         <x:v>8</x:v>
@@ -19356,7 +19356,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J581" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="582" spans="1:10">
@@ -19370,7 +19370,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D582" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E582" s="1" t="n">
         <x:v>16</x:v>
@@ -19388,7 +19388,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J582" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="583" spans="1:10">
@@ -19437,7 +19437,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E584" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F584" s="1" t="n">
         <x:v>10</x:v>
@@ -19452,7 +19452,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J584" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="585" spans="1:10">
@@ -19469,7 +19469,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E585" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F585" s="1" t="n">
         <x:v>15</x:v>
@@ -19484,7 +19484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J585" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="586" spans="1:10">
@@ -20112,7 +20112,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
         <x:v>236</x:v>
@@ -20124,7 +20124,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>919</x:v>
+        <x:v>920</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -20144,7 +20144,7 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="F606" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="G606" s="1" t="n">
         <x:v>469</x:v>
@@ -20156,7 +20156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J606" s="0" t="n">
-        <x:v>1657</x:v>
+        <x:v>1658</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -27626,16 +27626,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D840" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>967</x:v>
       </x:c>
       <x:c r="G840" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="H840" s="1" t="n">
         <x:v>424</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3026</x:v>
+        <x:v>3030</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27658,16 +27658,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D841" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
         <x:v>1264</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
-        <x:v>1155</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="H841" s="1" t="n">
         <x:v>521</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3977</x:v>
+        <x:v>3981</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27981,7 +27981,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
         <x:v>311</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>785</x:v>
+        <x:v>786</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28045,7 +28045,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
         <x:v>1235</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3159</x:v>
+        <x:v>3160</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28621,7 +28621,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
         <x:v>578</x:v>
@@ -28636,7 +28636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>1944</x:v>
+        <x:v>1943</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -28656,7 +28656,7 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="F872" s="1" t="n">
-        <x:v>816</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="G872" s="1" t="n">
         <x:v>650</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2455</x:v>
+        <x:v>2454</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28685,10 +28685,10 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
-        <x:v>1014</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>1394</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>1151</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4399</x:v>
+        <x:v>4397</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29139,7 +29139,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="G887" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H887" s="1" t="n">
         <x:v>44</x:v>
@@ -29148,7 +29148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
@@ -29171,7 +29171,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="G888" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H888" s="1" t="n">
         <x:v>45</x:v>
@@ -29180,7 +29180,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J888" s="0" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="889" spans="1:10">
@@ -54070,13 +54070,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H1666" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I1666" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1666" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="1667" spans="1:10">
@@ -54102,13 +54102,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="H1667" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I1667" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1667" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="1668" spans="1:10">
@@ -76694,13 +76694,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H2373" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2373" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2373" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="2374" spans="1:10">
@@ -76758,13 +76758,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2375" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I2375" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2375" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2376" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -27722,7 +27722,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D843" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E843" s="1" t="n">
         <x:v>51</x:v>
@@ -27740,7 +27740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J843" s="0" t="n">
-        <x:v>334</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="844" spans="1:10">
@@ -27754,7 +27754,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D844" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E844" s="1" t="n">
         <x:v>66</x:v>
@@ -27772,7 +27772,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J844" s="0" t="n">
-        <x:v>426</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="845" spans="1:10">
@@ -27981,10 +27981,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>233</x:v>
@@ -27996,7 +27996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>786</x:v>
+        <x:v>788</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28016,7 +28016,7 @@
         <x:v>499</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>924</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>707</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2374</x:v>
+        <x:v>2375</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28045,10 +28045,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E853" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>1235</x:v>
+        <x:v>1237</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>940</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3160</x:v>
+        <x:v>3163</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28269,7 +28269,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E860" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
         <x:v>128</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28301,7 +28301,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E861" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
         <x:v>196</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -58832,7 +58832,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="F1815" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G1815" s="1" t="n">
         <x:v>138</x:v>
@@ -58844,7 +58844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1815" s="0" t="n">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
     </x:row>
     <x:row r="1816" spans="1:10">
@@ -58864,7 +58864,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="F1816" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G1816" s="1" t="n">
         <x:v>153</x:v>
@@ -58876,7 +58876,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1816" s="0" t="n">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
     </x:row>
     <x:row r="1817" spans="1:10">
@@ -64438,13 +64438,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H1990" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I1990" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1990" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="1991" spans="1:10">
@@ -64502,13 +64502,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="H1992" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1992" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1992" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="1993" spans="1:10">
@@ -68595,7 +68595,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2120" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2120" s="1" t="n">
         <x:v>1</x:v>
@@ -68604,7 +68604,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2120" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2121" spans="1:10">
@@ -68627,7 +68627,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2121" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2121" s="1" t="n">
         <x:v>2</x:v>
@@ -68636,7 +68636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2121" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2122" spans="1:10">
@@ -77939,7 +77939,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="G2412" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H2412" s="1" t="n">
         <x:v>28</x:v>
@@ -77948,7 +77948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2412" s="0" t="n">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="2413" spans="1:10">
@@ -77971,7 +77971,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="G2413" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H2413" s="1" t="n">
         <x:v>35</x:v>
@@ -77980,7 +77980,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2413" s="0" t="n">
-        <x:v>445</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="2414" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -24650,7 +24650,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D747" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E747" s="1" t="n">
         <x:v>4</x:v>
@@ -24668,7 +24668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J747" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="748" spans="1:10">
@@ -24682,7 +24682,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D748" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E748" s="1" t="n">
         <x:v>6</x:v>
@@ -24700,7 +24700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J748" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="749" spans="1:10">
@@ -29005,7 +29005,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>16</x:v>
@@ -29020,7 +29020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29040,7 +29040,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
         <x:v>45</x:v>
@@ -29052,7 +29052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29069,10 +29069,10 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G885" s="1" t="n">
         <x:v>53</x:v>
@@ -29084,7 +29084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29322,7 +29322,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D893" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E893" s="1" t="n">
         <x:v>317</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>944</x:v>
+        <x:v>943</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29354,7 +29354,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D894" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E894" s="1" t="n">
         <x:v>346</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1047</x:v>
+        <x:v>1046</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2262,13 +2262,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2326,13 +2326,13 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>557</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -8426,7 +8426,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D240" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E240" s="1" t="n">
         <x:v>60</x:v>
@@ -8444,7 +8444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J240" s="0" t="n">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:10">
@@ -8458,7 +8458,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D241" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E241" s="1" t="n">
         <x:v>104</x:v>
@@ -8476,7 +8476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J241" s="0" t="n">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:10">
@@ -27629,7 +27629,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="E840" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="F840" s="1" t="n">
         <x:v>967</x:v>
@@ -27644,7 +27644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J840" s="0" t="n">
-        <x:v>3030</x:v>
+        <x:v>3031</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
@@ -27661,7 +27661,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="E841" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
         <x:v>1264</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3981</x:v>
+        <x:v>3982</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -2678,13 +2678,13 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
@@ -2710,13 +2710,13 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1192</x:v>
+        <x:v>1193</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
@@ -2922,7 +2922,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D68" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E68" s="1" t="n">
         <x:v>11</x:v>
@@ -2940,7 +2940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10">
@@ -2954,7 +2954,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D69" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E69" s="1" t="n">
         <x:v>13</x:v>
@@ -2972,7 +2972,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10">
@@ -27600,7 +27600,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="F839" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="G839" s="1" t="n">
         <x:v>221</x:v>
@@ -27612,7 +27612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J839" s="0" t="n">
-        <x:v>951</x:v>
+        <x:v>952</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
@@ -27664,7 +27664,7 @@
         <x:v>730</x:v>
       </x:c>
       <x:c r="F841" s="1" t="n">
-        <x:v>1264</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="G841" s="1" t="n">
         <x:v>1156</x:v>
@@ -27676,7 +27676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J841" s="0" t="n">
-        <x:v>3982</x:v>
+        <x:v>3983</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
@@ -27981,13 +27981,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E851" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
         <x:v>312</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>35</x:v>
@@ -28013,13 +28013,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E852" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
         <x:v>925</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>198</x:v>
@@ -28028,7 +28028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>2375</x:v>
+        <x:v>2377</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>1237</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>940</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>233</x:v>
@@ -28060,7 +28060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>3163</x:v>
+        <x:v>3165</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28272,7 +28272,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
         <x:v>111</x:v>
@@ -28284,7 +28284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28304,7 +28304,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
         <x:v>175</x:v>
@@ -28316,7 +28316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28650,7 +28650,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D872" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E872" s="1" t="n">
         <x:v>521</x:v>
@@ -28668,7 +28668,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J872" s="0" t="n">
-        <x:v>2454</x:v>
+        <x:v>2455</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
@@ -28682,7 +28682,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D873" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="E873" s="1" t="n">
         <x:v>1013</x:v>
@@ -28700,7 +28700,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>4397</x:v>
+        <x:v>4398</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -29296,7 +29296,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F892" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G892" s="1" t="n">
         <x:v>19</x:v>
@@ -29308,7 +29308,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J892" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="893" spans="1:10">
@@ -29328,7 +29328,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="F893" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G893" s="1" t="n">
         <x:v>178</x:v>
@@ -29340,7 +29340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J893" s="0" t="n">
-        <x:v>943</x:v>
+        <x:v>944</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
@@ -29360,7 +29360,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="F894" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="G894" s="1" t="n">
         <x:v>197</x:v>
@@ -29372,7 +29372,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J894" s="0" t="n">
-        <x:v>1046</x:v>
+        <x:v>1048</x:v>
       </x:c>
     </x:row>
     <x:row r="895" spans="1:10">
@@ -43120,7 +43120,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F1324" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G1324" s="1" t="n">
         <x:v>21</x:v>
@@ -43132,7 +43132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1324" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="1325" spans="1:10">
@@ -43152,7 +43152,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F1325" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G1325" s="1" t="n">
         <x:v>34</x:v>
@@ -43164,7 +43164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1325" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="1326" spans="1:10">
@@ -43184,7 +43184,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F1326" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G1326" s="1" t="n">
         <x:v>55</x:v>
@@ -43196,7 +43196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1326" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="1327" spans="1:10">
@@ -68019,7 +68019,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="G2102" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H2102" s="1" t="n">
         <x:v>80</x:v>
@@ -68028,7 +68028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2102" s="0" t="n">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
     </x:row>
     <x:row r="2103" spans="1:10">
@@ -68051,7 +68051,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="G2103" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H2103" s="1" t="n">
         <x:v>102</x:v>
@@ -68060,7 +68060,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2103" s="0" t="n">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
     </x:row>
     <x:row r="2104" spans="1:10">
@@ -68397,7 +68397,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E2114" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F2114" s="1" t="n">
         <x:v>91</x:v>
@@ -68412,7 +68412,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2114" s="0" t="n">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="2115" spans="1:10">
@@ -68429,7 +68429,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E2115" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F2115" s="1" t="n">
         <x:v>129</x:v>
@@ -68444,7 +68444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2115" s="0" t="n">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="2116" spans="1:10">
@@ -68720,10 +68720,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F2124" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G2124" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H2124" s="1" t="n">
         <x:v>38</x:v>
@@ -68732,7 +68732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2124" s="0" t="n">
-        <x:v>338</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="2125" spans="1:10">
@@ -68784,10 +68784,10 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F2126" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="G2126" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H2126" s="1" t="n">
         <x:v>83</x:v>
@@ -68796,7 +68796,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2126" s="0" t="n">
-        <x:v>792</x:v>
+        <x:v>794</x:v>
       </x:c>
     </x:row>
     <x:row r="2127" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -29226,7 +29226,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D890" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E890" s="1" t="n">
         <x:v>95</x:v>
@@ -29244,7 +29244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J890" s="0" t="n">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
     </x:row>
     <x:row r="891" spans="1:10">
@@ -29258,7 +29258,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D891" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E891" s="1" t="n">
         <x:v>129</x:v>
@@ -29276,7 +29276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J891" s="0" t="n">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
     </x:row>
     <x:row r="892" spans="1:10">
@@ -50512,7 +50512,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F1555" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G1555" s="1" t="n">
         <x:v>18</x:v>
@@ -50524,7 +50524,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1555" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="1556" spans="1:10">
@@ -50544,7 +50544,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F1556" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1556" s="1" t="n">
         <x:v>26</x:v>
@@ -50556,7 +50556,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1556" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="1557" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -781,10 +781,10 @@
     <x:t>424</x:t>
   </x:si>
   <x:si>
-    <x:t>3031</x:t>
+    <x:t>3032</x:t>
   </x:si>
   <x:si>
-    <x:t>311</x:t>
+    <x:t>312</x:t>
   </x:si>
   <x:si>
     <x:t>731</x:t>
@@ -799,7 +799,7 @@
     <x:t>521</x:t>
   </x:si>
   <x:si>
-    <x:t>3984</x:t>
+    <x:t>3985</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
@@ -841,25 +841,25 @@
     <x:t>499</x:t>
   </x:si>
   <x:si>
-    <x:t>925</x:t>
+    <x:t>924</x:t>
   </x:si>
   <x:si>
-    <x:t>711</x:t>
+    <x:t>709</x:t>
   </x:si>
   <x:si>
-    <x:t>2379</x:t>
+    <x:t>2376</x:t>
   </x:si>
   <x:si>
     <x:t>686</x:t>
   </x:si>
   <x:si>
-    <x:t>1238</x:t>
+    <x:t>1237</x:t>
   </x:si>
   <x:si>
-    <x:t>945</x:t>
+    <x:t>943</x:t>
   </x:si>
   <x:si>
-    <x:t>3168</x:t>
+    <x:t>3165</x:t>
   </x:si>
   <x:si>
     <x:t>Extortion/Blackmail</x:t>
@@ -880,7 +880,7 @@
     <x:t>633</x:t>
   </x:si>
   <x:si>
-    <x:t>493</x:t>
+    <x:t>494</x:t>
   </x:si>
   <x:si>
     <x:t>578</x:t>
@@ -889,7 +889,7 @@
     <x:t>183</x:t>
   </x:si>
   <x:si>
-    <x:t>1944</x:t>
+    <x:t>1945</x:t>
   </x:si>
   <x:si>
     <x:t>163</x:t>
@@ -910,7 +910,7 @@
     <x:t>352</x:t>
   </x:si>
   <x:si>
-    <x:t>1014</x:t>
+    <x:t>1015</x:t>
   </x:si>
   <x:si>
     <x:t>1394</x:t>
@@ -922,7 +922,7 @@
     <x:t>490</x:t>
   </x:si>
   <x:si>
-    <x:t>4402</x:t>
+    <x:t>4403</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -1358,9 +1358,6 @@
   </x:si>
   <x:si>
     <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>312</x:t>
   </x:si>
   <x:si>
     <x:t>471</x:t>
@@ -3507,7 +3504,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F53" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G53" s="1" t="s">
         <x:v>14</x:v>
@@ -3519,7 +3516,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10">
@@ -3539,7 +3536,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>14</x:v>
@@ -3551,7 +3548,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10">
@@ -28685,7 +28682,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D840" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E840" s="1" t="s">
         <x:v>251</x:v>
@@ -44758,7 +44755,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G1342" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1342" s="1" t="s">
         <x:v>29</x:v>
@@ -44767,7 +44764,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1342" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="1343" spans="1:10">
@@ -44790,7 +44787,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G1343" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1343" s="1" t="s">
         <x:v>29</x:v>
@@ -44799,7 +44796,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1343" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="1344" spans="1:10">
@@ -71536,22 +71533,22 @@
         <x:v>447</x:v>
       </x:c>
       <x:c r="E2179" s="1" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="F2179" s="1" t="s">
         <x:v>448</x:v>
-      </x:c>
-      <x:c r="F2179" s="1" t="s">
-        <x:v>449</x:v>
       </x:c>
       <x:c r="G2179" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="H2179" s="1" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="I2179" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J2179" s="0" t="s">
         <x:v>450</x:v>
-      </x:c>
-      <x:c r="I2179" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J2179" s="0" t="s">
-        <x:v>451</x:v>
       </x:c>
     </x:row>
     <x:row r="2180" spans="1:10">
@@ -72164,7 +72161,7 @@
     </x:row>
     <x:row r="2199" spans="1:10">
       <x:c r="A2199" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2199" s="0" t="s">
         <x:v>43</x:v>
@@ -72196,7 +72193,7 @@
     </x:row>
     <x:row r="2200" spans="1:10">
       <x:c r="A2200" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2200" s="0" t="s">
         <x:v>43</x:v>
@@ -72228,7 +72225,7 @@
     </x:row>
     <x:row r="2201" spans="1:10">
       <x:c r="A2201" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2201" s="0" t="s">
         <x:v>11</x:v>
@@ -72260,7 +72257,7 @@
     </x:row>
     <x:row r="2202" spans="1:10">
       <x:c r="A2202" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2202" s="0" t="s">
         <x:v>11</x:v>
@@ -72292,7 +72289,7 @@
     </x:row>
     <x:row r="2203" spans="1:10">
       <x:c r="A2203" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2203" s="0" t="s">
         <x:v>11</x:v>
@@ -72324,7 +72321,7 @@
     </x:row>
     <x:row r="2204" spans="1:10">
       <x:c r="A2204" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2204" s="0" t="s">
         <x:v>26</x:v>
@@ -72356,7 +72353,7 @@
     </x:row>
     <x:row r="2205" spans="1:10">
       <x:c r="A2205" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2205" s="0" t="s">
         <x:v>26</x:v>
@@ -72388,7 +72385,7 @@
     </x:row>
     <x:row r="2206" spans="1:10">
       <x:c r="A2206" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2206" s="0" t="s">
         <x:v>26</x:v>
@@ -72420,7 +72417,7 @@
     </x:row>
     <x:row r="2207" spans="1:10">
       <x:c r="A2207" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2207" s="0" t="s">
         <x:v>28</x:v>
@@ -72452,7 +72449,7 @@
     </x:row>
     <x:row r="2208" spans="1:10">
       <x:c r="A2208" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2208" s="0" t="s">
         <x:v>28</x:v>
@@ -72484,7 +72481,7 @@
     </x:row>
     <x:row r="2209" spans="1:10">
       <x:c r="A2209" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2209" s="0" t="s">
         <x:v>28</x:v>
@@ -72516,7 +72513,7 @@
     </x:row>
     <x:row r="2210" spans="1:10">
       <x:c r="A2210" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2210" s="0" t="s">
         <x:v>30</x:v>
@@ -72548,7 +72545,7 @@
     </x:row>
     <x:row r="2211" spans="1:10">
       <x:c r="A2211" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2211" s="0" t="s">
         <x:v>30</x:v>
@@ -72580,7 +72577,7 @@
     </x:row>
     <x:row r="2212" spans="1:10">
       <x:c r="A2212" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2212" s="0" t="s">
         <x:v>30</x:v>
@@ -72612,7 +72609,7 @@
     </x:row>
     <x:row r="2213" spans="1:10">
       <x:c r="A2213" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2213" s="0" t="s">
         <x:v>31</x:v>
@@ -72644,7 +72641,7 @@
     </x:row>
     <x:row r="2214" spans="1:10">
       <x:c r="A2214" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2214" s="0" t="s">
         <x:v>31</x:v>
@@ -72676,7 +72673,7 @@
     </x:row>
     <x:row r="2215" spans="1:10">
       <x:c r="A2215" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2215" s="0" t="s">
         <x:v>31</x:v>
@@ -72708,7 +72705,7 @@
     </x:row>
     <x:row r="2216" spans="1:10">
       <x:c r="A2216" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2216" s="0" t="s">
         <x:v>84</x:v>
@@ -72740,7 +72737,7 @@
     </x:row>
     <x:row r="2217" spans="1:10">
       <x:c r="A2217" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2217" s="0" t="s">
         <x:v>84</x:v>
@@ -72772,7 +72769,7 @@
     </x:row>
     <x:row r="2218" spans="1:10">
       <x:c r="A2218" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2218" s="0" t="s">
         <x:v>84</x:v>
@@ -72804,7 +72801,7 @@
     </x:row>
     <x:row r="2219" spans="1:10">
       <x:c r="A2219" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2219" s="0" t="s">
         <x:v>94</x:v>
@@ -72836,7 +72833,7 @@
     </x:row>
     <x:row r="2220" spans="1:10">
       <x:c r="A2220" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2220" s="0" t="s">
         <x:v>94</x:v>
@@ -72868,7 +72865,7 @@
     </x:row>
     <x:row r="2221" spans="1:10">
       <x:c r="A2221" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2221" s="0" t="s">
         <x:v>37</x:v>
@@ -72900,7 +72897,7 @@
     </x:row>
     <x:row r="2222" spans="1:10">
       <x:c r="A2222" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2222" s="0" t="s">
         <x:v>37</x:v>
@@ -72932,7 +72929,7 @@
     </x:row>
     <x:row r="2223" spans="1:10">
       <x:c r="A2223" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2223" s="0" t="s">
         <x:v>37</x:v>
@@ -72964,7 +72961,7 @@
     </x:row>
     <x:row r="2224" spans="1:10">
       <x:c r="A2224" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2224" s="0" t="s">
         <x:v>38</x:v>
@@ -72996,7 +72993,7 @@
     </x:row>
     <x:row r="2225" spans="1:10">
       <x:c r="A2225" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2225" s="0" t="s">
         <x:v>38</x:v>
@@ -73028,7 +73025,7 @@
     </x:row>
     <x:row r="2226" spans="1:10">
       <x:c r="A2226" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2226" s="0" t="s">
         <x:v>38</x:v>
@@ -73060,7 +73057,7 @@
     </x:row>
     <x:row r="2227" spans="1:10">
       <x:c r="A2227" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2227" s="0" t="s">
         <x:v>115</x:v>
@@ -73092,7 +73089,7 @@
     </x:row>
     <x:row r="2228" spans="1:10">
       <x:c r="A2228" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2228" s="0" t="s">
         <x:v>115</x:v>
@@ -73124,7 +73121,7 @@
     </x:row>
     <x:row r="2229" spans="1:10">
       <x:c r="A2229" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2229" s="0" t="s">
         <x:v>116</x:v>
@@ -73156,7 +73153,7 @@
     </x:row>
     <x:row r="2230" spans="1:10">
       <x:c r="A2230" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2230" s="0" t="s">
         <x:v>116</x:v>
@@ -73188,7 +73185,7 @@
     </x:row>
     <x:row r="2231" spans="1:10">
       <x:c r="A2231" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2231" s="0" t="s">
         <x:v>39</x:v>
@@ -73220,7 +73217,7 @@
     </x:row>
     <x:row r="2232" spans="1:10">
       <x:c r="A2232" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2232" s="0" t="s">
         <x:v>39</x:v>
@@ -73252,7 +73249,7 @@
     </x:row>
     <x:row r="2233" spans="1:10">
       <x:c r="A2233" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2233" s="0" t="s">
         <x:v>41</x:v>
@@ -73284,7 +73281,7 @@
     </x:row>
     <x:row r="2234" spans="1:10">
       <x:c r="A2234" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B2234" s="0" t="s">
         <x:v>41</x:v>
@@ -73316,7 +73313,7 @@
     </x:row>
     <x:row r="2235" spans="1:10">
       <x:c r="A2235" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2235" s="0" t="s">
         <x:v>11</x:v>
@@ -73348,7 +73345,7 @@
     </x:row>
     <x:row r="2236" spans="1:10">
       <x:c r="A2236" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2236" s="0" t="s">
         <x:v>11</x:v>
@@ -73380,7 +73377,7 @@
     </x:row>
     <x:row r="2237" spans="1:10">
       <x:c r="A2237" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2237" s="0" t="s">
         <x:v>11</x:v>
@@ -73412,7 +73409,7 @@
     </x:row>
     <x:row r="2238" spans="1:10">
       <x:c r="A2238" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2238" s="0" t="s">
         <x:v>26</x:v>
@@ -73444,7 +73441,7 @@
     </x:row>
     <x:row r="2239" spans="1:10">
       <x:c r="A2239" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2239" s="0" t="s">
         <x:v>26</x:v>
@@ -73476,7 +73473,7 @@
     </x:row>
     <x:row r="2240" spans="1:10">
       <x:c r="A2240" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2240" s="0" t="s">
         <x:v>30</x:v>
@@ -73508,7 +73505,7 @@
     </x:row>
     <x:row r="2241" spans="1:10">
       <x:c r="A2241" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2241" s="0" t="s">
         <x:v>30</x:v>
@@ -73540,7 +73537,7 @@
     </x:row>
     <x:row r="2242" spans="1:10">
       <x:c r="A2242" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2242" s="0" t="s">
         <x:v>31</x:v>
@@ -73572,7 +73569,7 @@
     </x:row>
     <x:row r="2243" spans="1:10">
       <x:c r="A2243" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2243" s="0" t="s">
         <x:v>31</x:v>
@@ -73604,7 +73601,7 @@
     </x:row>
     <x:row r="2244" spans="1:10">
       <x:c r="A2244" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2244" s="0" t="s">
         <x:v>31</x:v>
@@ -73636,7 +73633,7 @@
     </x:row>
     <x:row r="2245" spans="1:10">
       <x:c r="A2245" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2245" s="0" t="s">
         <x:v>84</x:v>
@@ -73668,7 +73665,7 @@
     </x:row>
     <x:row r="2246" spans="1:10">
       <x:c r="A2246" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2246" s="0" t="s">
         <x:v>84</x:v>
@@ -73700,7 +73697,7 @@
     </x:row>
     <x:row r="2247" spans="1:10">
       <x:c r="A2247" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2247" s="0" t="s">
         <x:v>37</x:v>
@@ -73732,7 +73729,7 @@
     </x:row>
     <x:row r="2248" spans="1:10">
       <x:c r="A2248" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2248" s="0" t="s">
         <x:v>37</x:v>
@@ -73764,7 +73761,7 @@
     </x:row>
     <x:row r="2249" spans="1:10">
       <x:c r="A2249" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2249" s="0" t="s">
         <x:v>37</x:v>
@@ -73796,7 +73793,7 @@
     </x:row>
     <x:row r="2250" spans="1:10">
       <x:c r="A2250" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2250" s="0" t="s">
         <x:v>11</x:v>
@@ -73828,7 +73825,7 @@
     </x:row>
     <x:row r="2251" spans="1:10">
       <x:c r="A2251" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2251" s="0" t="s">
         <x:v>11</x:v>
@@ -73860,7 +73857,7 @@
     </x:row>
     <x:row r="2252" spans="1:10">
       <x:c r="A2252" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2252" s="0" t="s">
         <x:v>11</x:v>
@@ -73892,7 +73889,7 @@
     </x:row>
     <x:row r="2253" spans="1:10">
       <x:c r="A2253" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2253" s="0" t="s">
         <x:v>26</x:v>
@@ -73924,7 +73921,7 @@
     </x:row>
     <x:row r="2254" spans="1:10">
       <x:c r="A2254" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2254" s="0" t="s">
         <x:v>26</x:v>
@@ -73956,7 +73953,7 @@
     </x:row>
     <x:row r="2255" spans="1:10">
       <x:c r="A2255" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2255" s="0" t="s">
         <x:v>31</x:v>
@@ -73988,7 +73985,7 @@
     </x:row>
     <x:row r="2256" spans="1:10">
       <x:c r="A2256" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2256" s="0" t="s">
         <x:v>31</x:v>
@@ -74020,7 +74017,7 @@
     </x:row>
     <x:row r="2257" spans="1:10">
       <x:c r="A2257" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2257" s="0" t="s">
         <x:v>31</x:v>
@@ -74052,7 +74049,7 @@
     </x:row>
     <x:row r="2258" spans="1:10">
       <x:c r="A2258" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2258" s="0" t="s">
         <x:v>84</x:v>
@@ -74084,7 +74081,7 @@
     </x:row>
     <x:row r="2259" spans="1:10">
       <x:c r="A2259" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2259" s="0" t="s">
         <x:v>84</x:v>
@@ -74116,7 +74113,7 @@
     </x:row>
     <x:row r="2260" spans="1:10">
       <x:c r="A2260" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2260" s="0" t="s">
         <x:v>38</x:v>
@@ -74148,7 +74145,7 @@
     </x:row>
     <x:row r="2261" spans="1:10">
       <x:c r="A2261" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2261" s="0" t="s">
         <x:v>38</x:v>
@@ -74180,7 +74177,7 @@
     </x:row>
     <x:row r="2262" spans="1:10">
       <x:c r="A2262" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2262" s="0" t="s">
         <x:v>41</x:v>
@@ -74212,7 +74209,7 @@
     </x:row>
     <x:row r="2263" spans="1:10">
       <x:c r="A2263" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2263" s="0" t="s">
         <x:v>41</x:v>
@@ -74244,7 +74241,7 @@
     </x:row>
     <x:row r="2264" spans="1:10">
       <x:c r="A2264" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2264" s="0" t="s">
         <x:v>44</x:v>
@@ -74276,7 +74273,7 @@
     </x:row>
     <x:row r="2265" spans="1:10">
       <x:c r="A2265" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2265" s="0" t="s">
         <x:v>44</x:v>
@@ -74308,7 +74305,7 @@
     </x:row>
     <x:row r="2266" spans="1:10">
       <x:c r="A2266" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2266" s="0" t="s">
         <x:v>11</x:v>
@@ -74340,7 +74337,7 @@
     </x:row>
     <x:row r="2267" spans="1:10">
       <x:c r="A2267" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2267" s="0" t="s">
         <x:v>11</x:v>
@@ -74372,7 +74369,7 @@
     </x:row>
     <x:row r="2268" spans="1:10">
       <x:c r="A2268" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2268" s="0" t="s">
         <x:v>11</x:v>
@@ -74404,7 +74401,7 @@
     </x:row>
     <x:row r="2269" spans="1:10">
       <x:c r="A2269" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2269" s="0" t="s">
         <x:v>26</x:v>
@@ -74436,7 +74433,7 @@
     </x:row>
     <x:row r="2270" spans="1:10">
       <x:c r="A2270" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2270" s="0" t="s">
         <x:v>26</x:v>
@@ -74468,7 +74465,7 @@
     </x:row>
     <x:row r="2271" spans="1:10">
       <x:c r="A2271" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2271" s="0" t="s">
         <x:v>26</x:v>
@@ -74500,7 +74497,7 @@
     </x:row>
     <x:row r="2272" spans="1:10">
       <x:c r="A2272" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2272" s="0" t="s">
         <x:v>30</x:v>
@@ -74532,7 +74529,7 @@
     </x:row>
     <x:row r="2273" spans="1:10">
       <x:c r="A2273" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2273" s="0" t="s">
         <x:v>30</x:v>
@@ -74564,7 +74561,7 @@
     </x:row>
     <x:row r="2274" spans="1:10">
       <x:c r="A2274" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2274" s="0" t="s">
         <x:v>30</x:v>
@@ -74596,7 +74593,7 @@
     </x:row>
     <x:row r="2275" spans="1:10">
       <x:c r="A2275" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2275" s="0" t="s">
         <x:v>31</x:v>
@@ -74628,7 +74625,7 @@
     </x:row>
     <x:row r="2276" spans="1:10">
       <x:c r="A2276" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2276" s="0" t="s">
         <x:v>31</x:v>
@@ -74660,7 +74657,7 @@
     </x:row>
     <x:row r="2277" spans="1:10">
       <x:c r="A2277" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2277" s="0" t="s">
         <x:v>31</x:v>
@@ -74692,7 +74689,7 @@
     </x:row>
     <x:row r="2278" spans="1:10">
       <x:c r="A2278" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2278" s="0" t="s">
         <x:v>140</x:v>
@@ -74724,7 +74721,7 @@
     </x:row>
     <x:row r="2279" spans="1:10">
       <x:c r="A2279" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2279" s="0" t="s">
         <x:v>140</x:v>
@@ -74756,7 +74753,7 @@
     </x:row>
     <x:row r="2280" spans="1:10">
       <x:c r="A2280" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2280" s="0" t="s">
         <x:v>84</x:v>
@@ -74788,7 +74785,7 @@
     </x:row>
     <x:row r="2281" spans="1:10">
       <x:c r="A2281" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2281" s="0" t="s">
         <x:v>84</x:v>
@@ -74820,7 +74817,7 @@
     </x:row>
     <x:row r="2282" spans="1:10">
       <x:c r="A2282" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2282" s="0" t="s">
         <x:v>84</x:v>
@@ -74852,7 +74849,7 @@
     </x:row>
     <x:row r="2283" spans="1:10">
       <x:c r="A2283" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2283" s="0" t="s">
         <x:v>94</x:v>
@@ -74884,7 +74881,7 @@
     </x:row>
     <x:row r="2284" spans="1:10">
       <x:c r="A2284" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2284" s="0" t="s">
         <x:v>94</x:v>
@@ -74916,7 +74913,7 @@
     </x:row>
     <x:row r="2285" spans="1:10">
       <x:c r="A2285" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2285" s="0" t="s">
         <x:v>96</x:v>
@@ -74948,7 +74945,7 @@
     </x:row>
     <x:row r="2286" spans="1:10">
       <x:c r="A2286" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2286" s="0" t="s">
         <x:v>96</x:v>
@@ -74980,7 +74977,7 @@
     </x:row>
     <x:row r="2287" spans="1:10">
       <x:c r="A2287" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2287" s="0" t="s">
         <x:v>37</x:v>
@@ -75012,7 +75009,7 @@
     </x:row>
     <x:row r="2288" spans="1:10">
       <x:c r="A2288" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2288" s="0" t="s">
         <x:v>37</x:v>
@@ -75044,7 +75041,7 @@
     </x:row>
     <x:row r="2289" spans="1:10">
       <x:c r="A2289" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2289" s="0" t="s">
         <x:v>37</x:v>
@@ -75076,7 +75073,7 @@
     </x:row>
     <x:row r="2290" spans="1:10">
       <x:c r="A2290" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2290" s="0" t="s">
         <x:v>38</x:v>
@@ -75108,7 +75105,7 @@
     </x:row>
     <x:row r="2291" spans="1:10">
       <x:c r="A2291" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2291" s="0" t="s">
         <x:v>38</x:v>
@@ -75140,7 +75137,7 @@
     </x:row>
     <x:row r="2292" spans="1:10">
       <x:c r="A2292" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2292" s="0" t="s">
         <x:v>39</x:v>
@@ -75172,7 +75169,7 @@
     </x:row>
     <x:row r="2293" spans="1:10">
       <x:c r="A2293" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2293" s="0" t="s">
         <x:v>39</x:v>
@@ -75204,7 +75201,7 @@
     </x:row>
     <x:row r="2294" spans="1:10">
       <x:c r="A2294" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2294" s="0" t="s">
         <x:v>40</x:v>
@@ -75236,7 +75233,7 @@
     </x:row>
     <x:row r="2295" spans="1:10">
       <x:c r="A2295" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2295" s="0" t="s">
         <x:v>40</x:v>
@@ -75268,7 +75265,7 @@
     </x:row>
     <x:row r="2296" spans="1:10">
       <x:c r="A2296" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2296" s="0" t="s">
         <x:v>40</x:v>
@@ -75300,7 +75297,7 @@
     </x:row>
     <x:row r="2297" spans="1:10">
       <x:c r="A2297" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2297" s="0" t="s">
         <x:v>41</x:v>
@@ -75332,7 +75329,7 @@
     </x:row>
     <x:row r="2298" spans="1:10">
       <x:c r="A2298" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2298" s="0" t="s">
         <x:v>41</x:v>
@@ -75364,7 +75361,7 @@
     </x:row>
     <x:row r="2299" spans="1:10">
       <x:c r="A2299" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2299" s="0" t="s">
         <x:v>11</x:v>
@@ -75396,7 +75393,7 @@
     </x:row>
     <x:row r="2300" spans="1:10">
       <x:c r="A2300" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2300" s="0" t="s">
         <x:v>11</x:v>
@@ -75428,7 +75425,7 @@
     </x:row>
     <x:row r="2301" spans="1:10">
       <x:c r="A2301" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2301" s="0" t="s">
         <x:v>11</x:v>
@@ -75460,7 +75457,7 @@
     </x:row>
     <x:row r="2302" spans="1:10">
       <x:c r="A2302" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2302" s="0" t="s">
         <x:v>26</x:v>
@@ -75492,7 +75489,7 @@
     </x:row>
     <x:row r="2303" spans="1:10">
       <x:c r="A2303" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2303" s="0" t="s">
         <x:v>26</x:v>
@@ -75524,7 +75521,7 @@
     </x:row>
     <x:row r="2304" spans="1:10">
       <x:c r="A2304" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2304" s="0" t="s">
         <x:v>31</x:v>
@@ -75556,7 +75553,7 @@
     </x:row>
     <x:row r="2305" spans="1:10">
       <x:c r="A2305" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2305" s="0" t="s">
         <x:v>31</x:v>
@@ -75588,7 +75585,7 @@
     </x:row>
     <x:row r="2306" spans="1:10">
       <x:c r="A2306" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2306" s="0" t="s">
         <x:v>31</x:v>
@@ -75620,7 +75617,7 @@
     </x:row>
     <x:row r="2307" spans="1:10">
       <x:c r="A2307" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2307" s="0" t="s">
         <x:v>38</x:v>
@@ -75652,7 +75649,7 @@
     </x:row>
     <x:row r="2308" spans="1:10">
       <x:c r="A2308" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2308" s="0" t="s">
         <x:v>38</x:v>
@@ -75684,7 +75681,7 @@
     </x:row>
     <x:row r="2309" spans="1:10">
       <x:c r="A2309" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2309" s="0" t="s">
         <x:v>39</x:v>
@@ -75716,7 +75713,7 @@
     </x:row>
     <x:row r="2310" spans="1:10">
       <x:c r="A2310" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2310" s="0" t="s">
         <x:v>39</x:v>
@@ -75748,7 +75745,7 @@
     </x:row>
     <x:row r="2311" spans="1:10">
       <x:c r="A2311" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2311" s="0" t="s">
         <x:v>43</x:v>
@@ -75780,7 +75777,7 @@
     </x:row>
     <x:row r="2312" spans="1:10">
       <x:c r="A2312" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2312" s="0" t="s">
         <x:v>43</x:v>
@@ -75812,7 +75809,7 @@
     </x:row>
     <x:row r="2313" spans="1:10">
       <x:c r="A2313" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2313" s="0" t="s">
         <x:v>43</x:v>
@@ -75844,7 +75841,7 @@
     </x:row>
     <x:row r="2314" spans="1:10">
       <x:c r="A2314" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2314" s="0" t="s">
         <x:v>11</x:v>
@@ -75876,7 +75873,7 @@
     </x:row>
     <x:row r="2315" spans="1:10">
       <x:c r="A2315" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2315" s="0" t="s">
         <x:v>11</x:v>
@@ -75908,7 +75905,7 @@
     </x:row>
     <x:row r="2316" spans="1:10">
       <x:c r="A2316" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2316" s="0" t="s">
         <x:v>11</x:v>
@@ -75940,7 +75937,7 @@
     </x:row>
     <x:row r="2317" spans="1:10">
       <x:c r="A2317" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2317" s="0" t="s">
         <x:v>26</x:v>
@@ -75972,7 +75969,7 @@
     </x:row>
     <x:row r="2318" spans="1:10">
       <x:c r="A2318" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2318" s="0" t="s">
         <x:v>26</x:v>
@@ -76004,7 +76001,7 @@
     </x:row>
     <x:row r="2319" spans="1:10">
       <x:c r="A2319" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2319" s="0" t="s">
         <x:v>28</x:v>
@@ -76036,7 +76033,7 @@
     </x:row>
     <x:row r="2320" spans="1:10">
       <x:c r="A2320" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2320" s="0" t="s">
         <x:v>28</x:v>
@@ -76068,7 +76065,7 @@
     </x:row>
     <x:row r="2321" spans="1:10">
       <x:c r="A2321" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2321" s="0" t="s">
         <x:v>30</x:v>
@@ -76100,7 +76097,7 @@
     </x:row>
     <x:row r="2322" spans="1:10">
       <x:c r="A2322" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2322" s="0" t="s">
         <x:v>30</x:v>
@@ -76132,7 +76129,7 @@
     </x:row>
     <x:row r="2323" spans="1:10">
       <x:c r="A2323" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2323" s="0" t="s">
         <x:v>30</x:v>
@@ -76164,7 +76161,7 @@
     </x:row>
     <x:row r="2324" spans="1:10">
       <x:c r="A2324" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2324" s="0" t="s">
         <x:v>31</x:v>
@@ -76196,7 +76193,7 @@
     </x:row>
     <x:row r="2325" spans="1:10">
       <x:c r="A2325" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2325" s="0" t="s">
         <x:v>31</x:v>
@@ -76228,7 +76225,7 @@
     </x:row>
     <x:row r="2326" spans="1:10">
       <x:c r="A2326" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2326" s="0" t="s">
         <x:v>31</x:v>
@@ -76260,7 +76257,7 @@
     </x:row>
     <x:row r="2327" spans="1:10">
       <x:c r="A2327" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2327" s="0" t="s">
         <x:v>84</x:v>
@@ -76292,7 +76289,7 @@
     </x:row>
     <x:row r="2328" spans="1:10">
       <x:c r="A2328" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2328" s="0" t="s">
         <x:v>84</x:v>
@@ -76324,7 +76321,7 @@
     </x:row>
     <x:row r="2329" spans="1:10">
       <x:c r="A2329" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2329" s="0" t="s">
         <x:v>84</x:v>
@@ -76356,7 +76353,7 @@
     </x:row>
     <x:row r="2330" spans="1:10">
       <x:c r="A2330" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2330" s="0" t="s">
         <x:v>96</x:v>
@@ -76388,7 +76385,7 @@
     </x:row>
     <x:row r="2331" spans="1:10">
       <x:c r="A2331" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2331" s="0" t="s">
         <x:v>96</x:v>
@@ -76420,7 +76417,7 @@
     </x:row>
     <x:row r="2332" spans="1:10">
       <x:c r="A2332" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2332" s="0" t="s">
         <x:v>37</x:v>
@@ -76452,7 +76449,7 @@
     </x:row>
     <x:row r="2333" spans="1:10">
       <x:c r="A2333" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2333" s="0" t="s">
         <x:v>37</x:v>
@@ -76484,7 +76481,7 @@
     </x:row>
     <x:row r="2334" spans="1:10">
       <x:c r="A2334" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2334" s="0" t="s">
         <x:v>37</x:v>
@@ -76516,7 +76513,7 @@
     </x:row>
     <x:row r="2335" spans="1:10">
       <x:c r="A2335" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2335" s="0" t="s">
         <x:v>38</x:v>
@@ -76548,7 +76545,7 @@
     </x:row>
     <x:row r="2336" spans="1:10">
       <x:c r="A2336" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2336" s="0" t="s">
         <x:v>38</x:v>
@@ -76580,7 +76577,7 @@
     </x:row>
     <x:row r="2337" spans="1:10">
       <x:c r="A2337" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2337" s="0" t="s">
         <x:v>39</x:v>
@@ -76612,7 +76609,7 @@
     </x:row>
     <x:row r="2338" spans="1:10">
       <x:c r="A2338" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2338" s="0" t="s">
         <x:v>39</x:v>
@@ -76644,7 +76641,7 @@
     </x:row>
     <x:row r="2339" spans="1:10">
       <x:c r="A2339" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2339" s="0" t="s">
         <x:v>41</x:v>
@@ -76676,7 +76673,7 @@
     </x:row>
     <x:row r="2340" spans="1:10">
       <x:c r="A2340" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2340" s="0" t="s">
         <x:v>41</x:v>
@@ -76708,7 +76705,7 @@
     </x:row>
     <x:row r="2341" spans="1:10">
       <x:c r="A2341" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2341" s="0" t="s">
         <x:v>43</x:v>
@@ -76740,7 +76737,7 @@
     </x:row>
     <x:row r="2342" spans="1:10">
       <x:c r="A2342" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2342" s="0" t="s">
         <x:v>43</x:v>
@@ -76772,7 +76769,7 @@
     </x:row>
     <x:row r="2343" spans="1:10">
       <x:c r="A2343" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2343" s="0" t="s">
         <x:v>11</x:v>
@@ -76804,7 +76801,7 @@
     </x:row>
     <x:row r="2344" spans="1:10">
       <x:c r="A2344" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2344" s="0" t="s">
         <x:v>11</x:v>
@@ -76836,7 +76833,7 @@
     </x:row>
     <x:row r="2345" spans="1:10">
       <x:c r="A2345" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2345" s="0" t="s">
         <x:v>11</x:v>
@@ -76868,7 +76865,7 @@
     </x:row>
     <x:row r="2346" spans="1:10">
       <x:c r="A2346" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2346" s="0" t="s">
         <x:v>26</x:v>
@@ -76900,7 +76897,7 @@
     </x:row>
     <x:row r="2347" spans="1:10">
       <x:c r="A2347" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2347" s="0" t="s">
         <x:v>26</x:v>
@@ -76932,7 +76929,7 @@
     </x:row>
     <x:row r="2348" spans="1:10">
       <x:c r="A2348" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2348" s="0" t="s">
         <x:v>28</x:v>
@@ -76964,7 +76961,7 @@
     </x:row>
     <x:row r="2349" spans="1:10">
       <x:c r="A2349" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2349" s="0" t="s">
         <x:v>28</x:v>
@@ -76996,7 +76993,7 @@
     </x:row>
     <x:row r="2350" spans="1:10">
       <x:c r="A2350" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2350" s="0" t="s">
         <x:v>28</x:v>
@@ -77028,7 +77025,7 @@
     </x:row>
     <x:row r="2351" spans="1:10">
       <x:c r="A2351" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2351" s="0" t="s">
         <x:v>30</x:v>
@@ -77060,7 +77057,7 @@
     </x:row>
     <x:row r="2352" spans="1:10">
       <x:c r="A2352" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2352" s="0" t="s">
         <x:v>30</x:v>
@@ -77092,7 +77089,7 @@
     </x:row>
     <x:row r="2353" spans="1:10">
       <x:c r="A2353" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2353" s="0" t="s">
         <x:v>30</x:v>
@@ -77124,7 +77121,7 @@
     </x:row>
     <x:row r="2354" spans="1:10">
       <x:c r="A2354" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2354" s="0" t="s">
         <x:v>31</x:v>
@@ -77156,7 +77153,7 @@
     </x:row>
     <x:row r="2355" spans="1:10">
       <x:c r="A2355" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2355" s="0" t="s">
         <x:v>31</x:v>
@@ -77188,7 +77185,7 @@
     </x:row>
     <x:row r="2356" spans="1:10">
       <x:c r="A2356" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2356" s="0" t="s">
         <x:v>31</x:v>
@@ -77220,7 +77217,7 @@
     </x:row>
     <x:row r="2357" spans="1:10">
       <x:c r="A2357" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2357" s="0" t="s">
         <x:v>37</x:v>
@@ -77252,7 +77249,7 @@
     </x:row>
     <x:row r="2358" spans="1:10">
       <x:c r="A2358" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2358" s="0" t="s">
         <x:v>37</x:v>
@@ -77284,7 +77281,7 @@
     </x:row>
     <x:row r="2359" spans="1:10">
       <x:c r="A2359" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2359" s="0" t="s">
         <x:v>37</x:v>
@@ -77316,7 +77313,7 @@
     </x:row>
     <x:row r="2360" spans="1:10">
       <x:c r="A2360" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2360" s="0" t="s">
         <x:v>39</x:v>
@@ -77348,7 +77345,7 @@
     </x:row>
     <x:row r="2361" spans="1:10">
       <x:c r="A2361" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2361" s="0" t="s">
         <x:v>39</x:v>
@@ -77380,7 +77377,7 @@
     </x:row>
     <x:row r="2362" spans="1:10">
       <x:c r="A2362" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2362" s="0" t="s">
         <x:v>39</x:v>
@@ -77412,7 +77409,7 @@
     </x:row>
     <x:row r="2363" spans="1:10">
       <x:c r="A2363" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2363" s="0" t="s">
         <x:v>41</x:v>
@@ -77444,7 +77441,7 @@
     </x:row>
     <x:row r="2364" spans="1:10">
       <x:c r="A2364" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2364" s="0" t="s">
         <x:v>41</x:v>
@@ -77476,7 +77473,7 @@
     </x:row>
     <x:row r="2365" spans="1:10">
       <x:c r="A2365" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2365" s="0" t="s">
         <x:v>11</x:v>
@@ -77508,7 +77505,7 @@
     </x:row>
     <x:row r="2366" spans="1:10">
       <x:c r="A2366" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2366" s="0" t="s">
         <x:v>11</x:v>
@@ -77540,7 +77537,7 @@
     </x:row>
     <x:row r="2367" spans="1:10">
       <x:c r="A2367" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2367" s="0" t="s">
         <x:v>11</x:v>
@@ -77572,7 +77569,7 @@
     </x:row>
     <x:row r="2368" spans="1:10">
       <x:c r="A2368" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2368" s="0" t="s">
         <x:v>26</x:v>
@@ -77604,7 +77601,7 @@
     </x:row>
     <x:row r="2369" spans="1:10">
       <x:c r="A2369" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2369" s="0" t="s">
         <x:v>26</x:v>
@@ -77636,7 +77633,7 @@
     </x:row>
     <x:row r="2370" spans="1:10">
       <x:c r="A2370" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2370" s="0" t="s">
         <x:v>26</x:v>
@@ -77668,7 +77665,7 @@
     </x:row>
     <x:row r="2371" spans="1:10">
       <x:c r="A2371" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2371" s="0" t="s">
         <x:v>30</x:v>
@@ -77700,7 +77697,7 @@
     </x:row>
     <x:row r="2372" spans="1:10">
       <x:c r="A2372" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2372" s="0" t="s">
         <x:v>30</x:v>
@@ -77732,7 +77729,7 @@
     </x:row>
     <x:row r="2373" spans="1:10">
       <x:c r="A2373" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2373" s="0" t="s">
         <x:v>31</x:v>
@@ -77764,7 +77761,7 @@
     </x:row>
     <x:row r="2374" spans="1:10">
       <x:c r="A2374" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2374" s="0" t="s">
         <x:v>31</x:v>
@@ -77796,7 +77793,7 @@
     </x:row>
     <x:row r="2375" spans="1:10">
       <x:c r="A2375" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2375" s="0" t="s">
         <x:v>31</x:v>
@@ -77828,7 +77825,7 @@
     </x:row>
     <x:row r="2376" spans="1:10">
       <x:c r="A2376" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2376" s="0" t="s">
         <x:v>84</x:v>
@@ -77860,7 +77857,7 @@
     </x:row>
     <x:row r="2377" spans="1:10">
       <x:c r="A2377" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2377" s="0" t="s">
         <x:v>84</x:v>
@@ -77892,7 +77889,7 @@
     </x:row>
     <x:row r="2378" spans="1:10">
       <x:c r="A2378" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2378" s="0" t="s">
         <x:v>94</x:v>
@@ -77924,7 +77921,7 @@
     </x:row>
     <x:row r="2379" spans="1:10">
       <x:c r="A2379" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2379" s="0" t="s">
         <x:v>94</x:v>
@@ -77956,7 +77953,7 @@
     </x:row>
     <x:row r="2380" spans="1:10">
       <x:c r="A2380" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2380" s="0" t="s">
         <x:v>37</x:v>
@@ -77988,7 +77985,7 @@
     </x:row>
     <x:row r="2381" spans="1:10">
       <x:c r="A2381" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2381" s="0" t="s">
         <x:v>37</x:v>
@@ -78020,7 +78017,7 @@
     </x:row>
     <x:row r="2382" spans="1:10">
       <x:c r="A2382" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2382" s="0" t="s">
         <x:v>37</x:v>
@@ -78052,7 +78049,7 @@
     </x:row>
     <x:row r="2383" spans="1:10">
       <x:c r="A2383" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2383" s="0" t="s">
         <x:v>115</x:v>
@@ -78084,7 +78081,7 @@
     </x:row>
     <x:row r="2384" spans="1:10">
       <x:c r="A2384" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2384" s="0" t="s">
         <x:v>115</x:v>
@@ -78116,7 +78113,7 @@
     </x:row>
     <x:row r="2385" spans="1:10">
       <x:c r="A2385" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2385" s="0" t="s">
         <x:v>116</x:v>
@@ -78148,7 +78145,7 @@
     </x:row>
     <x:row r="2386" spans="1:10">
       <x:c r="A2386" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2386" s="0" t="s">
         <x:v>116</x:v>
@@ -78180,7 +78177,7 @@
     </x:row>
     <x:row r="2387" spans="1:10">
       <x:c r="A2387" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2387" s="0" t="s">
         <x:v>39</x:v>
@@ -78212,7 +78209,7 @@
     </x:row>
     <x:row r="2388" spans="1:10">
       <x:c r="A2388" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2388" s="0" t="s">
         <x:v>39</x:v>
@@ -78244,7 +78241,7 @@
     </x:row>
     <x:row r="2389" spans="1:10">
       <x:c r="A2389" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2389" s="0" t="s">
         <x:v>40</x:v>
@@ -78276,7 +78273,7 @@
     </x:row>
     <x:row r="2390" spans="1:10">
       <x:c r="A2390" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2390" s="0" t="s">
         <x:v>40</x:v>
@@ -78308,7 +78305,7 @@
     </x:row>
     <x:row r="2391" spans="1:10">
       <x:c r="A2391" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2391" s="0" t="s">
         <x:v>41</x:v>
@@ -78340,7 +78337,7 @@
     </x:row>
     <x:row r="2392" spans="1:10">
       <x:c r="A2392" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2392" s="0" t="s">
         <x:v>41</x:v>
@@ -78372,7 +78369,7 @@
     </x:row>
     <x:row r="2393" spans="1:10">
       <x:c r="A2393" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2393" s="0" t="s">
         <x:v>43</x:v>
@@ -78404,7 +78401,7 @@
     </x:row>
     <x:row r="2394" spans="1:10">
       <x:c r="A2394" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2394" s="0" t="s">
         <x:v>43</x:v>
@@ -78436,7 +78433,7 @@
     </x:row>
     <x:row r="2395" spans="1:10">
       <x:c r="A2395" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2395" s="0" t="s">
         <x:v>43</x:v>
@@ -78468,7 +78465,7 @@
     </x:row>
     <x:row r="2396" spans="1:10">
       <x:c r="A2396" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2396" s="0" t="s">
         <x:v>44</x:v>
@@ -78500,7 +78497,7 @@
     </x:row>
     <x:row r="2397" spans="1:10">
       <x:c r="A2397" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2397" s="0" t="s">
         <x:v>44</x:v>
@@ -78532,7 +78529,7 @@
     </x:row>
     <x:row r="2398" spans="1:10">
       <x:c r="A2398" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2398" s="0" t="s">
         <x:v>44</x:v>
@@ -78564,7 +78561,7 @@
     </x:row>
     <x:row r="2399" spans="1:10">
       <x:c r="A2399" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2399" s="0" t="s">
         <x:v>11</x:v>
@@ -78596,7 +78593,7 @@
     </x:row>
     <x:row r="2400" spans="1:10">
       <x:c r="A2400" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2400" s="0" t="s">
         <x:v>11</x:v>
@@ -78628,7 +78625,7 @@
     </x:row>
     <x:row r="2401" spans="1:10">
       <x:c r="A2401" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2401" s="0" t="s">
         <x:v>11</x:v>
@@ -78660,7 +78657,7 @@
     </x:row>
     <x:row r="2402" spans="1:10">
       <x:c r="A2402" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2402" s="0" t="s">
         <x:v>26</x:v>
@@ -78692,7 +78689,7 @@
     </x:row>
     <x:row r="2403" spans="1:10">
       <x:c r="A2403" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2403" s="0" t="s">
         <x:v>26</x:v>
@@ -78724,7 +78721,7 @@
     </x:row>
     <x:row r="2404" spans="1:10">
       <x:c r="A2404" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2404" s="0" t="s">
         <x:v>26</x:v>
@@ -78756,7 +78753,7 @@
     </x:row>
     <x:row r="2405" spans="1:10">
       <x:c r="A2405" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2405" s="0" t="s">
         <x:v>28</x:v>
@@ -78788,7 +78785,7 @@
     </x:row>
     <x:row r="2406" spans="1:10">
       <x:c r="A2406" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2406" s="0" t="s">
         <x:v>28</x:v>
@@ -78820,7 +78817,7 @@
     </x:row>
     <x:row r="2407" spans="1:10">
       <x:c r="A2407" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2407" s="0" t="s">
         <x:v>28</x:v>
@@ -78852,7 +78849,7 @@
     </x:row>
     <x:row r="2408" spans="1:10">
       <x:c r="A2408" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2408" s="0" t="s">
         <x:v>30</x:v>
@@ -78884,7 +78881,7 @@
     </x:row>
     <x:row r="2409" spans="1:10">
       <x:c r="A2409" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2409" s="0" t="s">
         <x:v>30</x:v>
@@ -78916,7 +78913,7 @@
     </x:row>
     <x:row r="2410" spans="1:10">
       <x:c r="A2410" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2410" s="0" t="s">
         <x:v>30</x:v>
@@ -78948,7 +78945,7 @@
     </x:row>
     <x:row r="2411" spans="1:10">
       <x:c r="A2411" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2411" s="0" t="s">
         <x:v>31</x:v>
@@ -78980,7 +78977,7 @@
     </x:row>
     <x:row r="2412" spans="1:10">
       <x:c r="A2412" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2412" s="0" t="s">
         <x:v>31</x:v>
@@ -79012,7 +79009,7 @@
     </x:row>
     <x:row r="2413" spans="1:10">
       <x:c r="A2413" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2413" s="0" t="s">
         <x:v>31</x:v>
@@ -79039,12 +79036,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2413" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="2414" spans="1:10">
       <x:c r="A2414" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2414" s="0" t="s">
         <x:v>140</x:v>
@@ -79076,7 +79073,7 @@
     </x:row>
     <x:row r="2415" spans="1:10">
       <x:c r="A2415" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2415" s="0" t="s">
         <x:v>140</x:v>
@@ -79108,7 +79105,7 @@
     </x:row>
     <x:row r="2416" spans="1:10">
       <x:c r="A2416" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2416" s="0" t="s">
         <x:v>140</x:v>
@@ -79140,7 +79137,7 @@
     </x:row>
     <x:row r="2417" spans="1:10">
       <x:c r="A2417" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2417" s="0" t="s">
         <x:v>84</x:v>
@@ -79172,7 +79169,7 @@
     </x:row>
     <x:row r="2418" spans="1:10">
       <x:c r="A2418" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2418" s="0" t="s">
         <x:v>84</x:v>
@@ -79204,7 +79201,7 @@
     </x:row>
     <x:row r="2419" spans="1:10">
       <x:c r="A2419" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2419" s="0" t="s">
         <x:v>84</x:v>
@@ -79236,7 +79233,7 @@
     </x:row>
     <x:row r="2420" spans="1:10">
       <x:c r="A2420" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2420" s="0" t="s">
         <x:v>94</x:v>
@@ -79268,7 +79265,7 @@
     </x:row>
     <x:row r="2421" spans="1:10">
       <x:c r="A2421" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2421" s="0" t="s">
         <x:v>94</x:v>
@@ -79300,7 +79297,7 @@
     </x:row>
     <x:row r="2422" spans="1:10">
       <x:c r="A2422" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2422" s="0" t="s">
         <x:v>95</x:v>
@@ -79332,7 +79329,7 @@
     </x:row>
     <x:row r="2423" spans="1:10">
       <x:c r="A2423" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2423" s="0" t="s">
         <x:v>95</x:v>
@@ -79364,7 +79361,7 @@
     </x:row>
     <x:row r="2424" spans="1:10">
       <x:c r="A2424" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2424" s="0" t="s">
         <x:v>95</x:v>
@@ -79396,7 +79393,7 @@
     </x:row>
     <x:row r="2425" spans="1:10">
       <x:c r="A2425" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2425" s="0" t="s">
         <x:v>96</x:v>
@@ -79428,7 +79425,7 @@
     </x:row>
     <x:row r="2426" spans="1:10">
       <x:c r="A2426" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2426" s="0" t="s">
         <x:v>96</x:v>
@@ -79460,7 +79457,7 @@
     </x:row>
     <x:row r="2427" spans="1:10">
       <x:c r="A2427" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2427" s="0" t="s">
         <x:v>37</x:v>
@@ -79492,7 +79489,7 @@
     </x:row>
     <x:row r="2428" spans="1:10">
       <x:c r="A2428" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2428" s="0" t="s">
         <x:v>37</x:v>
@@ -79519,12 +79516,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2428" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>461</x:v>
       </x:c>
     </x:row>
     <x:row r="2429" spans="1:10">
       <x:c r="A2429" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2429" s="0" t="s">
         <x:v>37</x:v>
@@ -79542,7 +79539,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="G2429" s="1" t="s">
-        <x:v>463</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="H2429" s="1" t="s">
         <x:v>164</x:v>
@@ -79551,12 +79548,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2429" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="2430" spans="1:10">
       <x:c r="A2430" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2430" s="0" t="s">
         <x:v>38</x:v>
@@ -79588,7 +79585,7 @@
     </x:row>
     <x:row r="2431" spans="1:10">
       <x:c r="A2431" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2431" s="0" t="s">
         <x:v>38</x:v>
@@ -79620,7 +79617,7 @@
     </x:row>
     <x:row r="2432" spans="1:10">
       <x:c r="A2432" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2432" s="0" t="s">
         <x:v>38</x:v>
@@ -79652,7 +79649,7 @@
     </x:row>
     <x:row r="2433" spans="1:10">
       <x:c r="A2433" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2433" s="0" t="s">
         <x:v>115</x:v>
@@ -79684,7 +79681,7 @@
     </x:row>
     <x:row r="2434" spans="1:10">
       <x:c r="A2434" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2434" s="0" t="s">
         <x:v>115</x:v>
@@ -79716,7 +79713,7 @@
     </x:row>
     <x:row r="2435" spans="1:10">
       <x:c r="A2435" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2435" s="0" t="s">
         <x:v>115</x:v>
@@ -79748,7 +79745,7 @@
     </x:row>
     <x:row r="2436" spans="1:10">
       <x:c r="A2436" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2436" s="0" t="s">
         <x:v>306</x:v>
@@ -79780,7 +79777,7 @@
     </x:row>
     <x:row r="2437" spans="1:10">
       <x:c r="A2437" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2437" s="0" t="s">
         <x:v>306</x:v>
@@ -79812,7 +79809,7 @@
     </x:row>
     <x:row r="2438" spans="1:10">
       <x:c r="A2438" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2438" s="0" t="s">
         <x:v>306</x:v>
@@ -79844,7 +79841,7 @@
     </x:row>
     <x:row r="2439" spans="1:10">
       <x:c r="A2439" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2439" s="0" t="s">
         <x:v>116</x:v>
@@ -79876,7 +79873,7 @@
     </x:row>
     <x:row r="2440" spans="1:10">
       <x:c r="A2440" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2440" s="0" t="s">
         <x:v>116</x:v>
@@ -79908,7 +79905,7 @@
     </x:row>
     <x:row r="2441" spans="1:10">
       <x:c r="A2441" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2441" s="0" t="s">
         <x:v>116</x:v>
@@ -79940,7 +79937,7 @@
     </x:row>
     <x:row r="2442" spans="1:10">
       <x:c r="A2442" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2442" s="0" t="s">
         <x:v>39</x:v>
@@ -79972,7 +79969,7 @@
     </x:row>
     <x:row r="2443" spans="1:10">
       <x:c r="A2443" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2443" s="0" t="s">
         <x:v>39</x:v>
@@ -80004,7 +80001,7 @@
     </x:row>
     <x:row r="2444" spans="1:10">
       <x:c r="A2444" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2444" s="0" t="s">
         <x:v>39</x:v>
@@ -80036,7 +80033,7 @@
     </x:row>
     <x:row r="2445" spans="1:10">
       <x:c r="A2445" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2445" s="0" t="s">
         <x:v>40</x:v>
@@ -80068,7 +80065,7 @@
     </x:row>
     <x:row r="2446" spans="1:10">
       <x:c r="A2446" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2446" s="0" t="s">
         <x:v>40</x:v>
@@ -80100,7 +80097,7 @@
     </x:row>
     <x:row r="2447" spans="1:10">
       <x:c r="A2447" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2447" s="0" t="s">
         <x:v>40</x:v>
@@ -80132,7 +80129,7 @@
     </x:row>
     <x:row r="2448" spans="1:10">
       <x:c r="A2448" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2448" s="0" t="s">
         <x:v>41</x:v>
@@ -80164,7 +80161,7 @@
     </x:row>
     <x:row r="2449" spans="1:10">
       <x:c r="A2449" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2449" s="0" t="s">
         <x:v>41</x:v>
@@ -80196,7 +80193,7 @@
     </x:row>
     <x:row r="2450" spans="1:10">
       <x:c r="A2450" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2450" s="0" t="s">
         <x:v>41</x:v>
@@ -80228,7 +80225,7 @@
     </x:row>
     <x:row r="2451" spans="1:10">
       <x:c r="A2451" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2451" s="0" t="s">
         <x:v>43</x:v>
@@ -80260,7 +80257,7 @@
     </x:row>
     <x:row r="2452" spans="1:10">
       <x:c r="A2452" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2452" s="0" t="s">
         <x:v>43</x:v>
@@ -80292,7 +80289,7 @@
     </x:row>
     <x:row r="2453" spans="1:10">
       <x:c r="A2453" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2453" s="0" t="s">
         <x:v>43</x:v>
@@ -80324,7 +80321,7 @@
     </x:row>
     <x:row r="2454" spans="1:10">
       <x:c r="A2454" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2454" s="0" t="s">
         <x:v>11</x:v>
@@ -80356,7 +80353,7 @@
     </x:row>
     <x:row r="2455" spans="1:10">
       <x:c r="A2455" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2455" s="0" t="s">
         <x:v>11</x:v>
@@ -80388,7 +80385,7 @@
     </x:row>
     <x:row r="2456" spans="1:10">
       <x:c r="A2456" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2456" s="0" t="s">
         <x:v>11</x:v>
@@ -80420,7 +80417,7 @@
     </x:row>
     <x:row r="2457" spans="1:10">
       <x:c r="A2457" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2457" s="0" t="s">
         <x:v>26</x:v>
@@ -80452,7 +80449,7 @@
     </x:row>
     <x:row r="2458" spans="1:10">
       <x:c r="A2458" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2458" s="0" t="s">
         <x:v>26</x:v>
@@ -80484,7 +80481,7 @@
     </x:row>
     <x:row r="2459" spans="1:10">
       <x:c r="A2459" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2459" s="0" t="s">
         <x:v>26</x:v>
@@ -80516,7 +80513,7 @@
     </x:row>
     <x:row r="2460" spans="1:10">
       <x:c r="A2460" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2460" s="0" t="s">
         <x:v>28</x:v>
@@ -80548,7 +80545,7 @@
     </x:row>
     <x:row r="2461" spans="1:10">
       <x:c r="A2461" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2461" s="0" t="s">
         <x:v>28</x:v>
@@ -80580,7 +80577,7 @@
     </x:row>
     <x:row r="2462" spans="1:10">
       <x:c r="A2462" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2462" s="0" t="s">
         <x:v>30</x:v>
@@ -80612,7 +80609,7 @@
     </x:row>
     <x:row r="2463" spans="1:10">
       <x:c r="A2463" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2463" s="0" t="s">
         <x:v>30</x:v>
@@ -80644,7 +80641,7 @@
     </x:row>
     <x:row r="2464" spans="1:10">
       <x:c r="A2464" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2464" s="0" t="s">
         <x:v>30</x:v>
@@ -80676,7 +80673,7 @@
     </x:row>
     <x:row r="2465" spans="1:10">
       <x:c r="A2465" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2465" s="0" t="s">
         <x:v>31</x:v>
@@ -80708,7 +80705,7 @@
     </x:row>
     <x:row r="2466" spans="1:10">
       <x:c r="A2466" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2466" s="0" t="s">
         <x:v>31</x:v>
@@ -80740,7 +80737,7 @@
     </x:row>
     <x:row r="2467" spans="1:10">
       <x:c r="A2467" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2467" s="0" t="s">
         <x:v>31</x:v>
@@ -80772,7 +80769,7 @@
     </x:row>
     <x:row r="2468" spans="1:10">
       <x:c r="A2468" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2468" s="0" t="s">
         <x:v>84</x:v>
@@ -80804,7 +80801,7 @@
     </x:row>
     <x:row r="2469" spans="1:10">
       <x:c r="A2469" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2469" s="0" t="s">
         <x:v>84</x:v>
@@ -80836,7 +80833,7 @@
     </x:row>
     <x:row r="2470" spans="1:10">
       <x:c r="A2470" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2470" s="0" t="s">
         <x:v>96</x:v>
@@ -80868,7 +80865,7 @@
     </x:row>
     <x:row r="2471" spans="1:10">
       <x:c r="A2471" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2471" s="0" t="s">
         <x:v>96</x:v>
@@ -80900,7 +80897,7 @@
     </x:row>
     <x:row r="2472" spans="1:10">
       <x:c r="A2472" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2472" s="0" t="s">
         <x:v>37</x:v>
@@ -80932,7 +80929,7 @@
     </x:row>
     <x:row r="2473" spans="1:10">
       <x:c r="A2473" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2473" s="0" t="s">
         <x:v>37</x:v>
@@ -80964,7 +80961,7 @@
     </x:row>
     <x:row r="2474" spans="1:10">
       <x:c r="A2474" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2474" s="0" t="s">
         <x:v>37</x:v>
@@ -80996,7 +80993,7 @@
     </x:row>
     <x:row r="2475" spans="1:10">
       <x:c r="A2475" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2475" s="0" t="s">
         <x:v>38</x:v>
@@ -81028,7 +81025,7 @@
     </x:row>
     <x:row r="2476" spans="1:10">
       <x:c r="A2476" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2476" s="0" t="s">
         <x:v>38</x:v>
@@ -81060,7 +81057,7 @@
     </x:row>
     <x:row r="2477" spans="1:10">
       <x:c r="A2477" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2477" s="0" t="s">
         <x:v>38</x:v>
@@ -81092,7 +81089,7 @@
     </x:row>
     <x:row r="2478" spans="1:10">
       <x:c r="A2478" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2478" s="0" t="s">
         <x:v>39</x:v>
@@ -81124,7 +81121,7 @@
     </x:row>
     <x:row r="2479" spans="1:10">
       <x:c r="A2479" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2479" s="0" t="s">
         <x:v>39</x:v>
@@ -81156,7 +81153,7 @@
     </x:row>
     <x:row r="2480" spans="1:10">
       <x:c r="A2480" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2480" s="0" t="s">
         <x:v>40</x:v>
@@ -81188,7 +81185,7 @@
     </x:row>
     <x:row r="2481" spans="1:10">
       <x:c r="A2481" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2481" s="0" t="s">
         <x:v>40</x:v>
@@ -81220,7 +81217,7 @@
     </x:row>
     <x:row r="2482" spans="1:10">
       <x:c r="A2482" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2482" s="0" t="s">
         <x:v>40</x:v>
@@ -81252,7 +81249,7 @@
     </x:row>
     <x:row r="2483" spans="1:10">
       <x:c r="A2483" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2483" s="0" t="s">
         <x:v>43</x:v>
@@ -81284,7 +81281,7 @@
     </x:row>
     <x:row r="2484" spans="1:10">
       <x:c r="A2484" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2484" s="0" t="s">
         <x:v>43</x:v>
@@ -81316,7 +81313,7 @@
     </x:row>
     <x:row r="2485" spans="1:10">
       <x:c r="A2485" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2485" s="0" t="s">
         <x:v>44</x:v>
@@ -81348,7 +81345,7 @@
     </x:row>
     <x:row r="2486" spans="1:10">
       <x:c r="A2486" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2486" s="0" t="s">
         <x:v>44</x:v>
@@ -81380,7 +81377,7 @@
     </x:row>
     <x:row r="2487" spans="1:10">
       <x:c r="A2487" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2487" s="0" t="s">
         <x:v>11</x:v>
@@ -81412,7 +81409,7 @@
     </x:row>
     <x:row r="2488" spans="1:10">
       <x:c r="A2488" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2488" s="0" t="s">
         <x:v>11</x:v>
@@ -81444,7 +81441,7 @@
     </x:row>
     <x:row r="2489" spans="1:10">
       <x:c r="A2489" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2489" s="0" t="s">
         <x:v>11</x:v>
@@ -81476,7 +81473,7 @@
     </x:row>
     <x:row r="2490" spans="1:10">
       <x:c r="A2490" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2490" s="0" t="s">
         <x:v>26</x:v>
@@ -81508,7 +81505,7 @@
     </x:row>
     <x:row r="2491" spans="1:10">
       <x:c r="A2491" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2491" s="0" t="s">
         <x:v>26</x:v>
@@ -81540,7 +81537,7 @@
     </x:row>
     <x:row r="2492" spans="1:10">
       <x:c r="A2492" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2492" s="0" t="s">
         <x:v>26</x:v>
@@ -81572,7 +81569,7 @@
     </x:row>
     <x:row r="2493" spans="1:10">
       <x:c r="A2493" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2493" s="0" t="s">
         <x:v>28</x:v>
@@ -81604,7 +81601,7 @@
     </x:row>
     <x:row r="2494" spans="1:10">
       <x:c r="A2494" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2494" s="0" t="s">
         <x:v>28</x:v>
@@ -81636,7 +81633,7 @@
     </x:row>
     <x:row r="2495" spans="1:10">
       <x:c r="A2495" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2495" s="0" t="s">
         <x:v>30</x:v>
@@ -81668,7 +81665,7 @@
     </x:row>
     <x:row r="2496" spans="1:10">
       <x:c r="A2496" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2496" s="0" t="s">
         <x:v>30</x:v>
@@ -81700,7 +81697,7 @@
     </x:row>
     <x:row r="2497" spans="1:10">
       <x:c r="A2497" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2497" s="0" t="s">
         <x:v>31</x:v>
@@ -81732,7 +81729,7 @@
     </x:row>
     <x:row r="2498" spans="1:10">
       <x:c r="A2498" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2498" s="0" t="s">
         <x:v>31</x:v>
@@ -81764,7 +81761,7 @@
     </x:row>
     <x:row r="2499" spans="1:10">
       <x:c r="A2499" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2499" s="0" t="s">
         <x:v>31</x:v>
@@ -81796,7 +81793,7 @@
     </x:row>
     <x:row r="2500" spans="1:10">
       <x:c r="A2500" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2500" s="0" t="s">
         <x:v>84</x:v>
@@ -81828,7 +81825,7 @@
     </x:row>
     <x:row r="2501" spans="1:10">
       <x:c r="A2501" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2501" s="0" t="s">
         <x:v>84</x:v>
@@ -81860,7 +81857,7 @@
     </x:row>
     <x:row r="2502" spans="1:10">
       <x:c r="A2502" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2502" s="0" t="s">
         <x:v>84</x:v>
@@ -81892,7 +81889,7 @@
     </x:row>
     <x:row r="2503" spans="1:10">
       <x:c r="A2503" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2503" s="0" t="s">
         <x:v>37</x:v>
@@ -81924,7 +81921,7 @@
     </x:row>
     <x:row r="2504" spans="1:10">
       <x:c r="A2504" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2504" s="0" t="s">
         <x:v>37</x:v>
@@ -81956,7 +81953,7 @@
     </x:row>
     <x:row r="2505" spans="1:10">
       <x:c r="A2505" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2505" s="0" t="s">
         <x:v>37</x:v>
@@ -81988,7 +81985,7 @@
     </x:row>
     <x:row r="2506" spans="1:10">
       <x:c r="A2506" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2506" s="0" t="s">
         <x:v>38</x:v>
@@ -82020,7 +82017,7 @@
     </x:row>
     <x:row r="2507" spans="1:10">
       <x:c r="A2507" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2507" s="0" t="s">
         <x:v>38</x:v>
@@ -82052,7 +82049,7 @@
     </x:row>
     <x:row r="2508" spans="1:10">
       <x:c r="A2508" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2508" s="0" t="s">
         <x:v>38</x:v>
@@ -82084,7 +82081,7 @@
     </x:row>
     <x:row r="2509" spans="1:10">
       <x:c r="A2509" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2509" s="0" t="s">
         <x:v>39</x:v>
@@ -82116,7 +82113,7 @@
     </x:row>
     <x:row r="2510" spans="1:10">
       <x:c r="A2510" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2510" s="0" t="s">
         <x:v>39</x:v>
@@ -82148,7 +82145,7 @@
     </x:row>
     <x:row r="2511" spans="1:10">
       <x:c r="A2511" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2511" s="0" t="s">
         <x:v>41</x:v>
@@ -82180,7 +82177,7 @@
     </x:row>
     <x:row r="2512" spans="1:10">
       <x:c r="A2512" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2512" s="0" t="s">
         <x:v>41</x:v>
@@ -82212,7 +82209,7 @@
     </x:row>
     <x:row r="2513" spans="1:10">
       <x:c r="A2513" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2513" s="0" t="s">
         <x:v>43</x:v>
@@ -82244,7 +82241,7 @@
     </x:row>
     <x:row r="2514" spans="1:10">
       <x:c r="A2514" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2514" s="0" t="s">
         <x:v>43</x:v>
@@ -82276,7 +82273,7 @@
     </x:row>
     <x:row r="2515" spans="1:10">
       <x:c r="A2515" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2515" s="0" t="s">
         <x:v>43</x:v>
@@ -82308,7 +82305,7 @@
     </x:row>
     <x:row r="2516" spans="1:10">
       <x:c r="A2516" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2516" s="0" t="s">
         <x:v>44</x:v>
@@ -82340,7 +82337,7 @@
     </x:row>
     <x:row r="2517" spans="1:10">
       <x:c r="A2517" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2517" s="0" t="s">
         <x:v>44</x:v>
@@ -82372,7 +82369,7 @@
     </x:row>
     <x:row r="2518" spans="1:10">
       <x:c r="A2518" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2518" s="0" t="s">
         <x:v>44</x:v>
@@ -82404,7 +82401,7 @@
     </x:row>
     <x:row r="2519" spans="1:10">
       <x:c r="A2519" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2519" s="0" t="s">
         <x:v>11</x:v>
@@ -82436,7 +82433,7 @@
     </x:row>
     <x:row r="2520" spans="1:10">
       <x:c r="A2520" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2520" s="0" t="s">
         <x:v>11</x:v>
@@ -82468,7 +82465,7 @@
     </x:row>
     <x:row r="2521" spans="1:10">
       <x:c r="A2521" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2521" s="0" t="s">
         <x:v>11</x:v>
@@ -82500,7 +82497,7 @@
     </x:row>
     <x:row r="2522" spans="1:10">
       <x:c r="A2522" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2522" s="0" t="s">
         <x:v>26</x:v>
@@ -82532,7 +82529,7 @@
     </x:row>
     <x:row r="2523" spans="1:10">
       <x:c r="A2523" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2523" s="0" t="s">
         <x:v>26</x:v>
@@ -82564,7 +82561,7 @@
     </x:row>
     <x:row r="2524" spans="1:10">
       <x:c r="A2524" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2524" s="0" t="s">
         <x:v>28</x:v>
@@ -82596,7 +82593,7 @@
     </x:row>
     <x:row r="2525" spans="1:10">
       <x:c r="A2525" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2525" s="0" t="s">
         <x:v>28</x:v>
@@ -82628,7 +82625,7 @@
     </x:row>
     <x:row r="2526" spans="1:10">
       <x:c r="A2526" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2526" s="0" t="s">
         <x:v>28</x:v>
@@ -82660,7 +82657,7 @@
     </x:row>
     <x:row r="2527" spans="1:10">
       <x:c r="A2527" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2527" s="0" t="s">
         <x:v>30</x:v>
@@ -82692,7 +82689,7 @@
     </x:row>
     <x:row r="2528" spans="1:10">
       <x:c r="A2528" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2528" s="0" t="s">
         <x:v>30</x:v>
@@ -82724,7 +82721,7 @@
     </x:row>
     <x:row r="2529" spans="1:10">
       <x:c r="A2529" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2529" s="0" t="s">
         <x:v>30</x:v>
@@ -82756,7 +82753,7 @@
     </x:row>
     <x:row r="2530" spans="1:10">
       <x:c r="A2530" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2530" s="0" t="s">
         <x:v>31</x:v>
@@ -82788,7 +82785,7 @@
     </x:row>
     <x:row r="2531" spans="1:10">
       <x:c r="A2531" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2531" s="0" t="s">
         <x:v>31</x:v>
@@ -82820,7 +82817,7 @@
     </x:row>
     <x:row r="2532" spans="1:10">
       <x:c r="A2532" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2532" s="0" t="s">
         <x:v>31</x:v>
@@ -82852,7 +82849,7 @@
     </x:row>
     <x:row r="2533" spans="1:10">
       <x:c r="A2533" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2533" s="0" t="s">
         <x:v>140</x:v>
@@ -82884,7 +82881,7 @@
     </x:row>
     <x:row r="2534" spans="1:10">
       <x:c r="A2534" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2534" s="0" t="s">
         <x:v>140</x:v>
@@ -82916,7 +82913,7 @@
     </x:row>
     <x:row r="2535" spans="1:10">
       <x:c r="A2535" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2535" s="0" t="s">
         <x:v>84</x:v>
@@ -82948,7 +82945,7 @@
     </x:row>
     <x:row r="2536" spans="1:10">
       <x:c r="A2536" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2536" s="0" t="s">
         <x:v>84</x:v>
@@ -82980,7 +82977,7 @@
     </x:row>
     <x:row r="2537" spans="1:10">
       <x:c r="A2537" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2537" s="0" t="s">
         <x:v>84</x:v>
@@ -83012,7 +83009,7 @@
     </x:row>
     <x:row r="2538" spans="1:10">
       <x:c r="A2538" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2538" s="0" t="s">
         <x:v>94</x:v>
@@ -83044,7 +83041,7 @@
     </x:row>
     <x:row r="2539" spans="1:10">
       <x:c r="A2539" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2539" s="0" t="s">
         <x:v>94</x:v>
@@ -83076,7 +83073,7 @@
     </x:row>
     <x:row r="2540" spans="1:10">
       <x:c r="A2540" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2540" s="0" t="s">
         <x:v>96</x:v>
@@ -83108,7 +83105,7 @@
     </x:row>
     <x:row r="2541" spans="1:10">
       <x:c r="A2541" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2541" s="0" t="s">
         <x:v>96</x:v>
@@ -83140,7 +83137,7 @@
     </x:row>
     <x:row r="2542" spans="1:10">
       <x:c r="A2542" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2542" s="0" t="s">
         <x:v>37</x:v>
@@ -83172,7 +83169,7 @@
     </x:row>
     <x:row r="2543" spans="1:10">
       <x:c r="A2543" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2543" s="0" t="s">
         <x:v>37</x:v>
@@ -83204,7 +83201,7 @@
     </x:row>
     <x:row r="2544" spans="1:10">
       <x:c r="A2544" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2544" s="0" t="s">
         <x:v>37</x:v>
@@ -83236,7 +83233,7 @@
     </x:row>
     <x:row r="2545" spans="1:10">
       <x:c r="A2545" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2545" s="0" t="s">
         <x:v>38</x:v>
@@ -83268,7 +83265,7 @@
     </x:row>
     <x:row r="2546" spans="1:10">
       <x:c r="A2546" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2546" s="0" t="s">
         <x:v>38</x:v>
@@ -83300,7 +83297,7 @@
     </x:row>
     <x:row r="2547" spans="1:10">
       <x:c r="A2547" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2547" s="0" t="s">
         <x:v>115</x:v>
@@ -83332,7 +83329,7 @@
     </x:row>
     <x:row r="2548" spans="1:10">
       <x:c r="A2548" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2548" s="0" t="s">
         <x:v>115</x:v>
@@ -83364,7 +83361,7 @@
     </x:row>
     <x:row r="2549" spans="1:10">
       <x:c r="A2549" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2549" s="0" t="s">
         <x:v>116</x:v>
@@ -83396,7 +83393,7 @@
     </x:row>
     <x:row r="2550" spans="1:10">
       <x:c r="A2550" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2550" s="0" t="s">
         <x:v>116</x:v>
@@ -83428,7 +83425,7 @@
     </x:row>
     <x:row r="2551" spans="1:10">
       <x:c r="A2551" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2551" s="0" t="s">
         <x:v>39</x:v>
@@ -83460,7 +83457,7 @@
     </x:row>
     <x:row r="2552" spans="1:10">
       <x:c r="A2552" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2552" s="0" t="s">
         <x:v>39</x:v>
@@ -83492,7 +83489,7 @@
     </x:row>
     <x:row r="2553" spans="1:10">
       <x:c r="A2553" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2553" s="0" t="s">
         <x:v>39</x:v>
@@ -83524,7 +83521,7 @@
     </x:row>
     <x:row r="2554" spans="1:10">
       <x:c r="A2554" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2554" s="0" t="s">
         <x:v>40</x:v>
@@ -83556,7 +83553,7 @@
     </x:row>
     <x:row r="2555" spans="1:10">
       <x:c r="A2555" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2555" s="0" t="s">
         <x:v>40</x:v>
@@ -83588,7 +83585,7 @@
     </x:row>
     <x:row r="2556" spans="1:10">
       <x:c r="A2556" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2556" s="0" t="s">
         <x:v>40</x:v>
@@ -83620,7 +83617,7 @@
     </x:row>
     <x:row r="2557" spans="1:10">
       <x:c r="A2557" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2557" s="0" t="s">
         <x:v>41</x:v>
@@ -83652,7 +83649,7 @@
     </x:row>
     <x:row r="2558" spans="1:10">
       <x:c r="A2558" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2558" s="0" t="s">
         <x:v>41</x:v>
@@ -83684,7 +83681,7 @@
     </x:row>
     <x:row r="2559" spans="1:10">
       <x:c r="A2559" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2559" s="0" t="s">
         <x:v>43</x:v>
@@ -83716,7 +83713,7 @@
     </x:row>
     <x:row r="2560" spans="1:10">
       <x:c r="A2560" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2560" s="0" t="s">
         <x:v>43</x:v>
@@ -83748,7 +83745,7 @@
     </x:row>
     <x:row r="2561" spans="1:10">
       <x:c r="A2561" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2561" s="0" t="s">
         <x:v>43</x:v>
@@ -83780,7 +83777,7 @@
     </x:row>
     <x:row r="2562" spans="1:10">
       <x:c r="A2562" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2562" s="0" t="s">
         <x:v>44</x:v>
@@ -83812,7 +83809,7 @@
     </x:row>
     <x:row r="2563" spans="1:10">
       <x:c r="A2563" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2563" s="0" t="s">
         <x:v>44</x:v>
@@ -83844,7 +83841,7 @@
     </x:row>
     <x:row r="2564" spans="1:10">
       <x:c r="A2564" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2564" s="0" t="s">
         <x:v>11</x:v>
@@ -83876,7 +83873,7 @@
     </x:row>
     <x:row r="2565" spans="1:10">
       <x:c r="A2565" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2565" s="0" t="s">
         <x:v>11</x:v>
@@ -83908,7 +83905,7 @@
     </x:row>
     <x:row r="2566" spans="1:10">
       <x:c r="A2566" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2566" s="0" t="s">
         <x:v>11</x:v>
@@ -83935,12 +83932,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2566" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>468</x:v>
       </x:c>
     </x:row>
     <x:row r="2567" spans="1:10">
       <x:c r="A2567" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2567" s="0" t="s">
         <x:v>26</x:v>
@@ -83972,7 +83969,7 @@
     </x:row>
     <x:row r="2568" spans="1:10">
       <x:c r="A2568" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2568" s="0" t="s">
         <x:v>26</x:v>
@@ -84004,7 +84001,7 @@
     </x:row>
     <x:row r="2569" spans="1:10">
       <x:c r="A2569" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2569" s="0" t="s">
         <x:v>26</x:v>
@@ -84036,7 +84033,7 @@
     </x:row>
     <x:row r="2570" spans="1:10">
       <x:c r="A2570" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2570" s="0" t="s">
         <x:v>28</x:v>
@@ -84068,7 +84065,7 @@
     </x:row>
     <x:row r="2571" spans="1:10">
       <x:c r="A2571" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2571" s="0" t="s">
         <x:v>28</x:v>
@@ -84100,7 +84097,7 @@
     </x:row>
     <x:row r="2572" spans="1:10">
       <x:c r="A2572" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2572" s="0" t="s">
         <x:v>28</x:v>
@@ -84132,7 +84129,7 @@
     </x:row>
     <x:row r="2573" spans="1:10">
       <x:c r="A2573" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2573" s="0" t="s">
         <x:v>30</x:v>
@@ -84164,7 +84161,7 @@
     </x:row>
     <x:row r="2574" spans="1:10">
       <x:c r="A2574" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2574" s="0" t="s">
         <x:v>30</x:v>
@@ -84196,7 +84193,7 @@
     </x:row>
     <x:row r="2575" spans="1:10">
       <x:c r="A2575" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2575" s="0" t="s">
         <x:v>30</x:v>
@@ -84228,7 +84225,7 @@
     </x:row>
     <x:row r="2576" spans="1:10">
       <x:c r="A2576" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2576" s="0" t="s">
         <x:v>31</x:v>
@@ -84260,7 +84257,7 @@
     </x:row>
     <x:row r="2577" spans="1:10">
       <x:c r="A2577" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2577" s="0" t="s">
         <x:v>31</x:v>
@@ -84287,12 +84284,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2577" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="2578" spans="1:10">
       <x:c r="A2578" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2578" s="0" t="s">
         <x:v>31</x:v>
@@ -84319,12 +84316,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2578" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="2579" spans="1:10">
       <x:c r="A2579" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2579" s="0" t="s">
         <x:v>84</x:v>
@@ -84356,7 +84353,7 @@
     </x:row>
     <x:row r="2580" spans="1:10">
       <x:c r="A2580" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2580" s="0" t="s">
         <x:v>84</x:v>
@@ -84388,7 +84385,7 @@
     </x:row>
     <x:row r="2581" spans="1:10">
       <x:c r="A2581" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2581" s="0" t="s">
         <x:v>84</x:v>
@@ -84420,7 +84417,7 @@
     </x:row>
     <x:row r="2582" spans="1:10">
       <x:c r="A2582" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2582" s="0" t="s">
         <x:v>94</x:v>
@@ -84452,7 +84449,7 @@
     </x:row>
     <x:row r="2583" spans="1:10">
       <x:c r="A2583" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2583" s="0" t="s">
         <x:v>94</x:v>
@@ -84484,7 +84481,7 @@
     </x:row>
     <x:row r="2584" spans="1:10">
       <x:c r="A2584" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2584" s="0" t="s">
         <x:v>37</x:v>
@@ -84516,7 +84513,7 @@
     </x:row>
     <x:row r="2585" spans="1:10">
       <x:c r="A2585" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2585" s="0" t="s">
         <x:v>37</x:v>
@@ -84548,7 +84545,7 @@
     </x:row>
     <x:row r="2586" spans="1:10">
       <x:c r="A2586" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2586" s="0" t="s">
         <x:v>37</x:v>
@@ -84575,12 +84572,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2586" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>471</x:v>
       </x:c>
     </x:row>
     <x:row r="2587" spans="1:10">
       <x:c r="A2587" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2587" s="0" t="s">
         <x:v>38</x:v>
@@ -84612,7 +84609,7 @@
     </x:row>
     <x:row r="2588" spans="1:10">
       <x:c r="A2588" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2588" s="0" t="s">
         <x:v>38</x:v>
@@ -84644,7 +84641,7 @@
     </x:row>
     <x:row r="2589" spans="1:10">
       <x:c r="A2589" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2589" s="0" t="s">
         <x:v>115</x:v>
@@ -84676,7 +84673,7 @@
     </x:row>
     <x:row r="2590" spans="1:10">
       <x:c r="A2590" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2590" s="0" t="s">
         <x:v>115</x:v>
@@ -84708,7 +84705,7 @@
     </x:row>
     <x:row r="2591" spans="1:10">
       <x:c r="A2591" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2591" s="0" t="s">
         <x:v>116</x:v>
@@ -84740,7 +84737,7 @@
     </x:row>
     <x:row r="2592" spans="1:10">
       <x:c r="A2592" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2592" s="0" t="s">
         <x:v>116</x:v>
@@ -84772,7 +84769,7 @@
     </x:row>
     <x:row r="2593" spans="1:10">
       <x:c r="A2593" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2593" s="0" t="s">
         <x:v>116</x:v>
@@ -84804,7 +84801,7 @@
     </x:row>
     <x:row r="2594" spans="1:10">
       <x:c r="A2594" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2594" s="0" t="s">
         <x:v>39</x:v>
@@ -84836,7 +84833,7 @@
     </x:row>
     <x:row r="2595" spans="1:10">
       <x:c r="A2595" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2595" s="0" t="s">
         <x:v>39</x:v>
@@ -84868,7 +84865,7 @@
     </x:row>
     <x:row r="2596" spans="1:10">
       <x:c r="A2596" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2596" s="0" t="s">
         <x:v>40</x:v>
@@ -84900,7 +84897,7 @@
     </x:row>
     <x:row r="2597" spans="1:10">
       <x:c r="A2597" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2597" s="0" t="s">
         <x:v>40</x:v>
@@ -84932,7 +84929,7 @@
     </x:row>
     <x:row r="2598" spans="1:10">
       <x:c r="A2598" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2598" s="0" t="s">
         <x:v>40</x:v>
@@ -84964,7 +84961,7 @@
     </x:row>
     <x:row r="2599" spans="1:10">
       <x:c r="A2599" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2599" s="0" t="s">
         <x:v>41</x:v>
@@ -84996,7 +84993,7 @@
     </x:row>
     <x:row r="2600" spans="1:10">
       <x:c r="A2600" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2600" s="0" t="s">
         <x:v>41</x:v>
@@ -85028,7 +85025,7 @@
     </x:row>
     <x:row r="2601" spans="1:10">
       <x:c r="A2601" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2601" s="0" t="s">
         <x:v>41</x:v>
@@ -85060,7 +85057,7 @@
     </x:row>
     <x:row r="2602" spans="1:10">
       <x:c r="A2602" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2602" s="0" t="s">
         <x:v>43</x:v>
@@ -85092,7 +85089,7 @@
     </x:row>
     <x:row r="2603" spans="1:10">
       <x:c r="A2603" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2603" s="0" t="s">
         <x:v>43</x:v>
@@ -85124,7 +85121,7 @@
     </x:row>
     <x:row r="2604" spans="1:10">
       <x:c r="A2604" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2604" s="0" t="s">
         <x:v>11</x:v>
@@ -85156,7 +85153,7 @@
     </x:row>
     <x:row r="2605" spans="1:10">
       <x:c r="A2605" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2605" s="0" t="s">
         <x:v>11</x:v>
@@ -85188,7 +85185,7 @@
     </x:row>
     <x:row r="2606" spans="1:10">
       <x:c r="A2606" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2606" s="0" t="s">
         <x:v>11</x:v>
@@ -85220,7 +85217,7 @@
     </x:row>
     <x:row r="2607" spans="1:10">
       <x:c r="A2607" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2607" s="0" t="s">
         <x:v>26</x:v>
@@ -85252,7 +85249,7 @@
     </x:row>
     <x:row r="2608" spans="1:10">
       <x:c r="A2608" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2608" s="0" t="s">
         <x:v>26</x:v>
@@ -85284,7 +85281,7 @@
     </x:row>
     <x:row r="2609" spans="1:10">
       <x:c r="A2609" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2609" s="0" t="s">
         <x:v>26</x:v>
@@ -85316,7 +85313,7 @@
     </x:row>
     <x:row r="2610" spans="1:10">
       <x:c r="A2610" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2610" s="0" t="s">
         <x:v>28</x:v>
@@ -85348,7 +85345,7 @@
     </x:row>
     <x:row r="2611" spans="1:10">
       <x:c r="A2611" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2611" s="0" t="s">
         <x:v>28</x:v>
@@ -85380,7 +85377,7 @@
     </x:row>
     <x:row r="2612" spans="1:10">
       <x:c r="A2612" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2612" s="0" t="s">
         <x:v>30</x:v>
@@ -85412,7 +85409,7 @@
     </x:row>
     <x:row r="2613" spans="1:10">
       <x:c r="A2613" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2613" s="0" t="s">
         <x:v>30</x:v>
@@ -85444,7 +85441,7 @@
     </x:row>
     <x:row r="2614" spans="1:10">
       <x:c r="A2614" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2614" s="0" t="s">
         <x:v>31</x:v>
@@ -85476,7 +85473,7 @@
     </x:row>
     <x:row r="2615" spans="1:10">
       <x:c r="A2615" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2615" s="0" t="s">
         <x:v>31</x:v>
@@ -85508,7 +85505,7 @@
     </x:row>
     <x:row r="2616" spans="1:10">
       <x:c r="A2616" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2616" s="0" t="s">
         <x:v>31</x:v>
@@ -85540,7 +85537,7 @@
     </x:row>
     <x:row r="2617" spans="1:10">
       <x:c r="A2617" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2617" s="0" t="s">
         <x:v>96</x:v>
@@ -85572,7 +85569,7 @@
     </x:row>
     <x:row r="2618" spans="1:10">
       <x:c r="A2618" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2618" s="0" t="s">
         <x:v>96</x:v>
@@ -85604,7 +85601,7 @@
     </x:row>
     <x:row r="2619" spans="1:10">
       <x:c r="A2619" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2619" s="0" t="s">
         <x:v>37</x:v>
@@ -85636,7 +85633,7 @@
     </x:row>
     <x:row r="2620" spans="1:10">
       <x:c r="A2620" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2620" s="0" t="s">
         <x:v>37</x:v>
@@ -85668,7 +85665,7 @@
     </x:row>
     <x:row r="2621" spans="1:10">
       <x:c r="A2621" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2621" s="0" t="s">
         <x:v>37</x:v>
@@ -85700,7 +85697,7 @@
     </x:row>
     <x:row r="2622" spans="1:10">
       <x:c r="A2622" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2622" s="0" t="s">
         <x:v>38</x:v>
@@ -85732,7 +85729,7 @@
     </x:row>
     <x:row r="2623" spans="1:10">
       <x:c r="A2623" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2623" s="0" t="s">
         <x:v>38</x:v>
@@ -85764,7 +85761,7 @@
     </x:row>
     <x:row r="2624" spans="1:10">
       <x:c r="A2624" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2624" s="0" t="s">
         <x:v>38</x:v>
@@ -85796,7 +85793,7 @@
     </x:row>
     <x:row r="2625" spans="1:10">
       <x:c r="A2625" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2625" s="0" t="s">
         <x:v>115</x:v>
@@ -85828,7 +85825,7 @@
     </x:row>
     <x:row r="2626" spans="1:10">
       <x:c r="A2626" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2626" s="0" t="s">
         <x:v>115</x:v>
@@ -85860,7 +85857,7 @@
     </x:row>
     <x:row r="2627" spans="1:10">
       <x:c r="A2627" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2627" s="0" t="s">
         <x:v>39</x:v>
@@ -85892,7 +85889,7 @@
     </x:row>
     <x:row r="2628" spans="1:10">
       <x:c r="A2628" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2628" s="0" t="s">
         <x:v>39</x:v>
@@ -85924,7 +85921,7 @@
     </x:row>
     <x:row r="2629" spans="1:10">
       <x:c r="A2629" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2629" s="0" t="s">
         <x:v>40</x:v>
@@ -85956,7 +85953,7 @@
     </x:row>
     <x:row r="2630" spans="1:10">
       <x:c r="A2630" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2630" s="0" t="s">
         <x:v>40</x:v>
@@ -85988,7 +85985,7 @@
     </x:row>
     <x:row r="2631" spans="1:10">
       <x:c r="A2631" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2631" s="0" t="s">
         <x:v>41</x:v>
@@ -86020,7 +86017,7 @@
     </x:row>
     <x:row r="2632" spans="1:10">
       <x:c r="A2632" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B2632" s="0" t="s">
         <x:v>41</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -970,7 +970,7 @@
     <x:t>293</x:t>
   </x:si>
   <x:si>
-    <x:t>946</x:t>
+    <x:t>948</x:t>
   </x:si>
   <x:si>
     <x:t>346</x:t>
@@ -979,7 +979,7 @@
     <x:t>336</x:t>
   </x:si>
   <x:si>
-    <x:t>1050</x:t>
+    <x:t>1052</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -30390,10 +30390,10 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="G893" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H893" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I893" s="0" t="s">
         <x:v>14</x:v>
@@ -30422,10 +30422,10 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="G894" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="H894" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I894" s="0" t="s">
         <x:v>14</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -646,10 +646,10 @@
     <x:t>248</x:t>
   </x:si>
   <x:si>
-    <x:t>272</x:t>
+    <x:t>271</x:t>
   </x:si>
   <x:si>
-    <x:t>788</x:t>
+    <x:t>787</x:t>
   </x:si>
   <x:si>
     <x:t>159</x:t>
@@ -658,10 +658,10 @@
     <x:t>343</x:t>
   </x:si>
   <x:si>
-    <x:t>349</x:t>
+    <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>1083</x:t>
+    <x:t>1082</x:t>
   </x:si>
   <x:si>
     <x:t>280</x:t>
@@ -838,10 +838,10 @@
     <x:t>925</x:t>
   </x:si>
   <x:si>
-    <x:t>711</x:t>
+    <x:t>712</x:t>
   </x:si>
   <x:si>
-    <x:t>2379</x:t>
+    <x:t>2380</x:t>
   </x:si>
   <x:si>
     <x:t>686</x:t>
@@ -850,13 +850,13 @@
     <x:t>1239</x:t>
   </x:si>
   <x:si>
-    <x:t>945</x:t>
+    <x:t>946</x:t>
   </x:si>
   <x:si>
     <x:t>233</x:t>
   </x:si>
   <x:si>
-    <x:t>3169</x:t>
+    <x:t>3170</x:t>
   </x:si>
   <x:si>
     <x:t>Extortion/Blackmail</x:t>
@@ -1285,10 +1285,7 @@
     <x:t>299</x:t>
   </x:si>
   <x:si>
-    <x:t>209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>308</x:t>
+    <x:t>309</x:t>
   </x:si>
   <x:si>
     <x:t>Sherburne</x:t>
@@ -1400,6 +1397,12 @@
   </x:si>
   <x:si>
     <x:t>Washington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476</x:t>
   </x:si>
   <x:si>
     <x:t>445</x:t>
@@ -63251,7 +63254,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="G1920" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H1920" s="1" t="s">
         <x:v>22</x:v>
@@ -63260,7 +63263,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1920" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="1921" spans="1:10">
@@ -63315,7 +63318,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="G1922" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H1922" s="1" t="s">
         <x:v>113</x:v>
@@ -63324,7 +63327,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1922" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="1923" spans="1:10">
@@ -66102,13 +66105,13 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="H2009" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I2009" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2009" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="2010" spans="1:10">
@@ -66134,13 +66137,13 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="H2010" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I2010" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2010" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>423</x:v>
       </x:c>
     </x:row>
     <x:row r="2011" spans="1:10">
@@ -66625,7 +66628,7 @@
     </x:row>
     <x:row r="2026" spans="1:10">
       <x:c r="A2026" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2026" s="0" t="s">
         <x:v>43</x:v>
@@ -66657,7 +66660,7 @@
     </x:row>
     <x:row r="2027" spans="1:10">
       <x:c r="A2027" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2027" s="0" t="s">
         <x:v>43</x:v>
@@ -66689,7 +66692,7 @@
     </x:row>
     <x:row r="2028" spans="1:10">
       <x:c r="A2028" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2028" s="0" t="s">
         <x:v>44</x:v>
@@ -66721,7 +66724,7 @@
     </x:row>
     <x:row r="2029" spans="1:10">
       <x:c r="A2029" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2029" s="0" t="s">
         <x:v>44</x:v>
@@ -66753,7 +66756,7 @@
     </x:row>
     <x:row r="2030" spans="1:10">
       <x:c r="A2030" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2030" s="0" t="s">
         <x:v>11</x:v>
@@ -66785,7 +66788,7 @@
     </x:row>
     <x:row r="2031" spans="1:10">
       <x:c r="A2031" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2031" s="0" t="s">
         <x:v>11</x:v>
@@ -66812,12 +66815,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2031" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="2032" spans="1:10">
       <x:c r="A2032" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2032" s="0" t="s">
         <x:v>11</x:v>
@@ -66849,7 +66852,7 @@
     </x:row>
     <x:row r="2033" spans="1:10">
       <x:c r="A2033" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2033" s="0" t="s">
         <x:v>26</x:v>
@@ -66881,7 +66884,7 @@
     </x:row>
     <x:row r="2034" spans="1:10">
       <x:c r="A2034" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2034" s="0" t="s">
         <x:v>26</x:v>
@@ -66913,7 +66916,7 @@
     </x:row>
     <x:row r="2035" spans="1:10">
       <x:c r="A2035" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2035" s="0" t="s">
         <x:v>26</x:v>
@@ -66945,7 +66948,7 @@
     </x:row>
     <x:row r="2036" spans="1:10">
       <x:c r="A2036" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2036" s="0" t="s">
         <x:v>28</x:v>
@@ -66977,7 +66980,7 @@
     </x:row>
     <x:row r="2037" spans="1:10">
       <x:c r="A2037" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2037" s="0" t="s">
         <x:v>28</x:v>
@@ -67009,7 +67012,7 @@
     </x:row>
     <x:row r="2038" spans="1:10">
       <x:c r="A2038" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2038" s="0" t="s">
         <x:v>28</x:v>
@@ -67041,7 +67044,7 @@
     </x:row>
     <x:row r="2039" spans="1:10">
       <x:c r="A2039" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2039" s="0" t="s">
         <x:v>30</x:v>
@@ -67073,7 +67076,7 @@
     </x:row>
     <x:row r="2040" spans="1:10">
       <x:c r="A2040" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2040" s="0" t="s">
         <x:v>30</x:v>
@@ -67105,7 +67108,7 @@
     </x:row>
     <x:row r="2041" spans="1:10">
       <x:c r="A2041" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2041" s="0" t="s">
         <x:v>30</x:v>
@@ -67137,7 +67140,7 @@
     </x:row>
     <x:row r="2042" spans="1:10">
       <x:c r="A2042" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2042" s="0" t="s">
         <x:v>31</x:v>
@@ -67169,7 +67172,7 @@
     </x:row>
     <x:row r="2043" spans="1:10">
       <x:c r="A2043" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2043" s="0" t="s">
         <x:v>31</x:v>
@@ -67201,7 +67204,7 @@
     </x:row>
     <x:row r="2044" spans="1:10">
       <x:c r="A2044" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2044" s="0" t="s">
         <x:v>31</x:v>
@@ -67233,7 +67236,7 @@
     </x:row>
     <x:row r="2045" spans="1:10">
       <x:c r="A2045" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2045" s="0" t="s">
         <x:v>140</x:v>
@@ -67265,7 +67268,7 @@
     </x:row>
     <x:row r="2046" spans="1:10">
       <x:c r="A2046" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2046" s="0" t="s">
         <x:v>140</x:v>
@@ -67297,7 +67300,7 @@
     </x:row>
     <x:row r="2047" spans="1:10">
       <x:c r="A2047" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2047" s="0" t="s">
         <x:v>84</x:v>
@@ -67329,7 +67332,7 @@
     </x:row>
     <x:row r="2048" spans="1:10">
       <x:c r="A2048" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2048" s="0" t="s">
         <x:v>84</x:v>
@@ -67361,7 +67364,7 @@
     </x:row>
     <x:row r="2049" spans="1:10">
       <x:c r="A2049" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2049" s="0" t="s">
         <x:v>84</x:v>
@@ -67393,7 +67396,7 @@
     </x:row>
     <x:row r="2050" spans="1:10">
       <x:c r="A2050" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2050" s="0" t="s">
         <x:v>37</x:v>
@@ -67425,7 +67428,7 @@
     </x:row>
     <x:row r="2051" spans="1:10">
       <x:c r="A2051" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2051" s="0" t="s">
         <x:v>37</x:v>
@@ -67457,7 +67460,7 @@
     </x:row>
     <x:row r="2052" spans="1:10">
       <x:c r="A2052" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2052" s="0" t="s">
         <x:v>37</x:v>
@@ -67489,7 +67492,7 @@
     </x:row>
     <x:row r="2053" spans="1:10">
       <x:c r="A2053" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2053" s="0" t="s">
         <x:v>38</x:v>
@@ -67521,7 +67524,7 @@
     </x:row>
     <x:row r="2054" spans="1:10">
       <x:c r="A2054" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2054" s="0" t="s">
         <x:v>38</x:v>
@@ -67553,7 +67556,7 @@
     </x:row>
     <x:row r="2055" spans="1:10">
       <x:c r="A2055" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2055" s="0" t="s">
         <x:v>38</x:v>
@@ -67585,7 +67588,7 @@
     </x:row>
     <x:row r="2056" spans="1:10">
       <x:c r="A2056" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2056" s="0" t="s">
         <x:v>115</x:v>
@@ -67617,7 +67620,7 @@
     </x:row>
     <x:row r="2057" spans="1:10">
       <x:c r="A2057" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2057" s="0" t="s">
         <x:v>115</x:v>
@@ -67649,7 +67652,7 @@
     </x:row>
     <x:row r="2058" spans="1:10">
       <x:c r="A2058" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2058" s="0" t="s">
         <x:v>116</x:v>
@@ -67681,7 +67684,7 @@
     </x:row>
     <x:row r="2059" spans="1:10">
       <x:c r="A2059" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2059" s="0" t="s">
         <x:v>116</x:v>
@@ -67713,7 +67716,7 @@
     </x:row>
     <x:row r="2060" spans="1:10">
       <x:c r="A2060" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2060" s="0" t="s">
         <x:v>39</x:v>
@@ -67745,7 +67748,7 @@
     </x:row>
     <x:row r="2061" spans="1:10">
       <x:c r="A2061" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2061" s="0" t="s">
         <x:v>39</x:v>
@@ -67777,7 +67780,7 @@
     </x:row>
     <x:row r="2062" spans="1:10">
       <x:c r="A2062" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2062" s="0" t="s">
         <x:v>39</x:v>
@@ -67809,7 +67812,7 @@
     </x:row>
     <x:row r="2063" spans="1:10">
       <x:c r="A2063" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2063" s="0" t="s">
         <x:v>40</x:v>
@@ -67841,7 +67844,7 @@
     </x:row>
     <x:row r="2064" spans="1:10">
       <x:c r="A2064" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2064" s="0" t="s">
         <x:v>40</x:v>
@@ -67873,7 +67876,7 @@
     </x:row>
     <x:row r="2065" spans="1:10">
       <x:c r="A2065" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2065" s="0" t="s">
         <x:v>40</x:v>
@@ -67905,7 +67908,7 @@
     </x:row>
     <x:row r="2066" spans="1:10">
       <x:c r="A2066" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2066" s="0" t="s">
         <x:v>41</x:v>
@@ -67937,7 +67940,7 @@
     </x:row>
     <x:row r="2067" spans="1:10">
       <x:c r="A2067" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2067" s="0" t="s">
         <x:v>41</x:v>
@@ -67969,7 +67972,7 @@
     </x:row>
     <x:row r="2068" spans="1:10">
       <x:c r="A2068" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B2068" s="0" t="s">
         <x:v>41</x:v>
@@ -68001,7 +68004,7 @@
     </x:row>
     <x:row r="2069" spans="1:10">
       <x:c r="A2069" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2069" s="0" t="s">
         <x:v>44</x:v>
@@ -68033,7 +68036,7 @@
     </x:row>
     <x:row r="2070" spans="1:10">
       <x:c r="A2070" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2070" s="0" t="s">
         <x:v>44</x:v>
@@ -68065,7 +68068,7 @@
     </x:row>
     <x:row r="2071" spans="1:10">
       <x:c r="A2071" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2071" s="0" t="s">
         <x:v>11</x:v>
@@ -68097,7 +68100,7 @@
     </x:row>
     <x:row r="2072" spans="1:10">
       <x:c r="A2072" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2072" s="0" t="s">
         <x:v>11</x:v>
@@ -68129,7 +68132,7 @@
     </x:row>
     <x:row r="2073" spans="1:10">
       <x:c r="A2073" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2073" s="0" t="s">
         <x:v>11</x:v>
@@ -68161,7 +68164,7 @@
     </x:row>
     <x:row r="2074" spans="1:10">
       <x:c r="A2074" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2074" s="0" t="s">
         <x:v>26</x:v>
@@ -68193,7 +68196,7 @@
     </x:row>
     <x:row r="2075" spans="1:10">
       <x:c r="A2075" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2075" s="0" t="s">
         <x:v>26</x:v>
@@ -68225,7 +68228,7 @@
     </x:row>
     <x:row r="2076" spans="1:10">
       <x:c r="A2076" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2076" s="0" t="s">
         <x:v>30</x:v>
@@ -68257,7 +68260,7 @@
     </x:row>
     <x:row r="2077" spans="1:10">
       <x:c r="A2077" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2077" s="0" t="s">
         <x:v>30</x:v>
@@ -68289,7 +68292,7 @@
     </x:row>
     <x:row r="2078" spans="1:10">
       <x:c r="A2078" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2078" s="0" t="s">
         <x:v>31</x:v>
@@ -68321,7 +68324,7 @@
     </x:row>
     <x:row r="2079" spans="1:10">
       <x:c r="A2079" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2079" s="0" t="s">
         <x:v>31</x:v>
@@ -68353,7 +68356,7 @@
     </x:row>
     <x:row r="2080" spans="1:10">
       <x:c r="A2080" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2080" s="0" t="s">
         <x:v>31</x:v>
@@ -68385,7 +68388,7 @@
     </x:row>
     <x:row r="2081" spans="1:10">
       <x:c r="A2081" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2081" s="0" t="s">
         <x:v>140</x:v>
@@ -68417,7 +68420,7 @@
     </x:row>
     <x:row r="2082" spans="1:10">
       <x:c r="A2082" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2082" s="0" t="s">
         <x:v>140</x:v>
@@ -68449,7 +68452,7 @@
     </x:row>
     <x:row r="2083" spans="1:10">
       <x:c r="A2083" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2083" s="0" t="s">
         <x:v>84</x:v>
@@ -68481,7 +68484,7 @@
     </x:row>
     <x:row r="2084" spans="1:10">
       <x:c r="A2084" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2084" s="0" t="s">
         <x:v>84</x:v>
@@ -68513,7 +68516,7 @@
     </x:row>
     <x:row r="2085" spans="1:10">
       <x:c r="A2085" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2085" s="0" t="s">
         <x:v>84</x:v>
@@ -68545,7 +68548,7 @@
     </x:row>
     <x:row r="2086" spans="1:10">
       <x:c r="A2086" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2086" s="0" t="s">
         <x:v>37</x:v>
@@ -68577,7 +68580,7 @@
     </x:row>
     <x:row r="2087" spans="1:10">
       <x:c r="A2087" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2087" s="0" t="s">
         <x:v>37</x:v>
@@ -68609,7 +68612,7 @@
     </x:row>
     <x:row r="2088" spans="1:10">
       <x:c r="A2088" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2088" s="0" t="s">
         <x:v>37</x:v>
@@ -68641,7 +68644,7 @@
     </x:row>
     <x:row r="2089" spans="1:10">
       <x:c r="A2089" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2089" s="0" t="s">
         <x:v>38</x:v>
@@ -68673,7 +68676,7 @@
     </x:row>
     <x:row r="2090" spans="1:10">
       <x:c r="A2090" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2090" s="0" t="s">
         <x:v>38</x:v>
@@ -68705,7 +68708,7 @@
     </x:row>
     <x:row r="2091" spans="1:10">
       <x:c r="A2091" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2091" s="0" t="s">
         <x:v>39</x:v>
@@ -68737,7 +68740,7 @@
     </x:row>
     <x:row r="2092" spans="1:10">
       <x:c r="A2092" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2092" s="0" t="s">
         <x:v>39</x:v>
@@ -68769,7 +68772,7 @@
     </x:row>
     <x:row r="2093" spans="1:10">
       <x:c r="A2093" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2093" s="0" t="s">
         <x:v>41</x:v>
@@ -68801,7 +68804,7 @@
     </x:row>
     <x:row r="2094" spans="1:10">
       <x:c r="A2094" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B2094" s="0" t="s">
         <x:v>41</x:v>
@@ -68833,7 +68836,7 @@
     </x:row>
     <x:row r="2095" spans="1:10">
       <x:c r="A2095" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2095" s="0" t="s">
         <x:v>43</x:v>
@@ -68865,7 +68868,7 @@
     </x:row>
     <x:row r="2096" spans="1:10">
       <x:c r="A2096" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2096" s="0" t="s">
         <x:v>43</x:v>
@@ -68897,7 +68900,7 @@
     </x:row>
     <x:row r="2097" spans="1:10">
       <x:c r="A2097" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2097" s="0" t="s">
         <x:v>43</x:v>
@@ -68929,7 +68932,7 @@
     </x:row>
     <x:row r="2098" spans="1:10">
       <x:c r="A2098" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2098" s="0" t="s">
         <x:v>44</x:v>
@@ -68961,7 +68964,7 @@
     </x:row>
     <x:row r="2099" spans="1:10">
       <x:c r="A2099" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2099" s="0" t="s">
         <x:v>44</x:v>
@@ -68993,7 +68996,7 @@
     </x:row>
     <x:row r="2100" spans="1:10">
       <x:c r="A2100" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2100" s="0" t="s">
         <x:v>44</x:v>
@@ -69025,7 +69028,7 @@
     </x:row>
     <x:row r="2101" spans="1:10">
       <x:c r="A2101" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2101" s="0" t="s">
         <x:v>11</x:v>
@@ -69052,12 +69055,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2101" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="2102" spans="1:10">
       <x:c r="A2102" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2102" s="0" t="s">
         <x:v>11</x:v>
@@ -69084,12 +69087,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2102" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="2103" spans="1:10">
       <x:c r="A2103" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2103" s="0" t="s">
         <x:v>11</x:v>
@@ -69116,12 +69119,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2103" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>430</x:v>
       </x:c>
     </x:row>
     <x:row r="2104" spans="1:10">
       <x:c r="A2104" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2104" s="0" t="s">
         <x:v>26</x:v>
@@ -69153,7 +69156,7 @@
     </x:row>
     <x:row r="2105" spans="1:10">
       <x:c r="A2105" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2105" s="0" t="s">
         <x:v>26</x:v>
@@ -69185,7 +69188,7 @@
     </x:row>
     <x:row r="2106" spans="1:10">
       <x:c r="A2106" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2106" s="0" t="s">
         <x:v>26</x:v>
@@ -69217,7 +69220,7 @@
     </x:row>
     <x:row r="2107" spans="1:10">
       <x:c r="A2107" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2107" s="0" t="s">
         <x:v>28</x:v>
@@ -69249,7 +69252,7 @@
     </x:row>
     <x:row r="2108" spans="1:10">
       <x:c r="A2108" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2108" s="0" t="s">
         <x:v>28</x:v>
@@ -69281,7 +69284,7 @@
     </x:row>
     <x:row r="2109" spans="1:10">
       <x:c r="A2109" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2109" s="0" t="s">
         <x:v>28</x:v>
@@ -69313,7 +69316,7 @@
     </x:row>
     <x:row r="2110" spans="1:10">
       <x:c r="A2110" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2110" s="0" t="s">
         <x:v>30</x:v>
@@ -69345,7 +69348,7 @@
     </x:row>
     <x:row r="2111" spans="1:10">
       <x:c r="A2111" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2111" s="0" t="s">
         <x:v>30</x:v>
@@ -69377,7 +69380,7 @@
     </x:row>
     <x:row r="2112" spans="1:10">
       <x:c r="A2112" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2112" s="0" t="s">
         <x:v>30</x:v>
@@ -69409,7 +69412,7 @@
     </x:row>
     <x:row r="2113" spans="1:10">
       <x:c r="A2113" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2113" s="0" t="s">
         <x:v>31</x:v>
@@ -69441,7 +69444,7 @@
     </x:row>
     <x:row r="2114" spans="1:10">
       <x:c r="A2114" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2114" s="0" t="s">
         <x:v>31</x:v>
@@ -69468,12 +69471,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2114" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>431</x:v>
       </x:c>
     </x:row>
     <x:row r="2115" spans="1:10">
       <x:c r="A2115" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2115" s="0" t="s">
         <x:v>31</x:v>
@@ -69505,7 +69508,7 @@
     </x:row>
     <x:row r="2116" spans="1:10">
       <x:c r="A2116" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2116" s="0" t="s">
         <x:v>84</x:v>
@@ -69537,7 +69540,7 @@
     </x:row>
     <x:row r="2117" spans="1:10">
       <x:c r="A2117" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2117" s="0" t="s">
         <x:v>84</x:v>
@@ -69569,7 +69572,7 @@
     </x:row>
     <x:row r="2118" spans="1:10">
       <x:c r="A2118" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2118" s="0" t="s">
         <x:v>84</x:v>
@@ -69601,7 +69604,7 @@
     </x:row>
     <x:row r="2119" spans="1:10">
       <x:c r="A2119" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2119" s="0" t="s">
         <x:v>94</x:v>
@@ -69633,7 +69636,7 @@
     </x:row>
     <x:row r="2120" spans="1:10">
       <x:c r="A2120" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2120" s="0" t="s">
         <x:v>94</x:v>
@@ -69665,7 +69668,7 @@
     </x:row>
     <x:row r="2121" spans="1:10">
       <x:c r="A2121" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2121" s="0" t="s">
         <x:v>94</x:v>
@@ -69697,7 +69700,7 @@
     </x:row>
     <x:row r="2122" spans="1:10">
       <x:c r="A2122" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2122" s="0" t="s">
         <x:v>96</x:v>
@@ -69729,7 +69732,7 @@
     </x:row>
     <x:row r="2123" spans="1:10">
       <x:c r="A2123" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2123" s="0" t="s">
         <x:v>96</x:v>
@@ -69761,7 +69764,7 @@
     </x:row>
     <x:row r="2124" spans="1:10">
       <x:c r="A2124" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2124" s="0" t="s">
         <x:v>37</x:v>
@@ -69788,12 +69791,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2124" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>432</x:v>
       </x:c>
     </x:row>
     <x:row r="2125" spans="1:10">
       <x:c r="A2125" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2125" s="0" t="s">
         <x:v>37</x:v>
@@ -69811,7 +69814,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="G2125" s="1" t="s">
-        <x:v>434</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="H2125" s="1" t="s">
         <x:v>128</x:v>
@@ -69820,12 +69823,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2125" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
     <x:row r="2126" spans="1:10">
       <x:c r="A2126" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2126" s="0" t="s">
         <x:v>37</x:v>
@@ -69840,10 +69843,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="F2126" s="1" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="G2126" s="1" t="s">
         <x:v>436</x:v>
-      </x:c>
-      <x:c r="G2126" s="1" t="s">
-        <x:v>437</x:v>
       </x:c>
       <x:c r="H2126" s="1" t="s">
         <x:v>406</x:v>
@@ -69852,12 +69855,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2126" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="2127" spans="1:10">
       <x:c r="A2127" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2127" s="0" t="s">
         <x:v>38</x:v>
@@ -69889,7 +69892,7 @@
     </x:row>
     <x:row r="2128" spans="1:10">
       <x:c r="A2128" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2128" s="0" t="s">
         <x:v>38</x:v>
@@ -69921,7 +69924,7 @@
     </x:row>
     <x:row r="2129" spans="1:10">
       <x:c r="A2129" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2129" s="0" t="s">
         <x:v>38</x:v>
@@ -69953,7 +69956,7 @@
     </x:row>
     <x:row r="2130" spans="1:10">
       <x:c r="A2130" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2130" s="0" t="s">
         <x:v>115</x:v>
@@ -69985,7 +69988,7 @@
     </x:row>
     <x:row r="2131" spans="1:10">
       <x:c r="A2131" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2131" s="0" t="s">
         <x:v>115</x:v>
@@ -70017,7 +70020,7 @@
     </x:row>
     <x:row r="2132" spans="1:10">
       <x:c r="A2132" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2132" s="0" t="s">
         <x:v>116</x:v>
@@ -70049,7 +70052,7 @@
     </x:row>
     <x:row r="2133" spans="1:10">
       <x:c r="A2133" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2133" s="0" t="s">
         <x:v>116</x:v>
@@ -70081,7 +70084,7 @@
     </x:row>
     <x:row r="2134" spans="1:10">
       <x:c r="A2134" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2134" s="0" t="s">
         <x:v>116</x:v>
@@ -70113,7 +70116,7 @@
     </x:row>
     <x:row r="2135" spans="1:10">
       <x:c r="A2135" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2135" s="0" t="s">
         <x:v>39</x:v>
@@ -70145,7 +70148,7 @@
     </x:row>
     <x:row r="2136" spans="1:10">
       <x:c r="A2136" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2136" s="0" t="s">
         <x:v>39</x:v>
@@ -70177,7 +70180,7 @@
     </x:row>
     <x:row r="2137" spans="1:10">
       <x:c r="A2137" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2137" s="0" t="s">
         <x:v>39</x:v>
@@ -70209,7 +70212,7 @@
     </x:row>
     <x:row r="2138" spans="1:10">
       <x:c r="A2138" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2138" s="0" t="s">
         <x:v>40</x:v>
@@ -70241,7 +70244,7 @@
     </x:row>
     <x:row r="2139" spans="1:10">
       <x:c r="A2139" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2139" s="0" t="s">
         <x:v>40</x:v>
@@ -70273,7 +70276,7 @@
     </x:row>
     <x:row r="2140" spans="1:10">
       <x:c r="A2140" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2140" s="0" t="s">
         <x:v>40</x:v>
@@ -70305,7 +70308,7 @@
     </x:row>
     <x:row r="2141" spans="1:10">
       <x:c r="A2141" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2141" s="0" t="s">
         <x:v>41</x:v>
@@ -70337,7 +70340,7 @@
     </x:row>
     <x:row r="2142" spans="1:10">
       <x:c r="A2142" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2142" s="0" t="s">
         <x:v>41</x:v>
@@ -70369,7 +70372,7 @@
     </x:row>
     <x:row r="2143" spans="1:10">
       <x:c r="A2143" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B2143" s="0" t="s">
         <x:v>41</x:v>
@@ -70401,7 +70404,7 @@
     </x:row>
     <x:row r="2144" spans="1:10">
       <x:c r="A2144" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2144" s="0" t="s">
         <x:v>43</x:v>
@@ -70433,7 +70436,7 @@
     </x:row>
     <x:row r="2145" spans="1:10">
       <x:c r="A2145" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2145" s="0" t="s">
         <x:v>43</x:v>
@@ -70465,7 +70468,7 @@
     </x:row>
     <x:row r="2146" spans="1:10">
       <x:c r="A2146" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2146" s="0" t="s">
         <x:v>44</x:v>
@@ -70497,7 +70500,7 @@
     </x:row>
     <x:row r="2147" spans="1:10">
       <x:c r="A2147" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2147" s="0" t="s">
         <x:v>44</x:v>
@@ -70529,7 +70532,7 @@
     </x:row>
     <x:row r="2148" spans="1:10">
       <x:c r="A2148" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2148" s="0" t="s">
         <x:v>44</x:v>
@@ -70561,7 +70564,7 @@
     </x:row>
     <x:row r="2149" spans="1:10">
       <x:c r="A2149" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2149" s="0" t="s">
         <x:v>11</x:v>
@@ -70588,12 +70591,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2149" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>439</x:v>
       </x:c>
     </x:row>
     <x:row r="2150" spans="1:10">
       <x:c r="A2150" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2150" s="0" t="s">
         <x:v>11</x:v>
@@ -70608,7 +70611,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F2150" s="1" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="G2150" s="1" t="s">
         <x:v>400</x:v>
@@ -70620,12 +70623,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2150" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="2151" spans="1:10">
       <x:c r="A2151" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2151" s="0" t="s">
         <x:v>11</x:v>
@@ -70643,7 +70646,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="G2151" s="1" t="s">
-        <x:v>443</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="H2151" s="1" t="s">
         <x:v>139</x:v>
@@ -70652,12 +70655,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2151" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>443</x:v>
       </x:c>
     </x:row>
     <x:row r="2152" spans="1:10">
       <x:c r="A2152" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2152" s="0" t="s">
         <x:v>26</x:v>
@@ -70689,7 +70692,7 @@
     </x:row>
     <x:row r="2153" spans="1:10">
       <x:c r="A2153" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2153" s="0" t="s">
         <x:v>26</x:v>
@@ -70721,7 +70724,7 @@
     </x:row>
     <x:row r="2154" spans="1:10">
       <x:c r="A2154" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2154" s="0" t="s">
         <x:v>26</x:v>
@@ -70753,7 +70756,7 @@
     </x:row>
     <x:row r="2155" spans="1:10">
       <x:c r="A2155" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2155" s="0" t="s">
         <x:v>28</x:v>
@@ -70785,7 +70788,7 @@
     </x:row>
     <x:row r="2156" spans="1:10">
       <x:c r="A2156" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2156" s="0" t="s">
         <x:v>28</x:v>
@@ -70817,7 +70820,7 @@
     </x:row>
     <x:row r="2157" spans="1:10">
       <x:c r="A2157" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2157" s="0" t="s">
         <x:v>28</x:v>
@@ -70849,7 +70852,7 @@
     </x:row>
     <x:row r="2158" spans="1:10">
       <x:c r="A2158" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2158" s="0" t="s">
         <x:v>30</x:v>
@@ -70881,7 +70884,7 @@
     </x:row>
     <x:row r="2159" spans="1:10">
       <x:c r="A2159" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2159" s="0" t="s">
         <x:v>30</x:v>
@@ -70913,7 +70916,7 @@
     </x:row>
     <x:row r="2160" spans="1:10">
       <x:c r="A2160" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2160" s="0" t="s">
         <x:v>30</x:v>
@@ -70945,7 +70948,7 @@
     </x:row>
     <x:row r="2161" spans="1:10">
       <x:c r="A2161" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2161" s="0" t="s">
         <x:v>31</x:v>
@@ -70977,7 +70980,7 @@
     </x:row>
     <x:row r="2162" spans="1:10">
       <x:c r="A2162" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2162" s="0" t="s">
         <x:v>31</x:v>
@@ -71009,7 +71012,7 @@
     </x:row>
     <x:row r="2163" spans="1:10">
       <x:c r="A2163" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2163" s="0" t="s">
         <x:v>31</x:v>
@@ -71027,7 +71030,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="G2163" s="1" t="s">
-        <x:v>434</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="H2163" s="1" t="s">
         <x:v>172</x:v>
@@ -71036,12 +71039,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2163" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="2164" spans="1:10">
       <x:c r="A2164" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2164" s="0" t="s">
         <x:v>140</x:v>
@@ -71073,7 +71076,7 @@
     </x:row>
     <x:row r="2165" spans="1:10">
       <x:c r="A2165" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2165" s="0" t="s">
         <x:v>140</x:v>
@@ -71105,7 +71108,7 @@
     </x:row>
     <x:row r="2166" spans="1:10">
       <x:c r="A2166" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2166" s="0" t="s">
         <x:v>84</x:v>
@@ -71137,7 +71140,7 @@
     </x:row>
     <x:row r="2167" spans="1:10">
       <x:c r="A2167" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2167" s="0" t="s">
         <x:v>84</x:v>
@@ -71169,7 +71172,7 @@
     </x:row>
     <x:row r="2168" spans="1:10">
       <x:c r="A2168" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2168" s="0" t="s">
         <x:v>84</x:v>
@@ -71196,12 +71199,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2168" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="2169" spans="1:10">
       <x:c r="A2169" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2169" s="0" t="s">
         <x:v>397</x:v>
@@ -71233,7 +71236,7 @@
     </x:row>
     <x:row r="2170" spans="1:10">
       <x:c r="A2170" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2170" s="0" t="s">
         <x:v>397</x:v>
@@ -71265,7 +71268,7 @@
     </x:row>
     <x:row r="2171" spans="1:10">
       <x:c r="A2171" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2171" s="0" t="s">
         <x:v>94</x:v>
@@ -71297,7 +71300,7 @@
     </x:row>
     <x:row r="2172" spans="1:10">
       <x:c r="A2172" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2172" s="0" t="s">
         <x:v>94</x:v>
@@ -71329,7 +71332,7 @@
     </x:row>
     <x:row r="2173" spans="1:10">
       <x:c r="A2173" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2173" s="0" t="s">
         <x:v>94</x:v>
@@ -71361,7 +71364,7 @@
     </x:row>
     <x:row r="2174" spans="1:10">
       <x:c r="A2174" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2174" s="0" t="s">
         <x:v>95</x:v>
@@ -71393,7 +71396,7 @@
     </x:row>
     <x:row r="2175" spans="1:10">
       <x:c r="A2175" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2175" s="0" t="s">
         <x:v>95</x:v>
@@ -71425,7 +71428,7 @@
     </x:row>
     <x:row r="2176" spans="1:10">
       <x:c r="A2176" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2176" s="0" t="s">
         <x:v>95</x:v>
@@ -71457,7 +71460,7 @@
     </x:row>
     <x:row r="2177" spans="1:10">
       <x:c r="A2177" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2177" s="0" t="s">
         <x:v>37</x:v>
@@ -71475,7 +71478,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="G2177" s="1" t="s">
-        <x:v>429</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="H2177" s="1" t="s">
         <x:v>185</x:v>
@@ -71484,12 +71487,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2177" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="2178" spans="1:10">
       <x:c r="A2178" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2178" s="0" t="s">
         <x:v>37</x:v>
@@ -71504,10 +71507,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F2178" s="1" t="s">
-        <x:v>448</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="G2178" s="1" t="s">
-        <x:v>440</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="H2178" s="1" t="s">
         <x:v>243</x:v>
@@ -71516,12 +71519,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2178" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>448</x:v>
       </x:c>
     </x:row>
     <x:row r="2179" spans="1:10">
       <x:c r="A2179" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2179" s="0" t="s">
         <x:v>37</x:v>
@@ -71530,7 +71533,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2179" s="1" t="s">
-        <x:v>450</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="E2179" s="1" t="s">
         <x:v>255</x:v>
@@ -71542,18 +71545,18 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="H2179" s="1" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="I2179" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J2179" s="0" t="s">
         <x:v>451</x:v>
-      </x:c>
-      <x:c r="I2179" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J2179" s="0" t="s">
-        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="2180" spans="1:10">
       <x:c r="A2180" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2180" s="0" t="s">
         <x:v>38</x:v>
@@ -71585,7 +71588,7 @@
     </x:row>
     <x:row r="2181" spans="1:10">
       <x:c r="A2181" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2181" s="0" t="s">
         <x:v>38</x:v>
@@ -71617,7 +71620,7 @@
     </x:row>
     <x:row r="2182" spans="1:10">
       <x:c r="A2182" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2182" s="0" t="s">
         <x:v>38</x:v>
@@ -71649,7 +71652,7 @@
     </x:row>
     <x:row r="2183" spans="1:10">
       <x:c r="A2183" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2183" s="0" t="s">
         <x:v>115</x:v>
@@ -71681,7 +71684,7 @@
     </x:row>
     <x:row r="2184" spans="1:10">
       <x:c r="A2184" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2184" s="0" t="s">
         <x:v>115</x:v>
@@ -71713,7 +71716,7 @@
     </x:row>
     <x:row r="2185" spans="1:10">
       <x:c r="A2185" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2185" s="0" t="s">
         <x:v>308</x:v>
@@ -71745,7 +71748,7 @@
     </x:row>
     <x:row r="2186" spans="1:10">
       <x:c r="A2186" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2186" s="0" t="s">
         <x:v>308</x:v>
@@ -71777,7 +71780,7 @@
     </x:row>
     <x:row r="2187" spans="1:10">
       <x:c r="A2187" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2187" s="0" t="s">
         <x:v>116</x:v>
@@ -71809,7 +71812,7 @@
     </x:row>
     <x:row r="2188" spans="1:10">
       <x:c r="A2188" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2188" s="0" t="s">
         <x:v>116</x:v>
@@ -71841,7 +71844,7 @@
     </x:row>
     <x:row r="2189" spans="1:10">
       <x:c r="A2189" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2189" s="0" t="s">
         <x:v>116</x:v>
@@ -71873,7 +71876,7 @@
     </x:row>
     <x:row r="2190" spans="1:10">
       <x:c r="A2190" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2190" s="0" t="s">
         <x:v>39</x:v>
@@ -71905,7 +71908,7 @@
     </x:row>
     <x:row r="2191" spans="1:10">
       <x:c r="A2191" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2191" s="0" t="s">
         <x:v>39</x:v>
@@ -71937,7 +71940,7 @@
     </x:row>
     <x:row r="2192" spans="1:10">
       <x:c r="A2192" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2192" s="0" t="s">
         <x:v>39</x:v>
@@ -71969,7 +71972,7 @@
     </x:row>
     <x:row r="2193" spans="1:10">
       <x:c r="A2193" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2193" s="0" t="s">
         <x:v>40</x:v>
@@ -72001,7 +72004,7 @@
     </x:row>
     <x:row r="2194" spans="1:10">
       <x:c r="A2194" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2194" s="0" t="s">
         <x:v>40</x:v>
@@ -72033,7 +72036,7 @@
     </x:row>
     <x:row r="2195" spans="1:10">
       <x:c r="A2195" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2195" s="0" t="s">
         <x:v>40</x:v>
@@ -72065,7 +72068,7 @@
     </x:row>
     <x:row r="2196" spans="1:10">
       <x:c r="A2196" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2196" s="0" t="s">
         <x:v>41</x:v>
@@ -72097,7 +72100,7 @@
     </x:row>
     <x:row r="2197" spans="1:10">
       <x:c r="A2197" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2197" s="0" t="s">
         <x:v>41</x:v>
@@ -72129,7 +72132,7 @@
     </x:row>
     <x:row r="2198" spans="1:10">
       <x:c r="A2198" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B2198" s="0" t="s">
         <x:v>41</x:v>
@@ -72161,7 +72164,7 @@
     </x:row>
     <x:row r="2199" spans="1:10">
       <x:c r="A2199" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2199" s="0" t="s">
         <x:v>43</x:v>
@@ -72193,7 +72196,7 @@
     </x:row>
     <x:row r="2200" spans="1:10">
       <x:c r="A2200" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2200" s="0" t="s">
         <x:v>43</x:v>
@@ -72225,7 +72228,7 @@
     </x:row>
     <x:row r="2201" spans="1:10">
       <x:c r="A2201" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2201" s="0" t="s">
         <x:v>11</x:v>
@@ -72257,7 +72260,7 @@
     </x:row>
     <x:row r="2202" spans="1:10">
       <x:c r="A2202" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2202" s="0" t="s">
         <x:v>11</x:v>
@@ -72289,7 +72292,7 @@
     </x:row>
     <x:row r="2203" spans="1:10">
       <x:c r="A2203" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2203" s="0" t="s">
         <x:v>11</x:v>
@@ -72321,7 +72324,7 @@
     </x:row>
     <x:row r="2204" spans="1:10">
       <x:c r="A2204" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2204" s="0" t="s">
         <x:v>26</x:v>
@@ -72353,7 +72356,7 @@
     </x:row>
     <x:row r="2205" spans="1:10">
       <x:c r="A2205" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2205" s="0" t="s">
         <x:v>26</x:v>
@@ -72385,7 +72388,7 @@
     </x:row>
     <x:row r="2206" spans="1:10">
       <x:c r="A2206" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2206" s="0" t="s">
         <x:v>26</x:v>
@@ -72417,7 +72420,7 @@
     </x:row>
     <x:row r="2207" spans="1:10">
       <x:c r="A2207" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2207" s="0" t="s">
         <x:v>28</x:v>
@@ -72449,7 +72452,7 @@
     </x:row>
     <x:row r="2208" spans="1:10">
       <x:c r="A2208" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2208" s="0" t="s">
         <x:v>28</x:v>
@@ -72481,7 +72484,7 @@
     </x:row>
     <x:row r="2209" spans="1:10">
       <x:c r="A2209" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2209" s="0" t="s">
         <x:v>28</x:v>
@@ -72513,7 +72516,7 @@
     </x:row>
     <x:row r="2210" spans="1:10">
       <x:c r="A2210" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2210" s="0" t="s">
         <x:v>30</x:v>
@@ -72545,7 +72548,7 @@
     </x:row>
     <x:row r="2211" spans="1:10">
       <x:c r="A2211" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2211" s="0" t="s">
         <x:v>30</x:v>
@@ -72577,7 +72580,7 @@
     </x:row>
     <x:row r="2212" spans="1:10">
       <x:c r="A2212" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2212" s="0" t="s">
         <x:v>30</x:v>
@@ -72609,7 +72612,7 @@
     </x:row>
     <x:row r="2213" spans="1:10">
       <x:c r="A2213" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2213" s="0" t="s">
         <x:v>31</x:v>
@@ -72641,7 +72644,7 @@
     </x:row>
     <x:row r="2214" spans="1:10">
       <x:c r="A2214" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2214" s="0" t="s">
         <x:v>31</x:v>
@@ -72673,7 +72676,7 @@
     </x:row>
     <x:row r="2215" spans="1:10">
       <x:c r="A2215" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2215" s="0" t="s">
         <x:v>31</x:v>
@@ -72705,7 +72708,7 @@
     </x:row>
     <x:row r="2216" spans="1:10">
       <x:c r="A2216" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2216" s="0" t="s">
         <x:v>84</x:v>
@@ -72737,7 +72740,7 @@
     </x:row>
     <x:row r="2217" spans="1:10">
       <x:c r="A2217" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2217" s="0" t="s">
         <x:v>84</x:v>
@@ -72769,7 +72772,7 @@
     </x:row>
     <x:row r="2218" spans="1:10">
       <x:c r="A2218" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2218" s="0" t="s">
         <x:v>84</x:v>
@@ -72801,7 +72804,7 @@
     </x:row>
     <x:row r="2219" spans="1:10">
       <x:c r="A2219" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2219" s="0" t="s">
         <x:v>94</x:v>
@@ -72833,7 +72836,7 @@
     </x:row>
     <x:row r="2220" spans="1:10">
       <x:c r="A2220" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2220" s="0" t="s">
         <x:v>94</x:v>
@@ -72865,7 +72868,7 @@
     </x:row>
     <x:row r="2221" spans="1:10">
       <x:c r="A2221" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2221" s="0" t="s">
         <x:v>37</x:v>
@@ -72897,7 +72900,7 @@
     </x:row>
     <x:row r="2222" spans="1:10">
       <x:c r="A2222" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2222" s="0" t="s">
         <x:v>37</x:v>
@@ -72929,7 +72932,7 @@
     </x:row>
     <x:row r="2223" spans="1:10">
       <x:c r="A2223" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2223" s="0" t="s">
         <x:v>37</x:v>
@@ -72961,7 +72964,7 @@
     </x:row>
     <x:row r="2224" spans="1:10">
       <x:c r="A2224" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2224" s="0" t="s">
         <x:v>38</x:v>
@@ -72993,7 +72996,7 @@
     </x:row>
     <x:row r="2225" spans="1:10">
       <x:c r="A2225" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2225" s="0" t="s">
         <x:v>38</x:v>
@@ -73025,7 +73028,7 @@
     </x:row>
     <x:row r="2226" spans="1:10">
       <x:c r="A2226" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2226" s="0" t="s">
         <x:v>38</x:v>
@@ -73057,7 +73060,7 @@
     </x:row>
     <x:row r="2227" spans="1:10">
       <x:c r="A2227" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2227" s="0" t="s">
         <x:v>115</x:v>
@@ -73089,7 +73092,7 @@
     </x:row>
     <x:row r="2228" spans="1:10">
       <x:c r="A2228" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2228" s="0" t="s">
         <x:v>115</x:v>
@@ -73121,7 +73124,7 @@
     </x:row>
     <x:row r="2229" spans="1:10">
       <x:c r="A2229" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2229" s="0" t="s">
         <x:v>116</x:v>
@@ -73153,7 +73156,7 @@
     </x:row>
     <x:row r="2230" spans="1:10">
       <x:c r="A2230" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2230" s="0" t="s">
         <x:v>116</x:v>
@@ -73185,7 +73188,7 @@
     </x:row>
     <x:row r="2231" spans="1:10">
       <x:c r="A2231" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2231" s="0" t="s">
         <x:v>39</x:v>
@@ -73217,7 +73220,7 @@
     </x:row>
     <x:row r="2232" spans="1:10">
       <x:c r="A2232" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2232" s="0" t="s">
         <x:v>39</x:v>
@@ -73249,7 +73252,7 @@
     </x:row>
     <x:row r="2233" spans="1:10">
       <x:c r="A2233" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2233" s="0" t="s">
         <x:v>41</x:v>
@@ -73281,7 +73284,7 @@
     </x:row>
     <x:row r="2234" spans="1:10">
       <x:c r="A2234" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B2234" s="0" t="s">
         <x:v>41</x:v>
@@ -73313,7 +73316,7 @@
     </x:row>
     <x:row r="2235" spans="1:10">
       <x:c r="A2235" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2235" s="0" t="s">
         <x:v>11</x:v>
@@ -73345,7 +73348,7 @@
     </x:row>
     <x:row r="2236" spans="1:10">
       <x:c r="A2236" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2236" s="0" t="s">
         <x:v>11</x:v>
@@ -73377,7 +73380,7 @@
     </x:row>
     <x:row r="2237" spans="1:10">
       <x:c r="A2237" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2237" s="0" t="s">
         <x:v>11</x:v>
@@ -73409,7 +73412,7 @@
     </x:row>
     <x:row r="2238" spans="1:10">
       <x:c r="A2238" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2238" s="0" t="s">
         <x:v>26</x:v>
@@ -73441,7 +73444,7 @@
     </x:row>
     <x:row r="2239" spans="1:10">
       <x:c r="A2239" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2239" s="0" t="s">
         <x:v>26</x:v>
@@ -73473,7 +73476,7 @@
     </x:row>
     <x:row r="2240" spans="1:10">
       <x:c r="A2240" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2240" s="0" t="s">
         <x:v>30</x:v>
@@ -73505,7 +73508,7 @@
     </x:row>
     <x:row r="2241" spans="1:10">
       <x:c r="A2241" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2241" s="0" t="s">
         <x:v>30</x:v>
@@ -73537,7 +73540,7 @@
     </x:row>
     <x:row r="2242" spans="1:10">
       <x:c r="A2242" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2242" s="0" t="s">
         <x:v>31</x:v>
@@ -73569,7 +73572,7 @@
     </x:row>
     <x:row r="2243" spans="1:10">
       <x:c r="A2243" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2243" s="0" t="s">
         <x:v>31</x:v>
@@ -73601,7 +73604,7 @@
     </x:row>
     <x:row r="2244" spans="1:10">
       <x:c r="A2244" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2244" s="0" t="s">
         <x:v>31</x:v>
@@ -73633,7 +73636,7 @@
     </x:row>
     <x:row r="2245" spans="1:10">
       <x:c r="A2245" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2245" s="0" t="s">
         <x:v>84</x:v>
@@ -73665,7 +73668,7 @@
     </x:row>
     <x:row r="2246" spans="1:10">
       <x:c r="A2246" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2246" s="0" t="s">
         <x:v>84</x:v>
@@ -73697,7 +73700,7 @@
     </x:row>
     <x:row r="2247" spans="1:10">
       <x:c r="A2247" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2247" s="0" t="s">
         <x:v>37</x:v>
@@ -73729,7 +73732,7 @@
     </x:row>
     <x:row r="2248" spans="1:10">
       <x:c r="A2248" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2248" s="0" t="s">
         <x:v>37</x:v>
@@ -73761,7 +73764,7 @@
     </x:row>
     <x:row r="2249" spans="1:10">
       <x:c r="A2249" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B2249" s="0" t="s">
         <x:v>37</x:v>
@@ -73793,7 +73796,7 @@
     </x:row>
     <x:row r="2250" spans="1:10">
       <x:c r="A2250" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2250" s="0" t="s">
         <x:v>11</x:v>
@@ -73825,7 +73828,7 @@
     </x:row>
     <x:row r="2251" spans="1:10">
       <x:c r="A2251" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2251" s="0" t="s">
         <x:v>11</x:v>
@@ -73857,7 +73860,7 @@
     </x:row>
     <x:row r="2252" spans="1:10">
       <x:c r="A2252" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2252" s="0" t="s">
         <x:v>11</x:v>
@@ -73889,7 +73892,7 @@
     </x:row>
     <x:row r="2253" spans="1:10">
       <x:c r="A2253" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2253" s="0" t="s">
         <x:v>26</x:v>
@@ -73921,7 +73924,7 @@
     </x:row>
     <x:row r="2254" spans="1:10">
       <x:c r="A2254" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2254" s="0" t="s">
         <x:v>26</x:v>
@@ -73953,7 +73956,7 @@
     </x:row>
     <x:row r="2255" spans="1:10">
       <x:c r="A2255" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2255" s="0" t="s">
         <x:v>31</x:v>
@@ -73985,7 +73988,7 @@
     </x:row>
     <x:row r="2256" spans="1:10">
       <x:c r="A2256" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2256" s="0" t="s">
         <x:v>31</x:v>
@@ -74017,7 +74020,7 @@
     </x:row>
     <x:row r="2257" spans="1:10">
       <x:c r="A2257" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2257" s="0" t="s">
         <x:v>31</x:v>
@@ -74049,7 +74052,7 @@
     </x:row>
     <x:row r="2258" spans="1:10">
       <x:c r="A2258" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2258" s="0" t="s">
         <x:v>84</x:v>
@@ -74081,7 +74084,7 @@
     </x:row>
     <x:row r="2259" spans="1:10">
       <x:c r="A2259" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2259" s="0" t="s">
         <x:v>84</x:v>
@@ -74113,7 +74116,7 @@
     </x:row>
     <x:row r="2260" spans="1:10">
       <x:c r="A2260" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2260" s="0" t="s">
         <x:v>38</x:v>
@@ -74145,7 +74148,7 @@
     </x:row>
     <x:row r="2261" spans="1:10">
       <x:c r="A2261" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2261" s="0" t="s">
         <x:v>38</x:v>
@@ -74177,7 +74180,7 @@
     </x:row>
     <x:row r="2262" spans="1:10">
       <x:c r="A2262" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2262" s="0" t="s">
         <x:v>41</x:v>
@@ -74209,7 +74212,7 @@
     </x:row>
     <x:row r="2263" spans="1:10">
       <x:c r="A2263" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B2263" s="0" t="s">
         <x:v>41</x:v>
@@ -74241,7 +74244,7 @@
     </x:row>
     <x:row r="2264" spans="1:10">
       <x:c r="A2264" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2264" s="0" t="s">
         <x:v>44</x:v>
@@ -74273,7 +74276,7 @@
     </x:row>
     <x:row r="2265" spans="1:10">
       <x:c r="A2265" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2265" s="0" t="s">
         <x:v>44</x:v>
@@ -74305,7 +74308,7 @@
     </x:row>
     <x:row r="2266" spans="1:10">
       <x:c r="A2266" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2266" s="0" t="s">
         <x:v>11</x:v>
@@ -74337,7 +74340,7 @@
     </x:row>
     <x:row r="2267" spans="1:10">
       <x:c r="A2267" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2267" s="0" t="s">
         <x:v>11</x:v>
@@ -74369,7 +74372,7 @@
     </x:row>
     <x:row r="2268" spans="1:10">
       <x:c r="A2268" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2268" s="0" t="s">
         <x:v>11</x:v>
@@ -74401,7 +74404,7 @@
     </x:row>
     <x:row r="2269" spans="1:10">
       <x:c r="A2269" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2269" s="0" t="s">
         <x:v>26</x:v>
@@ -74433,7 +74436,7 @@
     </x:row>
     <x:row r="2270" spans="1:10">
       <x:c r="A2270" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2270" s="0" t="s">
         <x:v>26</x:v>
@@ -74465,7 +74468,7 @@
     </x:row>
     <x:row r="2271" spans="1:10">
       <x:c r="A2271" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2271" s="0" t="s">
         <x:v>26</x:v>
@@ -74497,7 +74500,7 @@
     </x:row>
     <x:row r="2272" spans="1:10">
       <x:c r="A2272" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2272" s="0" t="s">
         <x:v>30</x:v>
@@ -74529,7 +74532,7 @@
     </x:row>
     <x:row r="2273" spans="1:10">
       <x:c r="A2273" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2273" s="0" t="s">
         <x:v>30</x:v>
@@ -74561,7 +74564,7 @@
     </x:row>
     <x:row r="2274" spans="1:10">
       <x:c r="A2274" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2274" s="0" t="s">
         <x:v>30</x:v>
@@ -74593,7 +74596,7 @@
     </x:row>
     <x:row r="2275" spans="1:10">
       <x:c r="A2275" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2275" s="0" t="s">
         <x:v>31</x:v>
@@ -74625,7 +74628,7 @@
     </x:row>
     <x:row r="2276" spans="1:10">
       <x:c r="A2276" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2276" s="0" t="s">
         <x:v>31</x:v>
@@ -74657,7 +74660,7 @@
     </x:row>
     <x:row r="2277" spans="1:10">
       <x:c r="A2277" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2277" s="0" t="s">
         <x:v>31</x:v>
@@ -74689,7 +74692,7 @@
     </x:row>
     <x:row r="2278" spans="1:10">
       <x:c r="A2278" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2278" s="0" t="s">
         <x:v>140</x:v>
@@ -74721,7 +74724,7 @@
     </x:row>
     <x:row r="2279" spans="1:10">
       <x:c r="A2279" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2279" s="0" t="s">
         <x:v>140</x:v>
@@ -74753,7 +74756,7 @@
     </x:row>
     <x:row r="2280" spans="1:10">
       <x:c r="A2280" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2280" s="0" t="s">
         <x:v>84</x:v>
@@ -74785,7 +74788,7 @@
     </x:row>
     <x:row r="2281" spans="1:10">
       <x:c r="A2281" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2281" s="0" t="s">
         <x:v>84</x:v>
@@ -74817,7 +74820,7 @@
     </x:row>
     <x:row r="2282" spans="1:10">
       <x:c r="A2282" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2282" s="0" t="s">
         <x:v>84</x:v>
@@ -74849,7 +74852,7 @@
     </x:row>
     <x:row r="2283" spans="1:10">
       <x:c r="A2283" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2283" s="0" t="s">
         <x:v>94</x:v>
@@ -74881,7 +74884,7 @@
     </x:row>
     <x:row r="2284" spans="1:10">
       <x:c r="A2284" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2284" s="0" t="s">
         <x:v>94</x:v>
@@ -74913,7 +74916,7 @@
     </x:row>
     <x:row r="2285" spans="1:10">
       <x:c r="A2285" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2285" s="0" t="s">
         <x:v>96</x:v>
@@ -74945,7 +74948,7 @@
     </x:row>
     <x:row r="2286" spans="1:10">
       <x:c r="A2286" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2286" s="0" t="s">
         <x:v>96</x:v>
@@ -74977,7 +74980,7 @@
     </x:row>
     <x:row r="2287" spans="1:10">
       <x:c r="A2287" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2287" s="0" t="s">
         <x:v>37</x:v>
@@ -75009,7 +75012,7 @@
     </x:row>
     <x:row r="2288" spans="1:10">
       <x:c r="A2288" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2288" s="0" t="s">
         <x:v>37</x:v>
@@ -75041,7 +75044,7 @@
     </x:row>
     <x:row r="2289" spans="1:10">
       <x:c r="A2289" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2289" s="0" t="s">
         <x:v>37</x:v>
@@ -75073,7 +75076,7 @@
     </x:row>
     <x:row r="2290" spans="1:10">
       <x:c r="A2290" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2290" s="0" t="s">
         <x:v>38</x:v>
@@ -75105,7 +75108,7 @@
     </x:row>
     <x:row r="2291" spans="1:10">
       <x:c r="A2291" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2291" s="0" t="s">
         <x:v>38</x:v>
@@ -75137,7 +75140,7 @@
     </x:row>
     <x:row r="2292" spans="1:10">
       <x:c r="A2292" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2292" s="0" t="s">
         <x:v>39</x:v>
@@ -75169,7 +75172,7 @@
     </x:row>
     <x:row r="2293" spans="1:10">
       <x:c r="A2293" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2293" s="0" t="s">
         <x:v>39</x:v>
@@ -75201,7 +75204,7 @@
     </x:row>
     <x:row r="2294" spans="1:10">
       <x:c r="A2294" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2294" s="0" t="s">
         <x:v>40</x:v>
@@ -75233,7 +75236,7 @@
     </x:row>
     <x:row r="2295" spans="1:10">
       <x:c r="A2295" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2295" s="0" t="s">
         <x:v>40</x:v>
@@ -75265,7 +75268,7 @@
     </x:row>
     <x:row r="2296" spans="1:10">
       <x:c r="A2296" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2296" s="0" t="s">
         <x:v>40</x:v>
@@ -75297,7 +75300,7 @@
     </x:row>
     <x:row r="2297" spans="1:10">
       <x:c r="A2297" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2297" s="0" t="s">
         <x:v>41</x:v>
@@ -75329,7 +75332,7 @@
     </x:row>
     <x:row r="2298" spans="1:10">
       <x:c r="A2298" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B2298" s="0" t="s">
         <x:v>41</x:v>
@@ -75361,7 +75364,7 @@
     </x:row>
     <x:row r="2299" spans="1:10">
       <x:c r="A2299" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2299" s="0" t="s">
         <x:v>11</x:v>
@@ -75393,7 +75396,7 @@
     </x:row>
     <x:row r="2300" spans="1:10">
       <x:c r="A2300" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2300" s="0" t="s">
         <x:v>11</x:v>
@@ -75425,7 +75428,7 @@
     </x:row>
     <x:row r="2301" spans="1:10">
       <x:c r="A2301" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2301" s="0" t="s">
         <x:v>11</x:v>
@@ -75457,7 +75460,7 @@
     </x:row>
     <x:row r="2302" spans="1:10">
       <x:c r="A2302" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2302" s="0" t="s">
         <x:v>26</x:v>
@@ -75489,7 +75492,7 @@
     </x:row>
     <x:row r="2303" spans="1:10">
       <x:c r="A2303" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2303" s="0" t="s">
         <x:v>26</x:v>
@@ -75521,7 +75524,7 @@
     </x:row>
     <x:row r="2304" spans="1:10">
       <x:c r="A2304" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2304" s="0" t="s">
         <x:v>31</x:v>
@@ -75553,7 +75556,7 @@
     </x:row>
     <x:row r="2305" spans="1:10">
       <x:c r="A2305" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2305" s="0" t="s">
         <x:v>31</x:v>
@@ -75585,7 +75588,7 @@
     </x:row>
     <x:row r="2306" spans="1:10">
       <x:c r="A2306" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2306" s="0" t="s">
         <x:v>31</x:v>
@@ -75617,7 +75620,7 @@
     </x:row>
     <x:row r="2307" spans="1:10">
       <x:c r="A2307" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2307" s="0" t="s">
         <x:v>38</x:v>
@@ -75649,7 +75652,7 @@
     </x:row>
     <x:row r="2308" spans="1:10">
       <x:c r="A2308" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2308" s="0" t="s">
         <x:v>38</x:v>
@@ -75681,7 +75684,7 @@
     </x:row>
     <x:row r="2309" spans="1:10">
       <x:c r="A2309" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2309" s="0" t="s">
         <x:v>39</x:v>
@@ -75713,7 +75716,7 @@
     </x:row>
     <x:row r="2310" spans="1:10">
       <x:c r="A2310" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B2310" s="0" t="s">
         <x:v>39</x:v>
@@ -75745,7 +75748,7 @@
     </x:row>
     <x:row r="2311" spans="1:10">
       <x:c r="A2311" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2311" s="0" t="s">
         <x:v>43</x:v>
@@ -75777,7 +75780,7 @@
     </x:row>
     <x:row r="2312" spans="1:10">
       <x:c r="A2312" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2312" s="0" t="s">
         <x:v>43</x:v>
@@ -75809,7 +75812,7 @@
     </x:row>
     <x:row r="2313" spans="1:10">
       <x:c r="A2313" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2313" s="0" t="s">
         <x:v>43</x:v>
@@ -75841,7 +75844,7 @@
     </x:row>
     <x:row r="2314" spans="1:10">
       <x:c r="A2314" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2314" s="0" t="s">
         <x:v>11</x:v>
@@ -75873,7 +75876,7 @@
     </x:row>
     <x:row r="2315" spans="1:10">
       <x:c r="A2315" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2315" s="0" t="s">
         <x:v>11</x:v>
@@ -75905,7 +75908,7 @@
     </x:row>
     <x:row r="2316" spans="1:10">
       <x:c r="A2316" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2316" s="0" t="s">
         <x:v>11</x:v>
@@ -75937,7 +75940,7 @@
     </x:row>
     <x:row r="2317" spans="1:10">
       <x:c r="A2317" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2317" s="0" t="s">
         <x:v>26</x:v>
@@ -75969,7 +75972,7 @@
     </x:row>
     <x:row r="2318" spans="1:10">
       <x:c r="A2318" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2318" s="0" t="s">
         <x:v>26</x:v>
@@ -76001,7 +76004,7 @@
     </x:row>
     <x:row r="2319" spans="1:10">
       <x:c r="A2319" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2319" s="0" t="s">
         <x:v>28</x:v>
@@ -76033,7 +76036,7 @@
     </x:row>
     <x:row r="2320" spans="1:10">
       <x:c r="A2320" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2320" s="0" t="s">
         <x:v>28</x:v>
@@ -76065,7 +76068,7 @@
     </x:row>
     <x:row r="2321" spans="1:10">
       <x:c r="A2321" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2321" s="0" t="s">
         <x:v>30</x:v>
@@ -76097,7 +76100,7 @@
     </x:row>
     <x:row r="2322" spans="1:10">
       <x:c r="A2322" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2322" s="0" t="s">
         <x:v>30</x:v>
@@ -76129,7 +76132,7 @@
     </x:row>
     <x:row r="2323" spans="1:10">
       <x:c r="A2323" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2323" s="0" t="s">
         <x:v>30</x:v>
@@ -76161,7 +76164,7 @@
     </x:row>
     <x:row r="2324" spans="1:10">
       <x:c r="A2324" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2324" s="0" t="s">
         <x:v>31</x:v>
@@ -76193,7 +76196,7 @@
     </x:row>
     <x:row r="2325" spans="1:10">
       <x:c r="A2325" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2325" s="0" t="s">
         <x:v>31</x:v>
@@ -76225,7 +76228,7 @@
     </x:row>
     <x:row r="2326" spans="1:10">
       <x:c r="A2326" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2326" s="0" t="s">
         <x:v>31</x:v>
@@ -76257,7 +76260,7 @@
     </x:row>
     <x:row r="2327" spans="1:10">
       <x:c r="A2327" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2327" s="0" t="s">
         <x:v>84</x:v>
@@ -76289,7 +76292,7 @@
     </x:row>
     <x:row r="2328" spans="1:10">
       <x:c r="A2328" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2328" s="0" t="s">
         <x:v>84</x:v>
@@ -76321,7 +76324,7 @@
     </x:row>
     <x:row r="2329" spans="1:10">
       <x:c r="A2329" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2329" s="0" t="s">
         <x:v>84</x:v>
@@ -76353,7 +76356,7 @@
     </x:row>
     <x:row r="2330" spans="1:10">
       <x:c r="A2330" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2330" s="0" t="s">
         <x:v>96</x:v>
@@ -76385,7 +76388,7 @@
     </x:row>
     <x:row r="2331" spans="1:10">
       <x:c r="A2331" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2331" s="0" t="s">
         <x:v>96</x:v>
@@ -76417,7 +76420,7 @@
     </x:row>
     <x:row r="2332" spans="1:10">
       <x:c r="A2332" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2332" s="0" t="s">
         <x:v>37</x:v>
@@ -76449,7 +76452,7 @@
     </x:row>
     <x:row r="2333" spans="1:10">
       <x:c r="A2333" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2333" s="0" t="s">
         <x:v>37</x:v>
@@ -76481,7 +76484,7 @@
     </x:row>
     <x:row r="2334" spans="1:10">
       <x:c r="A2334" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2334" s="0" t="s">
         <x:v>37</x:v>
@@ -76513,7 +76516,7 @@
     </x:row>
     <x:row r="2335" spans="1:10">
       <x:c r="A2335" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2335" s="0" t="s">
         <x:v>38</x:v>
@@ -76545,7 +76548,7 @@
     </x:row>
     <x:row r="2336" spans="1:10">
       <x:c r="A2336" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2336" s="0" t="s">
         <x:v>38</x:v>
@@ -76577,7 +76580,7 @@
     </x:row>
     <x:row r="2337" spans="1:10">
       <x:c r="A2337" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2337" s="0" t="s">
         <x:v>39</x:v>
@@ -76609,7 +76612,7 @@
     </x:row>
     <x:row r="2338" spans="1:10">
       <x:c r="A2338" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2338" s="0" t="s">
         <x:v>39</x:v>
@@ -76641,7 +76644,7 @@
     </x:row>
     <x:row r="2339" spans="1:10">
       <x:c r="A2339" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2339" s="0" t="s">
         <x:v>41</x:v>
@@ -76673,7 +76676,7 @@
     </x:row>
     <x:row r="2340" spans="1:10">
       <x:c r="A2340" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B2340" s="0" t="s">
         <x:v>41</x:v>
@@ -76705,7 +76708,7 @@
     </x:row>
     <x:row r="2341" spans="1:10">
       <x:c r="A2341" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2341" s="0" t="s">
         <x:v>43</x:v>
@@ -76737,7 +76740,7 @@
     </x:row>
     <x:row r="2342" spans="1:10">
       <x:c r="A2342" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2342" s="0" t="s">
         <x:v>43</x:v>
@@ -76769,7 +76772,7 @@
     </x:row>
     <x:row r="2343" spans="1:10">
       <x:c r="A2343" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2343" s="0" t="s">
         <x:v>11</x:v>
@@ -76801,7 +76804,7 @@
     </x:row>
     <x:row r="2344" spans="1:10">
       <x:c r="A2344" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2344" s="0" t="s">
         <x:v>11</x:v>
@@ -76833,7 +76836,7 @@
     </x:row>
     <x:row r="2345" spans="1:10">
       <x:c r="A2345" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2345" s="0" t="s">
         <x:v>11</x:v>
@@ -76865,7 +76868,7 @@
     </x:row>
     <x:row r="2346" spans="1:10">
       <x:c r="A2346" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2346" s="0" t="s">
         <x:v>26</x:v>
@@ -76897,7 +76900,7 @@
     </x:row>
     <x:row r="2347" spans="1:10">
       <x:c r="A2347" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2347" s="0" t="s">
         <x:v>26</x:v>
@@ -76929,7 +76932,7 @@
     </x:row>
     <x:row r="2348" spans="1:10">
       <x:c r="A2348" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2348" s="0" t="s">
         <x:v>28</x:v>
@@ -76961,7 +76964,7 @@
     </x:row>
     <x:row r="2349" spans="1:10">
       <x:c r="A2349" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2349" s="0" t="s">
         <x:v>28</x:v>
@@ -76993,7 +76996,7 @@
     </x:row>
     <x:row r="2350" spans="1:10">
       <x:c r="A2350" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2350" s="0" t="s">
         <x:v>28</x:v>
@@ -77025,7 +77028,7 @@
     </x:row>
     <x:row r="2351" spans="1:10">
       <x:c r="A2351" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2351" s="0" t="s">
         <x:v>30</x:v>
@@ -77057,7 +77060,7 @@
     </x:row>
     <x:row r="2352" spans="1:10">
       <x:c r="A2352" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2352" s="0" t="s">
         <x:v>30</x:v>
@@ -77089,7 +77092,7 @@
     </x:row>
     <x:row r="2353" spans="1:10">
       <x:c r="A2353" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2353" s="0" t="s">
         <x:v>30</x:v>
@@ -77121,7 +77124,7 @@
     </x:row>
     <x:row r="2354" spans="1:10">
       <x:c r="A2354" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2354" s="0" t="s">
         <x:v>31</x:v>
@@ -77153,7 +77156,7 @@
     </x:row>
     <x:row r="2355" spans="1:10">
       <x:c r="A2355" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2355" s="0" t="s">
         <x:v>31</x:v>
@@ -77185,7 +77188,7 @@
     </x:row>
     <x:row r="2356" spans="1:10">
       <x:c r="A2356" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2356" s="0" t="s">
         <x:v>31</x:v>
@@ -77217,7 +77220,7 @@
     </x:row>
     <x:row r="2357" spans="1:10">
       <x:c r="A2357" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2357" s="0" t="s">
         <x:v>37</x:v>
@@ -77249,7 +77252,7 @@
     </x:row>
     <x:row r="2358" spans="1:10">
       <x:c r="A2358" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2358" s="0" t="s">
         <x:v>37</x:v>
@@ -77281,7 +77284,7 @@
     </x:row>
     <x:row r="2359" spans="1:10">
       <x:c r="A2359" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2359" s="0" t="s">
         <x:v>37</x:v>
@@ -77313,7 +77316,7 @@
     </x:row>
     <x:row r="2360" spans="1:10">
       <x:c r="A2360" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2360" s="0" t="s">
         <x:v>39</x:v>
@@ -77345,7 +77348,7 @@
     </x:row>
     <x:row r="2361" spans="1:10">
       <x:c r="A2361" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2361" s="0" t="s">
         <x:v>39</x:v>
@@ -77377,7 +77380,7 @@
     </x:row>
     <x:row r="2362" spans="1:10">
       <x:c r="A2362" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2362" s="0" t="s">
         <x:v>39</x:v>
@@ -77409,7 +77412,7 @@
     </x:row>
     <x:row r="2363" spans="1:10">
       <x:c r="A2363" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2363" s="0" t="s">
         <x:v>41</x:v>
@@ -77441,7 +77444,7 @@
     </x:row>
     <x:row r="2364" spans="1:10">
       <x:c r="A2364" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B2364" s="0" t="s">
         <x:v>41</x:v>
@@ -77473,7 +77476,7 @@
     </x:row>
     <x:row r="2365" spans="1:10">
       <x:c r="A2365" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2365" s="0" t="s">
         <x:v>11</x:v>
@@ -77505,7 +77508,7 @@
     </x:row>
     <x:row r="2366" spans="1:10">
       <x:c r="A2366" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2366" s="0" t="s">
         <x:v>11</x:v>
@@ -77537,7 +77540,7 @@
     </x:row>
     <x:row r="2367" spans="1:10">
       <x:c r="A2367" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2367" s="0" t="s">
         <x:v>11</x:v>
@@ -77569,7 +77572,7 @@
     </x:row>
     <x:row r="2368" spans="1:10">
       <x:c r="A2368" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2368" s="0" t="s">
         <x:v>26</x:v>
@@ -77601,7 +77604,7 @@
     </x:row>
     <x:row r="2369" spans="1:10">
       <x:c r="A2369" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2369" s="0" t="s">
         <x:v>26</x:v>
@@ -77633,7 +77636,7 @@
     </x:row>
     <x:row r="2370" spans="1:10">
       <x:c r="A2370" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2370" s="0" t="s">
         <x:v>26</x:v>
@@ -77665,7 +77668,7 @@
     </x:row>
     <x:row r="2371" spans="1:10">
       <x:c r="A2371" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2371" s="0" t="s">
         <x:v>30</x:v>
@@ -77697,7 +77700,7 @@
     </x:row>
     <x:row r="2372" spans="1:10">
       <x:c r="A2372" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2372" s="0" t="s">
         <x:v>30</x:v>
@@ -77729,7 +77732,7 @@
     </x:row>
     <x:row r="2373" spans="1:10">
       <x:c r="A2373" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2373" s="0" t="s">
         <x:v>31</x:v>
@@ -77761,7 +77764,7 @@
     </x:row>
     <x:row r="2374" spans="1:10">
       <x:c r="A2374" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2374" s="0" t="s">
         <x:v>31</x:v>
@@ -77793,7 +77796,7 @@
     </x:row>
     <x:row r="2375" spans="1:10">
       <x:c r="A2375" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2375" s="0" t="s">
         <x:v>31</x:v>
@@ -77825,7 +77828,7 @@
     </x:row>
     <x:row r="2376" spans="1:10">
       <x:c r="A2376" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2376" s="0" t="s">
         <x:v>84</x:v>
@@ -77857,7 +77860,7 @@
     </x:row>
     <x:row r="2377" spans="1:10">
       <x:c r="A2377" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2377" s="0" t="s">
         <x:v>84</x:v>
@@ -77889,7 +77892,7 @@
     </x:row>
     <x:row r="2378" spans="1:10">
       <x:c r="A2378" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2378" s="0" t="s">
         <x:v>94</x:v>
@@ -77921,7 +77924,7 @@
     </x:row>
     <x:row r="2379" spans="1:10">
       <x:c r="A2379" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2379" s="0" t="s">
         <x:v>94</x:v>
@@ -77953,7 +77956,7 @@
     </x:row>
     <x:row r="2380" spans="1:10">
       <x:c r="A2380" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2380" s="0" t="s">
         <x:v>37</x:v>
@@ -77985,7 +77988,7 @@
     </x:row>
     <x:row r="2381" spans="1:10">
       <x:c r="A2381" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2381" s="0" t="s">
         <x:v>37</x:v>
@@ -78017,7 +78020,7 @@
     </x:row>
     <x:row r="2382" spans="1:10">
       <x:c r="A2382" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2382" s="0" t="s">
         <x:v>37</x:v>
@@ -78049,7 +78052,7 @@
     </x:row>
     <x:row r="2383" spans="1:10">
       <x:c r="A2383" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2383" s="0" t="s">
         <x:v>115</x:v>
@@ -78081,7 +78084,7 @@
     </x:row>
     <x:row r="2384" spans="1:10">
       <x:c r="A2384" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2384" s="0" t="s">
         <x:v>115</x:v>
@@ -78113,7 +78116,7 @@
     </x:row>
     <x:row r="2385" spans="1:10">
       <x:c r="A2385" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2385" s="0" t="s">
         <x:v>116</x:v>
@@ -78145,7 +78148,7 @@
     </x:row>
     <x:row r="2386" spans="1:10">
       <x:c r="A2386" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2386" s="0" t="s">
         <x:v>116</x:v>
@@ -78177,7 +78180,7 @@
     </x:row>
     <x:row r="2387" spans="1:10">
       <x:c r="A2387" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2387" s="0" t="s">
         <x:v>39</x:v>
@@ -78209,7 +78212,7 @@
     </x:row>
     <x:row r="2388" spans="1:10">
       <x:c r="A2388" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2388" s="0" t="s">
         <x:v>39</x:v>
@@ -78241,7 +78244,7 @@
     </x:row>
     <x:row r="2389" spans="1:10">
       <x:c r="A2389" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2389" s="0" t="s">
         <x:v>40</x:v>
@@ -78273,7 +78276,7 @@
     </x:row>
     <x:row r="2390" spans="1:10">
       <x:c r="A2390" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2390" s="0" t="s">
         <x:v>40</x:v>
@@ -78305,7 +78308,7 @@
     </x:row>
     <x:row r="2391" spans="1:10">
       <x:c r="A2391" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2391" s="0" t="s">
         <x:v>41</x:v>
@@ -78337,7 +78340,7 @@
     </x:row>
     <x:row r="2392" spans="1:10">
       <x:c r="A2392" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2392" s="0" t="s">
         <x:v>41</x:v>
@@ -78369,7 +78372,7 @@
     </x:row>
     <x:row r="2393" spans="1:10">
       <x:c r="A2393" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2393" s="0" t="s">
         <x:v>43</x:v>
@@ -78401,7 +78404,7 @@
     </x:row>
     <x:row r="2394" spans="1:10">
       <x:c r="A2394" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2394" s="0" t="s">
         <x:v>43</x:v>
@@ -78433,7 +78436,7 @@
     </x:row>
     <x:row r="2395" spans="1:10">
       <x:c r="A2395" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2395" s="0" t="s">
         <x:v>43</x:v>
@@ -78465,7 +78468,7 @@
     </x:row>
     <x:row r="2396" spans="1:10">
       <x:c r="A2396" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2396" s="0" t="s">
         <x:v>44</x:v>
@@ -78497,7 +78500,7 @@
     </x:row>
     <x:row r="2397" spans="1:10">
       <x:c r="A2397" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2397" s="0" t="s">
         <x:v>44</x:v>
@@ -78529,7 +78532,7 @@
     </x:row>
     <x:row r="2398" spans="1:10">
       <x:c r="A2398" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2398" s="0" t="s">
         <x:v>44</x:v>
@@ -78561,7 +78564,7 @@
     </x:row>
     <x:row r="2399" spans="1:10">
       <x:c r="A2399" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2399" s="0" t="s">
         <x:v>11</x:v>
@@ -78570,7 +78573,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2399" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E2399" s="1" t="s">
         <x:v>90</x:v>
@@ -78588,12 +78591,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2399" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>461</x:v>
       </x:c>
     </x:row>
     <x:row r="2400" spans="1:10">
       <x:c r="A2400" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2400" s="0" t="s">
         <x:v>11</x:v>
@@ -78625,7 +78628,7 @@
     </x:row>
     <x:row r="2401" spans="1:10">
       <x:c r="A2401" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2401" s="0" t="s">
         <x:v>11</x:v>
@@ -78634,7 +78637,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2401" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E2401" s="1" t="s">
         <x:v>160</x:v>
@@ -78652,12 +78655,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2401" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>462</x:v>
       </x:c>
     </x:row>
     <x:row r="2402" spans="1:10">
       <x:c r="A2402" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2402" s="0" t="s">
         <x:v>26</x:v>
@@ -78689,7 +78692,7 @@
     </x:row>
     <x:row r="2403" spans="1:10">
       <x:c r="A2403" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2403" s="0" t="s">
         <x:v>26</x:v>
@@ -78721,7 +78724,7 @@
     </x:row>
     <x:row r="2404" spans="1:10">
       <x:c r="A2404" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2404" s="0" t="s">
         <x:v>26</x:v>
@@ -78753,7 +78756,7 @@
     </x:row>
     <x:row r="2405" spans="1:10">
       <x:c r="A2405" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2405" s="0" t="s">
         <x:v>28</x:v>
@@ -78785,7 +78788,7 @@
     </x:row>
     <x:row r="2406" spans="1:10">
       <x:c r="A2406" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2406" s="0" t="s">
         <x:v>28</x:v>
@@ -78817,7 +78820,7 @@
     </x:row>
     <x:row r="2407" spans="1:10">
       <x:c r="A2407" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2407" s="0" t="s">
         <x:v>28</x:v>
@@ -78849,7 +78852,7 @@
     </x:row>
     <x:row r="2408" spans="1:10">
       <x:c r="A2408" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2408" s="0" t="s">
         <x:v>30</x:v>
@@ -78881,7 +78884,7 @@
     </x:row>
     <x:row r="2409" spans="1:10">
       <x:c r="A2409" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2409" s="0" t="s">
         <x:v>30</x:v>
@@ -78913,7 +78916,7 @@
     </x:row>
     <x:row r="2410" spans="1:10">
       <x:c r="A2410" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2410" s="0" t="s">
         <x:v>30</x:v>
@@ -78945,7 +78948,7 @@
     </x:row>
     <x:row r="2411" spans="1:10">
       <x:c r="A2411" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2411" s="0" t="s">
         <x:v>31</x:v>
@@ -78977,7 +78980,7 @@
     </x:row>
     <x:row r="2412" spans="1:10">
       <x:c r="A2412" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2412" s="0" t="s">
         <x:v>31</x:v>
@@ -79009,7 +79012,7 @@
     </x:row>
     <x:row r="2413" spans="1:10">
       <x:c r="A2413" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2413" s="0" t="s">
         <x:v>31</x:v>
@@ -79036,12 +79039,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2413" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="2414" spans="1:10">
       <x:c r="A2414" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2414" s="0" t="s">
         <x:v>140</x:v>
@@ -79073,7 +79076,7 @@
     </x:row>
     <x:row r="2415" spans="1:10">
       <x:c r="A2415" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2415" s="0" t="s">
         <x:v>140</x:v>
@@ -79105,7 +79108,7 @@
     </x:row>
     <x:row r="2416" spans="1:10">
       <x:c r="A2416" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2416" s="0" t="s">
         <x:v>140</x:v>
@@ -79137,7 +79140,7 @@
     </x:row>
     <x:row r="2417" spans="1:10">
       <x:c r="A2417" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2417" s="0" t="s">
         <x:v>84</x:v>
@@ -79169,7 +79172,7 @@
     </x:row>
     <x:row r="2418" spans="1:10">
       <x:c r="A2418" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2418" s="0" t="s">
         <x:v>84</x:v>
@@ -79201,7 +79204,7 @@
     </x:row>
     <x:row r="2419" spans="1:10">
       <x:c r="A2419" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2419" s="0" t="s">
         <x:v>84</x:v>
@@ -79233,7 +79236,7 @@
     </x:row>
     <x:row r="2420" spans="1:10">
       <x:c r="A2420" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2420" s="0" t="s">
         <x:v>94</x:v>
@@ -79265,7 +79268,7 @@
     </x:row>
     <x:row r="2421" spans="1:10">
       <x:c r="A2421" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2421" s="0" t="s">
         <x:v>94</x:v>
@@ -79297,7 +79300,7 @@
     </x:row>
     <x:row r="2422" spans="1:10">
       <x:c r="A2422" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2422" s="0" t="s">
         <x:v>95</x:v>
@@ -79329,7 +79332,7 @@
     </x:row>
     <x:row r="2423" spans="1:10">
       <x:c r="A2423" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2423" s="0" t="s">
         <x:v>95</x:v>
@@ -79361,7 +79364,7 @@
     </x:row>
     <x:row r="2424" spans="1:10">
       <x:c r="A2424" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2424" s="0" t="s">
         <x:v>95</x:v>
@@ -79393,7 +79396,7 @@
     </x:row>
     <x:row r="2425" spans="1:10">
       <x:c r="A2425" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2425" s="0" t="s">
         <x:v>96</x:v>
@@ -79425,7 +79428,7 @@
     </x:row>
     <x:row r="2426" spans="1:10">
       <x:c r="A2426" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2426" s="0" t="s">
         <x:v>96</x:v>
@@ -79457,7 +79460,7 @@
     </x:row>
     <x:row r="2427" spans="1:10">
       <x:c r="A2427" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2427" s="0" t="s">
         <x:v>37</x:v>
@@ -79489,7 +79492,7 @@
     </x:row>
     <x:row r="2428" spans="1:10">
       <x:c r="A2428" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2428" s="0" t="s">
         <x:v>37</x:v>
@@ -79516,12 +79519,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2428" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
     </x:row>
     <x:row r="2429" spans="1:10">
       <x:c r="A2429" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2429" s="0" t="s">
         <x:v>37</x:v>
@@ -79548,12 +79551,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2429" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
     </x:row>
     <x:row r="2430" spans="1:10">
       <x:c r="A2430" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2430" s="0" t="s">
         <x:v>38</x:v>
@@ -79585,7 +79588,7 @@
     </x:row>
     <x:row r="2431" spans="1:10">
       <x:c r="A2431" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2431" s="0" t="s">
         <x:v>38</x:v>
@@ -79617,7 +79620,7 @@
     </x:row>
     <x:row r="2432" spans="1:10">
       <x:c r="A2432" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2432" s="0" t="s">
         <x:v>38</x:v>
@@ -79649,7 +79652,7 @@
     </x:row>
     <x:row r="2433" spans="1:10">
       <x:c r="A2433" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2433" s="0" t="s">
         <x:v>115</x:v>
@@ -79681,7 +79684,7 @@
     </x:row>
     <x:row r="2434" spans="1:10">
       <x:c r="A2434" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2434" s="0" t="s">
         <x:v>115</x:v>
@@ -79713,7 +79716,7 @@
     </x:row>
     <x:row r="2435" spans="1:10">
       <x:c r="A2435" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2435" s="0" t="s">
         <x:v>115</x:v>
@@ -79745,7 +79748,7 @@
     </x:row>
     <x:row r="2436" spans="1:10">
       <x:c r="A2436" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2436" s="0" t="s">
         <x:v>308</x:v>
@@ -79777,7 +79780,7 @@
     </x:row>
     <x:row r="2437" spans="1:10">
       <x:c r="A2437" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2437" s="0" t="s">
         <x:v>308</x:v>
@@ -79809,7 +79812,7 @@
     </x:row>
     <x:row r="2438" spans="1:10">
       <x:c r="A2438" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2438" s="0" t="s">
         <x:v>308</x:v>
@@ -79841,7 +79844,7 @@
     </x:row>
     <x:row r="2439" spans="1:10">
       <x:c r="A2439" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2439" s="0" t="s">
         <x:v>116</x:v>
@@ -79873,7 +79876,7 @@
     </x:row>
     <x:row r="2440" spans="1:10">
       <x:c r="A2440" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2440" s="0" t="s">
         <x:v>116</x:v>
@@ -79905,7 +79908,7 @@
     </x:row>
     <x:row r="2441" spans="1:10">
       <x:c r="A2441" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2441" s="0" t="s">
         <x:v>116</x:v>
@@ -79937,7 +79940,7 @@
     </x:row>
     <x:row r="2442" spans="1:10">
       <x:c r="A2442" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2442" s="0" t="s">
         <x:v>39</x:v>
@@ -79969,7 +79972,7 @@
     </x:row>
     <x:row r="2443" spans="1:10">
       <x:c r="A2443" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2443" s="0" t="s">
         <x:v>39</x:v>
@@ -80001,7 +80004,7 @@
     </x:row>
     <x:row r="2444" spans="1:10">
       <x:c r="A2444" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2444" s="0" t="s">
         <x:v>39</x:v>
@@ -80033,7 +80036,7 @@
     </x:row>
     <x:row r="2445" spans="1:10">
       <x:c r="A2445" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2445" s="0" t="s">
         <x:v>40</x:v>
@@ -80065,7 +80068,7 @@
     </x:row>
     <x:row r="2446" spans="1:10">
       <x:c r="A2446" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2446" s="0" t="s">
         <x:v>40</x:v>
@@ -80097,7 +80100,7 @@
     </x:row>
     <x:row r="2447" spans="1:10">
       <x:c r="A2447" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2447" s="0" t="s">
         <x:v>40</x:v>
@@ -80129,7 +80132,7 @@
     </x:row>
     <x:row r="2448" spans="1:10">
       <x:c r="A2448" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2448" s="0" t="s">
         <x:v>41</x:v>
@@ -80138,7 +80141,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2448" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E2448" s="1" t="s">
         <x:v>19</x:v>
@@ -80156,12 +80159,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2448" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2449" spans="1:10">
       <x:c r="A2449" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2449" s="0" t="s">
         <x:v>41</x:v>
@@ -80173,7 +80176,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E2449" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F2449" s="1" t="s">
         <x:v>32</x:v>
@@ -80188,12 +80191,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2449" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="2450" spans="1:10">
       <x:c r="A2450" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2450" s="0" t="s">
         <x:v>41</x:v>
@@ -80202,10 +80205,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2450" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E2450" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F2450" s="1" t="s">
         <x:v>21</x:v>
@@ -80220,12 +80223,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2450" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="2451" spans="1:10">
       <x:c r="A2451" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2451" s="0" t="s">
         <x:v>43</x:v>
@@ -80257,7 +80260,7 @@
     </x:row>
     <x:row r="2452" spans="1:10">
       <x:c r="A2452" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2452" s="0" t="s">
         <x:v>43</x:v>
@@ -80289,7 +80292,7 @@
     </x:row>
     <x:row r="2453" spans="1:10">
       <x:c r="A2453" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2453" s="0" t="s">
         <x:v>43</x:v>
@@ -80321,7 +80324,7 @@
     </x:row>
     <x:row r="2454" spans="1:10">
       <x:c r="A2454" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2454" s="0" t="s">
         <x:v>11</x:v>
@@ -80353,7 +80356,7 @@
     </x:row>
     <x:row r="2455" spans="1:10">
       <x:c r="A2455" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2455" s="0" t="s">
         <x:v>11</x:v>
@@ -80385,7 +80388,7 @@
     </x:row>
     <x:row r="2456" spans="1:10">
       <x:c r="A2456" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2456" s="0" t="s">
         <x:v>11</x:v>
@@ -80417,7 +80420,7 @@
     </x:row>
     <x:row r="2457" spans="1:10">
       <x:c r="A2457" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2457" s="0" t="s">
         <x:v>26</x:v>
@@ -80449,7 +80452,7 @@
     </x:row>
     <x:row r="2458" spans="1:10">
       <x:c r="A2458" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2458" s="0" t="s">
         <x:v>26</x:v>
@@ -80481,7 +80484,7 @@
     </x:row>
     <x:row r="2459" spans="1:10">
       <x:c r="A2459" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2459" s="0" t="s">
         <x:v>26</x:v>
@@ -80513,7 +80516,7 @@
     </x:row>
     <x:row r="2460" spans="1:10">
       <x:c r="A2460" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2460" s="0" t="s">
         <x:v>28</x:v>
@@ -80545,7 +80548,7 @@
     </x:row>
     <x:row r="2461" spans="1:10">
       <x:c r="A2461" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2461" s="0" t="s">
         <x:v>28</x:v>
@@ -80577,7 +80580,7 @@
     </x:row>
     <x:row r="2462" spans="1:10">
       <x:c r="A2462" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2462" s="0" t="s">
         <x:v>30</x:v>
@@ -80609,7 +80612,7 @@
     </x:row>
     <x:row r="2463" spans="1:10">
       <x:c r="A2463" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2463" s="0" t="s">
         <x:v>30</x:v>
@@ -80641,7 +80644,7 @@
     </x:row>
     <x:row r="2464" spans="1:10">
       <x:c r="A2464" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2464" s="0" t="s">
         <x:v>30</x:v>
@@ -80673,7 +80676,7 @@
     </x:row>
     <x:row r="2465" spans="1:10">
       <x:c r="A2465" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2465" s="0" t="s">
         <x:v>31</x:v>
@@ -80705,7 +80708,7 @@
     </x:row>
     <x:row r="2466" spans="1:10">
       <x:c r="A2466" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2466" s="0" t="s">
         <x:v>31</x:v>
@@ -80737,7 +80740,7 @@
     </x:row>
     <x:row r="2467" spans="1:10">
       <x:c r="A2467" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2467" s="0" t="s">
         <x:v>31</x:v>
@@ -80769,7 +80772,7 @@
     </x:row>
     <x:row r="2468" spans="1:10">
       <x:c r="A2468" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2468" s="0" t="s">
         <x:v>84</x:v>
@@ -80801,7 +80804,7 @@
     </x:row>
     <x:row r="2469" spans="1:10">
       <x:c r="A2469" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2469" s="0" t="s">
         <x:v>84</x:v>
@@ -80833,7 +80836,7 @@
     </x:row>
     <x:row r="2470" spans="1:10">
       <x:c r="A2470" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2470" s="0" t="s">
         <x:v>96</x:v>
@@ -80865,7 +80868,7 @@
     </x:row>
     <x:row r="2471" spans="1:10">
       <x:c r="A2471" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2471" s="0" t="s">
         <x:v>96</x:v>
@@ -80897,7 +80900,7 @@
     </x:row>
     <x:row r="2472" spans="1:10">
       <x:c r="A2472" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2472" s="0" t="s">
         <x:v>37</x:v>
@@ -80929,7 +80932,7 @@
     </x:row>
     <x:row r="2473" spans="1:10">
       <x:c r="A2473" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2473" s="0" t="s">
         <x:v>37</x:v>
@@ -80961,7 +80964,7 @@
     </x:row>
     <x:row r="2474" spans="1:10">
       <x:c r="A2474" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2474" s="0" t="s">
         <x:v>37</x:v>
@@ -80993,7 +80996,7 @@
     </x:row>
     <x:row r="2475" spans="1:10">
       <x:c r="A2475" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2475" s="0" t="s">
         <x:v>38</x:v>
@@ -81025,7 +81028,7 @@
     </x:row>
     <x:row r="2476" spans="1:10">
       <x:c r="A2476" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2476" s="0" t="s">
         <x:v>38</x:v>
@@ -81057,7 +81060,7 @@
     </x:row>
     <x:row r="2477" spans="1:10">
       <x:c r="A2477" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2477" s="0" t="s">
         <x:v>38</x:v>
@@ -81089,7 +81092,7 @@
     </x:row>
     <x:row r="2478" spans="1:10">
       <x:c r="A2478" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2478" s="0" t="s">
         <x:v>39</x:v>
@@ -81121,7 +81124,7 @@
     </x:row>
     <x:row r="2479" spans="1:10">
       <x:c r="A2479" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2479" s="0" t="s">
         <x:v>39</x:v>
@@ -81153,7 +81156,7 @@
     </x:row>
     <x:row r="2480" spans="1:10">
       <x:c r="A2480" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2480" s="0" t="s">
         <x:v>40</x:v>
@@ -81185,7 +81188,7 @@
     </x:row>
     <x:row r="2481" spans="1:10">
       <x:c r="A2481" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2481" s="0" t="s">
         <x:v>40</x:v>
@@ -81217,7 +81220,7 @@
     </x:row>
     <x:row r="2482" spans="1:10">
       <x:c r="A2482" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2482" s="0" t="s">
         <x:v>40</x:v>
@@ -81249,7 +81252,7 @@
     </x:row>
     <x:row r="2483" spans="1:10">
       <x:c r="A2483" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2483" s="0" t="s">
         <x:v>43</x:v>
@@ -81281,7 +81284,7 @@
     </x:row>
     <x:row r="2484" spans="1:10">
       <x:c r="A2484" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2484" s="0" t="s">
         <x:v>43</x:v>
@@ -81313,7 +81316,7 @@
     </x:row>
     <x:row r="2485" spans="1:10">
       <x:c r="A2485" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2485" s="0" t="s">
         <x:v>44</x:v>
@@ -81345,7 +81348,7 @@
     </x:row>
     <x:row r="2486" spans="1:10">
       <x:c r="A2486" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2486" s="0" t="s">
         <x:v>44</x:v>
@@ -81377,7 +81380,7 @@
     </x:row>
     <x:row r="2487" spans="1:10">
       <x:c r="A2487" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2487" s="0" t="s">
         <x:v>11</x:v>
@@ -81409,7 +81412,7 @@
     </x:row>
     <x:row r="2488" spans="1:10">
       <x:c r="A2488" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2488" s="0" t="s">
         <x:v>11</x:v>
@@ -81441,7 +81444,7 @@
     </x:row>
     <x:row r="2489" spans="1:10">
       <x:c r="A2489" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2489" s="0" t="s">
         <x:v>11</x:v>
@@ -81473,7 +81476,7 @@
     </x:row>
     <x:row r="2490" spans="1:10">
       <x:c r="A2490" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2490" s="0" t="s">
         <x:v>26</x:v>
@@ -81505,7 +81508,7 @@
     </x:row>
     <x:row r="2491" spans="1:10">
       <x:c r="A2491" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2491" s="0" t="s">
         <x:v>26</x:v>
@@ -81537,7 +81540,7 @@
     </x:row>
     <x:row r="2492" spans="1:10">
       <x:c r="A2492" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2492" s="0" t="s">
         <x:v>26</x:v>
@@ -81569,7 +81572,7 @@
     </x:row>
     <x:row r="2493" spans="1:10">
       <x:c r="A2493" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2493" s="0" t="s">
         <x:v>28</x:v>
@@ -81601,7 +81604,7 @@
     </x:row>
     <x:row r="2494" spans="1:10">
       <x:c r="A2494" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2494" s="0" t="s">
         <x:v>28</x:v>
@@ -81633,7 +81636,7 @@
     </x:row>
     <x:row r="2495" spans="1:10">
       <x:c r="A2495" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2495" s="0" t="s">
         <x:v>30</x:v>
@@ -81665,7 +81668,7 @@
     </x:row>
     <x:row r="2496" spans="1:10">
       <x:c r="A2496" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2496" s="0" t="s">
         <x:v>30</x:v>
@@ -81697,7 +81700,7 @@
     </x:row>
     <x:row r="2497" spans="1:10">
       <x:c r="A2497" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2497" s="0" t="s">
         <x:v>31</x:v>
@@ -81729,7 +81732,7 @@
     </x:row>
     <x:row r="2498" spans="1:10">
       <x:c r="A2498" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2498" s="0" t="s">
         <x:v>31</x:v>
@@ -81761,7 +81764,7 @@
     </x:row>
     <x:row r="2499" spans="1:10">
       <x:c r="A2499" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2499" s="0" t="s">
         <x:v>31</x:v>
@@ -81793,7 +81796,7 @@
     </x:row>
     <x:row r="2500" spans="1:10">
       <x:c r="A2500" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2500" s="0" t="s">
         <x:v>84</x:v>
@@ -81825,7 +81828,7 @@
     </x:row>
     <x:row r="2501" spans="1:10">
       <x:c r="A2501" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2501" s="0" t="s">
         <x:v>84</x:v>
@@ -81857,7 +81860,7 @@
     </x:row>
     <x:row r="2502" spans="1:10">
       <x:c r="A2502" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2502" s="0" t="s">
         <x:v>84</x:v>
@@ -81889,7 +81892,7 @@
     </x:row>
     <x:row r="2503" spans="1:10">
       <x:c r="A2503" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2503" s="0" t="s">
         <x:v>37</x:v>
@@ -81921,7 +81924,7 @@
     </x:row>
     <x:row r="2504" spans="1:10">
       <x:c r="A2504" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2504" s="0" t="s">
         <x:v>37</x:v>
@@ -81953,7 +81956,7 @@
     </x:row>
     <x:row r="2505" spans="1:10">
       <x:c r="A2505" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2505" s="0" t="s">
         <x:v>37</x:v>
@@ -81985,7 +81988,7 @@
     </x:row>
     <x:row r="2506" spans="1:10">
       <x:c r="A2506" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2506" s="0" t="s">
         <x:v>38</x:v>
@@ -82017,7 +82020,7 @@
     </x:row>
     <x:row r="2507" spans="1:10">
       <x:c r="A2507" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2507" s="0" t="s">
         <x:v>38</x:v>
@@ -82049,7 +82052,7 @@
     </x:row>
     <x:row r="2508" spans="1:10">
       <x:c r="A2508" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2508" s="0" t="s">
         <x:v>38</x:v>
@@ -82081,7 +82084,7 @@
     </x:row>
     <x:row r="2509" spans="1:10">
       <x:c r="A2509" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2509" s="0" t="s">
         <x:v>39</x:v>
@@ -82113,7 +82116,7 @@
     </x:row>
     <x:row r="2510" spans="1:10">
       <x:c r="A2510" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2510" s="0" t="s">
         <x:v>39</x:v>
@@ -82145,7 +82148,7 @@
     </x:row>
     <x:row r="2511" spans="1:10">
       <x:c r="A2511" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2511" s="0" t="s">
         <x:v>41</x:v>
@@ -82177,7 +82180,7 @@
     </x:row>
     <x:row r="2512" spans="1:10">
       <x:c r="A2512" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2512" s="0" t="s">
         <x:v>41</x:v>
@@ -82209,7 +82212,7 @@
     </x:row>
     <x:row r="2513" spans="1:10">
       <x:c r="A2513" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2513" s="0" t="s">
         <x:v>43</x:v>
@@ -82241,7 +82244,7 @@
     </x:row>
     <x:row r="2514" spans="1:10">
       <x:c r="A2514" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2514" s="0" t="s">
         <x:v>43</x:v>
@@ -82273,7 +82276,7 @@
     </x:row>
     <x:row r="2515" spans="1:10">
       <x:c r="A2515" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2515" s="0" t="s">
         <x:v>43</x:v>
@@ -82305,7 +82308,7 @@
     </x:row>
     <x:row r="2516" spans="1:10">
       <x:c r="A2516" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2516" s="0" t="s">
         <x:v>44</x:v>
@@ -82337,7 +82340,7 @@
     </x:row>
     <x:row r="2517" spans="1:10">
       <x:c r="A2517" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2517" s="0" t="s">
         <x:v>44</x:v>
@@ -82369,7 +82372,7 @@
     </x:row>
     <x:row r="2518" spans="1:10">
       <x:c r="A2518" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2518" s="0" t="s">
         <x:v>44</x:v>
@@ -82401,7 +82404,7 @@
     </x:row>
     <x:row r="2519" spans="1:10">
       <x:c r="A2519" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2519" s="0" t="s">
         <x:v>11</x:v>
@@ -82433,7 +82436,7 @@
     </x:row>
     <x:row r="2520" spans="1:10">
       <x:c r="A2520" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2520" s="0" t="s">
         <x:v>11</x:v>
@@ -82465,7 +82468,7 @@
     </x:row>
     <x:row r="2521" spans="1:10">
       <x:c r="A2521" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2521" s="0" t="s">
         <x:v>11</x:v>
@@ -82497,7 +82500,7 @@
     </x:row>
     <x:row r="2522" spans="1:10">
       <x:c r="A2522" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2522" s="0" t="s">
         <x:v>26</x:v>
@@ -82529,7 +82532,7 @@
     </x:row>
     <x:row r="2523" spans="1:10">
       <x:c r="A2523" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2523" s="0" t="s">
         <x:v>26</x:v>
@@ -82561,7 +82564,7 @@
     </x:row>
     <x:row r="2524" spans="1:10">
       <x:c r="A2524" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2524" s="0" t="s">
         <x:v>28</x:v>
@@ -82593,7 +82596,7 @@
     </x:row>
     <x:row r="2525" spans="1:10">
       <x:c r="A2525" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2525" s="0" t="s">
         <x:v>28</x:v>
@@ -82625,7 +82628,7 @@
     </x:row>
     <x:row r="2526" spans="1:10">
       <x:c r="A2526" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2526" s="0" t="s">
         <x:v>28</x:v>
@@ -82657,7 +82660,7 @@
     </x:row>
     <x:row r="2527" spans="1:10">
       <x:c r="A2527" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2527" s="0" t="s">
         <x:v>30</x:v>
@@ -82689,7 +82692,7 @@
     </x:row>
     <x:row r="2528" spans="1:10">
       <x:c r="A2528" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2528" s="0" t="s">
         <x:v>30</x:v>
@@ -82721,7 +82724,7 @@
     </x:row>
     <x:row r="2529" spans="1:10">
       <x:c r="A2529" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2529" s="0" t="s">
         <x:v>30</x:v>
@@ -82753,7 +82756,7 @@
     </x:row>
     <x:row r="2530" spans="1:10">
       <x:c r="A2530" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2530" s="0" t="s">
         <x:v>31</x:v>
@@ -82785,7 +82788,7 @@
     </x:row>
     <x:row r="2531" spans="1:10">
       <x:c r="A2531" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2531" s="0" t="s">
         <x:v>31</x:v>
@@ -82817,7 +82820,7 @@
     </x:row>
     <x:row r="2532" spans="1:10">
       <x:c r="A2532" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2532" s="0" t="s">
         <x:v>31</x:v>
@@ -82849,7 +82852,7 @@
     </x:row>
     <x:row r="2533" spans="1:10">
       <x:c r="A2533" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2533" s="0" t="s">
         <x:v>140</x:v>
@@ -82881,7 +82884,7 @@
     </x:row>
     <x:row r="2534" spans="1:10">
       <x:c r="A2534" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2534" s="0" t="s">
         <x:v>140</x:v>
@@ -82913,7 +82916,7 @@
     </x:row>
     <x:row r="2535" spans="1:10">
       <x:c r="A2535" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2535" s="0" t="s">
         <x:v>84</x:v>
@@ -82945,7 +82948,7 @@
     </x:row>
     <x:row r="2536" spans="1:10">
       <x:c r="A2536" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2536" s="0" t="s">
         <x:v>84</x:v>
@@ -82977,7 +82980,7 @@
     </x:row>
     <x:row r="2537" spans="1:10">
       <x:c r="A2537" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2537" s="0" t="s">
         <x:v>84</x:v>
@@ -83009,7 +83012,7 @@
     </x:row>
     <x:row r="2538" spans="1:10">
       <x:c r="A2538" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2538" s="0" t="s">
         <x:v>94</x:v>
@@ -83041,7 +83044,7 @@
     </x:row>
     <x:row r="2539" spans="1:10">
       <x:c r="A2539" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2539" s="0" t="s">
         <x:v>94</x:v>
@@ -83073,7 +83076,7 @@
     </x:row>
     <x:row r="2540" spans="1:10">
       <x:c r="A2540" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2540" s="0" t="s">
         <x:v>96</x:v>
@@ -83105,7 +83108,7 @@
     </x:row>
     <x:row r="2541" spans="1:10">
       <x:c r="A2541" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2541" s="0" t="s">
         <x:v>96</x:v>
@@ -83137,7 +83140,7 @@
     </x:row>
     <x:row r="2542" spans="1:10">
       <x:c r="A2542" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2542" s="0" t="s">
         <x:v>37</x:v>
@@ -83169,7 +83172,7 @@
     </x:row>
     <x:row r="2543" spans="1:10">
       <x:c r="A2543" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2543" s="0" t="s">
         <x:v>37</x:v>
@@ -83201,7 +83204,7 @@
     </x:row>
     <x:row r="2544" spans="1:10">
       <x:c r="A2544" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2544" s="0" t="s">
         <x:v>37</x:v>
@@ -83233,7 +83236,7 @@
     </x:row>
     <x:row r="2545" spans="1:10">
       <x:c r="A2545" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2545" s="0" t="s">
         <x:v>38</x:v>
@@ -83265,7 +83268,7 @@
     </x:row>
     <x:row r="2546" spans="1:10">
       <x:c r="A2546" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2546" s="0" t="s">
         <x:v>38</x:v>
@@ -83297,7 +83300,7 @@
     </x:row>
     <x:row r="2547" spans="1:10">
       <x:c r="A2547" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2547" s="0" t="s">
         <x:v>115</x:v>
@@ -83329,7 +83332,7 @@
     </x:row>
     <x:row r="2548" spans="1:10">
       <x:c r="A2548" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2548" s="0" t="s">
         <x:v>115</x:v>
@@ -83361,7 +83364,7 @@
     </x:row>
     <x:row r="2549" spans="1:10">
       <x:c r="A2549" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2549" s="0" t="s">
         <x:v>116</x:v>
@@ -83393,7 +83396,7 @@
     </x:row>
     <x:row r="2550" spans="1:10">
       <x:c r="A2550" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2550" s="0" t="s">
         <x:v>116</x:v>
@@ -83425,7 +83428,7 @@
     </x:row>
     <x:row r="2551" spans="1:10">
       <x:c r="A2551" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2551" s="0" t="s">
         <x:v>39</x:v>
@@ -83457,7 +83460,7 @@
     </x:row>
     <x:row r="2552" spans="1:10">
       <x:c r="A2552" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2552" s="0" t="s">
         <x:v>39</x:v>
@@ -83489,7 +83492,7 @@
     </x:row>
     <x:row r="2553" spans="1:10">
       <x:c r="A2553" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2553" s="0" t="s">
         <x:v>39</x:v>
@@ -83521,7 +83524,7 @@
     </x:row>
     <x:row r="2554" spans="1:10">
       <x:c r="A2554" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2554" s="0" t="s">
         <x:v>40</x:v>
@@ -83553,7 +83556,7 @@
     </x:row>
     <x:row r="2555" spans="1:10">
       <x:c r="A2555" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2555" s="0" t="s">
         <x:v>40</x:v>
@@ -83585,7 +83588,7 @@
     </x:row>
     <x:row r="2556" spans="1:10">
       <x:c r="A2556" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2556" s="0" t="s">
         <x:v>40</x:v>
@@ -83617,7 +83620,7 @@
     </x:row>
     <x:row r="2557" spans="1:10">
       <x:c r="A2557" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2557" s="0" t="s">
         <x:v>41</x:v>
@@ -83649,7 +83652,7 @@
     </x:row>
     <x:row r="2558" spans="1:10">
       <x:c r="A2558" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B2558" s="0" t="s">
         <x:v>41</x:v>
@@ -83681,7 +83684,7 @@
     </x:row>
     <x:row r="2559" spans="1:10">
       <x:c r="A2559" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2559" s="0" t="s">
         <x:v>43</x:v>
@@ -83713,7 +83716,7 @@
     </x:row>
     <x:row r="2560" spans="1:10">
       <x:c r="A2560" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2560" s="0" t="s">
         <x:v>43</x:v>
@@ -83745,7 +83748,7 @@
     </x:row>
     <x:row r="2561" spans="1:10">
       <x:c r="A2561" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2561" s="0" t="s">
         <x:v>43</x:v>
@@ -83777,7 +83780,7 @@
     </x:row>
     <x:row r="2562" spans="1:10">
       <x:c r="A2562" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2562" s="0" t="s">
         <x:v>44</x:v>
@@ -83809,7 +83812,7 @@
     </x:row>
     <x:row r="2563" spans="1:10">
       <x:c r="A2563" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2563" s="0" t="s">
         <x:v>44</x:v>
@@ -83841,7 +83844,7 @@
     </x:row>
     <x:row r="2564" spans="1:10">
       <x:c r="A2564" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2564" s="0" t="s">
         <x:v>11</x:v>
@@ -83873,7 +83876,7 @@
     </x:row>
     <x:row r="2565" spans="1:10">
       <x:c r="A2565" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2565" s="0" t="s">
         <x:v>11</x:v>
@@ -83905,7 +83908,7 @@
     </x:row>
     <x:row r="2566" spans="1:10">
       <x:c r="A2566" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2566" s="0" t="s">
         <x:v>11</x:v>
@@ -83932,12 +83935,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2566" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="2567" spans="1:10">
       <x:c r="A2567" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2567" s="0" t="s">
         <x:v>26</x:v>
@@ -83969,7 +83972,7 @@
     </x:row>
     <x:row r="2568" spans="1:10">
       <x:c r="A2568" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2568" s="0" t="s">
         <x:v>26</x:v>
@@ -84001,7 +84004,7 @@
     </x:row>
     <x:row r="2569" spans="1:10">
       <x:c r="A2569" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2569" s="0" t="s">
         <x:v>26</x:v>
@@ -84033,7 +84036,7 @@
     </x:row>
     <x:row r="2570" spans="1:10">
       <x:c r="A2570" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2570" s="0" t="s">
         <x:v>28</x:v>
@@ -84065,7 +84068,7 @@
     </x:row>
     <x:row r="2571" spans="1:10">
       <x:c r="A2571" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2571" s="0" t="s">
         <x:v>28</x:v>
@@ -84097,7 +84100,7 @@
     </x:row>
     <x:row r="2572" spans="1:10">
       <x:c r="A2572" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2572" s="0" t="s">
         <x:v>28</x:v>
@@ -84129,7 +84132,7 @@
     </x:row>
     <x:row r="2573" spans="1:10">
       <x:c r="A2573" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2573" s="0" t="s">
         <x:v>30</x:v>
@@ -84161,7 +84164,7 @@
     </x:row>
     <x:row r="2574" spans="1:10">
       <x:c r="A2574" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2574" s="0" t="s">
         <x:v>30</x:v>
@@ -84193,7 +84196,7 @@
     </x:row>
     <x:row r="2575" spans="1:10">
       <x:c r="A2575" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2575" s="0" t="s">
         <x:v>30</x:v>
@@ -84225,7 +84228,7 @@
     </x:row>
     <x:row r="2576" spans="1:10">
       <x:c r="A2576" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2576" s="0" t="s">
         <x:v>31</x:v>
@@ -84257,7 +84260,7 @@
     </x:row>
     <x:row r="2577" spans="1:10">
       <x:c r="A2577" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2577" s="0" t="s">
         <x:v>31</x:v>
@@ -84289,7 +84292,7 @@
     </x:row>
     <x:row r="2578" spans="1:10">
       <x:c r="A2578" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2578" s="0" t="s">
         <x:v>31</x:v>
@@ -84316,12 +84319,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2578" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
     </x:row>
     <x:row r="2579" spans="1:10">
       <x:c r="A2579" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2579" s="0" t="s">
         <x:v>84</x:v>
@@ -84353,7 +84356,7 @@
     </x:row>
     <x:row r="2580" spans="1:10">
       <x:c r="A2580" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2580" s="0" t="s">
         <x:v>84</x:v>
@@ -84385,7 +84388,7 @@
     </x:row>
     <x:row r="2581" spans="1:10">
       <x:c r="A2581" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2581" s="0" t="s">
         <x:v>84</x:v>
@@ -84417,7 +84420,7 @@
     </x:row>
     <x:row r="2582" spans="1:10">
       <x:c r="A2582" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2582" s="0" t="s">
         <x:v>94</x:v>
@@ -84449,7 +84452,7 @@
     </x:row>
     <x:row r="2583" spans="1:10">
       <x:c r="A2583" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2583" s="0" t="s">
         <x:v>94</x:v>
@@ -84481,7 +84484,7 @@
     </x:row>
     <x:row r="2584" spans="1:10">
       <x:c r="A2584" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2584" s="0" t="s">
         <x:v>37</x:v>
@@ -84513,7 +84516,7 @@
     </x:row>
     <x:row r="2585" spans="1:10">
       <x:c r="A2585" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2585" s="0" t="s">
         <x:v>37</x:v>
@@ -84545,7 +84548,7 @@
     </x:row>
     <x:row r="2586" spans="1:10">
       <x:c r="A2586" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2586" s="0" t="s">
         <x:v>37</x:v>
@@ -84572,12 +84575,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2586" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="2587" spans="1:10">
       <x:c r="A2587" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2587" s="0" t="s">
         <x:v>38</x:v>
@@ -84609,7 +84612,7 @@
     </x:row>
     <x:row r="2588" spans="1:10">
       <x:c r="A2588" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2588" s="0" t="s">
         <x:v>38</x:v>
@@ -84641,7 +84644,7 @@
     </x:row>
     <x:row r="2589" spans="1:10">
       <x:c r="A2589" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2589" s="0" t="s">
         <x:v>115</x:v>
@@ -84673,7 +84676,7 @@
     </x:row>
     <x:row r="2590" spans="1:10">
       <x:c r="A2590" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2590" s="0" t="s">
         <x:v>115</x:v>
@@ -84705,7 +84708,7 @@
     </x:row>
     <x:row r="2591" spans="1:10">
       <x:c r="A2591" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2591" s="0" t="s">
         <x:v>116</x:v>
@@ -84737,7 +84740,7 @@
     </x:row>
     <x:row r="2592" spans="1:10">
       <x:c r="A2592" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2592" s="0" t="s">
         <x:v>116</x:v>
@@ -84769,7 +84772,7 @@
     </x:row>
     <x:row r="2593" spans="1:10">
       <x:c r="A2593" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2593" s="0" t="s">
         <x:v>116</x:v>
@@ -84801,7 +84804,7 @@
     </x:row>
     <x:row r="2594" spans="1:10">
       <x:c r="A2594" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2594" s="0" t="s">
         <x:v>39</x:v>
@@ -84833,7 +84836,7 @@
     </x:row>
     <x:row r="2595" spans="1:10">
       <x:c r="A2595" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2595" s="0" t="s">
         <x:v>39</x:v>
@@ -84865,7 +84868,7 @@
     </x:row>
     <x:row r="2596" spans="1:10">
       <x:c r="A2596" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2596" s="0" t="s">
         <x:v>40</x:v>
@@ -84897,7 +84900,7 @@
     </x:row>
     <x:row r="2597" spans="1:10">
       <x:c r="A2597" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2597" s="0" t="s">
         <x:v>40</x:v>
@@ -84929,7 +84932,7 @@
     </x:row>
     <x:row r="2598" spans="1:10">
       <x:c r="A2598" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2598" s="0" t="s">
         <x:v>40</x:v>
@@ -84961,7 +84964,7 @@
     </x:row>
     <x:row r="2599" spans="1:10">
       <x:c r="A2599" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2599" s="0" t="s">
         <x:v>41</x:v>
@@ -84993,7 +84996,7 @@
     </x:row>
     <x:row r="2600" spans="1:10">
       <x:c r="A2600" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2600" s="0" t="s">
         <x:v>41</x:v>
@@ -85025,7 +85028,7 @@
     </x:row>
     <x:row r="2601" spans="1:10">
       <x:c r="A2601" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B2601" s="0" t="s">
         <x:v>41</x:v>
@@ -85057,7 +85060,7 @@
     </x:row>
     <x:row r="2602" spans="1:10">
       <x:c r="A2602" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2602" s="0" t="s">
         <x:v>43</x:v>
@@ -85089,7 +85092,7 @@
     </x:row>
     <x:row r="2603" spans="1:10">
       <x:c r="A2603" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2603" s="0" t="s">
         <x:v>43</x:v>
@@ -85121,7 +85124,7 @@
     </x:row>
     <x:row r="2604" spans="1:10">
       <x:c r="A2604" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2604" s="0" t="s">
         <x:v>11</x:v>
@@ -85153,7 +85156,7 @@
     </x:row>
     <x:row r="2605" spans="1:10">
       <x:c r="A2605" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2605" s="0" t="s">
         <x:v>11</x:v>
@@ -85185,7 +85188,7 @@
     </x:row>
     <x:row r="2606" spans="1:10">
       <x:c r="A2606" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2606" s="0" t="s">
         <x:v>11</x:v>
@@ -85217,7 +85220,7 @@
     </x:row>
     <x:row r="2607" spans="1:10">
       <x:c r="A2607" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2607" s="0" t="s">
         <x:v>26</x:v>
@@ -85249,7 +85252,7 @@
     </x:row>
     <x:row r="2608" spans="1:10">
       <x:c r="A2608" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2608" s="0" t="s">
         <x:v>26</x:v>
@@ -85281,7 +85284,7 @@
     </x:row>
     <x:row r="2609" spans="1:10">
       <x:c r="A2609" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2609" s="0" t="s">
         <x:v>26</x:v>
@@ -85313,7 +85316,7 @@
     </x:row>
     <x:row r="2610" spans="1:10">
       <x:c r="A2610" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2610" s="0" t="s">
         <x:v>28</x:v>
@@ -85345,7 +85348,7 @@
     </x:row>
     <x:row r="2611" spans="1:10">
       <x:c r="A2611" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2611" s="0" t="s">
         <x:v>28</x:v>
@@ -85377,7 +85380,7 @@
     </x:row>
     <x:row r="2612" spans="1:10">
       <x:c r="A2612" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2612" s="0" t="s">
         <x:v>30</x:v>
@@ -85409,7 +85412,7 @@
     </x:row>
     <x:row r="2613" spans="1:10">
       <x:c r="A2613" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2613" s="0" t="s">
         <x:v>30</x:v>
@@ -85441,7 +85444,7 @@
     </x:row>
     <x:row r="2614" spans="1:10">
       <x:c r="A2614" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2614" s="0" t="s">
         <x:v>31</x:v>
@@ -85473,7 +85476,7 @@
     </x:row>
     <x:row r="2615" spans="1:10">
       <x:c r="A2615" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2615" s="0" t="s">
         <x:v>31</x:v>
@@ -85505,7 +85508,7 @@
     </x:row>
     <x:row r="2616" spans="1:10">
       <x:c r="A2616" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2616" s="0" t="s">
         <x:v>31</x:v>
@@ -85537,7 +85540,7 @@
     </x:row>
     <x:row r="2617" spans="1:10">
       <x:c r="A2617" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2617" s="0" t="s">
         <x:v>96</x:v>
@@ -85569,7 +85572,7 @@
     </x:row>
     <x:row r="2618" spans="1:10">
       <x:c r="A2618" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2618" s="0" t="s">
         <x:v>96</x:v>
@@ -85601,7 +85604,7 @@
     </x:row>
     <x:row r="2619" spans="1:10">
       <x:c r="A2619" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2619" s="0" t="s">
         <x:v>37</x:v>
@@ -85633,7 +85636,7 @@
     </x:row>
     <x:row r="2620" spans="1:10">
       <x:c r="A2620" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2620" s="0" t="s">
         <x:v>37</x:v>
@@ -85665,7 +85668,7 @@
     </x:row>
     <x:row r="2621" spans="1:10">
       <x:c r="A2621" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2621" s="0" t="s">
         <x:v>37</x:v>
@@ -85697,7 +85700,7 @@
     </x:row>
     <x:row r="2622" spans="1:10">
       <x:c r="A2622" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2622" s="0" t="s">
         <x:v>38</x:v>
@@ -85729,7 +85732,7 @@
     </x:row>
     <x:row r="2623" spans="1:10">
       <x:c r="A2623" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2623" s="0" t="s">
         <x:v>38</x:v>
@@ -85761,7 +85764,7 @@
     </x:row>
     <x:row r="2624" spans="1:10">
       <x:c r="A2624" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2624" s="0" t="s">
         <x:v>38</x:v>
@@ -85793,7 +85796,7 @@
     </x:row>
     <x:row r="2625" spans="1:10">
       <x:c r="A2625" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2625" s="0" t="s">
         <x:v>115</x:v>
@@ -85825,7 +85828,7 @@
     </x:row>
     <x:row r="2626" spans="1:10">
       <x:c r="A2626" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2626" s="0" t="s">
         <x:v>115</x:v>
@@ -85857,7 +85860,7 @@
     </x:row>
     <x:row r="2627" spans="1:10">
       <x:c r="A2627" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2627" s="0" t="s">
         <x:v>39</x:v>
@@ -85889,7 +85892,7 @@
     </x:row>
     <x:row r="2628" spans="1:10">
       <x:c r="A2628" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2628" s="0" t="s">
         <x:v>39</x:v>
@@ -85921,7 +85924,7 @@
     </x:row>
     <x:row r="2629" spans="1:10">
       <x:c r="A2629" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2629" s="0" t="s">
         <x:v>40</x:v>
@@ -85953,7 +85956,7 @@
     </x:row>
     <x:row r="2630" spans="1:10">
       <x:c r="A2630" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2630" s="0" t="s">
         <x:v>40</x:v>
@@ -85985,7 +85988,7 @@
     </x:row>
     <x:row r="2631" spans="1:10">
       <x:c r="A2631" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2631" s="0" t="s">
         <x:v>41</x:v>
@@ -86017,7 +86020,7 @@
     </x:row>
     <x:row r="2632" spans="1:10">
       <x:c r="A2632" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B2632" s="0" t="s">
         <x:v>41</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9997,7 +9997,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D256" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E256" s="1" t="s">
         <x:v>13</x:v>
@@ -10015,7 +10015,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J256" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:10">
@@ -10029,7 +10029,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D257" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E257" s="1" t="s">
         <x:v>16</x:v>
@@ -10047,7 +10047,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J257" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -760,16 +760,16 @@
     <x:t>137</x:t>
   </x:si>
   <x:si>
-    <x:t>200</x:t>
+    <x:t>201</x:t>
   </x:si>
   <x:si>
     <x:t>298</x:t>
   </x:si>
   <x:si>
-    <x:t>953</x:t>
+    <x:t>954</x:t>
   </x:si>
   <x:si>
-    <x:t>531</x:t>
+    <x:t>532</x:t>
   </x:si>
   <x:si>
     <x:t>967</x:t>
@@ -781,13 +781,13 @@
     <x:t>424</x:t>
   </x:si>
   <x:si>
-    <x:t>3033</x:t>
+    <x:t>3034</x:t>
   </x:si>
   <x:si>
     <x:t>312</x:t>
   </x:si>
   <x:si>
-    <x:t>731</x:t>
+    <x:t>733</x:t>
   </x:si>
   <x:si>
     <x:t>1265</x:t>
@@ -799,7 +799,7 @@
     <x:t>521</x:t>
   </x:si>
   <x:si>
-    <x:t>3986</x:t>
+    <x:t>3988</x:t>
   </x:si>
   <x:si>
     <x:t>337</x:t>
@@ -829,16 +829,16 @@
     <x:t>187</x:t>
   </x:si>
   <x:si>
-    <x:t>314</x:t>
+    <x:t>313</x:t>
   </x:si>
   <x:si>
-    <x:t>791</x:t>
+    <x:t>790</x:t>
   </x:si>
   <x:si>
     <x:t>501</x:t>
   </x:si>
   <x:si>
-    <x:t>926</x:t>
+    <x:t>925</x:t>
   </x:si>
   <x:si>
     <x:t>713</x:t>
@@ -847,13 +847,13 @@
     <x:t>198</x:t>
   </x:si>
   <x:si>
-    <x:t>2384</x:t>
+    <x:t>2383</x:t>
   </x:si>
   <x:si>
     <x:t>688</x:t>
   </x:si>
   <x:si>
-    <x:t>1240</x:t>
+    <x:t>1238</x:t>
   </x:si>
   <x:si>
     <x:t>947</x:t>
@@ -862,7 +862,7 @@
     <x:t>233</x:t>
   </x:si>
   <x:si>
-    <x:t>3175</x:t>
+    <x:t>3173</x:t>
   </x:si>
   <x:si>
     <x:t>Extortion/Blackmail</x:t>
@@ -907,13 +907,13 @@
     <x:t>816</x:t>
   </x:si>
   <x:si>
-    <x:t>651</x:t>
+    <x:t>653</x:t>
   </x:si>
   <x:si>
     <x:t>307</x:t>
   </x:si>
   <x:si>
-    <x:t>2458</x:t>
+    <x:t>2460</x:t>
   </x:si>
   <x:si>
     <x:t>352</x:t>
@@ -925,13 +925,13 @@
     <x:t>1394</x:t>
   </x:si>
   <x:si>
-    <x:t>1152</x:t>
+    <x:t>1154</x:t>
   </x:si>
   <x:si>
     <x:t>490</x:t>
   </x:si>
   <x:si>
-    <x:t>4403</x:t>
+    <x:t>4405</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -1186,6 +1186,9 @@
     <x:t>246</x:t>
   </x:si>
   <x:si>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
     <x:t>143</x:t>
   </x:si>
   <x:si>
@@ -1193,9 +1196,6 @@
   </x:si>
   <x:si>
     <x:t>260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>790</x:t>
   </x:si>
   <x:si>
     <x:t>181</x:t>
@@ -1276,13 +1276,13 @@
     <x:t>Scott</x:t>
   </x:si>
   <x:si>
-    <x:t>253</x:t>
+    <x:t>254</x:t>
   </x:si>
   <x:si>
     <x:t>94</x:t>
   </x:si>
   <x:si>
-    <x:t>339</x:t>
+    <x:t>341</x:t>
   </x:si>
   <x:si>
     <x:t>299</x:t>
@@ -58600,7 +58600,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1774" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="1775" spans="1:10">
@@ -58649,13 +58649,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E1776" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="F1776" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="G1776" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="H1776" s="1" t="s">
         <x:v>177</x:v>
@@ -58664,7 +58664,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1776" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="1777" spans="1:10">
@@ -65119,7 +65119,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="G1978" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H1978" s="1" t="s">
         <x:v>32</x:v>
@@ -65128,7 +65128,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1978" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="1979" spans="1:10">
@@ -65142,7 +65142,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D1979" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E1979" s="1" t="s">
         <x:v>143</x:v>
@@ -65174,7 +65174,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1980" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E1980" s="1" t="s">
         <x:v>92</x:v>
@@ -65183,7 +65183,7 @@
         <x:v>421</x:v>
       </x:c>
       <x:c r="G1980" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="H1980" s="1" t="s">
         <x:v>66</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -667,7 +667,7 @@
     <x:t>115</x:t>
   </x:si>
   <x:si>
-    <x:t>118</x:t>
+    <x:t>198</x:t>
   </x:si>
   <x:si>
     <x:t>157</x:t>
@@ -820,6 +820,9 @@
     <x:t>151</x:t>
   </x:si>
   <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
     <x:t>451</x:t>
   </x:si>
   <x:si>
@@ -842,9 +845,6 @@
   </x:si>
   <x:si>
     <x:t>712</x:t>
-  </x:si>
-  <x:si>
-    <x:t>198</x:t>
   </x:si>
   <x:si>
     <x:t>2378</x:t>
@@ -20901,7 +20901,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="G596" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H596" s="1" t="s">
         <x:v>112</x:v>
@@ -20910,7 +20910,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J596" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -20933,7 +20933,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="G597" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H597" s="1" t="s">
         <x:v>62</x:v>
@@ -20942,7 +20942,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J597" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -29029,7 +29029,7 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="G850" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H850" s="1" t="s">
         <x:v>33</x:v>
@@ -29038,7 +29038,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J850" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
@@ -29055,13 +29055,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E851" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F851" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G851" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="H851" s="1" t="s">
         <x:v>70</x:v>
@@ -29070,7 +29070,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J851" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -29087,16 +29087,16 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E852" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F852" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G852" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="H852" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I852" s="0" t="s">
         <x:v>14</x:v>
@@ -29128,7 +29128,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="H853" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I853" s="0" t="s">
         <x:v>14</x:v>
@@ -30146,7 +30146,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="F885" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="G885" s="1" t="s">
         <x:v>66</x:v>
@@ -30437,7 +30437,7 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="G894" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H894" s="1" t="s">
         <x:v>48</x:v>
@@ -58670,7 +58670,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1776" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="1777" spans="1:10">
@@ -59935,7 +59935,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E1816" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F1816" s="1" t="s">
         <x:v>395</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -679,9 +679,6 @@
     <x:t>115</x:t>
   </x:si>
   <x:si>
-    <x:t>198</x:t>
-  </x:si>
-  <x:si>
     <x:t>234</x:t>
   </x:si>
   <x:si>
@@ -850,10 +847,10 @@
     <x:t>922</x:t>
   </x:si>
   <x:si>
-    <x:t>712</x:t>
+    <x:t>714</x:t>
   </x:si>
   <x:si>
-    <x:t>2379</x:t>
+    <x:t>2381</x:t>
   </x:si>
   <x:si>
     <x:t>687</x:t>
@@ -862,10 +859,10 @@
     <x:t>1235</x:t>
   </x:si>
   <x:si>
-    <x:t>945</x:t>
+    <x:t>947</x:t>
   </x:si>
   <x:si>
-    <x:t>3168</x:t>
+    <x:t>3170</x:t>
   </x:si>
   <x:si>
     <x:t>Extortion/Blackmail</x:t>
@@ -980,6 +977,9 @@
   </x:si>
   <x:si>
     <x:t>950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
   </x:si>
   <x:si>
     <x:t>1054</x:t>
@@ -1327,19 +1327,19 @@
     <x:t>384</x:t>
   </x:si>
   <x:si>
-    <x:t>149</x:t>
+    <x:t>341</x:t>
   </x:si>
   <x:si>
-    <x:t>454</x:t>
+    <x:t>455</x:t>
   </x:si>
   <x:si>
-    <x:t>261</x:t>
+    <x:t>262</x:t>
   </x:si>
   <x:si>
-    <x:t>263</x:t>
+    <x:t>264</x:t>
   </x:si>
   <x:si>
-    <x:t>794</x:t>
+    <x:t>796</x:t>
   </x:si>
   <x:si>
     <x:t>Stearns</x:t>
@@ -1361,6 +1361,9 @@
   </x:si>
   <x:si>
     <x:t>346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
   </x:si>
   <x:si>
     <x:t>477</x:t>
@@ -1420,7 +1423,13 @@
     <x:t>124</x:t>
   </x:si>
   <x:si>
-    <x:t>476</x:t>
+    <x:t>351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>475</x:t>
   </x:si>
   <x:si>
     <x:t>445</x:t>
@@ -20901,7 +20910,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F596" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G596" s="1" t="s">
         <x:v>188</x:v>
@@ -20913,7 +20922,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J596" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="597" spans="1:10">
@@ -20933,7 +20942,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F597" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G597" s="1" t="s">
         <x:v>178</x:v>
@@ -20945,7 +20954,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J597" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="598" spans="1:10">
@@ -21160,7 +21169,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G604" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H604" s="1" t="s">
         <x:v>83</x:v>
@@ -21169,7 +21178,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J604" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -21186,13 +21195,13 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="E605" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="F605" s="1" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="F605" s="1" t="s">
+      <x:c r="G605" s="1" t="s">
         <x:v>225</x:v>
-      </x:c>
-      <x:c r="G605" s="1" t="s">
-        <x:v>226</x:v>
       </x:c>
       <x:c r="H605" s="1" t="s">
         <x:v>126</x:v>
@@ -21201,7 +21210,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J605" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -21215,25 +21224,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D606" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="E606" s="1" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="E606" s="1" t="s">
+      <x:c r="F606" s="1" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="F606" s="1" t="s">
+      <x:c r="G606" s="1" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="G606" s="1" t="s">
+      <x:c r="H606" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="I606" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J606" s="0" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="H606" s="1" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="I606" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J606" s="0" t="s">
-        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="607" spans="1:10">
@@ -21814,7 +21823,7 @@
     </x:row>
     <x:row r="625" spans="1:10">
       <x:c r="A625" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
         <x:v>43</x:v>
@@ -21846,7 +21855,7 @@
     </x:row>
     <x:row r="626" spans="1:10">
       <x:c r="A626" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
         <x:v>43</x:v>
@@ -21878,7 +21887,7 @@
     </x:row>
     <x:row r="627" spans="1:10">
       <x:c r="A627" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
         <x:v>43</x:v>
@@ -21910,7 +21919,7 @@
     </x:row>
     <x:row r="628" spans="1:10">
       <x:c r="A628" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
         <x:v>11</x:v>
@@ -21942,7 +21951,7 @@
     </x:row>
     <x:row r="629" spans="1:10">
       <x:c r="A629" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>11</x:v>
@@ -21974,7 +21983,7 @@
     </x:row>
     <x:row r="630" spans="1:10">
       <x:c r="A630" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
         <x:v>11</x:v>
@@ -22006,7 +22015,7 @@
     </x:row>
     <x:row r="631" spans="1:10">
       <x:c r="A631" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
         <x:v>26</x:v>
@@ -22038,7 +22047,7 @@
     </x:row>
     <x:row r="632" spans="1:10">
       <x:c r="A632" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>26</x:v>
@@ -22070,7 +22079,7 @@
     </x:row>
     <x:row r="633" spans="1:10">
       <x:c r="A633" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
         <x:v>26</x:v>
@@ -22102,7 +22111,7 @@
     </x:row>
     <x:row r="634" spans="1:10">
       <x:c r="A634" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
         <x:v>28</x:v>
@@ -22134,7 +22143,7 @@
     </x:row>
     <x:row r="635" spans="1:10">
       <x:c r="A635" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>28</x:v>
@@ -22166,7 +22175,7 @@
     </x:row>
     <x:row r="636" spans="1:10">
       <x:c r="A636" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
         <x:v>30</x:v>
@@ -22198,7 +22207,7 @@
     </x:row>
     <x:row r="637" spans="1:10">
       <x:c r="A637" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
         <x:v>30</x:v>
@@ -22230,7 +22239,7 @@
     </x:row>
     <x:row r="638" spans="1:10">
       <x:c r="A638" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
         <x:v>31</x:v>
@@ -22262,7 +22271,7 @@
     </x:row>
     <x:row r="639" spans="1:10">
       <x:c r="A639" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
         <x:v>31</x:v>
@@ -22294,7 +22303,7 @@
     </x:row>
     <x:row r="640" spans="1:10">
       <x:c r="A640" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
         <x:v>31</x:v>
@@ -22326,7 +22335,7 @@
     </x:row>
     <x:row r="641" spans="1:10">
       <x:c r="A641" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
         <x:v>85</x:v>
@@ -22358,7 +22367,7 @@
     </x:row>
     <x:row r="642" spans="1:10">
       <x:c r="A642" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
         <x:v>85</x:v>
@@ -22390,7 +22399,7 @@
     </x:row>
     <x:row r="643" spans="1:10">
       <x:c r="A643" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
         <x:v>85</x:v>
@@ -22422,7 +22431,7 @@
     </x:row>
     <x:row r="644" spans="1:10">
       <x:c r="A644" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
         <x:v>37</x:v>
@@ -22454,7 +22463,7 @@
     </x:row>
     <x:row r="645" spans="1:10">
       <x:c r="A645" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
         <x:v>37</x:v>
@@ -22486,7 +22495,7 @@
     </x:row>
     <x:row r="646" spans="1:10">
       <x:c r="A646" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
         <x:v>37</x:v>
@@ -22518,7 +22527,7 @@
     </x:row>
     <x:row r="647" spans="1:10">
       <x:c r="A647" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
         <x:v>38</x:v>
@@ -22550,7 +22559,7 @@
     </x:row>
     <x:row r="648" spans="1:10">
       <x:c r="A648" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
         <x:v>38</x:v>
@@ -22582,7 +22591,7 @@
     </x:row>
     <x:row r="649" spans="1:10">
       <x:c r="A649" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>39</x:v>
@@ -22614,7 +22623,7 @@
     </x:row>
     <x:row r="650" spans="1:10">
       <x:c r="A650" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
         <x:v>39</x:v>
@@ -22646,7 +22655,7 @@
     </x:row>
     <x:row r="651" spans="1:10">
       <x:c r="A651" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
         <x:v>40</x:v>
@@ -22678,7 +22687,7 @@
     </x:row>
     <x:row r="652" spans="1:10">
       <x:c r="A652" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
         <x:v>40</x:v>
@@ -22710,7 +22719,7 @@
     </x:row>
     <x:row r="653" spans="1:10">
       <x:c r="A653" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
         <x:v>40</x:v>
@@ -22742,7 +22751,7 @@
     </x:row>
     <x:row r="654" spans="1:10">
       <x:c r="A654" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
         <x:v>41</x:v>
@@ -22774,7 +22783,7 @@
     </x:row>
     <x:row r="655" spans="1:10">
       <x:c r="A655" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
         <x:v>41</x:v>
@@ -22806,7 +22815,7 @@
     </x:row>
     <x:row r="656" spans="1:10">
       <x:c r="A656" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>44</x:v>
@@ -22838,7 +22847,7 @@
     </x:row>
     <x:row r="657" spans="1:10">
       <x:c r="A657" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>44</x:v>
@@ -22870,7 +22879,7 @@
     </x:row>
     <x:row r="658" spans="1:10">
       <x:c r="A658" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
         <x:v>11</x:v>
@@ -22902,7 +22911,7 @@
     </x:row>
     <x:row r="659" spans="1:10">
       <x:c r="A659" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>11</x:v>
@@ -22934,7 +22943,7 @@
     </x:row>
     <x:row r="660" spans="1:10">
       <x:c r="A660" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
         <x:v>11</x:v>
@@ -22966,7 +22975,7 @@
     </x:row>
     <x:row r="661" spans="1:10">
       <x:c r="A661" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>26</x:v>
@@ -22998,7 +23007,7 @@
     </x:row>
     <x:row r="662" spans="1:10">
       <x:c r="A662" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>26</x:v>
@@ -23030,7 +23039,7 @@
     </x:row>
     <x:row r="663" spans="1:10">
       <x:c r="A663" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>26</x:v>
@@ -23062,7 +23071,7 @@
     </x:row>
     <x:row r="664" spans="1:10">
       <x:c r="A664" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>28</x:v>
@@ -23094,7 +23103,7 @@
     </x:row>
     <x:row r="665" spans="1:10">
       <x:c r="A665" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>28</x:v>
@@ -23126,7 +23135,7 @@
     </x:row>
     <x:row r="666" spans="1:10">
       <x:c r="A666" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>30</x:v>
@@ -23158,7 +23167,7 @@
     </x:row>
     <x:row r="667" spans="1:10">
       <x:c r="A667" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>30</x:v>
@@ -23190,7 +23199,7 @@
     </x:row>
     <x:row r="668" spans="1:10">
       <x:c r="A668" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>30</x:v>
@@ -23222,7 +23231,7 @@
     </x:row>
     <x:row r="669" spans="1:10">
       <x:c r="A669" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>31</x:v>
@@ -23254,7 +23263,7 @@
     </x:row>
     <x:row r="670" spans="1:10">
       <x:c r="A670" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
         <x:v>31</x:v>
@@ -23286,7 +23295,7 @@
     </x:row>
     <x:row r="671" spans="1:10">
       <x:c r="A671" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>31</x:v>
@@ -23313,12 +23322,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J671" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="672" spans="1:10">
       <x:c r="A672" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>142</x:v>
@@ -23350,7 +23359,7 @@
     </x:row>
     <x:row r="673" spans="1:10">
       <x:c r="A673" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>142</x:v>
@@ -23382,7 +23391,7 @@
     </x:row>
     <x:row r="674" spans="1:10">
       <x:c r="A674" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>85</x:v>
@@ -23414,7 +23423,7 @@
     </x:row>
     <x:row r="675" spans="1:10">
       <x:c r="A675" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>85</x:v>
@@ -23446,7 +23455,7 @@
     </x:row>
     <x:row r="676" spans="1:10">
       <x:c r="A676" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
         <x:v>85</x:v>
@@ -23478,7 +23487,7 @@
     </x:row>
     <x:row r="677" spans="1:10">
       <x:c r="A677" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>37</x:v>
@@ -23510,7 +23519,7 @@
     </x:row>
     <x:row r="678" spans="1:10">
       <x:c r="A678" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>37</x:v>
@@ -23542,7 +23551,7 @@
     </x:row>
     <x:row r="679" spans="1:10">
       <x:c r="A679" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>37</x:v>
@@ -23569,12 +23578,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J679" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="680" spans="1:10">
       <x:c r="A680" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
         <x:v>38</x:v>
@@ -23606,7 +23615,7 @@
     </x:row>
     <x:row r="681" spans="1:10">
       <x:c r="A681" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>38</x:v>
@@ -23638,7 +23647,7 @@
     </x:row>
     <x:row r="682" spans="1:10">
       <x:c r="A682" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>38</x:v>
@@ -23670,7 +23679,7 @@
     </x:row>
     <x:row r="683" spans="1:10">
       <x:c r="A683" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
         <x:v>118</x:v>
@@ -23702,7 +23711,7 @@
     </x:row>
     <x:row r="684" spans="1:10">
       <x:c r="A684" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
         <x:v>118</x:v>
@@ -23734,7 +23743,7 @@
     </x:row>
     <x:row r="685" spans="1:10">
       <x:c r="A685" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
         <x:v>39</x:v>
@@ -23766,7 +23775,7 @@
     </x:row>
     <x:row r="686" spans="1:10">
       <x:c r="A686" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
         <x:v>39</x:v>
@@ -23798,7 +23807,7 @@
     </x:row>
     <x:row r="687" spans="1:10">
       <x:c r="A687" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
         <x:v>40</x:v>
@@ -23830,7 +23839,7 @@
     </x:row>
     <x:row r="688" spans="1:10">
       <x:c r="A688" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
         <x:v>40</x:v>
@@ -23862,7 +23871,7 @@
     </x:row>
     <x:row r="689" spans="1:10">
       <x:c r="A689" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
         <x:v>41</x:v>
@@ -23894,7 +23903,7 @@
     </x:row>
     <x:row r="690" spans="1:10">
       <x:c r="A690" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
         <x:v>41</x:v>
@@ -23926,7 +23935,7 @@
     </x:row>
     <x:row r="691" spans="1:10">
       <x:c r="A691" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
         <x:v>41</x:v>
@@ -23958,7 +23967,7 @@
     </x:row>
     <x:row r="692" spans="1:10">
       <x:c r="A692" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
         <x:v>11</x:v>
@@ -23990,7 +23999,7 @@
     </x:row>
     <x:row r="693" spans="1:10">
       <x:c r="A693" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B693" s="0" t="s">
         <x:v>11</x:v>
@@ -24022,7 +24031,7 @@
     </x:row>
     <x:row r="694" spans="1:10">
       <x:c r="A694" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B694" s="0" t="s">
         <x:v>11</x:v>
@@ -24054,7 +24063,7 @@
     </x:row>
     <x:row r="695" spans="1:10">
       <x:c r="A695" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B695" s="0" t="s">
         <x:v>26</x:v>
@@ -24086,7 +24095,7 @@
     </x:row>
     <x:row r="696" spans="1:10">
       <x:c r="A696" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B696" s="0" t="s">
         <x:v>26</x:v>
@@ -24118,7 +24127,7 @@
     </x:row>
     <x:row r="697" spans="1:10">
       <x:c r="A697" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B697" s="0" t="s">
         <x:v>26</x:v>
@@ -24150,7 +24159,7 @@
     </x:row>
     <x:row r="698" spans="1:10">
       <x:c r="A698" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B698" s="0" t="s">
         <x:v>30</x:v>
@@ -24182,7 +24191,7 @@
     </x:row>
     <x:row r="699" spans="1:10">
       <x:c r="A699" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B699" s="0" t="s">
         <x:v>30</x:v>
@@ -24214,7 +24223,7 @@
     </x:row>
     <x:row r="700" spans="1:10">
       <x:c r="A700" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B700" s="0" t="s">
         <x:v>31</x:v>
@@ -24246,7 +24255,7 @@
     </x:row>
     <x:row r="701" spans="1:10">
       <x:c r="A701" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B701" s="0" t="s">
         <x:v>31</x:v>
@@ -24278,7 +24287,7 @@
     </x:row>
     <x:row r="702" spans="1:10">
       <x:c r="A702" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B702" s="0" t="s">
         <x:v>31</x:v>
@@ -24310,7 +24319,7 @@
     </x:row>
     <x:row r="703" spans="1:10">
       <x:c r="A703" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B703" s="0" t="s">
         <x:v>142</x:v>
@@ -24342,7 +24351,7 @@
     </x:row>
     <x:row r="704" spans="1:10">
       <x:c r="A704" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B704" s="0" t="s">
         <x:v>142</x:v>
@@ -24374,7 +24383,7 @@
     </x:row>
     <x:row r="705" spans="1:10">
       <x:c r="A705" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B705" s="0" t="s">
         <x:v>85</x:v>
@@ -24406,7 +24415,7 @@
     </x:row>
     <x:row r="706" spans="1:10">
       <x:c r="A706" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B706" s="0" t="s">
         <x:v>85</x:v>
@@ -24438,7 +24447,7 @@
     </x:row>
     <x:row r="707" spans="1:10">
       <x:c r="A707" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B707" s="0" t="s">
         <x:v>37</x:v>
@@ -24470,7 +24479,7 @@
     </x:row>
     <x:row r="708" spans="1:10">
       <x:c r="A708" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B708" s="0" t="s">
         <x:v>37</x:v>
@@ -24502,7 +24511,7 @@
     </x:row>
     <x:row r="709" spans="1:10">
       <x:c r="A709" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B709" s="0" t="s">
         <x:v>37</x:v>
@@ -24534,7 +24543,7 @@
     </x:row>
     <x:row r="710" spans="1:10">
       <x:c r="A710" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B710" s="0" t="s">
         <x:v>38</x:v>
@@ -24566,7 +24575,7 @@
     </x:row>
     <x:row r="711" spans="1:10">
       <x:c r="A711" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B711" s="0" t="s">
         <x:v>38</x:v>
@@ -24598,7 +24607,7 @@
     </x:row>
     <x:row r="712" spans="1:10">
       <x:c r="A712" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B712" s="0" t="s">
         <x:v>118</x:v>
@@ -24630,7 +24639,7 @@
     </x:row>
     <x:row r="713" spans="1:10">
       <x:c r="A713" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B713" s="0" t="s">
         <x:v>118</x:v>
@@ -24662,7 +24671,7 @@
     </x:row>
     <x:row r="714" spans="1:10">
       <x:c r="A714" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B714" s="0" t="s">
         <x:v>39</x:v>
@@ -24694,7 +24703,7 @@
     </x:row>
     <x:row r="715" spans="1:10">
       <x:c r="A715" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B715" s="0" t="s">
         <x:v>39</x:v>
@@ -24726,7 +24735,7 @@
     </x:row>
     <x:row r="716" spans="1:10">
       <x:c r="A716" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B716" s="0" t="s">
         <x:v>40</x:v>
@@ -24758,7 +24767,7 @@
     </x:row>
     <x:row r="717" spans="1:10">
       <x:c r="A717" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B717" s="0" t="s">
         <x:v>40</x:v>
@@ -24790,7 +24799,7 @@
     </x:row>
     <x:row r="718" spans="1:10">
       <x:c r="A718" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B718" s="0" t="s">
         <x:v>11</x:v>
@@ -24822,7 +24831,7 @@
     </x:row>
     <x:row r="719" spans="1:10">
       <x:c r="A719" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B719" s="0" t="s">
         <x:v>11</x:v>
@@ -24854,7 +24863,7 @@
     </x:row>
     <x:row r="720" spans="1:10">
       <x:c r="A720" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B720" s="0" t="s">
         <x:v>11</x:v>
@@ -24886,7 +24895,7 @@
     </x:row>
     <x:row r="721" spans="1:10">
       <x:c r="A721" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B721" s="0" t="s">
         <x:v>31</x:v>
@@ -24918,7 +24927,7 @@
     </x:row>
     <x:row r="722" spans="1:10">
       <x:c r="A722" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B722" s="0" t="s">
         <x:v>31</x:v>
@@ -24950,7 +24959,7 @@
     </x:row>
     <x:row r="723" spans="1:10">
       <x:c r="A723" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B723" s="0" t="s">
         <x:v>31</x:v>
@@ -24982,7 +24991,7 @@
     </x:row>
     <x:row r="724" spans="1:10">
       <x:c r="A724" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B724" s="0" t="s">
         <x:v>37</x:v>
@@ -25014,7 +25023,7 @@
     </x:row>
     <x:row r="725" spans="1:10">
       <x:c r="A725" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B725" s="0" t="s">
         <x:v>37</x:v>
@@ -25046,7 +25055,7 @@
     </x:row>
     <x:row r="726" spans="1:10">
       <x:c r="A726" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B726" s="0" t="s">
         <x:v>40</x:v>
@@ -25078,7 +25087,7 @@
     </x:row>
     <x:row r="727" spans="1:10">
       <x:c r="A727" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B727" s="0" t="s">
         <x:v>40</x:v>
@@ -25110,7 +25119,7 @@
     </x:row>
     <x:row r="728" spans="1:10">
       <x:c r="A728" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B728" s="0" t="s">
         <x:v>40</x:v>
@@ -25142,7 +25151,7 @@
     </x:row>
     <x:row r="729" spans="1:10">
       <x:c r="A729" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B729" s="0" t="s">
         <x:v>41</x:v>
@@ -25174,7 +25183,7 @@
     </x:row>
     <x:row r="730" spans="1:10">
       <x:c r="A730" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B730" s="0" t="s">
         <x:v>41</x:v>
@@ -25206,7 +25215,7 @@
     </x:row>
     <x:row r="731" spans="1:10">
       <x:c r="A731" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B731" s="0" t="s">
         <x:v>43</x:v>
@@ -25238,7 +25247,7 @@
     </x:row>
     <x:row r="732" spans="1:10">
       <x:c r="A732" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
         <x:v>43</x:v>
@@ -25270,7 +25279,7 @@
     </x:row>
     <x:row r="733" spans="1:10">
       <x:c r="A733" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B733" s="0" t="s">
         <x:v>44</x:v>
@@ -25302,7 +25311,7 @@
     </x:row>
     <x:row r="734" spans="1:10">
       <x:c r="A734" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
         <x:v>44</x:v>
@@ -25334,7 +25343,7 @@
     </x:row>
     <x:row r="735" spans="1:10">
       <x:c r="A735" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B735" s="0" t="s">
         <x:v>11</x:v>
@@ -25366,7 +25375,7 @@
     </x:row>
     <x:row r="736" spans="1:10">
       <x:c r="A736" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
         <x:v>11</x:v>
@@ -25398,7 +25407,7 @@
     </x:row>
     <x:row r="737" spans="1:10">
       <x:c r="A737" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B737" s="0" t="s">
         <x:v>11</x:v>
@@ -25425,15 +25434,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J737" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="738" spans="1:10">
       <x:c r="A738" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B738" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C738" s="1" t="s">
         <x:v>12</x:v>
@@ -25462,10 +25471,10 @@
     </x:row>
     <x:row r="739" spans="1:10">
       <x:c r="A739" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C739" s="1" t="s">
         <x:v>9</x:v>
@@ -25494,7 +25503,7 @@
     </x:row>
     <x:row r="740" spans="1:10">
       <x:c r="A740" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B740" s="0" t="s">
         <x:v>26</x:v>
@@ -25526,7 +25535,7 @@
     </x:row>
     <x:row r="741" spans="1:10">
       <x:c r="A741" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
         <x:v>26</x:v>
@@ -25558,7 +25567,7 @@
     </x:row>
     <x:row r="742" spans="1:10">
       <x:c r="A742" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B742" s="0" t="s">
         <x:v>26</x:v>
@@ -25590,7 +25599,7 @@
     </x:row>
     <x:row r="743" spans="1:10">
       <x:c r="A743" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B743" s="0" t="s">
         <x:v>28</x:v>
@@ -25622,7 +25631,7 @@
     </x:row>
     <x:row r="744" spans="1:10">
       <x:c r="A744" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
         <x:v>28</x:v>
@@ -25654,7 +25663,7 @@
     </x:row>
     <x:row r="745" spans="1:10">
       <x:c r="A745" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B745" s="0" t="s">
         <x:v>28</x:v>
@@ -25686,7 +25695,7 @@
     </x:row>
     <x:row r="746" spans="1:10">
       <x:c r="A746" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B746" s="0" t="s">
         <x:v>30</x:v>
@@ -25718,7 +25727,7 @@
     </x:row>
     <x:row r="747" spans="1:10">
       <x:c r="A747" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B747" s="0" t="s">
         <x:v>30</x:v>
@@ -25750,7 +25759,7 @@
     </x:row>
     <x:row r="748" spans="1:10">
       <x:c r="A748" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B748" s="0" t="s">
         <x:v>30</x:v>
@@ -25782,7 +25791,7 @@
     </x:row>
     <x:row r="749" spans="1:10">
       <x:c r="A749" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
         <x:v>31</x:v>
@@ -25814,7 +25823,7 @@
     </x:row>
     <x:row r="750" spans="1:10">
       <x:c r="A750" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B750" s="0" t="s">
         <x:v>31</x:v>
@@ -25846,7 +25855,7 @@
     </x:row>
     <x:row r="751" spans="1:10">
       <x:c r="A751" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B751" s="0" t="s">
         <x:v>31</x:v>
@@ -25878,7 +25887,7 @@
     </x:row>
     <x:row r="752" spans="1:10">
       <x:c r="A752" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
         <x:v>85</x:v>
@@ -25910,7 +25919,7 @@
     </x:row>
     <x:row r="753" spans="1:10">
       <x:c r="A753" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B753" s="0" t="s">
         <x:v>85</x:v>
@@ -25942,7 +25951,7 @@
     </x:row>
     <x:row r="754" spans="1:10">
       <x:c r="A754" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B754" s="0" t="s">
         <x:v>85</x:v>
@@ -25974,7 +25983,7 @@
     </x:row>
     <x:row r="755" spans="1:10">
       <x:c r="A755" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
         <x:v>96</x:v>
@@ -26006,7 +26015,7 @@
     </x:row>
     <x:row r="756" spans="1:10">
       <x:c r="A756" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B756" s="0" t="s">
         <x:v>96</x:v>
@@ -26038,7 +26047,7 @@
     </x:row>
     <x:row r="757" spans="1:10">
       <x:c r="A757" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B757" s="0" t="s">
         <x:v>97</x:v>
@@ -26070,7 +26079,7 @@
     </x:row>
     <x:row r="758" spans="1:10">
       <x:c r="A758" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
         <x:v>97</x:v>
@@ -26102,7 +26111,7 @@
     </x:row>
     <x:row r="759" spans="1:10">
       <x:c r="A759" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B759" s="0" t="s">
         <x:v>98</x:v>
@@ -26134,7 +26143,7 @@
     </x:row>
     <x:row r="760" spans="1:10">
       <x:c r="A760" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B760" s="0" t="s">
         <x:v>98</x:v>
@@ -26166,7 +26175,7 @@
     </x:row>
     <x:row r="761" spans="1:10">
       <x:c r="A761" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
         <x:v>37</x:v>
@@ -26198,7 +26207,7 @@
     </x:row>
     <x:row r="762" spans="1:10">
       <x:c r="A762" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B762" s="0" t="s">
         <x:v>37</x:v>
@@ -26225,12 +26234,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J762" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="763" spans="1:10">
       <x:c r="A763" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B763" s="0" t="s">
         <x:v>37</x:v>
@@ -26257,12 +26266,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J763" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="764" spans="1:10">
       <x:c r="A764" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
         <x:v>38</x:v>
@@ -26294,7 +26303,7 @@
     </x:row>
     <x:row r="765" spans="1:10">
       <x:c r="A765" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B765" s="0" t="s">
         <x:v>38</x:v>
@@ -26326,7 +26335,7 @@
     </x:row>
     <x:row r="766" spans="1:10">
       <x:c r="A766" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B766" s="0" t="s">
         <x:v>118</x:v>
@@ -26358,7 +26367,7 @@
     </x:row>
     <x:row r="767" spans="1:10">
       <x:c r="A767" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B767" s="0" t="s">
         <x:v>118</x:v>
@@ -26390,7 +26399,7 @@
     </x:row>
     <x:row r="768" spans="1:10">
       <x:c r="A768" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B768" s="0" t="s">
         <x:v>118</x:v>
@@ -26422,7 +26431,7 @@
     </x:row>
     <x:row r="769" spans="1:10">
       <x:c r="A769" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B769" s="0" t="s">
         <x:v>119</x:v>
@@ -26454,7 +26463,7 @@
     </x:row>
     <x:row r="770" spans="1:10">
       <x:c r="A770" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B770" s="0" t="s">
         <x:v>119</x:v>
@@ -26486,7 +26495,7 @@
     </x:row>
     <x:row r="771" spans="1:10">
       <x:c r="A771" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B771" s="0" t="s">
         <x:v>39</x:v>
@@ -26518,7 +26527,7 @@
     </x:row>
     <x:row r="772" spans="1:10">
       <x:c r="A772" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B772" s="0" t="s">
         <x:v>39</x:v>
@@ -26550,7 +26559,7 @@
     </x:row>
     <x:row r="773" spans="1:10">
       <x:c r="A773" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B773" s="0" t="s">
         <x:v>39</x:v>
@@ -26582,7 +26591,7 @@
     </x:row>
     <x:row r="774" spans="1:10">
       <x:c r="A774" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B774" s="0" t="s">
         <x:v>40</x:v>
@@ -26614,7 +26623,7 @@
     </x:row>
     <x:row r="775" spans="1:10">
       <x:c r="A775" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B775" s="0" t="s">
         <x:v>40</x:v>
@@ -26646,7 +26655,7 @@
     </x:row>
     <x:row r="776" spans="1:10">
       <x:c r="A776" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B776" s="0" t="s">
         <x:v>40</x:v>
@@ -26678,7 +26687,7 @@
     </x:row>
     <x:row r="777" spans="1:10">
       <x:c r="A777" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B777" s="0" t="s">
         <x:v>41</x:v>
@@ -26710,7 +26719,7 @@
     </x:row>
     <x:row r="778" spans="1:10">
       <x:c r="A778" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B778" s="0" t="s">
         <x:v>41</x:v>
@@ -26742,7 +26751,7 @@
     </x:row>
     <x:row r="779" spans="1:10">
       <x:c r="A779" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B779" s="0" t="s">
         <x:v>41</x:v>
@@ -26774,7 +26783,7 @@
     </x:row>
     <x:row r="780" spans="1:10">
       <x:c r="A780" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B780" s="0" t="s">
         <x:v>43</x:v>
@@ -26806,7 +26815,7 @@
     </x:row>
     <x:row r="781" spans="1:10">
       <x:c r="A781" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B781" s="0" t="s">
         <x:v>43</x:v>
@@ -26838,7 +26847,7 @@
     </x:row>
     <x:row r="782" spans="1:10">
       <x:c r="A782" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B782" s="0" t="s">
         <x:v>43</x:v>
@@ -26870,7 +26879,7 @@
     </x:row>
     <x:row r="783" spans="1:10">
       <x:c r="A783" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B783" s="0" t="s">
         <x:v>11</x:v>
@@ -26902,7 +26911,7 @@
     </x:row>
     <x:row r="784" spans="1:10">
       <x:c r="A784" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B784" s="0" t="s">
         <x:v>11</x:v>
@@ -26934,7 +26943,7 @@
     </x:row>
     <x:row r="785" spans="1:10">
       <x:c r="A785" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B785" s="0" t="s">
         <x:v>11</x:v>
@@ -26961,12 +26970,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J785" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="786" spans="1:10">
       <x:c r="A786" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B786" s="0" t="s">
         <x:v>26</x:v>
@@ -26998,7 +27007,7 @@
     </x:row>
     <x:row r="787" spans="1:10">
       <x:c r="A787" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B787" s="0" t="s">
         <x:v>26</x:v>
@@ -27030,7 +27039,7 @@
     </x:row>
     <x:row r="788" spans="1:10">
       <x:c r="A788" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B788" s="0" t="s">
         <x:v>26</x:v>
@@ -27062,7 +27071,7 @@
     </x:row>
     <x:row r="789" spans="1:10">
       <x:c r="A789" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B789" s="0" t="s">
         <x:v>28</x:v>
@@ -27094,7 +27103,7 @@
     </x:row>
     <x:row r="790" spans="1:10">
       <x:c r="A790" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B790" s="0" t="s">
         <x:v>28</x:v>
@@ -27126,7 +27135,7 @@
     </x:row>
     <x:row r="791" spans="1:10">
       <x:c r="A791" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B791" s="0" t="s">
         <x:v>28</x:v>
@@ -27158,7 +27167,7 @@
     </x:row>
     <x:row r="792" spans="1:10">
       <x:c r="A792" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B792" s="0" t="s">
         <x:v>30</x:v>
@@ -27190,7 +27199,7 @@
     </x:row>
     <x:row r="793" spans="1:10">
       <x:c r="A793" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B793" s="0" t="s">
         <x:v>30</x:v>
@@ -27222,7 +27231,7 @@
     </x:row>
     <x:row r="794" spans="1:10">
       <x:c r="A794" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B794" s="0" t="s">
         <x:v>30</x:v>
@@ -27254,7 +27263,7 @@
     </x:row>
     <x:row r="795" spans="1:10">
       <x:c r="A795" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B795" s="0" t="s">
         <x:v>31</x:v>
@@ -27286,7 +27295,7 @@
     </x:row>
     <x:row r="796" spans="1:10">
       <x:c r="A796" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B796" s="0" t="s">
         <x:v>31</x:v>
@@ -27318,7 +27327,7 @@
     </x:row>
     <x:row r="797" spans="1:10">
       <x:c r="A797" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B797" s="0" t="s">
         <x:v>31</x:v>
@@ -27350,7 +27359,7 @@
     </x:row>
     <x:row r="798" spans="1:10">
       <x:c r="A798" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B798" s="0" t="s">
         <x:v>142</x:v>
@@ -27382,7 +27391,7 @@
     </x:row>
     <x:row r="799" spans="1:10">
       <x:c r="A799" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B799" s="0" t="s">
         <x:v>142</x:v>
@@ -27414,7 +27423,7 @@
     </x:row>
     <x:row r="800" spans="1:10">
       <x:c r="A800" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B800" s="0" t="s">
         <x:v>85</x:v>
@@ -27446,7 +27455,7 @@
     </x:row>
     <x:row r="801" spans="1:10">
       <x:c r="A801" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B801" s="0" t="s">
         <x:v>85</x:v>
@@ -27478,7 +27487,7 @@
     </x:row>
     <x:row r="802" spans="1:10">
       <x:c r="A802" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B802" s="0" t="s">
         <x:v>85</x:v>
@@ -27510,7 +27519,7 @@
     </x:row>
     <x:row r="803" spans="1:10">
       <x:c r="A803" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B803" s="0" t="s">
         <x:v>96</x:v>
@@ -27542,7 +27551,7 @@
     </x:row>
     <x:row r="804" spans="1:10">
       <x:c r="A804" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B804" s="0" t="s">
         <x:v>96</x:v>
@@ -27574,7 +27583,7 @@
     </x:row>
     <x:row r="805" spans="1:10">
       <x:c r="A805" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B805" s="0" t="s">
         <x:v>98</x:v>
@@ -27606,7 +27615,7 @@
     </x:row>
     <x:row r="806" spans="1:10">
       <x:c r="A806" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B806" s="0" t="s">
         <x:v>98</x:v>
@@ -27638,7 +27647,7 @@
     </x:row>
     <x:row r="807" spans="1:10">
       <x:c r="A807" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B807" s="0" t="s">
         <x:v>37</x:v>
@@ -27670,7 +27679,7 @@
     </x:row>
     <x:row r="808" spans="1:10">
       <x:c r="A808" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B808" s="0" t="s">
         <x:v>37</x:v>
@@ -27697,12 +27706,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J808" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="809" spans="1:10">
       <x:c r="A809" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B809" s="0" t="s">
         <x:v>37</x:v>
@@ -27734,7 +27743,7 @@
     </x:row>
     <x:row r="810" spans="1:10">
       <x:c r="A810" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B810" s="0" t="s">
         <x:v>38</x:v>
@@ -27766,7 +27775,7 @@
     </x:row>
     <x:row r="811" spans="1:10">
       <x:c r="A811" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B811" s="0" t="s">
         <x:v>38</x:v>
@@ -27798,7 +27807,7 @@
     </x:row>
     <x:row r="812" spans="1:10">
       <x:c r="A812" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B812" s="0" t="s">
         <x:v>119</x:v>
@@ -27830,7 +27839,7 @@
     </x:row>
     <x:row r="813" spans="1:10">
       <x:c r="A813" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B813" s="0" t="s">
         <x:v>119</x:v>
@@ -27862,7 +27871,7 @@
     </x:row>
     <x:row r="814" spans="1:10">
       <x:c r="A814" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B814" s="0" t="s">
         <x:v>39</x:v>
@@ -27894,7 +27903,7 @@
     </x:row>
     <x:row r="815" spans="1:10">
       <x:c r="A815" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B815" s="0" t="s">
         <x:v>39</x:v>
@@ -27926,7 +27935,7 @@
     </x:row>
     <x:row r="816" spans="1:10">
       <x:c r="A816" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B816" s="0" t="s">
         <x:v>40</x:v>
@@ -27958,7 +27967,7 @@
     </x:row>
     <x:row r="817" spans="1:10">
       <x:c r="A817" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B817" s="0" t="s">
         <x:v>40</x:v>
@@ -27990,7 +27999,7 @@
     </x:row>
     <x:row r="818" spans="1:10">
       <x:c r="A818" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B818" s="0" t="s">
         <x:v>40</x:v>
@@ -28022,7 +28031,7 @@
     </x:row>
     <x:row r="819" spans="1:10">
       <x:c r="A819" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B819" s="0" t="s">
         <x:v>41</x:v>
@@ -28054,7 +28063,7 @@
     </x:row>
     <x:row r="820" spans="1:10">
       <x:c r="A820" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B820" s="0" t="s">
         <x:v>41</x:v>
@@ -28086,7 +28095,7 @@
     </x:row>
     <x:row r="821" spans="1:10">
       <x:c r="A821" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B821" s="0" t="s">
         <x:v>11</x:v>
@@ -28118,7 +28127,7 @@
     </x:row>
     <x:row r="822" spans="1:10">
       <x:c r="A822" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B822" s="0" t="s">
         <x:v>11</x:v>
@@ -28150,7 +28159,7 @@
     </x:row>
     <x:row r="823" spans="1:10">
       <x:c r="A823" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B823" s="0" t="s">
         <x:v>11</x:v>
@@ -28182,7 +28191,7 @@
     </x:row>
     <x:row r="824" spans="1:10">
       <x:c r="A824" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B824" s="0" t="s">
         <x:v>26</x:v>
@@ -28214,7 +28223,7 @@
     </x:row>
     <x:row r="825" spans="1:10">
       <x:c r="A825" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B825" s="0" t="s">
         <x:v>26</x:v>
@@ -28246,7 +28255,7 @@
     </x:row>
     <x:row r="826" spans="1:10">
       <x:c r="A826" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B826" s="0" t="s">
         <x:v>30</x:v>
@@ -28278,7 +28287,7 @@
     </x:row>
     <x:row r="827" spans="1:10">
       <x:c r="A827" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B827" s="0" t="s">
         <x:v>30</x:v>
@@ -28310,7 +28319,7 @@
     </x:row>
     <x:row r="828" spans="1:10">
       <x:c r="A828" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B828" s="0" t="s">
         <x:v>31</x:v>
@@ -28342,7 +28351,7 @@
     </x:row>
     <x:row r="829" spans="1:10">
       <x:c r="A829" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B829" s="0" t="s">
         <x:v>31</x:v>
@@ -28374,7 +28383,7 @@
     </x:row>
     <x:row r="830" spans="1:10">
       <x:c r="A830" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B830" s="0" t="s">
         <x:v>31</x:v>
@@ -28406,7 +28415,7 @@
     </x:row>
     <x:row r="831" spans="1:10">
       <x:c r="A831" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B831" s="0" t="s">
         <x:v>118</x:v>
@@ -28438,7 +28447,7 @@
     </x:row>
     <x:row r="832" spans="1:10">
       <x:c r="A832" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B832" s="0" t="s">
         <x:v>118</x:v>
@@ -28470,7 +28479,7 @@
     </x:row>
     <x:row r="833" spans="1:10">
       <x:c r="A833" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B833" s="0" t="s">
         <x:v>43</x:v>
@@ -28502,7 +28511,7 @@
     </x:row>
     <x:row r="834" spans="1:10">
       <x:c r="A834" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B834" s="0" t="s">
         <x:v>43</x:v>
@@ -28534,7 +28543,7 @@
     </x:row>
     <x:row r="835" spans="1:10">
       <x:c r="A835" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B835" s="0" t="s">
         <x:v>43</x:v>
@@ -28566,7 +28575,7 @@
     </x:row>
     <x:row r="836" spans="1:10">
       <x:c r="A836" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B836" s="0" t="s">
         <x:v>44</x:v>
@@ -28598,7 +28607,7 @@
     </x:row>
     <x:row r="837" spans="1:10">
       <x:c r="A837" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B837" s="0" t="s">
         <x:v>44</x:v>
@@ -28630,7 +28639,7 @@
     </x:row>
     <x:row r="838" spans="1:10">
       <x:c r="A838" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B838" s="0" t="s">
         <x:v>44</x:v>
@@ -28662,7 +28671,7 @@
     </x:row>
     <x:row r="839" spans="1:10">
       <x:c r="A839" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B839" s="0" t="s">
         <x:v>11</x:v>
@@ -28671,16 +28680,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D839" s="1" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E839" s="1" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="E839" s="1" t="s">
+      <x:c r="F839" s="1" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="F839" s="1" t="s">
+      <x:c r="G839" s="1" t="s">
         <x:v>250</x:v>
-      </x:c>
-      <x:c r="G839" s="1" t="s">
-        <x:v>251</x:v>
       </x:c>
       <x:c r="H839" s="1" t="s">
         <x:v>57</x:v>
@@ -28689,12 +28698,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J839" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="840" spans="1:10">
       <x:c r="A840" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B840" s="0" t="s">
         <x:v>11</x:v>
@@ -28703,30 +28712,30 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D840" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E840" s="1" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="F840" s="1" t="s">
         <x:v>253</x:v>
       </x:c>
-      <x:c r="F840" s="1" t="s">
+      <x:c r="G840" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="G840" s="1" t="s">
+      <x:c r="H840" s="1" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="H840" s="1" t="s">
+      <x:c r="I840" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J840" s="0" t="s">
         <x:v>256</x:v>
-      </x:c>
-      <x:c r="I840" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J840" s="0" t="s">
-        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="841" spans="1:10">
       <x:c r="A841" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B841" s="0" t="s">
         <x:v>11</x:v>
@@ -28735,30 +28744,30 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D841" s="1" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="E841" s="1" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="E841" s="1" t="s">
+      <x:c r="F841" s="1" t="s">
         <x:v>259</x:v>
       </x:c>
-      <x:c r="F841" s="1" t="s">
+      <x:c r="G841" s="1" t="s">
         <x:v>260</x:v>
       </x:c>
-      <x:c r="G841" s="1" t="s">
+      <x:c r="H841" s="1" t="s">
         <x:v>261</x:v>
       </x:c>
-      <x:c r="H841" s="1" t="s">
+      <x:c r="I841" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J841" s="0" t="s">
         <x:v>262</x:v>
-      </x:c>
-      <x:c r="I841" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J841" s="0" t="s">
-        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="842" spans="1:10">
       <x:c r="A842" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B842" s="0" t="s">
         <x:v>26</x:v>
@@ -28790,7 +28799,7 @@
     </x:row>
     <x:row r="843" spans="1:10">
       <x:c r="A843" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B843" s="0" t="s">
         <x:v>26</x:v>
@@ -28817,12 +28826,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J843" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="844" spans="1:10">
       <x:c r="A844" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B844" s="0" t="s">
         <x:v>26</x:v>
@@ -28837,7 +28846,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="F844" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G844" s="1" t="s">
         <x:v>162</x:v>
@@ -28849,12 +28858,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J844" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="845" spans="1:10">
       <x:c r="A845" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B845" s="0" t="s">
         <x:v>28</x:v>
@@ -28886,7 +28895,7 @@
     </x:row>
     <x:row r="846" spans="1:10">
       <x:c r="A846" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B846" s="0" t="s">
         <x:v>28</x:v>
@@ -28913,12 +28922,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J846" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="847" spans="1:10">
       <x:c r="A847" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B847" s="0" t="s">
         <x:v>28</x:v>
@@ -28950,7 +28959,7 @@
     </x:row>
     <x:row r="848" spans="1:10">
       <x:c r="A848" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B848" s="0" t="s">
         <x:v>30</x:v>
@@ -28977,12 +28986,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J848" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="849" spans="1:10">
       <x:c r="A849" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
         <x:v>30</x:v>
@@ -29000,7 +29009,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="G849" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H849" s="1" t="s">
         <x:v>124</x:v>
@@ -29009,12 +29018,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J849" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="850" spans="1:10">
       <x:c r="A850" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B850" s="0" t="s">
         <x:v>30</x:v>
@@ -29032,7 +29041,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G850" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H850" s="1" t="s">
         <x:v>33</x:v>
@@ -29041,12 +29050,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J850" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
       <x:c r="A851" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B851" s="0" t="s">
         <x:v>31</x:v>
@@ -29058,13 +29067,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E851" s="1" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="F851" s="1" t="s">
         <x:v>272</x:v>
       </x:c>
-      <x:c r="F851" s="1" t="s">
+      <x:c r="G851" s="1" t="s">
         <x:v>273</x:v>
-      </x:c>
-      <x:c r="G851" s="1" t="s">
-        <x:v>274</x:v>
       </x:c>
       <x:c r="H851" s="1" t="s">
         <x:v>70</x:v>
@@ -29073,12 +29082,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J851" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
       <x:c r="A852" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B852" s="0" t="s">
         <x:v>31</x:v>
@@ -29090,13 +29099,13 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E852" s="1" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="F852" s="1" t="s">
         <x:v>276</x:v>
       </x:c>
-      <x:c r="F852" s="1" t="s">
+      <x:c r="G852" s="1" t="s">
         <x:v>277</x:v>
-      </x:c>
-      <x:c r="G852" s="1" t="s">
-        <x:v>278</x:v>
       </x:c>
       <x:c r="H852" s="1" t="s">
         <x:v>177</x:v>
@@ -29105,12 +29114,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J852" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
       <x:c r="A853" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B853" s="0" t="s">
         <x:v>31</x:v>
@@ -29122,27 +29131,27 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E853" s="1" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="F853" s="1" t="s">
         <x:v>280</x:v>
       </x:c>
-      <x:c r="F853" s="1" t="s">
+      <x:c r="G853" s="1" t="s">
         <x:v>281</x:v>
       </x:c>
-      <x:c r="G853" s="1" t="s">
+      <x:c r="H853" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="I853" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J853" s="0" t="s">
         <x:v>282</x:v>
-      </x:c>
-      <x:c r="H853" s="1" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="I853" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J853" s="0" t="s">
-        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
       <x:c r="A854" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B854" s="0" t="s">
         <x:v>142</x:v>
@@ -29174,7 +29183,7 @@
     </x:row>
     <x:row r="855" spans="1:10">
       <x:c r="A855" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B855" s="0" t="s">
         <x:v>142</x:v>
@@ -29206,7 +29215,7 @@
     </x:row>
     <x:row r="856" spans="1:10">
       <x:c r="A856" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B856" s="0" t="s">
         <x:v>142</x:v>
@@ -29238,10 +29247,10 @@
     </x:row>
     <x:row r="857" spans="1:10">
       <x:c r="A857" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C857" s="1" t="s">
         <x:v>12</x:v>
@@ -29270,10 +29279,10 @@
     </x:row>
     <x:row r="858" spans="1:10">
       <x:c r="A858" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B858" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C858" s="1" t="s">
         <x:v>9</x:v>
@@ -29302,7 +29311,7 @@
     </x:row>
     <x:row r="859" spans="1:10">
       <x:c r="A859" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B859" s="0" t="s">
         <x:v>85</x:v>
@@ -29329,12 +29338,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J859" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="860" spans="1:10">
       <x:c r="A860" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B860" s="0" t="s">
         <x:v>85</x:v>
@@ -29352,7 +29361,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="G860" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="H860" s="1" t="s">
         <x:v>63</x:v>
@@ -29361,12 +29370,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J860" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
       <x:c r="A861" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B861" s="0" t="s">
         <x:v>85</x:v>
@@ -29378,13 +29387,13 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E861" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F861" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="G861" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="H861" s="1" t="s">
         <x:v>25</x:v>
@@ -29393,12 +29402,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J861" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
       <x:c r="A862" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B862" s="0" t="s">
         <x:v>96</x:v>
@@ -29430,7 +29439,7 @@
     </x:row>
     <x:row r="863" spans="1:10">
       <x:c r="A863" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B863" s="0" t="s">
         <x:v>96</x:v>
@@ -29462,7 +29471,7 @@
     </x:row>
     <x:row r="864" spans="1:10">
       <x:c r="A864" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B864" s="0" t="s">
         <x:v>96</x:v>
@@ -29494,7 +29503,7 @@
     </x:row>
     <x:row r="865" spans="1:10">
       <x:c r="A865" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B865" s="0" t="s">
         <x:v>97</x:v>
@@ -29526,7 +29535,7 @@
     </x:row>
     <x:row r="866" spans="1:10">
       <x:c r="A866" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B866" s="0" t="s">
         <x:v>97</x:v>
@@ -29558,7 +29567,7 @@
     </x:row>
     <x:row r="867" spans="1:10">
       <x:c r="A867" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B867" s="0" t="s">
         <x:v>97</x:v>
@@ -29590,7 +29599,7 @@
     </x:row>
     <x:row r="868" spans="1:10">
       <x:c r="A868" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B868" s="0" t="s">
         <x:v>98</x:v>
@@ -29622,7 +29631,7 @@
     </x:row>
     <x:row r="869" spans="1:10">
       <x:c r="A869" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B869" s="0" t="s">
         <x:v>98</x:v>
@@ -29654,7 +29663,7 @@
     </x:row>
     <x:row r="870" spans="1:10">
       <x:c r="A870" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B870" s="0" t="s">
         <x:v>98</x:v>
@@ -29686,7 +29695,7 @@
     </x:row>
     <x:row r="871" spans="1:10">
       <x:c r="A871" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B871" s="0" t="s">
         <x:v>37</x:v>
@@ -29695,30 +29704,30 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D871" s="1" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="E871" s="1" t="s">
         <x:v>291</x:v>
       </x:c>
-      <x:c r="E871" s="1" t="s">
+      <x:c r="F871" s="1" t="s">
         <x:v>292</x:v>
       </x:c>
-      <x:c r="F871" s="1" t="s">
+      <x:c r="G871" s="1" t="s">
         <x:v>293</x:v>
       </x:c>
-      <x:c r="G871" s="1" t="s">
+      <x:c r="H871" s="1" t="s">
         <x:v>294</x:v>
       </x:c>
-      <x:c r="H871" s="1" t="s">
+      <x:c r="I871" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J871" s="0" t="s">
         <x:v>295</x:v>
-      </x:c>
-      <x:c r="I871" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J871" s="0" t="s">
-        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
       <x:c r="A872" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B872" s="0" t="s">
         <x:v>37</x:v>
@@ -29727,30 +29736,30 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D872" s="1" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="E872" s="1" t="s">
         <x:v>297</x:v>
       </x:c>
-      <x:c r="E872" s="1" t="s">
+      <x:c r="F872" s="1" t="s">
         <x:v>298</x:v>
       </x:c>
-      <x:c r="F872" s="1" t="s">
+      <x:c r="G872" s="1" t="s">
         <x:v>299</x:v>
       </x:c>
-      <x:c r="G872" s="1" t="s">
+      <x:c r="H872" s="1" t="s">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="H872" s="1" t="s">
+      <x:c r="I872" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J872" s="0" t="s">
         <x:v>301</x:v>
-      </x:c>
-      <x:c r="I872" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J872" s="0" t="s">
-        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="873" spans="1:10">
       <x:c r="A873" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
         <x:v>37</x:v>
@@ -29759,30 +29768,30 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D873" s="1" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="E873" s="1" t="s">
         <x:v>303</x:v>
       </x:c>
-      <x:c r="E873" s="1" t="s">
+      <x:c r="F873" s="1" t="s">
         <x:v>304</x:v>
       </x:c>
-      <x:c r="F873" s="1" t="s">
+      <x:c r="G873" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
-      <x:c r="G873" s="1" t="s">
+      <x:c r="H873" s="1" t="s">
         <x:v>306</x:v>
       </x:c>
-      <x:c r="H873" s="1" t="s">
+      <x:c r="I873" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J873" s="0" t="s">
         <x:v>307</x:v>
-      </x:c>
-      <x:c r="I873" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J873" s="0" t="s">
-        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
       <x:c r="A874" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B874" s="0" t="s">
         <x:v>38</x:v>
@@ -29814,7 +29823,7 @@
     </x:row>
     <x:row r="875" spans="1:10">
       <x:c r="A875" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B875" s="0" t="s">
         <x:v>38</x:v>
@@ -29841,12 +29850,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J875" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="876" spans="1:10">
       <x:c r="A876" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B876" s="0" t="s">
         <x:v>38</x:v>
@@ -29855,7 +29864,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D876" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E876" s="1" t="s">
         <x:v>121</x:v>
@@ -29873,12 +29882,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J876" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="877" spans="1:10">
       <x:c r="A877" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B877" s="0" t="s">
         <x:v>118</x:v>
@@ -29910,7 +29919,7 @@
     </x:row>
     <x:row r="878" spans="1:10">
       <x:c r="A878" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B878" s="0" t="s">
         <x:v>118</x:v>
@@ -29942,7 +29951,7 @@
     </x:row>
     <x:row r="879" spans="1:10">
       <x:c r="A879" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B879" s="0" t="s">
         <x:v>118</x:v>
@@ -29974,10 +29983,10 @@
     </x:row>
     <x:row r="880" spans="1:10">
       <x:c r="A880" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B880" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C880" s="1" t="s">
         <x:v>12</x:v>
@@ -30006,10 +30015,10 @@
     </x:row>
     <x:row r="881" spans="1:10">
       <x:c r="A881" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B881" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C881" s="1" t="s">
         <x:v>18</x:v>
@@ -30038,10 +30047,10 @@
     </x:row>
     <x:row r="882" spans="1:10">
       <x:c r="A882" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C882" s="1" t="s">
         <x:v>9</x:v>
@@ -30070,7 +30079,7 @@
     </x:row>
     <x:row r="883" spans="1:10">
       <x:c r="A883" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B883" s="0" t="s">
         <x:v>119</x:v>
@@ -30102,7 +30111,7 @@
     </x:row>
     <x:row r="884" spans="1:10">
       <x:c r="A884" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B884" s="0" t="s">
         <x:v>119</x:v>
@@ -30117,7 +30126,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="F884" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G884" s="1" t="s">
         <x:v>131</x:v>
@@ -30129,12 +30138,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J884" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
       <x:c r="A885" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
         <x:v>119</x:v>
@@ -30149,7 +30158,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="F885" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G885" s="1" t="s">
         <x:v>66</x:v>
@@ -30161,12 +30170,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J885" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
       <x:c r="A886" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B886" s="0" t="s">
         <x:v>39</x:v>
@@ -30198,7 +30207,7 @@
     </x:row>
     <x:row r="887" spans="1:10">
       <x:c r="A887" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B887" s="0" t="s">
         <x:v>39</x:v>
@@ -30225,12 +30234,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J887" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">
       <x:c r="A888" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
         <x:v>39</x:v>
@@ -30262,7 +30271,7 @@
     </x:row>
     <x:row r="889" spans="1:10">
       <x:c r="A889" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
         <x:v>40</x:v>
@@ -30289,12 +30298,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J889" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="890" spans="1:10">
       <x:c r="A890" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
         <x:v>40</x:v>
@@ -30321,12 +30330,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J890" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="891" spans="1:10">
       <x:c r="A891" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B891" s="0" t="s">
         <x:v>40</x:v>
@@ -30341,7 +30350,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="F891" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G891" s="1" t="s">
         <x:v>52</x:v>
@@ -30353,12 +30362,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J891" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="892" spans="1:10">
       <x:c r="A892" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
         <x:v>41</x:v>
@@ -30390,7 +30399,7 @@
     </x:row>
     <x:row r="893" spans="1:10">
       <x:c r="A893" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
         <x:v>41</x:v>
@@ -30399,13 +30408,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D893" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E893" s="1" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="F893" s="1" t="s">
         <x:v>319</x:v>
-      </x:c>
-      <x:c r="F893" s="1" t="s">
-        <x:v>320</x:v>
       </x:c>
       <x:c r="G893" s="1" t="s">
         <x:v>204</x:v>
@@ -30417,12 +30426,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J893" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="894" spans="1:10">
       <x:c r="A894" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
         <x:v>41</x:v>
@@ -30437,10 +30446,10 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="F894" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G894" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="H894" s="1" t="s">
         <x:v>48</x:v>
@@ -33457,7 +33466,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J988" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="989" spans="1:10">
@@ -35345,7 +35354,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1047" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="1048" spans="1:10">
@@ -51781,7 +51790,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F1561" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G1561" s="1" t="s">
         <x:v>346</x:v>
@@ -51813,7 +51822,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F1562" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G1562" s="1" t="s">
         <x:v>158</x:v>
@@ -53009,7 +53018,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1599" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="1600" spans="1:10">
@@ -53265,7 +53274,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1607" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="1608" spans="1:10">
@@ -58216,7 +58225,7 @@
         <x:v>384</x:v>
       </x:c>
       <x:c r="G1762" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H1762" s="1" t="s">
         <x:v>385</x:v>
@@ -58265,7 +58274,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="B1764" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C1764" s="1" t="s">
         <x:v>18</x:v>
@@ -58297,7 +58306,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="B1765" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C1765" s="1" t="s">
         <x:v>9</x:v>
@@ -58385,7 +58394,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1767" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="1768" spans="1:10">
@@ -58641,7 +58650,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1775" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="1776" spans="1:10">
@@ -59234,7 +59243,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E1794" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F1794" s="1" t="s">
         <x:v>402</x:v>
@@ -59409,7 +59418,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1799" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="1800" spans="1:10">
@@ -59513,7 +59522,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="B1803" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C1803" s="1" t="s">
         <x:v>12</x:v>
@@ -59545,7 +59554,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="B1804" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C1804" s="1" t="s">
         <x:v>18</x:v>
@@ -59577,7 +59586,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="B1805" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C1805" s="1" t="s">
         <x:v>9</x:v>
@@ -59906,7 +59915,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E1815" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F1815" s="1" t="s">
         <x:v>414</x:v>
@@ -59915,7 +59924,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="H1815" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I1815" s="0" t="s">
         <x:v>14</x:v>
@@ -59938,7 +59947,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E1816" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F1816" s="1" t="s">
         <x:v>397</x:v>
@@ -62577,7 +62586,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J1898" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="1899" spans="1:10">
@@ -62617,7 +62626,7 @@
         <x:v>420</x:v>
       </x:c>
       <x:c r="B1900" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C1900" s="1" t="s">
         <x:v>18</x:v>
@@ -62649,7 +62658,7 @@
         <x:v>420</x:v>
       </x:c>
       <x:c r="B1901" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C1901" s="1" t="s">
         <x:v>9</x:v>
@@ -65189,7 +65198,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F1980" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="G1980" s="1" t="s">
         <x:v>346</x:v>
@@ -65576,7 +65585,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="G1992" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="H1992" s="1" t="s">
         <x:v>132</x:v>
@@ -65689,7 +65698,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="B1996" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C1996" s="1" t="s">
         <x:v>18</x:v>
@@ -65721,7 +65730,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="B1997" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C1997" s="1" t="s">
         <x:v>9</x:v>
@@ -65841,7 +65850,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2000" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="2001" spans="1:10">
@@ -66792,7 +66801,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G2030" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H2030" s="1" t="s">
         <x:v>16</x:v>
@@ -66801,7 +66810,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2030" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="2031" spans="1:10">
@@ -66856,7 +66865,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="G2032" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="H2032" s="1" t="s">
         <x:v>92</x:v>
@@ -66865,7 +66874,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2032" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="2033" spans="1:10">
@@ -67505,7 +67514,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2052" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="2053" spans="1:10">
@@ -69093,10 +69102,10 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="F2102" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G2102" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="H2102" s="1" t="s">
         <x:v>138</x:v>
@@ -69131,7 +69140,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="H2103" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I2103" s="0" t="s">
         <x:v>14</x:v>
@@ -69233,7 +69242,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2106" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="2107" spans="1:10">
@@ -69425,7 +69434,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2112" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="2113" spans="1:10">
@@ -69797,7 +69806,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="F2124" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="G2124" s="1" t="s">
         <x:v>127</x:v>
@@ -69809,7 +69818,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2124" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="2125" spans="1:10">
@@ -69826,13 +69835,13 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E2125" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="F2125" s="1" t="s">
         <x:v>364</x:v>
       </x:c>
       <x:c r="G2125" s="1" t="s">
-        <x:v>437</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H2125" s="1" t="s">
         <x:v>131</x:v>
@@ -71048,7 +71057,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="G2163" s="1" t="s">
-        <x:v>437</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="H2163" s="1" t="s">
         <x:v>174</x:v>
@@ -71057,7 +71066,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2163" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="2164" spans="1:10">
@@ -71217,7 +71226,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2168" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
     </x:row>
     <x:row r="2169" spans="1:10">
@@ -71493,7 +71502,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="F2177" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G2177" s="1" t="s">
         <x:v>432</x:v>
@@ -71505,7 +71514,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2177" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="2178" spans="1:10">
@@ -71525,19 +71534,19 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F2178" s="1" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="G2178" s="1" t="s">
         <x:v>443</x:v>
       </x:c>
       <x:c r="H2178" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="I2178" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2178" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
     </x:row>
     <x:row r="2179" spans="1:10">
@@ -71551,25 +71560,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2179" s="1" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="E2179" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="F2179" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G2179" s="1" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="H2179" s="1" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="I2179" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2179" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="2180" spans="1:10">
@@ -71737,7 +71746,7 @@
         <x:v>442</x:v>
       </x:c>
       <x:c r="B2185" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C2185" s="1" t="s">
         <x:v>18</x:v>
@@ -71769,7 +71778,7 @@
         <x:v>442</x:v>
       </x:c>
       <x:c r="B2186" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C2186" s="1" t="s">
         <x:v>9</x:v>
@@ -72182,7 +72191,7 @@
     </x:row>
     <x:row r="2199" spans="1:10">
       <x:c r="A2199" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2199" s="0" t="s">
         <x:v>43</x:v>
@@ -72214,7 +72223,7 @@
     </x:row>
     <x:row r="2200" spans="1:10">
       <x:c r="A2200" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2200" s="0" t="s">
         <x:v>43</x:v>
@@ -72246,7 +72255,7 @@
     </x:row>
     <x:row r="2201" spans="1:10">
       <x:c r="A2201" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2201" s="0" t="s">
         <x:v>11</x:v>
@@ -72278,7 +72287,7 @@
     </x:row>
     <x:row r="2202" spans="1:10">
       <x:c r="A2202" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2202" s="0" t="s">
         <x:v>11</x:v>
@@ -72310,7 +72319,7 @@
     </x:row>
     <x:row r="2203" spans="1:10">
       <x:c r="A2203" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2203" s="0" t="s">
         <x:v>11</x:v>
@@ -72342,7 +72351,7 @@
     </x:row>
     <x:row r="2204" spans="1:10">
       <x:c r="A2204" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2204" s="0" t="s">
         <x:v>26</x:v>
@@ -72374,7 +72383,7 @@
     </x:row>
     <x:row r="2205" spans="1:10">
       <x:c r="A2205" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2205" s="0" t="s">
         <x:v>26</x:v>
@@ -72406,7 +72415,7 @@
     </x:row>
     <x:row r="2206" spans="1:10">
       <x:c r="A2206" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2206" s="0" t="s">
         <x:v>26</x:v>
@@ -72438,7 +72447,7 @@
     </x:row>
     <x:row r="2207" spans="1:10">
       <x:c r="A2207" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2207" s="0" t="s">
         <x:v>28</x:v>
@@ -72470,7 +72479,7 @@
     </x:row>
     <x:row r="2208" spans="1:10">
       <x:c r="A2208" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2208" s="0" t="s">
         <x:v>28</x:v>
@@ -72502,7 +72511,7 @@
     </x:row>
     <x:row r="2209" spans="1:10">
       <x:c r="A2209" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2209" s="0" t="s">
         <x:v>28</x:v>
@@ -72534,7 +72543,7 @@
     </x:row>
     <x:row r="2210" spans="1:10">
       <x:c r="A2210" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2210" s="0" t="s">
         <x:v>30</x:v>
@@ -72566,7 +72575,7 @@
     </x:row>
     <x:row r="2211" spans="1:10">
       <x:c r="A2211" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2211" s="0" t="s">
         <x:v>30</x:v>
@@ -72598,7 +72607,7 @@
     </x:row>
     <x:row r="2212" spans="1:10">
       <x:c r="A2212" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2212" s="0" t="s">
         <x:v>30</x:v>
@@ -72630,7 +72639,7 @@
     </x:row>
     <x:row r="2213" spans="1:10">
       <x:c r="A2213" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2213" s="0" t="s">
         <x:v>31</x:v>
@@ -72662,7 +72671,7 @@
     </x:row>
     <x:row r="2214" spans="1:10">
       <x:c r="A2214" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2214" s="0" t="s">
         <x:v>31</x:v>
@@ -72694,7 +72703,7 @@
     </x:row>
     <x:row r="2215" spans="1:10">
       <x:c r="A2215" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2215" s="0" t="s">
         <x:v>31</x:v>
@@ -72726,7 +72735,7 @@
     </x:row>
     <x:row r="2216" spans="1:10">
       <x:c r="A2216" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2216" s="0" t="s">
         <x:v>85</x:v>
@@ -72758,7 +72767,7 @@
     </x:row>
     <x:row r="2217" spans="1:10">
       <x:c r="A2217" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2217" s="0" t="s">
         <x:v>85</x:v>
@@ -72790,7 +72799,7 @@
     </x:row>
     <x:row r="2218" spans="1:10">
       <x:c r="A2218" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2218" s="0" t="s">
         <x:v>85</x:v>
@@ -72822,7 +72831,7 @@
     </x:row>
     <x:row r="2219" spans="1:10">
       <x:c r="A2219" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2219" s="0" t="s">
         <x:v>96</x:v>
@@ -72854,7 +72863,7 @@
     </x:row>
     <x:row r="2220" spans="1:10">
       <x:c r="A2220" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2220" s="0" t="s">
         <x:v>96</x:v>
@@ -72886,7 +72895,7 @@
     </x:row>
     <x:row r="2221" spans="1:10">
       <x:c r="A2221" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2221" s="0" t="s">
         <x:v>37</x:v>
@@ -72918,7 +72927,7 @@
     </x:row>
     <x:row r="2222" spans="1:10">
       <x:c r="A2222" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2222" s="0" t="s">
         <x:v>37</x:v>
@@ -72950,7 +72959,7 @@
     </x:row>
     <x:row r="2223" spans="1:10">
       <x:c r="A2223" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2223" s="0" t="s">
         <x:v>37</x:v>
@@ -72977,12 +72986,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2223" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="2224" spans="1:10">
       <x:c r="A2224" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2224" s="0" t="s">
         <x:v>38</x:v>
@@ -73014,7 +73023,7 @@
     </x:row>
     <x:row r="2225" spans="1:10">
       <x:c r="A2225" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2225" s="0" t="s">
         <x:v>38</x:v>
@@ -73046,7 +73055,7 @@
     </x:row>
     <x:row r="2226" spans="1:10">
       <x:c r="A2226" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2226" s="0" t="s">
         <x:v>38</x:v>
@@ -73078,7 +73087,7 @@
     </x:row>
     <x:row r="2227" spans="1:10">
       <x:c r="A2227" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2227" s="0" t="s">
         <x:v>118</x:v>
@@ -73110,7 +73119,7 @@
     </x:row>
     <x:row r="2228" spans="1:10">
       <x:c r="A2228" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2228" s="0" t="s">
         <x:v>118</x:v>
@@ -73142,7 +73151,7 @@
     </x:row>
     <x:row r="2229" spans="1:10">
       <x:c r="A2229" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2229" s="0" t="s">
         <x:v>119</x:v>
@@ -73174,7 +73183,7 @@
     </x:row>
     <x:row r="2230" spans="1:10">
       <x:c r="A2230" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2230" s="0" t="s">
         <x:v>119</x:v>
@@ -73206,7 +73215,7 @@
     </x:row>
     <x:row r="2231" spans="1:10">
       <x:c r="A2231" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2231" s="0" t="s">
         <x:v>39</x:v>
@@ -73238,7 +73247,7 @@
     </x:row>
     <x:row r="2232" spans="1:10">
       <x:c r="A2232" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2232" s="0" t="s">
         <x:v>39</x:v>
@@ -73270,7 +73279,7 @@
     </x:row>
     <x:row r="2233" spans="1:10">
       <x:c r="A2233" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2233" s="0" t="s">
         <x:v>41</x:v>
@@ -73302,7 +73311,7 @@
     </x:row>
     <x:row r="2234" spans="1:10">
       <x:c r="A2234" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2234" s="0" t="s">
         <x:v>41</x:v>
@@ -73334,7 +73343,7 @@
     </x:row>
     <x:row r="2235" spans="1:10">
       <x:c r="A2235" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2235" s="0" t="s">
         <x:v>11</x:v>
@@ -73366,7 +73375,7 @@
     </x:row>
     <x:row r="2236" spans="1:10">
       <x:c r="A2236" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2236" s="0" t="s">
         <x:v>11</x:v>
@@ -73398,7 +73407,7 @@
     </x:row>
     <x:row r="2237" spans="1:10">
       <x:c r="A2237" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2237" s="0" t="s">
         <x:v>11</x:v>
@@ -73430,7 +73439,7 @@
     </x:row>
     <x:row r="2238" spans="1:10">
       <x:c r="A2238" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2238" s="0" t="s">
         <x:v>26</x:v>
@@ -73462,7 +73471,7 @@
     </x:row>
     <x:row r="2239" spans="1:10">
       <x:c r="A2239" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2239" s="0" t="s">
         <x:v>26</x:v>
@@ -73494,7 +73503,7 @@
     </x:row>
     <x:row r="2240" spans="1:10">
       <x:c r="A2240" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2240" s="0" t="s">
         <x:v>30</x:v>
@@ -73526,7 +73535,7 @@
     </x:row>
     <x:row r="2241" spans="1:10">
       <x:c r="A2241" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2241" s="0" t="s">
         <x:v>30</x:v>
@@ -73558,7 +73567,7 @@
     </x:row>
     <x:row r="2242" spans="1:10">
       <x:c r="A2242" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2242" s="0" t="s">
         <x:v>31</x:v>
@@ -73590,7 +73599,7 @@
     </x:row>
     <x:row r="2243" spans="1:10">
       <x:c r="A2243" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2243" s="0" t="s">
         <x:v>31</x:v>
@@ -73622,7 +73631,7 @@
     </x:row>
     <x:row r="2244" spans="1:10">
       <x:c r="A2244" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2244" s="0" t="s">
         <x:v>31</x:v>
@@ -73654,7 +73663,7 @@
     </x:row>
     <x:row r="2245" spans="1:10">
       <x:c r="A2245" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2245" s="0" t="s">
         <x:v>85</x:v>
@@ -73686,7 +73695,7 @@
     </x:row>
     <x:row r="2246" spans="1:10">
       <x:c r="A2246" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2246" s="0" t="s">
         <x:v>85</x:v>
@@ -73718,7 +73727,7 @@
     </x:row>
     <x:row r="2247" spans="1:10">
       <x:c r="A2247" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2247" s="0" t="s">
         <x:v>37</x:v>
@@ -73750,7 +73759,7 @@
     </x:row>
     <x:row r="2248" spans="1:10">
       <x:c r="A2248" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2248" s="0" t="s">
         <x:v>37</x:v>
@@ -73782,7 +73791,7 @@
     </x:row>
     <x:row r="2249" spans="1:10">
       <x:c r="A2249" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B2249" s="0" t="s">
         <x:v>37</x:v>
@@ -73814,7 +73823,7 @@
     </x:row>
     <x:row r="2250" spans="1:10">
       <x:c r="A2250" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2250" s="0" t="s">
         <x:v>11</x:v>
@@ -73846,7 +73855,7 @@
     </x:row>
     <x:row r="2251" spans="1:10">
       <x:c r="A2251" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2251" s="0" t="s">
         <x:v>11</x:v>
@@ -73878,7 +73887,7 @@
     </x:row>
     <x:row r="2252" spans="1:10">
       <x:c r="A2252" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2252" s="0" t="s">
         <x:v>11</x:v>
@@ -73910,7 +73919,7 @@
     </x:row>
     <x:row r="2253" spans="1:10">
       <x:c r="A2253" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2253" s="0" t="s">
         <x:v>26</x:v>
@@ -73942,7 +73951,7 @@
     </x:row>
     <x:row r="2254" spans="1:10">
       <x:c r="A2254" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2254" s="0" t="s">
         <x:v>26</x:v>
@@ -73974,7 +73983,7 @@
     </x:row>
     <x:row r="2255" spans="1:10">
       <x:c r="A2255" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2255" s="0" t="s">
         <x:v>31</x:v>
@@ -74006,7 +74015,7 @@
     </x:row>
     <x:row r="2256" spans="1:10">
       <x:c r="A2256" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2256" s="0" t="s">
         <x:v>31</x:v>
@@ -74038,7 +74047,7 @@
     </x:row>
     <x:row r="2257" spans="1:10">
       <x:c r="A2257" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2257" s="0" t="s">
         <x:v>31</x:v>
@@ -74070,7 +74079,7 @@
     </x:row>
     <x:row r="2258" spans="1:10">
       <x:c r="A2258" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2258" s="0" t="s">
         <x:v>85</x:v>
@@ -74102,7 +74111,7 @@
     </x:row>
     <x:row r="2259" spans="1:10">
       <x:c r="A2259" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2259" s="0" t="s">
         <x:v>85</x:v>
@@ -74134,7 +74143,7 @@
     </x:row>
     <x:row r="2260" spans="1:10">
       <x:c r="A2260" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2260" s="0" t="s">
         <x:v>38</x:v>
@@ -74166,7 +74175,7 @@
     </x:row>
     <x:row r="2261" spans="1:10">
       <x:c r="A2261" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2261" s="0" t="s">
         <x:v>38</x:v>
@@ -74198,7 +74207,7 @@
     </x:row>
     <x:row r="2262" spans="1:10">
       <x:c r="A2262" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2262" s="0" t="s">
         <x:v>41</x:v>
@@ -74230,7 +74239,7 @@
     </x:row>
     <x:row r="2263" spans="1:10">
       <x:c r="A2263" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B2263" s="0" t="s">
         <x:v>41</x:v>
@@ -74262,7 +74271,7 @@
     </x:row>
     <x:row r="2264" spans="1:10">
       <x:c r="A2264" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2264" s="0" t="s">
         <x:v>44</x:v>
@@ -74294,7 +74303,7 @@
     </x:row>
     <x:row r="2265" spans="1:10">
       <x:c r="A2265" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2265" s="0" t="s">
         <x:v>44</x:v>
@@ -74326,7 +74335,7 @@
     </x:row>
     <x:row r="2266" spans="1:10">
       <x:c r="A2266" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2266" s="0" t="s">
         <x:v>11</x:v>
@@ -74358,7 +74367,7 @@
     </x:row>
     <x:row r="2267" spans="1:10">
       <x:c r="A2267" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2267" s="0" t="s">
         <x:v>11</x:v>
@@ -74390,7 +74399,7 @@
     </x:row>
     <x:row r="2268" spans="1:10">
       <x:c r="A2268" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2268" s="0" t="s">
         <x:v>11</x:v>
@@ -74422,7 +74431,7 @@
     </x:row>
     <x:row r="2269" spans="1:10">
       <x:c r="A2269" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2269" s="0" t="s">
         <x:v>26</x:v>
@@ -74454,7 +74463,7 @@
     </x:row>
     <x:row r="2270" spans="1:10">
       <x:c r="A2270" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2270" s="0" t="s">
         <x:v>26</x:v>
@@ -74486,7 +74495,7 @@
     </x:row>
     <x:row r="2271" spans="1:10">
       <x:c r="A2271" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2271" s="0" t="s">
         <x:v>26</x:v>
@@ -74518,7 +74527,7 @@
     </x:row>
     <x:row r="2272" spans="1:10">
       <x:c r="A2272" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2272" s="0" t="s">
         <x:v>30</x:v>
@@ -74550,7 +74559,7 @@
     </x:row>
     <x:row r="2273" spans="1:10">
       <x:c r="A2273" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2273" s="0" t="s">
         <x:v>30</x:v>
@@ -74582,7 +74591,7 @@
     </x:row>
     <x:row r="2274" spans="1:10">
       <x:c r="A2274" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2274" s="0" t="s">
         <x:v>30</x:v>
@@ -74614,7 +74623,7 @@
     </x:row>
     <x:row r="2275" spans="1:10">
       <x:c r="A2275" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2275" s="0" t="s">
         <x:v>31</x:v>
@@ -74646,7 +74655,7 @@
     </x:row>
     <x:row r="2276" spans="1:10">
       <x:c r="A2276" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2276" s="0" t="s">
         <x:v>31</x:v>
@@ -74678,7 +74687,7 @@
     </x:row>
     <x:row r="2277" spans="1:10">
       <x:c r="A2277" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2277" s="0" t="s">
         <x:v>31</x:v>
@@ -74710,7 +74719,7 @@
     </x:row>
     <x:row r="2278" spans="1:10">
       <x:c r="A2278" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2278" s="0" t="s">
         <x:v>142</x:v>
@@ -74742,7 +74751,7 @@
     </x:row>
     <x:row r="2279" spans="1:10">
       <x:c r="A2279" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2279" s="0" t="s">
         <x:v>142</x:v>
@@ -74774,7 +74783,7 @@
     </x:row>
     <x:row r="2280" spans="1:10">
       <x:c r="A2280" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2280" s="0" t="s">
         <x:v>85</x:v>
@@ -74806,7 +74815,7 @@
     </x:row>
     <x:row r="2281" spans="1:10">
       <x:c r="A2281" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2281" s="0" t="s">
         <x:v>85</x:v>
@@ -74838,7 +74847,7 @@
     </x:row>
     <x:row r="2282" spans="1:10">
       <x:c r="A2282" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2282" s="0" t="s">
         <x:v>85</x:v>
@@ -74870,7 +74879,7 @@
     </x:row>
     <x:row r="2283" spans="1:10">
       <x:c r="A2283" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2283" s="0" t="s">
         <x:v>96</x:v>
@@ -74902,7 +74911,7 @@
     </x:row>
     <x:row r="2284" spans="1:10">
       <x:c r="A2284" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2284" s="0" t="s">
         <x:v>96</x:v>
@@ -74934,7 +74943,7 @@
     </x:row>
     <x:row r="2285" spans="1:10">
       <x:c r="A2285" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2285" s="0" t="s">
         <x:v>98</x:v>
@@ -74966,7 +74975,7 @@
     </x:row>
     <x:row r="2286" spans="1:10">
       <x:c r="A2286" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2286" s="0" t="s">
         <x:v>98</x:v>
@@ -74998,7 +75007,7 @@
     </x:row>
     <x:row r="2287" spans="1:10">
       <x:c r="A2287" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2287" s="0" t="s">
         <x:v>37</x:v>
@@ -75030,7 +75039,7 @@
     </x:row>
     <x:row r="2288" spans="1:10">
       <x:c r="A2288" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2288" s="0" t="s">
         <x:v>37</x:v>
@@ -75062,7 +75071,7 @@
     </x:row>
     <x:row r="2289" spans="1:10">
       <x:c r="A2289" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2289" s="0" t="s">
         <x:v>37</x:v>
@@ -75094,7 +75103,7 @@
     </x:row>
     <x:row r="2290" spans="1:10">
       <x:c r="A2290" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2290" s="0" t="s">
         <x:v>38</x:v>
@@ -75126,7 +75135,7 @@
     </x:row>
     <x:row r="2291" spans="1:10">
       <x:c r="A2291" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2291" s="0" t="s">
         <x:v>38</x:v>
@@ -75158,7 +75167,7 @@
     </x:row>
     <x:row r="2292" spans="1:10">
       <x:c r="A2292" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2292" s="0" t="s">
         <x:v>39</x:v>
@@ -75190,7 +75199,7 @@
     </x:row>
     <x:row r="2293" spans="1:10">
       <x:c r="A2293" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2293" s="0" t="s">
         <x:v>39</x:v>
@@ -75222,7 +75231,7 @@
     </x:row>
     <x:row r="2294" spans="1:10">
       <x:c r="A2294" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2294" s="0" t="s">
         <x:v>40</x:v>
@@ -75254,7 +75263,7 @@
     </x:row>
     <x:row r="2295" spans="1:10">
       <x:c r="A2295" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2295" s="0" t="s">
         <x:v>40</x:v>
@@ -75286,7 +75295,7 @@
     </x:row>
     <x:row r="2296" spans="1:10">
       <x:c r="A2296" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2296" s="0" t="s">
         <x:v>40</x:v>
@@ -75318,7 +75327,7 @@
     </x:row>
     <x:row r="2297" spans="1:10">
       <x:c r="A2297" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2297" s="0" t="s">
         <x:v>41</x:v>
@@ -75350,7 +75359,7 @@
     </x:row>
     <x:row r="2298" spans="1:10">
       <x:c r="A2298" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B2298" s="0" t="s">
         <x:v>41</x:v>
@@ -75382,7 +75391,7 @@
     </x:row>
     <x:row r="2299" spans="1:10">
       <x:c r="A2299" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2299" s="0" t="s">
         <x:v>11</x:v>
@@ -75414,7 +75423,7 @@
     </x:row>
     <x:row r="2300" spans="1:10">
       <x:c r="A2300" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2300" s="0" t="s">
         <x:v>11</x:v>
@@ -75446,7 +75455,7 @@
     </x:row>
     <x:row r="2301" spans="1:10">
       <x:c r="A2301" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2301" s="0" t="s">
         <x:v>11</x:v>
@@ -75478,7 +75487,7 @@
     </x:row>
     <x:row r="2302" spans="1:10">
       <x:c r="A2302" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2302" s="0" t="s">
         <x:v>26</x:v>
@@ -75510,7 +75519,7 @@
     </x:row>
     <x:row r="2303" spans="1:10">
       <x:c r="A2303" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2303" s="0" t="s">
         <x:v>26</x:v>
@@ -75542,7 +75551,7 @@
     </x:row>
     <x:row r="2304" spans="1:10">
       <x:c r="A2304" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2304" s="0" t="s">
         <x:v>31</x:v>
@@ -75574,7 +75583,7 @@
     </x:row>
     <x:row r="2305" spans="1:10">
       <x:c r="A2305" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2305" s="0" t="s">
         <x:v>31</x:v>
@@ -75606,7 +75615,7 @@
     </x:row>
     <x:row r="2306" spans="1:10">
       <x:c r="A2306" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2306" s="0" t="s">
         <x:v>31</x:v>
@@ -75638,7 +75647,7 @@
     </x:row>
     <x:row r="2307" spans="1:10">
       <x:c r="A2307" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2307" s="0" t="s">
         <x:v>38</x:v>
@@ -75670,7 +75679,7 @@
     </x:row>
     <x:row r="2308" spans="1:10">
       <x:c r="A2308" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2308" s="0" t="s">
         <x:v>38</x:v>
@@ -75702,7 +75711,7 @@
     </x:row>
     <x:row r="2309" spans="1:10">
       <x:c r="A2309" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2309" s="0" t="s">
         <x:v>39</x:v>
@@ -75734,7 +75743,7 @@
     </x:row>
     <x:row r="2310" spans="1:10">
       <x:c r="A2310" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B2310" s="0" t="s">
         <x:v>39</x:v>
@@ -75766,7 +75775,7 @@
     </x:row>
     <x:row r="2311" spans="1:10">
       <x:c r="A2311" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2311" s="0" t="s">
         <x:v>43</x:v>
@@ -75798,7 +75807,7 @@
     </x:row>
     <x:row r="2312" spans="1:10">
       <x:c r="A2312" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2312" s="0" t="s">
         <x:v>43</x:v>
@@ -75830,7 +75839,7 @@
     </x:row>
     <x:row r="2313" spans="1:10">
       <x:c r="A2313" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2313" s="0" t="s">
         <x:v>43</x:v>
@@ -75862,7 +75871,7 @@
     </x:row>
     <x:row r="2314" spans="1:10">
       <x:c r="A2314" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2314" s="0" t="s">
         <x:v>11</x:v>
@@ -75894,7 +75903,7 @@
     </x:row>
     <x:row r="2315" spans="1:10">
       <x:c r="A2315" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2315" s="0" t="s">
         <x:v>11</x:v>
@@ -75926,7 +75935,7 @@
     </x:row>
     <x:row r="2316" spans="1:10">
       <x:c r="A2316" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2316" s="0" t="s">
         <x:v>11</x:v>
@@ -75958,7 +75967,7 @@
     </x:row>
     <x:row r="2317" spans="1:10">
       <x:c r="A2317" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2317" s="0" t="s">
         <x:v>26</x:v>
@@ -75990,7 +75999,7 @@
     </x:row>
     <x:row r="2318" spans="1:10">
       <x:c r="A2318" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2318" s="0" t="s">
         <x:v>26</x:v>
@@ -76022,7 +76031,7 @@
     </x:row>
     <x:row r="2319" spans="1:10">
       <x:c r="A2319" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2319" s="0" t="s">
         <x:v>28</x:v>
@@ -76054,7 +76063,7 @@
     </x:row>
     <x:row r="2320" spans="1:10">
       <x:c r="A2320" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2320" s="0" t="s">
         <x:v>28</x:v>
@@ -76086,7 +76095,7 @@
     </x:row>
     <x:row r="2321" spans="1:10">
       <x:c r="A2321" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2321" s="0" t="s">
         <x:v>30</x:v>
@@ -76118,7 +76127,7 @@
     </x:row>
     <x:row r="2322" spans="1:10">
       <x:c r="A2322" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2322" s="0" t="s">
         <x:v>30</x:v>
@@ -76150,7 +76159,7 @@
     </x:row>
     <x:row r="2323" spans="1:10">
       <x:c r="A2323" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2323" s="0" t="s">
         <x:v>30</x:v>
@@ -76182,7 +76191,7 @@
     </x:row>
     <x:row r="2324" spans="1:10">
       <x:c r="A2324" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2324" s="0" t="s">
         <x:v>31</x:v>
@@ -76214,7 +76223,7 @@
     </x:row>
     <x:row r="2325" spans="1:10">
       <x:c r="A2325" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2325" s="0" t="s">
         <x:v>31</x:v>
@@ -76246,7 +76255,7 @@
     </x:row>
     <x:row r="2326" spans="1:10">
       <x:c r="A2326" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2326" s="0" t="s">
         <x:v>31</x:v>
@@ -76278,7 +76287,7 @@
     </x:row>
     <x:row r="2327" spans="1:10">
       <x:c r="A2327" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2327" s="0" t="s">
         <x:v>85</x:v>
@@ -76310,7 +76319,7 @@
     </x:row>
     <x:row r="2328" spans="1:10">
       <x:c r="A2328" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2328" s="0" t="s">
         <x:v>85</x:v>
@@ -76342,7 +76351,7 @@
     </x:row>
     <x:row r="2329" spans="1:10">
       <x:c r="A2329" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2329" s="0" t="s">
         <x:v>85</x:v>
@@ -76374,7 +76383,7 @@
     </x:row>
     <x:row r="2330" spans="1:10">
       <x:c r="A2330" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2330" s="0" t="s">
         <x:v>98</x:v>
@@ -76406,7 +76415,7 @@
     </x:row>
     <x:row r="2331" spans="1:10">
       <x:c r="A2331" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2331" s="0" t="s">
         <x:v>98</x:v>
@@ -76438,7 +76447,7 @@
     </x:row>
     <x:row r="2332" spans="1:10">
       <x:c r="A2332" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2332" s="0" t="s">
         <x:v>37</x:v>
@@ -76470,7 +76479,7 @@
     </x:row>
     <x:row r="2333" spans="1:10">
       <x:c r="A2333" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2333" s="0" t="s">
         <x:v>37</x:v>
@@ -76502,7 +76511,7 @@
     </x:row>
     <x:row r="2334" spans="1:10">
       <x:c r="A2334" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2334" s="0" t="s">
         <x:v>37</x:v>
@@ -76534,7 +76543,7 @@
     </x:row>
     <x:row r="2335" spans="1:10">
       <x:c r="A2335" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2335" s="0" t="s">
         <x:v>38</x:v>
@@ -76566,7 +76575,7 @@
     </x:row>
     <x:row r="2336" spans="1:10">
       <x:c r="A2336" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2336" s="0" t="s">
         <x:v>38</x:v>
@@ -76598,7 +76607,7 @@
     </x:row>
     <x:row r="2337" spans="1:10">
       <x:c r="A2337" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2337" s="0" t="s">
         <x:v>39</x:v>
@@ -76630,7 +76639,7 @@
     </x:row>
     <x:row r="2338" spans="1:10">
       <x:c r="A2338" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2338" s="0" t="s">
         <x:v>39</x:v>
@@ -76662,7 +76671,7 @@
     </x:row>
     <x:row r="2339" spans="1:10">
       <x:c r="A2339" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2339" s="0" t="s">
         <x:v>41</x:v>
@@ -76694,7 +76703,7 @@
     </x:row>
     <x:row r="2340" spans="1:10">
       <x:c r="A2340" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B2340" s="0" t="s">
         <x:v>41</x:v>
@@ -76726,7 +76735,7 @@
     </x:row>
     <x:row r="2341" spans="1:10">
       <x:c r="A2341" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2341" s="0" t="s">
         <x:v>43</x:v>
@@ -76758,7 +76767,7 @@
     </x:row>
     <x:row r="2342" spans="1:10">
       <x:c r="A2342" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2342" s="0" t="s">
         <x:v>43</x:v>
@@ -76790,7 +76799,7 @@
     </x:row>
     <x:row r="2343" spans="1:10">
       <x:c r="A2343" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2343" s="0" t="s">
         <x:v>11</x:v>
@@ -76822,7 +76831,7 @@
     </x:row>
     <x:row r="2344" spans="1:10">
       <x:c r="A2344" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2344" s="0" t="s">
         <x:v>11</x:v>
@@ -76854,7 +76863,7 @@
     </x:row>
     <x:row r="2345" spans="1:10">
       <x:c r="A2345" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2345" s="0" t="s">
         <x:v>11</x:v>
@@ -76886,7 +76895,7 @@
     </x:row>
     <x:row r="2346" spans="1:10">
       <x:c r="A2346" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2346" s="0" t="s">
         <x:v>26</x:v>
@@ -76918,7 +76927,7 @@
     </x:row>
     <x:row r="2347" spans="1:10">
       <x:c r="A2347" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2347" s="0" t="s">
         <x:v>26</x:v>
@@ -76950,7 +76959,7 @@
     </x:row>
     <x:row r="2348" spans="1:10">
       <x:c r="A2348" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2348" s="0" t="s">
         <x:v>28</x:v>
@@ -76982,7 +76991,7 @@
     </x:row>
     <x:row r="2349" spans="1:10">
       <x:c r="A2349" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2349" s="0" t="s">
         <x:v>28</x:v>
@@ -77014,7 +77023,7 @@
     </x:row>
     <x:row r="2350" spans="1:10">
       <x:c r="A2350" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2350" s="0" t="s">
         <x:v>28</x:v>
@@ -77046,7 +77055,7 @@
     </x:row>
     <x:row r="2351" spans="1:10">
       <x:c r="A2351" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2351" s="0" t="s">
         <x:v>30</x:v>
@@ -77078,7 +77087,7 @@
     </x:row>
     <x:row r="2352" spans="1:10">
       <x:c r="A2352" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2352" s="0" t="s">
         <x:v>30</x:v>
@@ -77110,7 +77119,7 @@
     </x:row>
     <x:row r="2353" spans="1:10">
       <x:c r="A2353" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2353" s="0" t="s">
         <x:v>30</x:v>
@@ -77142,7 +77151,7 @@
     </x:row>
     <x:row r="2354" spans="1:10">
       <x:c r="A2354" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2354" s="0" t="s">
         <x:v>31</x:v>
@@ -77174,7 +77183,7 @@
     </x:row>
     <x:row r="2355" spans="1:10">
       <x:c r="A2355" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2355" s="0" t="s">
         <x:v>31</x:v>
@@ -77206,7 +77215,7 @@
     </x:row>
     <x:row r="2356" spans="1:10">
       <x:c r="A2356" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2356" s="0" t="s">
         <x:v>31</x:v>
@@ -77238,7 +77247,7 @@
     </x:row>
     <x:row r="2357" spans="1:10">
       <x:c r="A2357" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2357" s="0" t="s">
         <x:v>37</x:v>
@@ -77270,7 +77279,7 @@
     </x:row>
     <x:row r="2358" spans="1:10">
       <x:c r="A2358" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2358" s="0" t="s">
         <x:v>37</x:v>
@@ -77302,7 +77311,7 @@
     </x:row>
     <x:row r="2359" spans="1:10">
       <x:c r="A2359" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2359" s="0" t="s">
         <x:v>37</x:v>
@@ -77334,7 +77343,7 @@
     </x:row>
     <x:row r="2360" spans="1:10">
       <x:c r="A2360" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2360" s="0" t="s">
         <x:v>39</x:v>
@@ -77366,7 +77375,7 @@
     </x:row>
     <x:row r="2361" spans="1:10">
       <x:c r="A2361" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2361" s="0" t="s">
         <x:v>39</x:v>
@@ -77398,7 +77407,7 @@
     </x:row>
     <x:row r="2362" spans="1:10">
       <x:c r="A2362" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2362" s="0" t="s">
         <x:v>39</x:v>
@@ -77430,7 +77439,7 @@
     </x:row>
     <x:row r="2363" spans="1:10">
       <x:c r="A2363" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2363" s="0" t="s">
         <x:v>41</x:v>
@@ -77462,7 +77471,7 @@
     </x:row>
     <x:row r="2364" spans="1:10">
       <x:c r="A2364" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B2364" s="0" t="s">
         <x:v>41</x:v>
@@ -77494,7 +77503,7 @@
     </x:row>
     <x:row r="2365" spans="1:10">
       <x:c r="A2365" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2365" s="0" t="s">
         <x:v>11</x:v>
@@ -77526,7 +77535,7 @@
     </x:row>
     <x:row r="2366" spans="1:10">
       <x:c r="A2366" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2366" s="0" t="s">
         <x:v>11</x:v>
@@ -77558,7 +77567,7 @@
     </x:row>
     <x:row r="2367" spans="1:10">
       <x:c r="A2367" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2367" s="0" t="s">
         <x:v>11</x:v>
@@ -77590,7 +77599,7 @@
     </x:row>
     <x:row r="2368" spans="1:10">
       <x:c r="A2368" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2368" s="0" t="s">
         <x:v>26</x:v>
@@ -77622,7 +77631,7 @@
     </x:row>
     <x:row r="2369" spans="1:10">
       <x:c r="A2369" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2369" s="0" t="s">
         <x:v>26</x:v>
@@ -77654,7 +77663,7 @@
     </x:row>
     <x:row r="2370" spans="1:10">
       <x:c r="A2370" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2370" s="0" t="s">
         <x:v>26</x:v>
@@ -77686,7 +77695,7 @@
     </x:row>
     <x:row r="2371" spans="1:10">
       <x:c r="A2371" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2371" s="0" t="s">
         <x:v>30</x:v>
@@ -77718,7 +77727,7 @@
     </x:row>
     <x:row r="2372" spans="1:10">
       <x:c r="A2372" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2372" s="0" t="s">
         <x:v>30</x:v>
@@ -77750,7 +77759,7 @@
     </x:row>
     <x:row r="2373" spans="1:10">
       <x:c r="A2373" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2373" s="0" t="s">
         <x:v>31</x:v>
@@ -77782,7 +77791,7 @@
     </x:row>
     <x:row r="2374" spans="1:10">
       <x:c r="A2374" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2374" s="0" t="s">
         <x:v>31</x:v>
@@ -77814,7 +77823,7 @@
     </x:row>
     <x:row r="2375" spans="1:10">
       <x:c r="A2375" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2375" s="0" t="s">
         <x:v>31</x:v>
@@ -77846,7 +77855,7 @@
     </x:row>
     <x:row r="2376" spans="1:10">
       <x:c r="A2376" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2376" s="0" t="s">
         <x:v>85</x:v>
@@ -77878,7 +77887,7 @@
     </x:row>
     <x:row r="2377" spans="1:10">
       <x:c r="A2377" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2377" s="0" t="s">
         <x:v>85</x:v>
@@ -77910,7 +77919,7 @@
     </x:row>
     <x:row r="2378" spans="1:10">
       <x:c r="A2378" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2378" s="0" t="s">
         <x:v>96</x:v>
@@ -77942,7 +77951,7 @@
     </x:row>
     <x:row r="2379" spans="1:10">
       <x:c r="A2379" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2379" s="0" t="s">
         <x:v>96</x:v>
@@ -77974,7 +77983,7 @@
     </x:row>
     <x:row r="2380" spans="1:10">
       <x:c r="A2380" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2380" s="0" t="s">
         <x:v>37</x:v>
@@ -78006,7 +78015,7 @@
     </x:row>
     <x:row r="2381" spans="1:10">
       <x:c r="A2381" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2381" s="0" t="s">
         <x:v>37</x:v>
@@ -78038,7 +78047,7 @@
     </x:row>
     <x:row r="2382" spans="1:10">
       <x:c r="A2382" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2382" s="0" t="s">
         <x:v>37</x:v>
@@ -78070,7 +78079,7 @@
     </x:row>
     <x:row r="2383" spans="1:10">
       <x:c r="A2383" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2383" s="0" t="s">
         <x:v>118</x:v>
@@ -78102,7 +78111,7 @@
     </x:row>
     <x:row r="2384" spans="1:10">
       <x:c r="A2384" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2384" s="0" t="s">
         <x:v>118</x:v>
@@ -78134,7 +78143,7 @@
     </x:row>
     <x:row r="2385" spans="1:10">
       <x:c r="A2385" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2385" s="0" t="s">
         <x:v>119</x:v>
@@ -78166,7 +78175,7 @@
     </x:row>
     <x:row r="2386" spans="1:10">
       <x:c r="A2386" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2386" s="0" t="s">
         <x:v>119</x:v>
@@ -78198,7 +78207,7 @@
     </x:row>
     <x:row r="2387" spans="1:10">
       <x:c r="A2387" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2387" s="0" t="s">
         <x:v>39</x:v>
@@ -78230,7 +78239,7 @@
     </x:row>
     <x:row r="2388" spans="1:10">
       <x:c r="A2388" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2388" s="0" t="s">
         <x:v>39</x:v>
@@ -78262,7 +78271,7 @@
     </x:row>
     <x:row r="2389" spans="1:10">
       <x:c r="A2389" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2389" s="0" t="s">
         <x:v>40</x:v>
@@ -78294,7 +78303,7 @@
     </x:row>
     <x:row r="2390" spans="1:10">
       <x:c r="A2390" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2390" s="0" t="s">
         <x:v>40</x:v>
@@ -78326,7 +78335,7 @@
     </x:row>
     <x:row r="2391" spans="1:10">
       <x:c r="A2391" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2391" s="0" t="s">
         <x:v>41</x:v>
@@ -78358,7 +78367,7 @@
     </x:row>
     <x:row r="2392" spans="1:10">
       <x:c r="A2392" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B2392" s="0" t="s">
         <x:v>41</x:v>
@@ -78390,7 +78399,7 @@
     </x:row>
     <x:row r="2393" spans="1:10">
       <x:c r="A2393" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2393" s="0" t="s">
         <x:v>43</x:v>
@@ -78422,7 +78431,7 @@
     </x:row>
     <x:row r="2394" spans="1:10">
       <x:c r="A2394" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2394" s="0" t="s">
         <x:v>43</x:v>
@@ -78454,7 +78463,7 @@
     </x:row>
     <x:row r="2395" spans="1:10">
       <x:c r="A2395" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2395" s="0" t="s">
         <x:v>43</x:v>
@@ -78486,7 +78495,7 @@
     </x:row>
     <x:row r="2396" spans="1:10">
       <x:c r="A2396" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2396" s="0" t="s">
         <x:v>44</x:v>
@@ -78518,7 +78527,7 @@
     </x:row>
     <x:row r="2397" spans="1:10">
       <x:c r="A2397" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2397" s="0" t="s">
         <x:v>44</x:v>
@@ -78550,7 +78559,7 @@
     </x:row>
     <x:row r="2398" spans="1:10">
       <x:c r="A2398" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2398" s="0" t="s">
         <x:v>44</x:v>
@@ -78582,7 +78591,7 @@
     </x:row>
     <x:row r="2399" spans="1:10">
       <x:c r="A2399" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2399" s="0" t="s">
         <x:v>11</x:v>
@@ -78609,12 +78618,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2399" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
     </x:row>
     <x:row r="2400" spans="1:10">
       <x:c r="A2400" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2400" s="0" t="s">
         <x:v>11</x:v>
@@ -78629,10 +78638,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F2400" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G2400" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="H2400" s="1" t="s">
         <x:v>88</x:v>
@@ -78641,12 +78650,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2400" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="2401" spans="1:10">
       <x:c r="A2401" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2401" s="0" t="s">
         <x:v>11</x:v>
@@ -78661,7 +78670,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="F2401" s="1" t="s">
-        <x:v>381</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="G2401" s="1" t="s">
         <x:v>155</x:v>
@@ -78673,12 +78682,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2401" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>471</x:v>
       </x:c>
     </x:row>
     <x:row r="2402" spans="1:10">
       <x:c r="A2402" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2402" s="0" t="s">
         <x:v>26</x:v>
@@ -78710,7 +78719,7 @@
     </x:row>
     <x:row r="2403" spans="1:10">
       <x:c r="A2403" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2403" s="0" t="s">
         <x:v>26</x:v>
@@ -78742,7 +78751,7 @@
     </x:row>
     <x:row r="2404" spans="1:10">
       <x:c r="A2404" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2404" s="0" t="s">
         <x:v>26</x:v>
@@ -78774,7 +78783,7 @@
     </x:row>
     <x:row r="2405" spans="1:10">
       <x:c r="A2405" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2405" s="0" t="s">
         <x:v>28</x:v>
@@ -78806,7 +78815,7 @@
     </x:row>
     <x:row r="2406" spans="1:10">
       <x:c r="A2406" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2406" s="0" t="s">
         <x:v>28</x:v>
@@ -78838,7 +78847,7 @@
     </x:row>
     <x:row r="2407" spans="1:10">
       <x:c r="A2407" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2407" s="0" t="s">
         <x:v>28</x:v>
@@ -78870,7 +78879,7 @@
     </x:row>
     <x:row r="2408" spans="1:10">
       <x:c r="A2408" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2408" s="0" t="s">
         <x:v>30</x:v>
@@ -78902,7 +78911,7 @@
     </x:row>
     <x:row r="2409" spans="1:10">
       <x:c r="A2409" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2409" s="0" t="s">
         <x:v>30</x:v>
@@ -78934,7 +78943,7 @@
     </x:row>
     <x:row r="2410" spans="1:10">
       <x:c r="A2410" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2410" s="0" t="s">
         <x:v>30</x:v>
@@ -78966,7 +78975,7 @@
     </x:row>
     <x:row r="2411" spans="1:10">
       <x:c r="A2411" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2411" s="0" t="s">
         <x:v>31</x:v>
@@ -78993,12 +79002,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2411" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="2412" spans="1:10">
       <x:c r="A2412" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2412" s="0" t="s">
         <x:v>31</x:v>
@@ -79013,7 +79022,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F2412" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G2412" s="1" t="s">
         <x:v>410</x:v>
@@ -79030,7 +79039,7 @@
     </x:row>
     <x:row r="2413" spans="1:10">
       <x:c r="A2413" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2413" s="0" t="s">
         <x:v>31</x:v>
@@ -79057,12 +79066,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2413" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="2414" spans="1:10">
       <x:c r="A2414" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2414" s="0" t="s">
         <x:v>142</x:v>
@@ -79094,7 +79103,7 @@
     </x:row>
     <x:row r="2415" spans="1:10">
       <x:c r="A2415" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2415" s="0" t="s">
         <x:v>142</x:v>
@@ -79126,7 +79135,7 @@
     </x:row>
     <x:row r="2416" spans="1:10">
       <x:c r="A2416" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2416" s="0" t="s">
         <x:v>142</x:v>
@@ -79158,7 +79167,7 @@
     </x:row>
     <x:row r="2417" spans="1:10">
       <x:c r="A2417" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2417" s="0" t="s">
         <x:v>85</x:v>
@@ -79190,7 +79199,7 @@
     </x:row>
     <x:row r="2418" spans="1:10">
       <x:c r="A2418" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2418" s="0" t="s">
         <x:v>85</x:v>
@@ -79222,7 +79231,7 @@
     </x:row>
     <x:row r="2419" spans="1:10">
       <x:c r="A2419" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2419" s="0" t="s">
         <x:v>85</x:v>
@@ -79249,12 +79258,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2419" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="2420" spans="1:10">
       <x:c r="A2420" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2420" s="0" t="s">
         <x:v>96</x:v>
@@ -79286,7 +79295,7 @@
     </x:row>
     <x:row r="2421" spans="1:10">
       <x:c r="A2421" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2421" s="0" t="s">
         <x:v>96</x:v>
@@ -79318,7 +79327,7 @@
     </x:row>
     <x:row r="2422" spans="1:10">
       <x:c r="A2422" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2422" s="0" t="s">
         <x:v>97</x:v>
@@ -79350,7 +79359,7 @@
     </x:row>
     <x:row r="2423" spans="1:10">
       <x:c r="A2423" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2423" s="0" t="s">
         <x:v>97</x:v>
@@ -79382,7 +79391,7 @@
     </x:row>
     <x:row r="2424" spans="1:10">
       <x:c r="A2424" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2424" s="0" t="s">
         <x:v>97</x:v>
@@ -79414,7 +79423,7 @@
     </x:row>
     <x:row r="2425" spans="1:10">
       <x:c r="A2425" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2425" s="0" t="s">
         <x:v>98</x:v>
@@ -79446,7 +79455,7 @@
     </x:row>
     <x:row r="2426" spans="1:10">
       <x:c r="A2426" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2426" s="0" t="s">
         <x:v>98</x:v>
@@ -79478,7 +79487,7 @@
     </x:row>
     <x:row r="2427" spans="1:10">
       <x:c r="A2427" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2427" s="0" t="s">
         <x:v>37</x:v>
@@ -79493,7 +79502,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="F2427" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G2427" s="1" t="s">
         <x:v>168</x:v>
@@ -79510,7 +79519,7 @@
     </x:row>
     <x:row r="2428" spans="1:10">
       <x:c r="A2428" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2428" s="0" t="s">
         <x:v>37</x:v>
@@ -79537,12 +79546,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2428" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="2429" spans="1:10">
       <x:c r="A2429" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2429" s="0" t="s">
         <x:v>37</x:v>
@@ -79569,12 +79578,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2429" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>474</x:v>
       </x:c>
     </x:row>
     <x:row r="2430" spans="1:10">
       <x:c r="A2430" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2430" s="0" t="s">
         <x:v>38</x:v>
@@ -79606,7 +79615,7 @@
     </x:row>
     <x:row r="2431" spans="1:10">
       <x:c r="A2431" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2431" s="0" t="s">
         <x:v>38</x:v>
@@ -79638,7 +79647,7 @@
     </x:row>
     <x:row r="2432" spans="1:10">
       <x:c r="A2432" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2432" s="0" t="s">
         <x:v>38</x:v>
@@ -79670,7 +79679,7 @@
     </x:row>
     <x:row r="2433" spans="1:10">
       <x:c r="A2433" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2433" s="0" t="s">
         <x:v>118</x:v>
@@ -79702,7 +79711,7 @@
     </x:row>
     <x:row r="2434" spans="1:10">
       <x:c r="A2434" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2434" s="0" t="s">
         <x:v>118</x:v>
@@ -79734,7 +79743,7 @@
     </x:row>
     <x:row r="2435" spans="1:10">
       <x:c r="A2435" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2435" s="0" t="s">
         <x:v>118</x:v>
@@ -79766,10 +79775,10 @@
     </x:row>
     <x:row r="2436" spans="1:10">
       <x:c r="A2436" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2436" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C2436" s="1" t="s">
         <x:v>12</x:v>
@@ -79798,10 +79807,10 @@
     </x:row>
     <x:row r="2437" spans="1:10">
       <x:c r="A2437" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2437" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C2437" s="1" t="s">
         <x:v>18</x:v>
@@ -79830,10 +79839,10 @@
     </x:row>
     <x:row r="2438" spans="1:10">
       <x:c r="A2438" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2438" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C2438" s="1" t="s">
         <x:v>9</x:v>
@@ -79862,7 +79871,7 @@
     </x:row>
     <x:row r="2439" spans="1:10">
       <x:c r="A2439" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2439" s="0" t="s">
         <x:v>119</x:v>
@@ -79894,7 +79903,7 @@
     </x:row>
     <x:row r="2440" spans="1:10">
       <x:c r="A2440" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2440" s="0" t="s">
         <x:v>119</x:v>
@@ -79926,7 +79935,7 @@
     </x:row>
     <x:row r="2441" spans="1:10">
       <x:c r="A2441" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2441" s="0" t="s">
         <x:v>119</x:v>
@@ -79958,7 +79967,7 @@
     </x:row>
     <x:row r="2442" spans="1:10">
       <x:c r="A2442" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2442" s="0" t="s">
         <x:v>39</x:v>
@@ -79990,7 +79999,7 @@
     </x:row>
     <x:row r="2443" spans="1:10">
       <x:c r="A2443" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2443" s="0" t="s">
         <x:v>39</x:v>
@@ -80022,7 +80031,7 @@
     </x:row>
     <x:row r="2444" spans="1:10">
       <x:c r="A2444" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2444" s="0" t="s">
         <x:v>39</x:v>
@@ -80054,7 +80063,7 @@
     </x:row>
     <x:row r="2445" spans="1:10">
       <x:c r="A2445" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2445" s="0" t="s">
         <x:v>40</x:v>
@@ -80086,7 +80095,7 @@
     </x:row>
     <x:row r="2446" spans="1:10">
       <x:c r="A2446" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2446" s="0" t="s">
         <x:v>40</x:v>
@@ -80118,7 +80127,7 @@
     </x:row>
     <x:row r="2447" spans="1:10">
       <x:c r="A2447" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2447" s="0" t="s">
         <x:v>40</x:v>
@@ -80145,12 +80154,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2447" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="2448" spans="1:10">
       <x:c r="A2448" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2448" s="0" t="s">
         <x:v>41</x:v>
@@ -80182,7 +80191,7 @@
     </x:row>
     <x:row r="2449" spans="1:10">
       <x:c r="A2449" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2449" s="0" t="s">
         <x:v>41</x:v>
@@ -80214,7 +80223,7 @@
     </x:row>
     <x:row r="2450" spans="1:10">
       <x:c r="A2450" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B2450" s="0" t="s">
         <x:v>41</x:v>
@@ -80246,7 +80255,7 @@
     </x:row>
     <x:row r="2451" spans="1:10">
       <x:c r="A2451" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2451" s="0" t="s">
         <x:v>43</x:v>
@@ -80278,7 +80287,7 @@
     </x:row>
     <x:row r="2452" spans="1:10">
       <x:c r="A2452" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2452" s="0" t="s">
         <x:v>43</x:v>
@@ -80310,7 +80319,7 @@
     </x:row>
     <x:row r="2453" spans="1:10">
       <x:c r="A2453" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2453" s="0" t="s">
         <x:v>43</x:v>
@@ -80342,7 +80351,7 @@
     </x:row>
     <x:row r="2454" spans="1:10">
       <x:c r="A2454" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2454" s="0" t="s">
         <x:v>11</x:v>
@@ -80374,7 +80383,7 @@
     </x:row>
     <x:row r="2455" spans="1:10">
       <x:c r="A2455" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2455" s="0" t="s">
         <x:v>11</x:v>
@@ -80406,7 +80415,7 @@
     </x:row>
     <x:row r="2456" spans="1:10">
       <x:c r="A2456" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2456" s="0" t="s">
         <x:v>11</x:v>
@@ -80438,7 +80447,7 @@
     </x:row>
     <x:row r="2457" spans="1:10">
       <x:c r="A2457" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2457" s="0" t="s">
         <x:v>26</x:v>
@@ -80470,7 +80479,7 @@
     </x:row>
     <x:row r="2458" spans="1:10">
       <x:c r="A2458" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2458" s="0" t="s">
         <x:v>26</x:v>
@@ -80502,7 +80511,7 @@
     </x:row>
     <x:row r="2459" spans="1:10">
       <x:c r="A2459" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2459" s="0" t="s">
         <x:v>26</x:v>
@@ -80534,7 +80543,7 @@
     </x:row>
     <x:row r="2460" spans="1:10">
       <x:c r="A2460" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2460" s="0" t="s">
         <x:v>28</x:v>
@@ -80566,7 +80575,7 @@
     </x:row>
     <x:row r="2461" spans="1:10">
       <x:c r="A2461" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2461" s="0" t="s">
         <x:v>28</x:v>
@@ -80598,7 +80607,7 @@
     </x:row>
     <x:row r="2462" spans="1:10">
       <x:c r="A2462" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2462" s="0" t="s">
         <x:v>30</x:v>
@@ -80630,7 +80639,7 @@
     </x:row>
     <x:row r="2463" spans="1:10">
       <x:c r="A2463" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2463" s="0" t="s">
         <x:v>30</x:v>
@@ -80662,7 +80671,7 @@
     </x:row>
     <x:row r="2464" spans="1:10">
       <x:c r="A2464" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2464" s="0" t="s">
         <x:v>30</x:v>
@@ -80694,7 +80703,7 @@
     </x:row>
     <x:row r="2465" spans="1:10">
       <x:c r="A2465" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2465" s="0" t="s">
         <x:v>31</x:v>
@@ -80726,7 +80735,7 @@
     </x:row>
     <x:row r="2466" spans="1:10">
       <x:c r="A2466" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2466" s="0" t="s">
         <x:v>31</x:v>
@@ -80758,7 +80767,7 @@
     </x:row>
     <x:row r="2467" spans="1:10">
       <x:c r="A2467" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2467" s="0" t="s">
         <x:v>31</x:v>
@@ -80790,7 +80799,7 @@
     </x:row>
     <x:row r="2468" spans="1:10">
       <x:c r="A2468" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2468" s="0" t="s">
         <x:v>85</x:v>
@@ -80822,7 +80831,7 @@
     </x:row>
     <x:row r="2469" spans="1:10">
       <x:c r="A2469" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2469" s="0" t="s">
         <x:v>85</x:v>
@@ -80854,7 +80863,7 @@
     </x:row>
     <x:row r="2470" spans="1:10">
       <x:c r="A2470" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2470" s="0" t="s">
         <x:v>98</x:v>
@@ -80886,7 +80895,7 @@
     </x:row>
     <x:row r="2471" spans="1:10">
       <x:c r="A2471" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2471" s="0" t="s">
         <x:v>98</x:v>
@@ -80918,7 +80927,7 @@
     </x:row>
     <x:row r="2472" spans="1:10">
       <x:c r="A2472" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2472" s="0" t="s">
         <x:v>37</x:v>
@@ -80950,7 +80959,7 @@
     </x:row>
     <x:row r="2473" spans="1:10">
       <x:c r="A2473" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2473" s="0" t="s">
         <x:v>37</x:v>
@@ -80982,7 +80991,7 @@
     </x:row>
     <x:row r="2474" spans="1:10">
       <x:c r="A2474" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2474" s="0" t="s">
         <x:v>37</x:v>
@@ -81014,7 +81023,7 @@
     </x:row>
     <x:row r="2475" spans="1:10">
       <x:c r="A2475" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2475" s="0" t="s">
         <x:v>38</x:v>
@@ -81046,7 +81055,7 @@
     </x:row>
     <x:row r="2476" spans="1:10">
       <x:c r="A2476" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2476" s="0" t="s">
         <x:v>38</x:v>
@@ -81078,7 +81087,7 @@
     </x:row>
     <x:row r="2477" spans="1:10">
       <x:c r="A2477" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2477" s="0" t="s">
         <x:v>38</x:v>
@@ -81110,7 +81119,7 @@
     </x:row>
     <x:row r="2478" spans="1:10">
       <x:c r="A2478" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2478" s="0" t="s">
         <x:v>39</x:v>
@@ -81142,7 +81151,7 @@
     </x:row>
     <x:row r="2479" spans="1:10">
       <x:c r="A2479" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2479" s="0" t="s">
         <x:v>39</x:v>
@@ -81174,7 +81183,7 @@
     </x:row>
     <x:row r="2480" spans="1:10">
       <x:c r="A2480" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2480" s="0" t="s">
         <x:v>40</x:v>
@@ -81206,7 +81215,7 @@
     </x:row>
     <x:row r="2481" spans="1:10">
       <x:c r="A2481" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2481" s="0" t="s">
         <x:v>40</x:v>
@@ -81238,7 +81247,7 @@
     </x:row>
     <x:row r="2482" spans="1:10">
       <x:c r="A2482" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B2482" s="0" t="s">
         <x:v>40</x:v>
@@ -81270,7 +81279,7 @@
     </x:row>
     <x:row r="2483" spans="1:10">
       <x:c r="A2483" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2483" s="0" t="s">
         <x:v>43</x:v>
@@ -81302,7 +81311,7 @@
     </x:row>
     <x:row r="2484" spans="1:10">
       <x:c r="A2484" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2484" s="0" t="s">
         <x:v>43</x:v>
@@ -81334,7 +81343,7 @@
     </x:row>
     <x:row r="2485" spans="1:10">
       <x:c r="A2485" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2485" s="0" t="s">
         <x:v>44</x:v>
@@ -81366,7 +81375,7 @@
     </x:row>
     <x:row r="2486" spans="1:10">
       <x:c r="A2486" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2486" s="0" t="s">
         <x:v>44</x:v>
@@ -81398,7 +81407,7 @@
     </x:row>
     <x:row r="2487" spans="1:10">
       <x:c r="A2487" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2487" s="0" t="s">
         <x:v>11</x:v>
@@ -81430,7 +81439,7 @@
     </x:row>
     <x:row r="2488" spans="1:10">
       <x:c r="A2488" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2488" s="0" t="s">
         <x:v>11</x:v>
@@ -81462,7 +81471,7 @@
     </x:row>
     <x:row r="2489" spans="1:10">
       <x:c r="A2489" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2489" s="0" t="s">
         <x:v>11</x:v>
@@ -81494,7 +81503,7 @@
     </x:row>
     <x:row r="2490" spans="1:10">
       <x:c r="A2490" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2490" s="0" t="s">
         <x:v>26</x:v>
@@ -81526,7 +81535,7 @@
     </x:row>
     <x:row r="2491" spans="1:10">
       <x:c r="A2491" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2491" s="0" t="s">
         <x:v>26</x:v>
@@ -81558,7 +81567,7 @@
     </x:row>
     <x:row r="2492" spans="1:10">
       <x:c r="A2492" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2492" s="0" t="s">
         <x:v>26</x:v>
@@ -81590,7 +81599,7 @@
     </x:row>
     <x:row r="2493" spans="1:10">
       <x:c r="A2493" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2493" s="0" t="s">
         <x:v>28</x:v>
@@ -81622,7 +81631,7 @@
     </x:row>
     <x:row r="2494" spans="1:10">
       <x:c r="A2494" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2494" s="0" t="s">
         <x:v>28</x:v>
@@ -81654,7 +81663,7 @@
     </x:row>
     <x:row r="2495" spans="1:10">
       <x:c r="A2495" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2495" s="0" t="s">
         <x:v>30</x:v>
@@ -81686,7 +81695,7 @@
     </x:row>
     <x:row r="2496" spans="1:10">
       <x:c r="A2496" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2496" s="0" t="s">
         <x:v>30</x:v>
@@ -81718,7 +81727,7 @@
     </x:row>
     <x:row r="2497" spans="1:10">
       <x:c r="A2497" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2497" s="0" t="s">
         <x:v>31</x:v>
@@ -81750,7 +81759,7 @@
     </x:row>
     <x:row r="2498" spans="1:10">
       <x:c r="A2498" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2498" s="0" t="s">
         <x:v>31</x:v>
@@ -81782,7 +81791,7 @@
     </x:row>
     <x:row r="2499" spans="1:10">
       <x:c r="A2499" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2499" s="0" t="s">
         <x:v>31</x:v>
@@ -81814,7 +81823,7 @@
     </x:row>
     <x:row r="2500" spans="1:10">
       <x:c r="A2500" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2500" s="0" t="s">
         <x:v>85</x:v>
@@ -81846,7 +81855,7 @@
     </x:row>
     <x:row r="2501" spans="1:10">
       <x:c r="A2501" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2501" s="0" t="s">
         <x:v>85</x:v>
@@ -81878,7 +81887,7 @@
     </x:row>
     <x:row r="2502" spans="1:10">
       <x:c r="A2502" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2502" s="0" t="s">
         <x:v>85</x:v>
@@ -81910,7 +81919,7 @@
     </x:row>
     <x:row r="2503" spans="1:10">
       <x:c r="A2503" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2503" s="0" t="s">
         <x:v>37</x:v>
@@ -81942,7 +81951,7 @@
     </x:row>
     <x:row r="2504" spans="1:10">
       <x:c r="A2504" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2504" s="0" t="s">
         <x:v>37</x:v>
@@ -81974,7 +81983,7 @@
     </x:row>
     <x:row r="2505" spans="1:10">
       <x:c r="A2505" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2505" s="0" t="s">
         <x:v>37</x:v>
@@ -82006,7 +82015,7 @@
     </x:row>
     <x:row r="2506" spans="1:10">
       <x:c r="A2506" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2506" s="0" t="s">
         <x:v>38</x:v>
@@ -82038,7 +82047,7 @@
     </x:row>
     <x:row r="2507" spans="1:10">
       <x:c r="A2507" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2507" s="0" t="s">
         <x:v>38</x:v>
@@ -82070,7 +82079,7 @@
     </x:row>
     <x:row r="2508" spans="1:10">
       <x:c r="A2508" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2508" s="0" t="s">
         <x:v>38</x:v>
@@ -82102,7 +82111,7 @@
     </x:row>
     <x:row r="2509" spans="1:10">
       <x:c r="A2509" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2509" s="0" t="s">
         <x:v>39</x:v>
@@ -82134,7 +82143,7 @@
     </x:row>
     <x:row r="2510" spans="1:10">
       <x:c r="A2510" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2510" s="0" t="s">
         <x:v>39</x:v>
@@ -82166,7 +82175,7 @@
     </x:row>
     <x:row r="2511" spans="1:10">
       <x:c r="A2511" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2511" s="0" t="s">
         <x:v>41</x:v>
@@ -82198,7 +82207,7 @@
     </x:row>
     <x:row r="2512" spans="1:10">
       <x:c r="A2512" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B2512" s="0" t="s">
         <x:v>41</x:v>
@@ -82230,7 +82239,7 @@
     </x:row>
     <x:row r="2513" spans="1:10">
       <x:c r="A2513" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2513" s="0" t="s">
         <x:v>43</x:v>
@@ -82262,7 +82271,7 @@
     </x:row>
     <x:row r="2514" spans="1:10">
       <x:c r="A2514" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2514" s="0" t="s">
         <x:v>43</x:v>
@@ -82294,7 +82303,7 @@
     </x:row>
     <x:row r="2515" spans="1:10">
       <x:c r="A2515" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2515" s="0" t="s">
         <x:v>43</x:v>
@@ -82326,7 +82335,7 @@
     </x:row>
     <x:row r="2516" spans="1:10">
       <x:c r="A2516" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2516" s="0" t="s">
         <x:v>44</x:v>
@@ -82358,7 +82367,7 @@
     </x:row>
     <x:row r="2517" spans="1:10">
       <x:c r="A2517" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2517" s="0" t="s">
         <x:v>44</x:v>
@@ -82390,7 +82399,7 @@
     </x:row>
     <x:row r="2518" spans="1:10">
       <x:c r="A2518" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2518" s="0" t="s">
         <x:v>44</x:v>
@@ -82422,7 +82431,7 @@
     </x:row>
     <x:row r="2519" spans="1:10">
       <x:c r="A2519" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2519" s="0" t="s">
         <x:v>11</x:v>
@@ -82454,7 +82463,7 @@
     </x:row>
     <x:row r="2520" spans="1:10">
       <x:c r="A2520" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2520" s="0" t="s">
         <x:v>11</x:v>
@@ -82481,12 +82490,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2520" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="2521" spans="1:10">
       <x:c r="A2521" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2521" s="0" t="s">
         <x:v>11</x:v>
@@ -82518,7 +82527,7 @@
     </x:row>
     <x:row r="2522" spans="1:10">
       <x:c r="A2522" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2522" s="0" t="s">
         <x:v>26</x:v>
@@ -82550,7 +82559,7 @@
     </x:row>
     <x:row r="2523" spans="1:10">
       <x:c r="A2523" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2523" s="0" t="s">
         <x:v>26</x:v>
@@ -82582,7 +82591,7 @@
     </x:row>
     <x:row r="2524" spans="1:10">
       <x:c r="A2524" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2524" s="0" t="s">
         <x:v>28</x:v>
@@ -82614,7 +82623,7 @@
     </x:row>
     <x:row r="2525" spans="1:10">
       <x:c r="A2525" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2525" s="0" t="s">
         <x:v>28</x:v>
@@ -82646,7 +82655,7 @@
     </x:row>
     <x:row r="2526" spans="1:10">
       <x:c r="A2526" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2526" s="0" t="s">
         <x:v>28</x:v>
@@ -82678,7 +82687,7 @@
     </x:row>
     <x:row r="2527" spans="1:10">
       <x:c r="A2527" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2527" s="0" t="s">
         <x:v>30</x:v>
@@ -82710,7 +82719,7 @@
     </x:row>
     <x:row r="2528" spans="1:10">
       <x:c r="A2528" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2528" s="0" t="s">
         <x:v>30</x:v>
@@ -82742,7 +82751,7 @@
     </x:row>
     <x:row r="2529" spans="1:10">
       <x:c r="A2529" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2529" s="0" t="s">
         <x:v>30</x:v>
@@ -82774,7 +82783,7 @@
     </x:row>
     <x:row r="2530" spans="1:10">
       <x:c r="A2530" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2530" s="0" t="s">
         <x:v>31</x:v>
@@ -82806,7 +82815,7 @@
     </x:row>
     <x:row r="2531" spans="1:10">
       <x:c r="A2531" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2531" s="0" t="s">
         <x:v>31</x:v>
@@ -82838,7 +82847,7 @@
     </x:row>
     <x:row r="2532" spans="1:10">
       <x:c r="A2532" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2532" s="0" t="s">
         <x:v>31</x:v>
@@ -82870,7 +82879,7 @@
     </x:row>
     <x:row r="2533" spans="1:10">
       <x:c r="A2533" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2533" s="0" t="s">
         <x:v>142</x:v>
@@ -82902,7 +82911,7 @@
     </x:row>
     <x:row r="2534" spans="1:10">
       <x:c r="A2534" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2534" s="0" t="s">
         <x:v>142</x:v>
@@ -82934,7 +82943,7 @@
     </x:row>
     <x:row r="2535" spans="1:10">
       <x:c r="A2535" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2535" s="0" t="s">
         <x:v>85</x:v>
@@ -82966,7 +82975,7 @@
     </x:row>
     <x:row r="2536" spans="1:10">
       <x:c r="A2536" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2536" s="0" t="s">
         <x:v>85</x:v>
@@ -82998,7 +83007,7 @@
     </x:row>
     <x:row r="2537" spans="1:10">
       <x:c r="A2537" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2537" s="0" t="s">
         <x:v>85</x:v>
@@ -83030,7 +83039,7 @@
     </x:row>
     <x:row r="2538" spans="1:10">
       <x:c r="A2538" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2538" s="0" t="s">
         <x:v>96</x:v>
@@ -83062,7 +83071,7 @@
     </x:row>
     <x:row r="2539" spans="1:10">
       <x:c r="A2539" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2539" s="0" t="s">
         <x:v>96</x:v>
@@ -83094,7 +83103,7 @@
     </x:row>
     <x:row r="2540" spans="1:10">
       <x:c r="A2540" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2540" s="0" t="s">
         <x:v>98</x:v>
@@ -83126,7 +83135,7 @@
     </x:row>
     <x:row r="2541" spans="1:10">
       <x:c r="A2541" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2541" s="0" t="s">
         <x:v>98</x:v>
@@ -83158,7 +83167,7 @@
     </x:row>
     <x:row r="2542" spans="1:10">
       <x:c r="A2542" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2542" s="0" t="s">
         <x:v>37</x:v>
@@ -83190,7 +83199,7 @@
     </x:row>
     <x:row r="2543" spans="1:10">
       <x:c r="A2543" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2543" s="0" t="s">
         <x:v>37</x:v>
@@ -83222,7 +83231,7 @@
     </x:row>
     <x:row r="2544" spans="1:10">
       <x:c r="A2544" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2544" s="0" t="s">
         <x:v>37</x:v>
@@ -83249,12 +83258,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2544" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="2545" spans="1:10">
       <x:c r="A2545" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2545" s="0" t="s">
         <x:v>38</x:v>
@@ -83286,7 +83295,7 @@
     </x:row>
     <x:row r="2546" spans="1:10">
       <x:c r="A2546" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2546" s="0" t="s">
         <x:v>38</x:v>
@@ -83318,7 +83327,7 @@
     </x:row>
     <x:row r="2547" spans="1:10">
       <x:c r="A2547" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2547" s="0" t="s">
         <x:v>118</x:v>
@@ -83350,7 +83359,7 @@
     </x:row>
     <x:row r="2548" spans="1:10">
       <x:c r="A2548" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2548" s="0" t="s">
         <x:v>118</x:v>
@@ -83382,7 +83391,7 @@
     </x:row>
     <x:row r="2549" spans="1:10">
       <x:c r="A2549" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2549" s="0" t="s">
         <x:v>119</x:v>
@@ -83414,7 +83423,7 @@
     </x:row>
     <x:row r="2550" spans="1:10">
       <x:c r="A2550" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2550" s="0" t="s">
         <x:v>119</x:v>
@@ -83446,7 +83455,7 @@
     </x:row>
     <x:row r="2551" spans="1:10">
       <x:c r="A2551" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2551" s="0" t="s">
         <x:v>39</x:v>
@@ -83478,7 +83487,7 @@
     </x:row>
     <x:row r="2552" spans="1:10">
       <x:c r="A2552" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2552" s="0" t="s">
         <x:v>39</x:v>
@@ -83510,7 +83519,7 @@
     </x:row>
     <x:row r="2553" spans="1:10">
       <x:c r="A2553" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2553" s="0" t="s">
         <x:v>39</x:v>
@@ -83542,7 +83551,7 @@
     </x:row>
     <x:row r="2554" spans="1:10">
       <x:c r="A2554" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2554" s="0" t="s">
         <x:v>40</x:v>
@@ -83574,7 +83583,7 @@
     </x:row>
     <x:row r="2555" spans="1:10">
       <x:c r="A2555" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2555" s="0" t="s">
         <x:v>40</x:v>
@@ -83606,7 +83615,7 @@
     </x:row>
     <x:row r="2556" spans="1:10">
       <x:c r="A2556" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2556" s="0" t="s">
         <x:v>40</x:v>
@@ -83638,7 +83647,7 @@
     </x:row>
     <x:row r="2557" spans="1:10">
       <x:c r="A2557" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2557" s="0" t="s">
         <x:v>41</x:v>
@@ -83670,7 +83679,7 @@
     </x:row>
     <x:row r="2558" spans="1:10">
       <x:c r="A2558" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B2558" s="0" t="s">
         <x:v>41</x:v>
@@ -83702,7 +83711,7 @@
     </x:row>
     <x:row r="2559" spans="1:10">
       <x:c r="A2559" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2559" s="0" t="s">
         <x:v>43</x:v>
@@ -83734,7 +83743,7 @@
     </x:row>
     <x:row r="2560" spans="1:10">
       <x:c r="A2560" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2560" s="0" t="s">
         <x:v>43</x:v>
@@ -83766,7 +83775,7 @@
     </x:row>
     <x:row r="2561" spans="1:10">
       <x:c r="A2561" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2561" s="0" t="s">
         <x:v>43</x:v>
@@ -83798,7 +83807,7 @@
     </x:row>
     <x:row r="2562" spans="1:10">
       <x:c r="A2562" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2562" s="0" t="s">
         <x:v>44</x:v>
@@ -83830,7 +83839,7 @@
     </x:row>
     <x:row r="2563" spans="1:10">
       <x:c r="A2563" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2563" s="0" t="s">
         <x:v>44</x:v>
@@ -83862,7 +83871,7 @@
     </x:row>
     <x:row r="2564" spans="1:10">
       <x:c r="A2564" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2564" s="0" t="s">
         <x:v>11</x:v>
@@ -83894,7 +83903,7 @@
     </x:row>
     <x:row r="2565" spans="1:10">
       <x:c r="A2565" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2565" s="0" t="s">
         <x:v>11</x:v>
@@ -83926,7 +83935,7 @@
     </x:row>
     <x:row r="2566" spans="1:10">
       <x:c r="A2566" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2566" s="0" t="s">
         <x:v>11</x:v>
@@ -83944,7 +83953,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="G2566" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="H2566" s="1" t="s">
         <x:v>69</x:v>
@@ -83953,12 +83962,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2566" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>479</x:v>
       </x:c>
     </x:row>
     <x:row r="2567" spans="1:10">
       <x:c r="A2567" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2567" s="0" t="s">
         <x:v>26</x:v>
@@ -83990,7 +83999,7 @@
     </x:row>
     <x:row r="2568" spans="1:10">
       <x:c r="A2568" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2568" s="0" t="s">
         <x:v>26</x:v>
@@ -84022,7 +84031,7 @@
     </x:row>
     <x:row r="2569" spans="1:10">
       <x:c r="A2569" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2569" s="0" t="s">
         <x:v>26</x:v>
@@ -84054,7 +84063,7 @@
     </x:row>
     <x:row r="2570" spans="1:10">
       <x:c r="A2570" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2570" s="0" t="s">
         <x:v>28</x:v>
@@ -84086,7 +84095,7 @@
     </x:row>
     <x:row r="2571" spans="1:10">
       <x:c r="A2571" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2571" s="0" t="s">
         <x:v>28</x:v>
@@ -84118,7 +84127,7 @@
     </x:row>
     <x:row r="2572" spans="1:10">
       <x:c r="A2572" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2572" s="0" t="s">
         <x:v>28</x:v>
@@ -84150,7 +84159,7 @@
     </x:row>
     <x:row r="2573" spans="1:10">
       <x:c r="A2573" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2573" s="0" t="s">
         <x:v>30</x:v>
@@ -84182,7 +84191,7 @@
     </x:row>
     <x:row r="2574" spans="1:10">
       <x:c r="A2574" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2574" s="0" t="s">
         <x:v>30</x:v>
@@ -84214,7 +84223,7 @@
     </x:row>
     <x:row r="2575" spans="1:10">
       <x:c r="A2575" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2575" s="0" t="s">
         <x:v>30</x:v>
@@ -84246,7 +84255,7 @@
     </x:row>
     <x:row r="2576" spans="1:10">
       <x:c r="A2576" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2576" s="0" t="s">
         <x:v>31</x:v>
@@ -84278,7 +84287,7 @@
     </x:row>
     <x:row r="2577" spans="1:10">
       <x:c r="A2577" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2577" s="0" t="s">
         <x:v>31</x:v>
@@ -84310,7 +84319,7 @@
     </x:row>
     <x:row r="2578" spans="1:10">
       <x:c r="A2578" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2578" s="0" t="s">
         <x:v>31</x:v>
@@ -84337,12 +84346,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2578" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>480</x:v>
       </x:c>
     </x:row>
     <x:row r="2579" spans="1:10">
       <x:c r="A2579" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2579" s="0" t="s">
         <x:v>85</x:v>
@@ -84374,7 +84383,7 @@
     </x:row>
     <x:row r="2580" spans="1:10">
       <x:c r="A2580" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2580" s="0" t="s">
         <x:v>85</x:v>
@@ -84406,7 +84415,7 @@
     </x:row>
     <x:row r="2581" spans="1:10">
       <x:c r="A2581" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2581" s="0" t="s">
         <x:v>85</x:v>
@@ -84438,7 +84447,7 @@
     </x:row>
     <x:row r="2582" spans="1:10">
       <x:c r="A2582" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2582" s="0" t="s">
         <x:v>96</x:v>
@@ -84470,7 +84479,7 @@
     </x:row>
     <x:row r="2583" spans="1:10">
       <x:c r="A2583" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2583" s="0" t="s">
         <x:v>96</x:v>
@@ -84502,7 +84511,7 @@
     </x:row>
     <x:row r="2584" spans="1:10">
       <x:c r="A2584" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2584" s="0" t="s">
         <x:v>37</x:v>
@@ -84534,7 +84543,7 @@
     </x:row>
     <x:row r="2585" spans="1:10">
       <x:c r="A2585" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2585" s="0" t="s">
         <x:v>37</x:v>
@@ -84561,12 +84570,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2585" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="2586" spans="1:10">
       <x:c r="A2586" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2586" s="0" t="s">
         <x:v>37</x:v>
@@ -84593,12 +84602,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J2586" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="2587" spans="1:10">
       <x:c r="A2587" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2587" s="0" t="s">
         <x:v>38</x:v>
@@ -84630,7 +84639,7 @@
     </x:row>
     <x:row r="2588" spans="1:10">
       <x:c r="A2588" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2588" s="0" t="s">
         <x:v>38</x:v>
@@ -84662,7 +84671,7 @@
     </x:row>
     <x:row r="2589" spans="1:10">
       <x:c r="A2589" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2589" s="0" t="s">
         <x:v>118</x:v>
@@ -84694,7 +84703,7 @@
     </x:row>
     <x:row r="2590" spans="1:10">
       <x:c r="A2590" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2590" s="0" t="s">
         <x:v>118</x:v>
@@ -84726,7 +84735,7 @@
     </x:row>
     <x:row r="2591" spans="1:10">
       <x:c r="A2591" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2591" s="0" t="s">
         <x:v>119</x:v>
@@ -84758,7 +84767,7 @@
     </x:row>
     <x:row r="2592" spans="1:10">
       <x:c r="A2592" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2592" s="0" t="s">
         <x:v>119</x:v>
@@ -84790,7 +84799,7 @@
     </x:row>
     <x:row r="2593" spans="1:10">
       <x:c r="A2593" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2593" s="0" t="s">
         <x:v>119</x:v>
@@ -84822,7 +84831,7 @@
     </x:row>
     <x:row r="2594" spans="1:10">
       <x:c r="A2594" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2594" s="0" t="s">
         <x:v>39</x:v>
@@ -84854,7 +84863,7 @@
     </x:row>
     <x:row r="2595" spans="1:10">
       <x:c r="A2595" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2595" s="0" t="s">
         <x:v>39</x:v>
@@ -84886,7 +84895,7 @@
     </x:row>
     <x:row r="2596" spans="1:10">
       <x:c r="A2596" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2596" s="0" t="s">
         <x:v>40</x:v>
@@ -84918,7 +84927,7 @@
     </x:row>
     <x:row r="2597" spans="1:10">
       <x:c r="A2597" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2597" s="0" t="s">
         <x:v>40</x:v>
@@ -84950,7 +84959,7 @@
     </x:row>
     <x:row r="2598" spans="1:10">
       <x:c r="A2598" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2598" s="0" t="s">
         <x:v>40</x:v>
@@ -84982,7 +84991,7 @@
     </x:row>
     <x:row r="2599" spans="1:10">
       <x:c r="A2599" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2599" s="0" t="s">
         <x:v>41</x:v>
@@ -85014,7 +85023,7 @@
     </x:row>
     <x:row r="2600" spans="1:10">
       <x:c r="A2600" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2600" s="0" t="s">
         <x:v>41</x:v>
@@ -85046,7 +85055,7 @@
     </x:row>
     <x:row r="2601" spans="1:10">
       <x:c r="A2601" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B2601" s="0" t="s">
         <x:v>41</x:v>
@@ -85078,7 +85087,7 @@
     </x:row>
     <x:row r="2602" spans="1:10">
       <x:c r="A2602" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2602" s="0" t="s">
         <x:v>43</x:v>
@@ -85110,7 +85119,7 @@
     </x:row>
     <x:row r="2603" spans="1:10">
       <x:c r="A2603" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2603" s="0" t="s">
         <x:v>43</x:v>
@@ -85142,7 +85151,7 @@
     </x:row>
     <x:row r="2604" spans="1:10">
       <x:c r="A2604" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2604" s="0" t="s">
         <x:v>11</x:v>
@@ -85174,7 +85183,7 @@
     </x:row>
     <x:row r="2605" spans="1:10">
       <x:c r="A2605" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2605" s="0" t="s">
         <x:v>11</x:v>
@@ -85206,7 +85215,7 @@
     </x:row>
     <x:row r="2606" spans="1:10">
       <x:c r="A2606" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2606" s="0" t="s">
         <x:v>11</x:v>
@@ -85238,7 +85247,7 @@
     </x:row>
     <x:row r="2607" spans="1:10">
       <x:c r="A2607" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2607" s="0" t="s">
         <x:v>26</x:v>
@@ -85270,7 +85279,7 @@
     </x:row>
     <x:row r="2608" spans="1:10">
       <x:c r="A2608" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2608" s="0" t="s">
         <x:v>26</x:v>
@@ -85302,7 +85311,7 @@
     </x:row>
     <x:row r="2609" spans="1:10">
       <x:c r="A2609" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2609" s="0" t="s">
         <x:v>26</x:v>
@@ -85334,7 +85343,7 @@
     </x:row>
     <x:row r="2610" spans="1:10">
       <x:c r="A2610" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2610" s="0" t="s">
         <x:v>28</x:v>
@@ -85366,7 +85375,7 @@
     </x:row>
     <x:row r="2611" spans="1:10">
       <x:c r="A2611" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2611" s="0" t="s">
         <x:v>28</x:v>
@@ -85398,7 +85407,7 @@
     </x:row>
     <x:row r="2612" spans="1:10">
       <x:c r="A2612" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2612" s="0" t="s">
         <x:v>30</x:v>
@@ -85430,7 +85439,7 @@
     </x:row>
     <x:row r="2613" spans="1:10">
       <x:c r="A2613" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2613" s="0" t="s">
         <x:v>30</x:v>
@@ -85462,7 +85471,7 @@
     </x:row>
     <x:row r="2614" spans="1:10">
       <x:c r="A2614" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2614" s="0" t="s">
         <x:v>31</x:v>
@@ -85494,7 +85503,7 @@
     </x:row>
     <x:row r="2615" spans="1:10">
       <x:c r="A2615" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2615" s="0" t="s">
         <x:v>31</x:v>
@@ -85526,7 +85535,7 @@
     </x:row>
     <x:row r="2616" spans="1:10">
       <x:c r="A2616" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2616" s="0" t="s">
         <x:v>31</x:v>
@@ -85558,7 +85567,7 @@
     </x:row>
     <x:row r="2617" spans="1:10">
       <x:c r="A2617" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2617" s="0" t="s">
         <x:v>98</x:v>
@@ -85590,7 +85599,7 @@
     </x:row>
     <x:row r="2618" spans="1:10">
       <x:c r="A2618" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2618" s="0" t="s">
         <x:v>98</x:v>
@@ -85622,7 +85631,7 @@
     </x:row>
     <x:row r="2619" spans="1:10">
       <x:c r="A2619" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2619" s="0" t="s">
         <x:v>37</x:v>
@@ -85654,7 +85663,7 @@
     </x:row>
     <x:row r="2620" spans="1:10">
       <x:c r="A2620" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2620" s="0" t="s">
         <x:v>37</x:v>
@@ -85686,7 +85695,7 @@
     </x:row>
     <x:row r="2621" spans="1:10">
       <x:c r="A2621" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2621" s="0" t="s">
         <x:v>37</x:v>
@@ -85718,7 +85727,7 @@
     </x:row>
     <x:row r="2622" spans="1:10">
       <x:c r="A2622" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2622" s="0" t="s">
         <x:v>38</x:v>
@@ -85750,7 +85759,7 @@
     </x:row>
     <x:row r="2623" spans="1:10">
       <x:c r="A2623" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2623" s="0" t="s">
         <x:v>38</x:v>
@@ -85782,7 +85791,7 @@
     </x:row>
     <x:row r="2624" spans="1:10">
       <x:c r="A2624" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2624" s="0" t="s">
         <x:v>38</x:v>
@@ -85814,7 +85823,7 @@
     </x:row>
     <x:row r="2625" spans="1:10">
       <x:c r="A2625" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2625" s="0" t="s">
         <x:v>118</x:v>
@@ -85846,7 +85855,7 @@
     </x:row>
     <x:row r="2626" spans="1:10">
       <x:c r="A2626" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2626" s="0" t="s">
         <x:v>118</x:v>
@@ -85878,7 +85887,7 @@
     </x:row>
     <x:row r="2627" spans="1:10">
       <x:c r="A2627" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2627" s="0" t="s">
         <x:v>39</x:v>
@@ -85910,7 +85919,7 @@
     </x:row>
     <x:row r="2628" spans="1:10">
       <x:c r="A2628" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2628" s="0" t="s">
         <x:v>39</x:v>
@@ -85942,7 +85951,7 @@
     </x:row>
     <x:row r="2629" spans="1:10">
       <x:c r="A2629" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2629" s="0" t="s">
         <x:v>40</x:v>
@@ -85974,7 +85983,7 @@
     </x:row>
     <x:row r="2630" spans="1:10">
       <x:c r="A2630" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2630" s="0" t="s">
         <x:v>40</x:v>
@@ -86006,7 +86015,7 @@
     </x:row>
     <x:row r="2631" spans="1:10">
       <x:c r="A2631" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2631" s="0" t="s">
         <x:v>41</x:v>
@@ -86038,7 +86047,7 @@
     </x:row>
     <x:row r="2632" spans="1:10">
       <x:c r="A2632" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B2632" s="0" t="s">
         <x:v>41</x:v>
